--- a/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="323">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -336,6 +336,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">25/05/2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">2025-05-25T10:59:03.508+02:00</t>
   </si>
   <si>
@@ -413,12 +416,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">"2025-05-25T11:08:01.353+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">203ee858886b070fb6576dded3aa2734</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_RSA_TIMEOUT</t>
   </si>
   <si>
@@ -434,13 +431,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-24T22:45:20.187+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">709b440b97a2546d8ccc9947021d31b6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21684011138832921504405eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cb7736da477c^^^^urn</t>
+    <t xml:space="preserve">28/05/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-28T20:18:09.966+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40dcd6b716781bcb92a247f5c3005c18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21684011138832921504405eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cb828f564bf6^^^^urn</t>
   </si>
   <si>
     <t xml:space="preserve">OK</t>
@@ -454,13 +454,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-24T22:45:21.265+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28bbd6197393999898abba299bd43433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e1d2e5695a7^^^^urn</t>
+    <t xml:space="preserve">2025-05-28T20:18:10.979+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eed362311ddc4726820685a66963ea4e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36ef42df39955^^^^urn</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT3</t>
@@ -471,13 +471,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-24T22:45:22.319+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a580c403045dbc8c03ae7f5bf4f47a86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">216840111388329215044d81ef4d0d537cf1c28dae3b35c50edb2d0aca6040f4bdaeb69553c0d0e6cc2f689cbe48944^^^^urn</t>
+    <t xml:space="preserve">2025-05-28T20:18:12.016+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a9c6bb4469fd8248648ab9fb313b32c2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216840111388329215044d81ef4d0d537cf1c28dae3b35c50edb2d0aca6040f4bdaeb69553c0d0e6cc2f64b254f0099^^^^urn</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT4</t>
@@ -488,13 +488,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-24T22:45:23.379+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e5380b5c0d63c579098d816b0bdeacf7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e156aa9c1a4^^^^urn</t>
+    <t xml:space="preserve">2025-05-28T20:18:13.081+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6da4f3a9ad816a663f7cbc84d5fab63e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e8b8e61e3bf^^^^urn</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT5_KO</t>
@@ -504,13 +504,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-24T22:45:24.398+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8c2b41ee39897919384cd67378fe4796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e43ebbc71d8^^^^urn</t>
+    <t xml:space="preserve">2025-05-28T20:18:14.060+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160e421ab067bf803228800fefe9c62f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e58d501997a^^^^urn</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT6_KO</t>
@@ -520,13 +520,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-24T22:45:25.339+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53809d73590071c36b77d08966ca3f25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21684011138832921504405eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cbf695751c60^^^^urn</t>
+    <t xml:space="preserve">2025-05-28T20:18:14.986+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8107ff89bbb497f9e579c73abd205d36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21684011138832921504405eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cb0b245f6c85^^^^urn</t>
   </si>
   <si>
     <t xml:space="preserve">Il codice fiscale viene sanificato in fase di accettazione, quindi puo’ essere  solo maiuscolo</t>
@@ -539,13 +539,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-24T22:45:26.357+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fe0d24b2f24eb2f968b47bb1b60e2ffe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21684011138832921504405eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cbea5ade9cfb^^^^urn</t>
+    <t xml:space="preserve">2025-05-28T20:18:15.986+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">187643bc5f132a2b01e4b37e11283bec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21684011138832921504405eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cbd93b7c1d0b^^^^urn</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT8_KO</t>
@@ -555,13 +555,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-24T22:45:27.357+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2702c0df6920b6b2302b6e6d7dd68dc8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21684011138832921504405eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cb6f7b065ace^^^^urn</t>
+    <t xml:space="preserve">2025-05-28T20:18:17.010+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfe6d337bdd96c4c1aa8039962c0f109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21684011138832921504405eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cb9240e37946^^^^urn</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT9_KO</t>
@@ -571,13 +571,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-24T22:45:28.330+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">efa6bdd5b74048aa017c1c2adf28140d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21684011138832921504405eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cb7cb4e8d57a^^^^urn</t>
+    <t xml:space="preserve">2025-05-28T20:18:18.015+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f40dfcfb323dcbed697b474f96759acd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21684011138832921504405eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cb04923be17c^^^^urn</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT10_KO</t>
@@ -587,13 +587,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-24T22:45:29.335+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1b2eca4a432889846a345d15f2fe7008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e7404c1064e^^^^urn</t>
+    <t xml:space="preserve">2025-05-28T20:18:19.058+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bb8e28cff52573e0266581459c7bd066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36eb2aa68f8bf^^^^urn</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT11_KO</t>
@@ -603,13 +603,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-24T22:45:30.375+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f6b4148df75e578f92154d3982a7fb98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36ec9a554e150^^^^urn</t>
+    <t xml:space="preserve">2025-05-28T20:18:20.057+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43abb5dcbe607f5169eca935de075caa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36eb8c523e8cd^^^^urn</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT12_KO</t>
@@ -619,13 +619,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-24T22:45:31.368+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9171daed11ed7d866b88dec0481f4fe7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e69174559f1^^^^urn</t>
+    <t xml:space="preserve">2025-05-28T20:18:21.088+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21f2ff4d89067b6643511e661df19109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e7ae0746d1b^^^^urn</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT13_KO</t>
@@ -635,13 +635,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-24T22:45:32.377+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61514f20588867a375983da9c2c8ae2d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e8dfe3bc7d1^^^^urn</t>
+    <t xml:space="preserve">2025-05-28T20:18:22.067+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b3d488538e86e81362d28ed40bdbc7fd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e4011c8a45e^^^^urn</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT14_KO</t>
@@ -651,13 +651,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-24T22:45:33.375+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dc6934adae1f2c5fb27604a73006a836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36eece77ba86b^^^^urn</t>
+    <t xml:space="preserve">2025-05-28T20:18:23.121+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26759b8979b212b3764dd31216e4b0d9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e572578163e^^^^urn</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT15_KO</t>
@@ -667,13 +667,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-24T22:45:34.399+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">083840b66d576791b8c0286a74dcb279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21684011138832921504405eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cbe18bb595f1^^^^urn</t>
+    <t xml:space="preserve">2025-05-28T20:18:24.085+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e1f43669eb0bd6e40f9caf105f7f1cc8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21684011138832921504405eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cb4eb3d83958^^^^urn</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT16_KO</t>
@@ -683,13 +683,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-24T22:45:35.384+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07fd7ca18bfecb7941cedc01289c6823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21684011138832921504405eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cbc228797472^^^^urn</t>
+    <t xml:space="preserve">2025-05-28T20:18:25.071+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">358a6ae7da6f17c6b4d108b2026ce8f5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21684011138832921504405eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cb4a58f969f0^^^^urn</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT17_KO</t>
@@ -699,13 +699,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-24T22:45:36.397+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0f942ea6bfd35108ec6d4ed4c3fa502f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e9faa05d3bc^^^^urn</t>
+    <t xml:space="preserve">2025-05-28T20:18:26.127+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5d05ecb2ab292167232b8bfebe40b1d3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e2567e8b762^^^^urn</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT18_KO</t>
@@ -715,13 +715,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-24T22:45:37.435+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71a03d54f182510b0feb90d7748efd58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e170bb48519^^^^urn</t>
+    <t xml:space="preserve">2025-05-28T20:18:27.141+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">440bdef41ce30da8810d691dab3bb7ab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36ead15c7e812^^^^urn</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT19_KO</t>
@@ -731,13 +731,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-24T22:45:38.500+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ce1601a1eb7da4d509d11f3f7c313122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e8d607253d9^^^^urn</t>
+    <t xml:space="preserve">2025-05-28T20:18:28.122+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fc47f16ae77a8b5619c59b2cd9dae837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e26353edb56^^^^urn</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT20_KO</t>
@@ -747,13 +747,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-24T22:45:39.378+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78e8b17ef03124d84a2fa6420291074b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e97e8e380cb^^^^urn</t>
+    <t xml:space="preserve">2025-05-28T20:18:29.137+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c3716eac631c4eb2cb2a3f8bfc8891ed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e49a55ee625^^^^urn</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT21_KO</t>
@@ -763,13 +763,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-24T22:45:40.383+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9d095bb452f0bda65592fe128a289a80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36ecf7074312a^^^^urn</t>
+    <t xml:space="preserve">2025-05-28T20:18:30.179+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">232db96539211ce4ae6d50add8c15680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36ef8f6c863e0^^^^urn</t>
   </si>
   <si>
     <t xml:space="preserve">Referto salvato come da reinviare</t>
@@ -782,13 +782,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-24T22:45:41.376+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19eb30815767336940fe1f2824552eb9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21684011138832921504405eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cbcb2c93c30c^^^^urn</t>
+    <t xml:space="preserve">2025-05-28T20:18:31.165+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">372accee4b555bd0594696f18eb0f2b1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21684011138832921504405eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cbd5b01356b5^^^^urn</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT23_KO</t>
@@ -798,13 +798,31 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-24T22:45:42.356+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1c1089f531205836690a24c2bd43773d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21684011138832921504405eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cb69018d167f^^^^urn</t>
+    <t xml:space="preserve">2025-05-28T20:18:32.141+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cc42de9a67b6f552838edc08accd5e0b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21684011138832921504405eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cb541e3f6f45^^^^urn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-28T20:18:33.106+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c823f707e5c5abe743fe58023615f916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2168401113883292150444a0d6c9ee3f4b7fdc1ce39bd9e07dcf813146f4973364164b5004963a2f19121dca9454173^^^^urn</t>
   </si>
   <si>
     <t xml:space="preserve">LAB</t>
@@ -1214,6 +1232,60 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34fa.26ae0267be^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_TRASF_CT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST- OK" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-28T19:39:15.780+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8d0bbd837e7674cf0646628ee3bae207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.603fe7510a741e2a7f48d448e064e7a00b61ce4fd1737cec7b51e28f46c932c5.df9a7ffd67^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-28T19:39:41.281+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0ecb41632b2b004f951489e6ddf4270f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.f70061b6fb62760a6a7d3faf794cb69e984a096f6125de05271a7365475e1d58.13de36f1cb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_TRASF_CT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST OK - HLA" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-28T19:39:32.527+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ee29ea24f89d1dde1284326ef791a77e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.eb7a519691317da16d4c42161f82ef7bb02f924e49c69dbfa7603f1b0bb992e5.0dd589722b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">Razionale di Applicabilità</t>
   </si>
   <si>
@@ -1354,7 +1426,7 @@
     <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1547,6 +1619,20 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -2125,7 +2211,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="76">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2274,10 +2360,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2290,6 +2372,46 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2330,11 +2452,47 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2627,7 +2785,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="206" zoomScaleNormal="206" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="I:I A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2714,7 +2872,7 @@
   <dimension ref="A1:B996"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="1" sqref="I:I B15"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3791,23 +3949,23 @@
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I52" activeCellId="0" sqref="I:I"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
+      <selection pane="bottomRight" activeCell="A56" activeCellId="0" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="63.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="104.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="31.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="33.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="48.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="149.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="48.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="98.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="27.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="11" style="1" width="36.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="27.1"/>
@@ -4100,51 +4258,50 @@
       <c r="E10" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="30" t="n">
-        <v>45801</v>
+      <c r="F10" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
       <c r="M10" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N10" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O10" s="33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R10" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S10" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T10" s="33"/>
       <c r="U10" s="34"/>
       <c r="V10" s="35"/>
       <c r="W10" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA10" s="38"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="11" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="27" t="n">
@@ -4157,56 +4314,51 @@
         <v>48</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="30" t="n">
-        <v>45801</v>
-      </c>
-      <c r="G11" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="32" t="s">
-        <v>62</v>
-      </c>
+      <c r="F11" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
       <c r="I11" s="32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K11" s="33"/>
       <c r="L11" s="33"/>
       <c r="M11" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N11" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O11" s="33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P11" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q11" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R11" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S11" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T11" s="33"/>
       <c r="U11" s="34"/>
       <c r="V11" s="35"/>
       <c r="W11" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA11" s="38"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="12" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="27" t="n">
@@ -4219,50 +4371,49 @@
         <v>48</v>
       </c>
       <c r="D12" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="30" t="n">
-        <v>45801</v>
+      <c r="F12" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="G12" s="31"/>
       <c r="H12" s="32"/>
       <c r="I12" s="32"/>
       <c r="J12" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K12" s="33"/>
       <c r="L12" s="33"/>
       <c r="M12" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N12" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O12" s="33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q12" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R12" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S12" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T12" s="33"/>
       <c r="U12" s="34"/>
       <c r="V12" s="35"/>
       <c r="W12" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA12" s="38"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="13" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="27" t="n">
@@ -4275,13 +4426,13 @@
         <v>48</v>
       </c>
       <c r="D13" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="F13" s="30" t="s">
         <v>66</v>
-      </c>
-      <c r="F13" s="30" t="n">
-        <v>45801</v>
       </c>
       <c r="G13" s="32" t="s">
         <v>67</v>
@@ -4293,7 +4444,7 @@
         <v>69</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
@@ -4310,7 +4461,6 @@
       <c r="W13" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="AA13" s="38"/>
     </row>
     <row r="14" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="27" t="n">
@@ -4325,11 +4475,11 @@
       <c r="D14" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="30" t="n">
-        <v>45801</v>
+      <c r="F14" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="G14" s="32" t="s">
         <v>73</v>
@@ -4341,7 +4491,7 @@
         <v>75</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K14" s="33"/>
       <c r="L14" s="33"/>
@@ -4358,7 +4508,6 @@
       <c r="W14" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="AA14" s="38"/>
     </row>
     <row r="15" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="27" t="n">
@@ -4373,11 +4522,11 @@
       <c r="D15" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="30" t="n">
-        <v>45801</v>
+      <c r="F15" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="G15" s="32" t="s">
         <v>78</v>
@@ -4389,7 +4538,7 @@
         <v>80</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K15" s="33"/>
       <c r="L15" s="33"/>
@@ -4406,7 +4555,6 @@
       <c r="W15" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="AA15" s="38"/>
     </row>
     <row r="16" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="27" t="n">
@@ -4421,11 +4569,11 @@
       <c r="D16" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="30" t="n">
-        <v>45801</v>
+      <c r="F16" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="G16" s="32" t="s">
         <v>83</v>
@@ -4437,7 +4585,7 @@
         <v>85</v>
       </c>
       <c r="J16" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K16" s="33"/>
       <c r="L16" s="33"/>
@@ -4454,7 +4602,6 @@
       <c r="W16" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="AA16" s="38"/>
     </row>
     <row r="17" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="27" t="n">
@@ -4469,11 +4616,11 @@
       <c r="D17" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="30" t="n">
-        <v>45801</v>
+      <c r="F17" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="G17" s="32" t="s">
         <v>88</v>
@@ -4485,36 +4632,35 @@
         <v>90</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K17" s="33"/>
       <c r="L17" s="33"/>
       <c r="M17" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N17" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O17" s="33"/>
       <c r="P17" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R17" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S17" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T17" s="33"/>
       <c r="U17" s="34"/>
       <c r="V17" s="35"/>
       <c r="W17" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA17" s="38"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="18" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="27" t="n">
@@ -4529,11 +4675,11 @@
       <c r="D18" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="F18" s="30" t="n">
-        <v>45801</v>
+      <c r="F18" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="G18" s="32" t="s">
         <v>93</v>
@@ -4545,38 +4691,37 @@
         <v>95</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="K18" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="39" t="s">
         <v>96</v>
       </c>
       <c r="L18" s="33"/>
       <c r="M18" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N18" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="33"/>
       <c r="P18" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q18" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R18" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S18" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T18" s="33"/>
       <c r="U18" s="34"/>
       <c r="V18" s="35"/>
       <c r="W18" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA18" s="38"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="19" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="27" t="n">
@@ -4591,11 +4736,11 @@
       <c r="D19" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="30" t="n">
-        <v>45801</v>
+      <c r="F19" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="G19" s="32" t="s">
         <v>99</v>
@@ -4607,36 +4752,35 @@
         <v>101</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K19" s="33"/>
       <c r="L19" s="33"/>
       <c r="M19" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N19" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O19" s="33"/>
       <c r="P19" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q19" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R19" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S19" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T19" s="33"/>
       <c r="U19" s="34"/>
       <c r="V19" s="35"/>
       <c r="W19" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA19" s="38"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="20" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="27" t="n">
@@ -4651,11 +4795,11 @@
       <c r="D20" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="30" t="n">
-        <v>45801</v>
+      <c r="F20" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="G20" s="32" t="s">
         <v>104</v>
@@ -4667,36 +4811,35 @@
         <v>106</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K20" s="33"/>
       <c r="L20" s="33"/>
       <c r="M20" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N20" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O20" s="33"/>
       <c r="P20" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q20" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R20" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S20" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T20" s="33"/>
       <c r="U20" s="34"/>
       <c r="V20" s="35"/>
       <c r="W20" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA20" s="38"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="21" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="27" t="n">
@@ -4711,11 +4854,11 @@
       <c r="D21" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="30" t="n">
-        <v>45801</v>
+      <c r="F21" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="G21" s="32" t="s">
         <v>109</v>
@@ -4727,36 +4870,35 @@
         <v>111</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K21" s="33"/>
       <c r="L21" s="33"/>
       <c r="M21" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N21" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O21" s="33"/>
       <c r="P21" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q21" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R21" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S21" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T21" s="33"/>
       <c r="U21" s="34"/>
       <c r="V21" s="35"/>
       <c r="W21" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA21" s="38"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="22" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="27" t="n">
@@ -4771,11 +4913,11 @@
       <c r="D22" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="F22" s="30" t="n">
-        <v>45801</v>
+      <c r="F22" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="G22" s="32" t="s">
         <v>114</v>
@@ -4787,36 +4929,35 @@
         <v>116</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K22" s="33"/>
       <c r="L22" s="33"/>
       <c r="M22" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N22" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O22" s="33"/>
       <c r="P22" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q22" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R22" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S22" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T22" s="33"/>
       <c r="U22" s="34"/>
       <c r="V22" s="35"/>
       <c r="W22" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA22" s="38"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="23" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="27" t="n">
@@ -4831,11 +4972,11 @@
       <c r="D23" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="F23" s="30" t="n">
-        <v>45801</v>
+      <c r="F23" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="G23" s="32" t="s">
         <v>119</v>
@@ -4847,36 +4988,35 @@
         <v>121</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K23" s="33"/>
       <c r="L23" s="33"/>
       <c r="M23" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N23" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O23" s="33"/>
       <c r="P23" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q23" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R23" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S23" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T23" s="33"/>
       <c r="U23" s="34"/>
       <c r="V23" s="35"/>
       <c r="W23" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA23" s="38"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="24" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="27" t="n">
@@ -4891,11 +5031,11 @@
       <c r="D24" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="F24" s="30" t="n">
-        <v>45801</v>
+      <c r="F24" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="G24" s="32" t="s">
         <v>124</v>
@@ -4907,36 +5047,35 @@
         <v>126</v>
       </c>
       <c r="J24" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K24" s="33"/>
       <c r="L24" s="33"/>
       <c r="M24" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N24" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O24" s="33"/>
       <c r="P24" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q24" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R24" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S24" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T24" s="33"/>
       <c r="U24" s="34"/>
       <c r="V24" s="35"/>
       <c r="W24" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA24" s="38"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="25" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="27" t="n">
@@ -4951,11 +5090,11 @@
       <c r="D25" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="F25" s="30" t="n">
-        <v>45801</v>
+      <c r="F25" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="G25" s="32" t="s">
         <v>129</v>
@@ -4967,36 +5106,35 @@
         <v>131</v>
       </c>
       <c r="J25" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K25" s="33"/>
       <c r="L25" s="33"/>
       <c r="M25" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N25" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O25" s="33"/>
       <c r="P25" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q25" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R25" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S25" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T25" s="33"/>
       <c r="U25" s="34"/>
       <c r="V25" s="35"/>
       <c r="W25" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA25" s="38"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="26" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="27" t="n">
@@ -5011,11 +5149,11 @@
       <c r="D26" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="F26" s="30" t="n">
-        <v>45801</v>
+      <c r="F26" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="G26" s="32" t="s">
         <v>134</v>
@@ -5027,36 +5165,35 @@
         <v>136</v>
       </c>
       <c r="J26" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K26" s="33"/>
       <c r="L26" s="33"/>
       <c r="M26" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N26" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O26" s="33"/>
       <c r="P26" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q26" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R26" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S26" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T26" s="33"/>
       <c r="U26" s="34"/>
       <c r="V26" s="35"/>
       <c r="W26" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA26" s="38"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="27" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="27" t="n">
@@ -5071,11 +5208,11 @@
       <c r="D27" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="F27" s="30" t="n">
-        <v>45801</v>
+      <c r="F27" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="G27" s="32" t="s">
         <v>139</v>
@@ -5087,36 +5224,35 @@
         <v>141</v>
       </c>
       <c r="J27" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K27" s="33"/>
       <c r="L27" s="33"/>
       <c r="M27" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N27" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O27" s="33"/>
       <c r="P27" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q27" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R27" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S27" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T27" s="33"/>
       <c r="U27" s="34"/>
       <c r="V27" s="35"/>
       <c r="W27" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA27" s="38"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="28" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="27" t="n">
@@ -5131,11 +5267,11 @@
       <c r="D28" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="E28" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="F28" s="30" t="n">
-        <v>45801</v>
+      <c r="F28" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="G28" s="32" t="s">
         <v>144</v>
@@ -5147,36 +5283,35 @@
         <v>146</v>
       </c>
       <c r="J28" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K28" s="33"/>
       <c r="L28" s="33"/>
       <c r="M28" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N28" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O28" s="33"/>
       <c r="P28" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q28" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R28" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S28" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T28" s="33"/>
       <c r="U28" s="34"/>
       <c r="V28" s="35"/>
       <c r="W28" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA28" s="38"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="29" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="27" t="n">
@@ -5191,11 +5326,11 @@
       <c r="D29" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="E29" s="39" t="s">
+      <c r="E29" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="F29" s="30" t="n">
-        <v>45801</v>
+      <c r="F29" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="G29" s="32" t="s">
         <v>149</v>
@@ -5207,36 +5342,35 @@
         <v>151</v>
       </c>
       <c r="J29" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K29" s="33"/>
       <c r="L29" s="33"/>
       <c r="M29" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N29" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O29" s="33"/>
       <c r="P29" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q29" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R29" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S29" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T29" s="33"/>
       <c r="U29" s="34"/>
       <c r="V29" s="35"/>
       <c r="W29" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA29" s="38"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="30" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="27" t="n">
@@ -5251,11 +5385,11 @@
       <c r="D30" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="E30" s="39" t="s">
+      <c r="E30" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="F30" s="30" t="n">
-        <v>45801</v>
+      <c r="F30" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="G30" s="32" t="s">
         <v>154</v>
@@ -5267,36 +5401,35 @@
         <v>156</v>
       </c>
       <c r="J30" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K30" s="33"/>
       <c r="L30" s="33"/>
       <c r="M30" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N30" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O30" s="33"/>
       <c r="P30" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q30" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R30" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S30" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T30" s="33"/>
       <c r="U30" s="34"/>
       <c r="V30" s="35"/>
       <c r="W30" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA30" s="38"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="31" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="27" t="n">
@@ -5311,11 +5444,11 @@
       <c r="D31" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="E31" s="39" t="s">
+      <c r="E31" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="F31" s="30" t="n">
-        <v>45801</v>
+      <c r="F31" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="G31" s="32" t="s">
         <v>159</v>
@@ -5327,36 +5460,35 @@
         <v>161</v>
       </c>
       <c r="J31" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K31" s="33"/>
       <c r="L31" s="33"/>
       <c r="M31" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N31" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O31" s="33"/>
       <c r="P31" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q31" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R31" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S31" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T31" s="33"/>
       <c r="U31" s="34"/>
       <c r="V31" s="35"/>
       <c r="W31" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA31" s="38"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="32" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="27" t="n">
@@ -5371,11 +5503,11 @@
       <c r="D32" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="E32" s="39" t="s">
+      <c r="E32" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="F32" s="30" t="n">
-        <v>45801</v>
+      <c r="F32" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="G32" s="32" t="s">
         <v>164</v>
@@ -5387,36 +5519,35 @@
         <v>166</v>
       </c>
       <c r="J32" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K32" s="33"/>
       <c r="L32" s="33"/>
       <c r="M32" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N32" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O32" s="33"/>
       <c r="P32" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q32" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R32" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S32" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T32" s="33"/>
       <c r="U32" s="34"/>
       <c r="V32" s="35"/>
       <c r="W32" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA32" s="38"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="33" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="27" t="n">
@@ -5431,11 +5562,11 @@
       <c r="D33" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="E33" s="39" t="s">
+      <c r="E33" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="F33" s="30" t="n">
-        <v>45801</v>
+      <c r="F33" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="G33" s="32" t="s">
         <v>169</v>
@@ -5447,25 +5578,25 @@
         <v>171</v>
       </c>
       <c r="J33" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K33" s="33"/>
       <c r="L33" s="33"/>
       <c r="M33" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N33" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O33" s="33"/>
       <c r="P33" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q33" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R33" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S33" s="33" t="s">
         <v>172</v>
@@ -5474,9 +5605,8 @@
       <c r="U33" s="34"/>
       <c r="V33" s="35"/>
       <c r="W33" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA33" s="38"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="34" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="27" t="n">
@@ -5491,11 +5621,11 @@
       <c r="D34" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="E34" s="39" t="s">
+      <c r="E34" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="F34" s="30" t="n">
-        <v>45801</v>
+      <c r="F34" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="G34" s="32" t="s">
         <v>175</v>
@@ -5507,25 +5637,25 @@
         <v>177</v>
       </c>
       <c r="J34" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K34" s="33"/>
       <c r="L34" s="33"/>
       <c r="M34" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N34" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O34" s="33"/>
       <c r="P34" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q34" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R34" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S34" s="33" t="s">
         <v>172</v>
@@ -5534,9 +5664,8 @@
       <c r="U34" s="34"/>
       <c r="V34" s="35"/>
       <c r="W34" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA34" s="38"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="35" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="27" t="n">
@@ -5551,11 +5680,11 @@
       <c r="D35" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="E35" s="39" t="s">
+      <c r="E35" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="F35" s="30" t="n">
-        <v>45801</v>
+      <c r="F35" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="G35" s="32" t="s">
         <v>180</v>
@@ -5567,1017 +5696,1185 @@
         <v>182</v>
       </c>
       <c r="J35" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K35" s="33"/>
       <c r="L35" s="33"/>
       <c r="M35" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N35" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O35" s="33"/>
       <c r="P35" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q35" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R35" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S35" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T35" s="33"/>
       <c r="U35" s="34"/>
       <c r="V35" s="35"/>
       <c r="W35" s="36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="40" t="n">
+        <v>374</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="F36" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="H36" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="I36" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="J36" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="47"/>
+      <c r="S36" s="48"/>
+      <c r="T36" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="U36" s="0"/>
+      <c r="V36" s="0"/>
+      <c r="W36" s="0"/>
+      <c r="AA36" s="0"/>
+    </row>
+    <row r="37" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="E37" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="F37" s="53" t="n">
+        <v>45362</v>
+      </c>
+      <c r="G37" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="H37" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="I37" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="J37" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R37" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S37" s="39"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="55"/>
+      <c r="V37" s="56"/>
+      <c r="W37" s="57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="50" t="n">
+        <v>2</v>
+      </c>
+      <c r="B38" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D38" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="E38" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="F38" s="53" t="n">
+        <v>45362</v>
+      </c>
+      <c r="G38" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="H38" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="I38" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="J38" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R38" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S38" s="39"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="55"/>
+      <c r="V38" s="56"/>
+      <c r="W38" s="57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="50" t="n">
+        <v>3</v>
+      </c>
+      <c r="B39" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D39" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="E39" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="F39" s="53" t="n">
+        <v>45362</v>
+      </c>
+      <c r="G39" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="H39" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="I39" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="J39" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R39" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S39" s="39"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="55"/>
+      <c r="V39" s="56"/>
+      <c r="W39" s="57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="50" t="n">
+        <v>4</v>
+      </c>
+      <c r="B40" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D40" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="E40" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="F40" s="53" t="n">
+        <v>45362</v>
+      </c>
+      <c r="G40" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="H40" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="I40" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="J40" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R40" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S40" s="39"/>
+      <c r="T40" s="39"/>
+      <c r="U40" s="55"/>
+      <c r="V40" s="56"/>
+      <c r="W40" s="57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="50" t="n">
+        <v>5</v>
+      </c>
+      <c r="B41" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D41" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="E41" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="F41" s="53" t="n">
+        <v>45362</v>
+      </c>
+      <c r="G41" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="H41" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="I41" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="J41" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R41" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S41" s="39"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="55"/>
+      <c r="V41" s="56"/>
+      <c r="W41" s="57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="50" t="n">
+        <v>28</v>
+      </c>
+      <c r="B42" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D42" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="E42" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="F42" s="53" t="n">
+        <v>45362</v>
+      </c>
+      <c r="G42" s="54" t="s">
+        <v>215</v>
+      </c>
+      <c r="H42" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="I42" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="J42" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="N42" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O42" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="P42" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q42" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R42" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S42" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="T42" s="39"/>
+      <c r="U42" s="55"/>
+      <c r="V42" s="56"/>
+      <c r="W42" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="50" t="n">
+        <v>36</v>
+      </c>
+      <c r="B43" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D43" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="E43" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="F43" s="53" t="n">
+        <v>45362</v>
+      </c>
+      <c r="G43" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="H43" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="I43" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="J43" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="N43" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O43" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="P43" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q43" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R43" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S43" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="T43" s="39"/>
+      <c r="U43" s="55"/>
+      <c r="V43" s="56"/>
+      <c r="W43" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="50" t="n">
+        <v>44</v>
+      </c>
+      <c r="B44" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D44" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="E44" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="F44" s="53"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="K44" s="39"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="N44" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O44" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="P44" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q44" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R44" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S44" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="T44" s="39"/>
+      <c r="U44" s="55"/>
+      <c r="V44" s="56"/>
+      <c r="W44" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="50" t="n">
+        <v>52</v>
+      </c>
+      <c r="B45" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D45" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="E45" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="F45" s="53"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="K45" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="39"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R45" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S45" s="39"/>
+      <c r="T45" s="39"/>
+      <c r="U45" s="55"/>
+      <c r="V45" s="56"/>
+      <c r="W45" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="50" t="n">
+        <v>53</v>
+      </c>
+      <c r="B46" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D46" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="E46" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="F46" s="53"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="K46" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R46" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S46" s="39"/>
+      <c r="T46" s="39"/>
+      <c r="U46" s="55"/>
+      <c r="V46" s="56"/>
+      <c r="W46" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="50" t="n">
+        <v>54</v>
+      </c>
+      <c r="B47" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D47" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="E47" s="52" t="s">
+        <v>235</v>
+      </c>
+      <c r="F47" s="53"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="K47" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="39"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R47" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S47" s="39"/>
+      <c r="T47" s="39"/>
+      <c r="U47" s="55"/>
+      <c r="V47" s="56"/>
+      <c r="W47" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="50" t="n">
+        <v>55</v>
+      </c>
+      <c r="B48" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D48" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="E48" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="F48" s="53"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="K48" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="39"/>
+      <c r="O48" s="39"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R48" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S48" s="39"/>
+      <c r="T48" s="39"/>
+      <c r="U48" s="55"/>
+      <c r="V48" s="56"/>
+      <c r="W48" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="50" t="n">
+        <v>56</v>
+      </c>
+      <c r="B49" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D49" s="51" t="s">
+        <v>240</v>
+      </c>
+      <c r="E49" s="52" t="s">
+        <v>241</v>
+      </c>
+      <c r="F49" s="53"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="K49" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="39"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R49" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S49" s="39"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="55"/>
+      <c r="V49" s="56"/>
+      <c r="W49" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="50" t="n">
+        <v>57</v>
+      </c>
+      <c r="B50" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D50" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="E50" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="F50" s="53"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="K50" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="39"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R50" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S50" s="39"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="55"/>
+      <c r="V50" s="56"/>
+      <c r="W50" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="50" t="n">
         <v>58</v>
       </c>
-      <c r="AA35" s="38"/>
-    </row>
-    <row r="36" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="B36" s="42" t="s">
+      <c r="B51" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="D36" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="E36" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="F36" s="44" t="n">
+      <c r="C51" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D51" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="E51" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="F51" s="53"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="K51" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="39"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R51" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S51" s="39"/>
+      <c r="T51" s="39"/>
+      <c r="U51" s="55"/>
+      <c r="V51" s="56"/>
+      <c r="W51" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="50" t="n">
+        <v>59</v>
+      </c>
+      <c r="B52" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D52" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="E52" s="52" t="s">
+        <v>250</v>
+      </c>
+      <c r="F52" s="53"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="K52" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="39"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R52" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S52" s="39"/>
+      <c r="T52" s="39"/>
+      <c r="U52" s="55"/>
+      <c r="V52" s="56"/>
+      <c r="W52" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="50" t="n">
+        <v>60</v>
+      </c>
+      <c r="B53" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D53" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="E53" s="52" t="s">
+        <v>253</v>
+      </c>
+      <c r="F53" s="53" t="n">
         <v>45362</v>
       </c>
-      <c r="G36" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="H36" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="I36" s="45" t="s">
+      <c r="G53" s="59" t="s">
+        <v>254</v>
+      </c>
+      <c r="H53" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="I53" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="J53" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="N53" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O53" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="P53" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q53" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R53" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S53" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="T53" s="39"/>
+      <c r="U53" s="55"/>
+      <c r="V53" s="56"/>
+      <c r="W53" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="50" t="n">
+        <v>61</v>
+      </c>
+      <c r="B54" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="J36" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="R36" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="S36" s="40"/>
-      <c r="T36" s="40"/>
-      <c r="U36" s="46"/>
-      <c r="V36" s="47"/>
-      <c r="W36" s="48" t="s">
+      <c r="D54" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="E54" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="F54" s="53"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="K54" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="39"/>
+      <c r="O54" s="39"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R54" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S54" s="39"/>
+      <c r="T54" s="39"/>
+      <c r="U54" s="55"/>
+      <c r="V54" s="56"/>
+      <c r="W54" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="50" t="n">
+        <v>62</v>
+      </c>
+      <c r="B55" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D55" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="E55" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="F55" s="53" t="n">
+        <v>45362</v>
+      </c>
+      <c r="G55" s="59" t="s">
+        <v>262</v>
+      </c>
+      <c r="H55" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="I55" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="J55" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="N55" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="O55" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="P55" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q55" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R55" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S55" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="T55" s="39"/>
+      <c r="U55" s="55"/>
+      <c r="V55" s="56"/>
+      <c r="W55" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="174" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="60" t="n">
+        <v>191</v>
+      </c>
+      <c r="B56" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="D56" s="61" t="s">
+        <v>265</v>
+      </c>
+      <c r="E56" s="62" t="s">
+        <v>266</v>
+      </c>
+      <c r="F56" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="G56" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="H56" s="64" t="s">
+        <v>268</v>
+      </c>
+      <c r="I56" s="64" t="s">
+        <v>269</v>
+      </c>
+      <c r="J56" s="65"/>
+      <c r="K56" s="65"/>
+      <c r="L56" s="65"/>
+      <c r="M56" s="65"/>
+      <c r="N56" s="65"/>
+      <c r="O56" s="65"/>
+      <c r="P56" s="65"/>
+      <c r="Q56" s="65"/>
+      <c r="R56" s="66"/>
+      <c r="S56" s="67"/>
+      <c r="T56" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="AA36" s="38"/>
-    </row>
-    <row r="37" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="B37" s="42" t="s">
+      <c r="U56" s="55"/>
+      <c r="V56" s="55"/>
+      <c r="W56" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA56" s="0"/>
+    </row>
+    <row r="57" customFormat="false" ht="174" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="60" t="n">
+        <v>368</v>
+      </c>
+      <c r="B57" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="D37" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="E37" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="F37" s="44" t="n">
-        <v>45362</v>
-      </c>
-      <c r="G37" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="H37" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="I37" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="J37" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="R37" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="S37" s="40"/>
-      <c r="T37" s="40"/>
-      <c r="U37" s="46"/>
-      <c r="V37" s="47"/>
-      <c r="W37" s="48" t="s">
+      <c r="C57" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="D57" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="E57" s="62" t="s">
+        <v>271</v>
+      </c>
+      <c r="F57" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="G57" s="64" t="s">
+        <v>272</v>
+      </c>
+      <c r="H57" s="64" t="s">
+        <v>273</v>
+      </c>
+      <c r="I57" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="J57" s="65"/>
+      <c r="K57" s="65"/>
+      <c r="L57" s="65"/>
+      <c r="M57" s="65"/>
+      <c r="N57" s="65"/>
+      <c r="O57" s="65"/>
+      <c r="P57" s="65"/>
+      <c r="Q57" s="65"/>
+      <c r="R57" s="66"/>
+      <c r="S57" s="67"/>
+      <c r="T57" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="AA37" s="38"/>
-    </row>
-    <row r="38" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="41" t="n">
-        <v>3</v>
-      </c>
-      <c r="B38" s="42" t="s">
+      <c r="U57" s="0"/>
+      <c r="V57" s="55"/>
+      <c r="W57" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA57" s="0"/>
+    </row>
+    <row r="58" customFormat="false" ht="174" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="60" t="n">
+        <v>376</v>
+      </c>
+      <c r="B58" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="D38" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="E38" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="F38" s="44" t="n">
-        <v>45362</v>
-      </c>
-      <c r="G38" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="H38" s="45" t="s">
-        <v>196</v>
-      </c>
-      <c r="I38" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="J38" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="R38" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="S38" s="40"/>
-      <c r="T38" s="40"/>
-      <c r="U38" s="46"/>
-      <c r="V38" s="47"/>
-      <c r="W38" s="48" t="s">
+      <c r="C58" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="D58" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="E58" s="62" t="s">
+        <v>276</v>
+      </c>
+      <c r="F58" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="G58" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="H58" s="64" t="s">
+        <v>278</v>
+      </c>
+      <c r="I58" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="J58" s="65"/>
+      <c r="K58" s="65"/>
+      <c r="L58" s="65"/>
+      <c r="M58" s="65"/>
+      <c r="N58" s="65"/>
+      <c r="O58" s="65"/>
+      <c r="P58" s="65"/>
+      <c r="Q58" s="65"/>
+      <c r="R58" s="66"/>
+      <c r="S58" s="67"/>
+      <c r="T58" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="AA38" s="38"/>
-    </row>
-    <row r="39" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="41" t="n">
-        <v>4</v>
-      </c>
-      <c r="B39" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="D39" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="E39" s="43" t="s">
-        <v>199</v>
-      </c>
-      <c r="F39" s="44" t="n">
-        <v>45362</v>
-      </c>
-      <c r="G39" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="H39" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="I39" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="J39" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="R39" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="S39" s="40"/>
-      <c r="T39" s="40"/>
-      <c r="U39" s="46"/>
-      <c r="V39" s="47"/>
-      <c r="W39" s="48" t="s">
+      <c r="U58" s="55"/>
+      <c r="V58" s="55"/>
+      <c r="W58" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="AA39" s="38"/>
-    </row>
-    <row r="40" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="41" t="n">
-        <v>5</v>
-      </c>
-      <c r="B40" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="D40" s="42" t="s">
-        <v>203</v>
-      </c>
-      <c r="E40" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="F40" s="44" t="n">
-        <v>45362</v>
-      </c>
-      <c r="G40" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="H40" s="45" t="s">
-        <v>206</v>
-      </c>
-      <c r="I40" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="J40" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="R40" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="S40" s="40"/>
-      <c r="T40" s="40"/>
-      <c r="U40" s="46"/>
-      <c r="V40" s="47"/>
-      <c r="W40" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA40" s="38"/>
-    </row>
-    <row r="41" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="41" t="n">
-        <v>28</v>
-      </c>
-      <c r="B41" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="D41" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="E41" s="49" t="s">
-        <v>209</v>
-      </c>
-      <c r="F41" s="44" t="n">
-        <v>45362</v>
-      </c>
-      <c r="G41" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="H41" s="45" t="s">
-        <v>211</v>
-      </c>
-      <c r="I41" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="J41" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="N41" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="O41" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="P41" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q41" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="R41" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="S41" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="T41" s="40"/>
-      <c r="U41" s="46"/>
-      <c r="V41" s="47"/>
-      <c r="W41" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA41" s="38"/>
-    </row>
-    <row r="42" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="41" t="n">
-        <v>36</v>
-      </c>
-      <c r="B42" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="D42" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="E42" s="49" t="s">
-        <v>214</v>
-      </c>
-      <c r="F42" s="44" t="n">
-        <v>45362</v>
-      </c>
-      <c r="G42" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="H42" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="I42" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="J42" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="N42" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="O42" s="40" t="s">
-        <v>217</v>
-      </c>
-      <c r="P42" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q42" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="R42" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="S42" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="T42" s="40"/>
-      <c r="U42" s="46"/>
-      <c r="V42" s="47"/>
-      <c r="W42" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA42" s="38"/>
-    </row>
-    <row r="43" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="41" t="n">
-        <v>44</v>
-      </c>
-      <c r="B43" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="D43" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="E43" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="F43" s="44"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="K43" s="40"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="N43" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="O43" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="P43" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q43" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="R43" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="S43" s="40" t="s">
-        <v>222</v>
-      </c>
-      <c r="T43" s="40"/>
-      <c r="U43" s="46"/>
-      <c r="V43" s="47"/>
-      <c r="W43" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA43" s="38"/>
-    </row>
-    <row r="44" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="41" t="n">
-        <v>52</v>
-      </c>
-      <c r="B44" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="D44" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="E44" s="43" t="s">
-        <v>224</v>
-      </c>
-      <c r="F44" s="44"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="K44" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="L44" s="40"/>
-      <c r="M44" s="40"/>
-      <c r="N44" s="40"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="R44" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="S44" s="40"/>
-      <c r="T44" s="40"/>
-      <c r="U44" s="46"/>
-      <c r="V44" s="47"/>
-      <c r="W44" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA44" s="38"/>
-    </row>
-    <row r="45" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="41" t="n">
-        <v>53</v>
-      </c>
-      <c r="B45" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="D45" s="42" t="s">
-        <v>226</v>
-      </c>
-      <c r="E45" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="F45" s="44"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="K45" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="L45" s="40"/>
-      <c r="M45" s="40"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="40"/>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="R45" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="S45" s="40"/>
-      <c r="T45" s="40"/>
-      <c r="U45" s="46"/>
-      <c r="V45" s="47"/>
-      <c r="W45" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA45" s="38"/>
-    </row>
-    <row r="46" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="41" t="n">
-        <v>54</v>
-      </c>
-      <c r="B46" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="D46" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="E46" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="F46" s="44"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="K46" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="L46" s="40"/>
-      <c r="M46" s="40"/>
-      <c r="N46" s="40"/>
-      <c r="O46" s="40"/>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="R46" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="S46" s="40"/>
-      <c r="T46" s="40"/>
-      <c r="U46" s="46"/>
-      <c r="V46" s="47"/>
-      <c r="W46" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA46" s="38"/>
-    </row>
-    <row r="47" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="41" t="n">
-        <v>55</v>
-      </c>
-      <c r="B47" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="D47" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="E47" s="43" t="s">
-        <v>233</v>
-      </c>
-      <c r="F47" s="44"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="K47" s="40" t="s">
-        <v>234</v>
-      </c>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="40"/>
-      <c r="P47" s="40"/>
-      <c r="Q47" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="R47" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="S47" s="40"/>
-      <c r="T47" s="40"/>
-      <c r="U47" s="46"/>
-      <c r="V47" s="47"/>
-      <c r="W47" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA47" s="38"/>
-    </row>
-    <row r="48" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="41" t="n">
-        <v>56</v>
-      </c>
-      <c r="B48" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="D48" s="42" t="s">
-        <v>235</v>
-      </c>
-      <c r="E48" s="43" t="s">
-        <v>236</v>
-      </c>
-      <c r="F48" s="44"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="K48" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="L48" s="40"/>
-      <c r="M48" s="40"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="R48" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="S48" s="40"/>
-      <c r="T48" s="40"/>
-      <c r="U48" s="46"/>
-      <c r="V48" s="47"/>
-      <c r="W48" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA48" s="38"/>
-    </row>
-    <row r="49" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="41" t="n">
-        <v>57</v>
-      </c>
-      <c r="B49" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="D49" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="E49" s="43" t="s">
-        <v>239</v>
-      </c>
-      <c r="F49" s="44"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="K49" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="L49" s="40"/>
-      <c r="M49" s="40"/>
-      <c r="N49" s="40"/>
-      <c r="O49" s="40"/>
-      <c r="P49" s="40"/>
-      <c r="Q49" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="R49" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="S49" s="40"/>
-      <c r="T49" s="40"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA49" s="38"/>
-    </row>
-    <row r="50" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="41" t="n">
-        <v>58</v>
-      </c>
-      <c r="B50" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="D50" s="42" t="s">
-        <v>241</v>
-      </c>
-      <c r="E50" s="43" t="s">
-        <v>242</v>
-      </c>
-      <c r="F50" s="44"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="45"/>
-      <c r="J50" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="K50" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="L50" s="40"/>
-      <c r="M50" s="40"/>
-      <c r="N50" s="40"/>
-      <c r="O50" s="40"/>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="R50" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="S50" s="40"/>
-      <c r="T50" s="40"/>
-      <c r="U50" s="46"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA50" s="38"/>
-    </row>
-    <row r="51" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="41" t="n">
-        <v>59</v>
-      </c>
-      <c r="B51" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="D51" s="42" t="s">
-        <v>244</v>
-      </c>
-      <c r="E51" s="43" t="s">
-        <v>245</v>
-      </c>
-      <c r="F51" s="44"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="45"/>
-      <c r="J51" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="K51" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="L51" s="40"/>
-      <c r="M51" s="40"/>
-      <c r="N51" s="40"/>
-      <c r="O51" s="40"/>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="R51" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="S51" s="40"/>
-      <c r="T51" s="40"/>
-      <c r="U51" s="46"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA51" s="38"/>
-    </row>
-    <row r="52" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="41" t="n">
-        <v>60</v>
-      </c>
-      <c r="B52" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C52" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="D52" s="42" t="s">
-        <v>247</v>
-      </c>
-      <c r="E52" s="43" t="s">
-        <v>248</v>
-      </c>
-      <c r="F52" s="44" t="n">
-        <v>45362</v>
-      </c>
-      <c r="G52" s="50" t="s">
-        <v>249</v>
-      </c>
-      <c r="H52" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="I52" s="45" t="s">
-        <v>251</v>
-      </c>
-      <c r="J52" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="K52" s="40"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="N52" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="O52" s="40" t="s">
-        <v>217</v>
-      </c>
-      <c r="P52" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q52" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="R52" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="S52" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="T52" s="40"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA52" s="38"/>
-    </row>
-    <row r="53" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="41" t="n">
-        <v>61</v>
-      </c>
-      <c r="B53" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="D53" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="E53" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="F53" s="44"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="K53" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="L53" s="40"/>
-      <c r="M53" s="40"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="40"/>
-      <c r="P53" s="40"/>
-      <c r="Q53" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="R53" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="S53" s="40"/>
-      <c r="T53" s="40"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA53" s="38"/>
-    </row>
-    <row r="54" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="41" t="n">
-        <v>62</v>
-      </c>
-      <c r="B54" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C54" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="D54" s="42" t="s">
-        <v>255</v>
-      </c>
-      <c r="E54" s="43" t="s">
-        <v>256</v>
-      </c>
-      <c r="F54" s="44" t="n">
-        <v>45362</v>
-      </c>
-      <c r="G54" s="50" t="s">
-        <v>257</v>
-      </c>
-      <c r="H54" s="45" t="s">
-        <v>258</v>
-      </c>
-      <c r="I54" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="J54" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="K54" s="40"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="N54" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="O54" s="40" t="s">
-        <v>217</v>
-      </c>
-      <c r="P54" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q54" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="R54" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="S54" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="T54" s="40"/>
-      <c r="U54" s="46"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA54" s="38"/>
-    </row>
-    <row r="55" customFormat="false" ht="10.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="10.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="10.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="10.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="AA58" s="0"/>
+    </row>
     <row r="59" customFormat="false" ht="10.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="60" customFormat="false" ht="10.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="61" customFormat="false" ht="10.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -8601,7 +8898,7 @@
       <c r="W676" s="13"/>
     </row>
     <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F1048576" s="51" t="n">
+      <c r="F1048576" s="69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8616,12 +8913,20 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J36:J54 L36:N54 P36:P54" type="list">
+  <dataValidations count="4">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J37:J55 L37:N55 P37:P55" type="list">
       <formula1>Summary!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T36:T54" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T37:T55" type="list">
+      <formula1>Summary!$A$2:$A$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J36 L36:M36 O36 J56:J58 L56:M58 O56:O58" type="list">
+      <formula1>Summary!$B$2:$B$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q36 Q56:Q58" type="list">
       <formula1>Summary!$A$2:$A$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8646,49 +8951,49 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I:I"/>
+      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -8712,7 +9017,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C8" activeCellId="1" sqref="I:I C8"/>
+      <selection pane="bottomLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8728,162 +9033,162 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="18" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="F1" s="52" t="s">
-        <v>271</v>
-      </c>
-      <c r="G1" s="53" t="s">
-        <v>272</v>
+        <v>290</v>
+      </c>
+      <c r="F1" s="70" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1" s="71" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="54" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>273</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>274</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>275</v>
+      <c r="A2" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="72" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" s="73" t="s">
+        <v>294</v>
+      </c>
+      <c r="D2" s="73" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="54" t="s">
-        <v>276</v>
-      </c>
-      <c r="B3" s="54" t="s">
-        <v>273</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>277</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>278</v>
+      <c r="A3" s="72" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>297</v>
+      </c>
+      <c r="D3" s="73" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="54" t="s">
-        <v>279</v>
-      </c>
-      <c r="B4" s="54" t="s">
-        <v>273</v>
-      </c>
-      <c r="C4" s="55" t="n">
+      <c r="A4" s="72" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>293</v>
+      </c>
+      <c r="C4" s="73" t="n">
         <v>446.447</v>
       </c>
-      <c r="D4" s="56" t="s">
-        <v>280</v>
+      <c r="D4" s="74" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="54" t="s">
-        <v>281</v>
-      </c>
-      <c r="B5" s="54" t="s">
-        <v>273</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>282</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>283</v>
+      <c r="A5" s="72" t="s">
+        <v>301</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>293</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>302</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="54" t="s">
-        <v>284</v>
-      </c>
-      <c r="B6" s="54" t="s">
-        <v>273</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>285</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>286</v>
+      <c r="A6" s="72" t="s">
+        <v>304</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>293</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>305</v>
+      </c>
+      <c r="D6" s="74" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="54" t="s">
-        <v>287</v>
-      </c>
-      <c r="B7" s="54" t="s">
-        <v>273</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>288</v>
-      </c>
-      <c r="D7" s="56" t="s">
-        <v>289</v>
+      <c r="A7" s="72" t="s">
+        <v>307</v>
+      </c>
+      <c r="B7" s="72" t="s">
+        <v>293</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>308</v>
+      </c>
+      <c r="D7" s="74" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="54" t="s">
-        <v>273</v>
-      </c>
-      <c r="C8" s="55" t="s">
-        <v>290</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>291</v>
+      <c r="B8" s="72" t="s">
+        <v>293</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="54" t="s">
-        <v>292</v>
-      </c>
-      <c r="B9" s="54" t="s">
-        <v>273</v>
-      </c>
-      <c r="C9" s="55" t="s">
+      <c r="A9" s="72" t="s">
+        <v>312</v>
+      </c>
+      <c r="B9" s="72" t="s">
         <v>293</v>
       </c>
-      <c r="D9" s="56" t="s">
-        <v>294</v>
+      <c r="C9" s="73" t="s">
+        <v>313</v>
+      </c>
+      <c r="D9" s="74" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="B10" s="54" t="s">
-        <v>273</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>296</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>297</v>
+      <c r="A10" s="72" t="s">
+        <v>315</v>
+      </c>
+      <c r="B10" s="72" t="s">
+        <v>293</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>316</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="54" t="s">
-        <v>298</v>
-      </c>
-      <c r="B11" s="54" t="s">
-        <v>273</v>
-      </c>
-      <c r="C11" s="55" t="s">
-        <v>299</v>
-      </c>
-      <c r="D11" s="56" t="s">
-        <v>300</v>
+      <c r="A11" s="72" t="s">
+        <v>318</v>
+      </c>
+      <c r="B11" s="72" t="s">
+        <v>293</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>319</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -9856,7 +10161,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="I:I A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9867,32 +10172,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="75" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="57" t="s">
-        <v>301</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>54</v>
+      <c r="A2" s="75" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="57" t="s">
-        <v>302</v>
-      </c>
-      <c r="B3" s="57" t="s">
-        <v>55</v>
+      <c r="A3" s="75" t="s">
+        <v>322</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="75"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="326">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -336,13 +336,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">25/05/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-05-25T10:59:03.508+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11f76b4ed8841e5183432250ac37ba73</t>
+    <t xml:space="preserve">29/05/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-29T06:17:12.554+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74ec827ba034de0df652bd1afd49f300</t>
   </si>
   <si>
     <t xml:space="preserve">UNKNOWN_WORKFLOW_ID</t>
@@ -416,11 +416,20 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">2025-05-29T06:17:46.338+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bfca77ed26a96774894c8b2f758fc32b</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_RSA_TIMEOUT</t>
   </si>
   <si>
     <t xml:space="preserve">Per questo caso di test è richiesta la sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
 "ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", " PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)",  "INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "GESTIONE ERRORE".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/05/2025</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT1</t>
@@ -2372,43 +2381,43 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2452,39 +2461,39 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3946,14 +3955,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA1048576"/>
+  <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
-      <selection pane="bottomRight" activeCell="A56" activeCellId="0" sqref="A56"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3962,7 +3971,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="31.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="96.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="33.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="48.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="98.22"/>
@@ -4242,7 +4251,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" s="37" customFormat="true" ht="160.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="27" t="n">
         <v>32</v>
       </c>
@@ -4303,7 +4312,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" s="37" customFormat="true" ht="132.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="27" t="n">
         <v>40</v>
       </c>
@@ -4322,8 +4331,12 @@
       <c r="F11" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
+      <c r="G11" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>63</v>
+      </c>
       <c r="I11" s="32" t="s">
         <v>54</v>
       </c>
@@ -4371,13 +4384,13 @@
         <v>48</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G12" s="31"/>
       <c r="H12" s="32"/>
@@ -4426,22 +4439,22 @@
         <v>48</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J13" s="33" t="s">
         <v>55</v>
@@ -4459,7 +4472,7 @@
       <c r="U13" s="34"/>
       <c r="V13" s="35"/>
       <c r="W13" s="36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4473,22 +4486,22 @@
         <v>48</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J14" s="33" t="s">
         <v>55</v>
@@ -4506,7 +4519,7 @@
       <c r="U14" s="34"/>
       <c r="V14" s="35"/>
       <c r="W14" s="36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4520,22 +4533,22 @@
         <v>48</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J15" s="33" t="s">
         <v>55</v>
@@ -4553,7 +4566,7 @@
       <c r="U15" s="34"/>
       <c r="V15" s="35"/>
       <c r="W15" s="36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4567,22 +4580,22 @@
         <v>48</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J16" s="33" t="s">
         <v>55</v>
@@ -4600,7 +4613,7 @@
       <c r="U16" s="34"/>
       <c r="V16" s="35"/>
       <c r="W16" s="36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4614,22 +4627,22 @@
         <v>48</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G17" s="32" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J17" s="33" t="s">
         <v>55</v>
@@ -4673,28 +4686,28 @@
         <v>48</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J18" s="33" t="s">
         <v>56</v>
       </c>
       <c r="K18" s="39" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L18" s="33"/>
       <c r="M18" s="33" t="s">
@@ -4734,22 +4747,22 @@
         <v>48</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H19" s="32" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J19" s="33" t="s">
         <v>55</v>
@@ -4793,22 +4806,22 @@
         <v>48</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H20" s="32" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I20" s="32" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J20" s="33" t="s">
         <v>55</v>
@@ -4852,22 +4865,22 @@
         <v>48</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H21" s="32" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I21" s="32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J21" s="33" t="s">
         <v>55</v>
@@ -4911,22 +4924,22 @@
         <v>48</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H22" s="32" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I22" s="32" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J22" s="33" t="s">
         <v>55</v>
@@ -4970,22 +4983,22 @@
         <v>48</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G23" s="32" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H23" s="32" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="J23" s="33" t="s">
         <v>55</v>
@@ -5029,22 +5042,22 @@
         <v>48</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H24" s="32" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I24" s="32" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J24" s="33" t="s">
         <v>55</v>
@@ -5088,22 +5101,22 @@
         <v>48</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H25" s="32" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I25" s="32" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J25" s="33" t="s">
         <v>55</v>
@@ -5147,22 +5160,22 @@
         <v>48</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G26" s="32" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H26" s="32" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I26" s="32" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J26" s="33" t="s">
         <v>55</v>
@@ -5206,22 +5219,22 @@
         <v>48</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H27" s="32" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I27" s="32" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J27" s="33" t="s">
         <v>55</v>
@@ -5265,22 +5278,22 @@
         <v>48</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H28" s="32" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I28" s="32" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J28" s="33" t="s">
         <v>55</v>
@@ -5324,22 +5337,22 @@
         <v>48</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E29" s="38" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H29" s="32" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I29" s="32" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J29" s="33" t="s">
         <v>55</v>
@@ -5383,22 +5396,22 @@
         <v>48</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H30" s="32" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I30" s="32" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="J30" s="33" t="s">
         <v>55</v>
@@ -5442,22 +5455,22 @@
         <v>48</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H31" s="32" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="J31" s="33" t="s">
         <v>55</v>
@@ -5501,22 +5514,22 @@
         <v>48</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H32" s="32" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I32" s="32" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J32" s="33" t="s">
         <v>55</v>
@@ -5560,22 +5573,22 @@
         <v>48</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H33" s="32" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I33" s="32" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="J33" s="33" t="s">
         <v>55</v>
@@ -5599,7 +5612,7 @@
         <v>55</v>
       </c>
       <c r="S33" s="33" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="T33" s="33"/>
       <c r="U33" s="34"/>
@@ -5619,22 +5632,22 @@
         <v>48</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G34" s="32" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H34" s="32" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I34" s="32" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J34" s="33" t="s">
         <v>55</v>
@@ -5658,7 +5671,7 @@
         <v>55</v>
       </c>
       <c r="S34" s="33" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="T34" s="33"/>
       <c r="U34" s="34"/>
@@ -5678,22 +5691,22 @@
         <v>48</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G35" s="32" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H35" s="32" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I35" s="32" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J35" s="33" t="s">
         <v>55</v>
@@ -5726,7 +5739,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="594.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="40" t="n">
         <v>374</v>
       </c>
@@ -5737,22 +5750,22 @@
         <v>48</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F36" s="43" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G36" s="44" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H36" s="45" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I36" s="45" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="J36" s="46" t="s">
         <v>55</v>
@@ -5767,12 +5780,8 @@
       <c r="R36" s="47"/>
       <c r="S36" s="48"/>
       <c r="T36" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="U36" s="0"/>
-      <c r="V36" s="0"/>
-      <c r="W36" s="0"/>
-      <c r="AA36" s="0"/>
+        <v>73</v>
+      </c>
     </row>
     <row r="37" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="50" t="n">
@@ -5782,25 +5791,25 @@
         <v>47</v>
       </c>
       <c r="C37" s="51" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D37" s="51" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E37" s="52" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F37" s="53" t="n">
         <v>45362</v>
       </c>
       <c r="G37" s="54" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H37" s="54" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I37" s="54" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="J37" s="39" t="s">
         <v>55</v>
@@ -5822,7 +5831,7 @@
       <c r="U37" s="55"/>
       <c r="V37" s="56"/>
       <c r="W37" s="57" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5833,25 +5842,25 @@
         <v>47</v>
       </c>
       <c r="C38" s="51" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D38" s="51" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E38" s="52" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F38" s="53" t="n">
         <v>45362</v>
       </c>
       <c r="G38" s="54" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H38" s="54" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I38" s="54" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="J38" s="39" t="s">
         <v>55</v>
@@ -5873,7 +5882,7 @@
       <c r="U38" s="55"/>
       <c r="V38" s="56"/>
       <c r="W38" s="57" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5884,25 +5893,25 @@
         <v>47</v>
       </c>
       <c r="C39" s="51" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D39" s="51" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E39" s="52" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F39" s="53" t="n">
         <v>45362</v>
       </c>
       <c r="G39" s="54" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H39" s="54" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I39" s="54" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="J39" s="39" t="s">
         <v>55</v>
@@ -5924,7 +5933,7 @@
       <c r="U39" s="55"/>
       <c r="V39" s="56"/>
       <c r="W39" s="57" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5935,25 +5944,25 @@
         <v>47</v>
       </c>
       <c r="C40" s="51" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D40" s="51" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E40" s="52" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F40" s="53" t="n">
         <v>45362</v>
       </c>
       <c r="G40" s="54" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H40" s="54" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I40" s="54" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="J40" s="39" t="s">
         <v>55</v>
@@ -5975,7 +5984,7 @@
       <c r="U40" s="55"/>
       <c r="V40" s="56"/>
       <c r="W40" s="57" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5986,25 +5995,25 @@
         <v>47</v>
       </c>
       <c r="C41" s="51" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D41" s="51" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E41" s="52" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F41" s="53" t="n">
         <v>45362</v>
       </c>
       <c r="G41" s="54" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H41" s="54" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="I41" s="54" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="J41" s="39" t="s">
         <v>55</v>
@@ -6026,7 +6035,7 @@
       <c r="U41" s="55"/>
       <c r="V41" s="56"/>
       <c r="W41" s="57" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6037,22 +6046,22 @@
         <v>47</v>
       </c>
       <c r="C42" s="51" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D42" s="51" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E42" s="58" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F42" s="53" t="n">
         <v>45362</v>
       </c>
       <c r="G42" s="54" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H42" s="54" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I42" s="54" t="s">
         <v>54</v>
@@ -6081,7 +6090,7 @@
         <v>55</v>
       </c>
       <c r="S42" s="39" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="T42" s="39"/>
       <c r="U42" s="55"/>
@@ -6098,22 +6107,22 @@
         <v>47</v>
       </c>
       <c r="C43" s="51" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D43" s="51" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E43" s="58" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F43" s="53" t="n">
         <v>45362</v>
       </c>
       <c r="G43" s="54" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H43" s="54" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I43" s="54" t="s">
         <v>54</v>
@@ -6130,7 +6139,7 @@
         <v>55</v>
       </c>
       <c r="O43" s="39" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P43" s="39" t="s">
         <v>55</v>
@@ -6142,7 +6151,7 @@
         <v>55</v>
       </c>
       <c r="S43" s="39" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="T43" s="39"/>
       <c r="U43" s="55"/>
@@ -6159,13 +6168,13 @@
         <v>47</v>
       </c>
       <c r="C44" s="51" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D44" s="51" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E44" s="52" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F44" s="53"/>
       <c r="G44" s="54"/>
@@ -6183,7 +6192,7 @@
         <v>55</v>
       </c>
       <c r="O44" s="39" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P44" s="39" t="s">
         <v>55</v>
@@ -6195,7 +6204,7 @@
         <v>55</v>
       </c>
       <c r="S44" s="39" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="T44" s="39"/>
       <c r="U44" s="55"/>
@@ -6212,13 +6221,13 @@
         <v>47</v>
       </c>
       <c r="C45" s="51" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D45" s="51" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E45" s="52" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F45" s="53"/>
       <c r="G45" s="59"/>
@@ -6228,7 +6237,7 @@
         <v>56</v>
       </c>
       <c r="K45" s="39" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L45" s="39"/>
       <c r="M45" s="39"/>
@@ -6257,13 +6266,13 @@
         <v>47</v>
       </c>
       <c r="C46" s="51" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D46" s="51" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E46" s="52" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F46" s="53"/>
       <c r="G46" s="59"/>
@@ -6273,7 +6282,7 @@
         <v>56</v>
       </c>
       <c r="K46" s="39" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L46" s="39"/>
       <c r="M46" s="39"/>
@@ -6302,13 +6311,13 @@
         <v>47</v>
       </c>
       <c r="C47" s="51" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D47" s="51" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E47" s="52" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F47" s="53"/>
       <c r="G47" s="59"/>
@@ -6318,7 +6327,7 @@
         <v>56</v>
       </c>
       <c r="K47" s="39" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L47" s="39"/>
       <c r="M47" s="39"/>
@@ -6347,13 +6356,13 @@
         <v>47</v>
       </c>
       <c r="C48" s="51" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D48" s="51" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E48" s="52" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F48" s="53"/>
       <c r="G48" s="59"/>
@@ -6363,7 +6372,7 @@
         <v>56</v>
       </c>
       <c r="K48" s="39" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L48" s="39"/>
       <c r="M48" s="39"/>
@@ -6392,13 +6401,13 @@
         <v>47</v>
       </c>
       <c r="C49" s="51" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D49" s="51" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E49" s="52" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F49" s="53"/>
       <c r="G49" s="59"/>
@@ -6408,7 +6417,7 @@
         <v>56</v>
       </c>
       <c r="K49" s="39" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L49" s="39"/>
       <c r="M49" s="39"/>
@@ -6437,13 +6446,13 @@
         <v>47</v>
       </c>
       <c r="C50" s="51" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D50" s="51" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E50" s="52" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F50" s="53"/>
       <c r="G50" s="59"/>
@@ -6453,7 +6462,7 @@
         <v>56</v>
       </c>
       <c r="K50" s="39" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L50" s="39"/>
       <c r="M50" s="39"/>
@@ -6482,13 +6491,13 @@
         <v>47</v>
       </c>
       <c r="C51" s="51" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D51" s="51" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E51" s="52" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F51" s="53"/>
       <c r="G51" s="59"/>
@@ -6498,7 +6507,7 @@
         <v>56</v>
       </c>
       <c r="K51" s="39" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L51" s="39"/>
       <c r="M51" s="39"/>
@@ -6527,13 +6536,13 @@
         <v>47</v>
       </c>
       <c r="C52" s="51" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D52" s="51" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E52" s="52" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F52" s="53"/>
       <c r="G52" s="59"/>
@@ -6543,7 +6552,7 @@
         <v>56</v>
       </c>
       <c r="K52" s="39" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L52" s="39"/>
       <c r="M52" s="39"/>
@@ -6572,25 +6581,25 @@
         <v>47</v>
       </c>
       <c r="C53" s="51" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D53" s="51" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E53" s="52" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F53" s="53" t="n">
         <v>45362</v>
       </c>
       <c r="G53" s="59" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H53" s="54" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="I53" s="54" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="J53" s="39" t="s">
         <v>55</v>
@@ -6604,7 +6613,7 @@
         <v>55</v>
       </c>
       <c r="O53" s="39" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P53" s="39" t="s">
         <v>55</v>
@@ -6616,7 +6625,7 @@
         <v>55</v>
       </c>
       <c r="S53" s="39" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="T53" s="39"/>
       <c r="U53" s="55"/>
@@ -6633,13 +6642,13 @@
         <v>47</v>
       </c>
       <c r="C54" s="51" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D54" s="51" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E54" s="52" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F54" s="53"/>
       <c r="G54" s="59"/>
@@ -6649,7 +6658,7 @@
         <v>56</v>
       </c>
       <c r="K54" s="39" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="L54" s="39"/>
       <c r="M54" s="39"/>
@@ -6678,25 +6687,25 @@
         <v>47</v>
       </c>
       <c r="C55" s="51" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D55" s="51" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E55" s="52" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F55" s="53" t="n">
         <v>45362</v>
       </c>
       <c r="G55" s="59" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H55" s="54" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I55" s="54" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J55" s="39" t="s">
         <v>55</v>
@@ -6710,7 +6719,7 @@
         <v>55</v>
       </c>
       <c r="O55" s="39" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P55" s="39" t="s">
         <v>55</v>
@@ -6722,7 +6731,7 @@
         <v>55</v>
       </c>
       <c r="S55" s="39" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="T55" s="39"/>
       <c r="U55" s="55"/>
@@ -6739,25 +6748,25 @@
         <v>47</v>
       </c>
       <c r="C56" s="61" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D56" s="61" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E56" s="62" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F56" s="63" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G56" s="64" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H56" s="64" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="I56" s="64" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="J56" s="65"/>
       <c r="K56" s="65"/>
@@ -6770,14 +6779,13 @@
       <c r="R56" s="66"/>
       <c r="S56" s="67"/>
       <c r="T56" s="68" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="U56" s="55"/>
       <c r="V56" s="55"/>
       <c r="W56" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA56" s="0"/>
+        <v>73</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="174" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="60" t="n">
@@ -6787,25 +6795,25 @@
         <v>47</v>
       </c>
       <c r="C57" s="61" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D57" s="61" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E57" s="62" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F57" s="63" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G57" s="64" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H57" s="64" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="I57" s="64" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="J57" s="65"/>
       <c r="K57" s="65"/>
@@ -6818,14 +6826,12 @@
       <c r="R57" s="66"/>
       <c r="S57" s="67"/>
       <c r="T57" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="U57" s="0"/>
+        <v>73</v>
+      </c>
       <c r="V57" s="55"/>
       <c r="W57" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA57" s="0"/>
+        <v>73</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="174" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="60" t="n">
@@ -6835,25 +6841,25 @@
         <v>47</v>
       </c>
       <c r="C58" s="61" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D58" s="61" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E58" s="62" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F58" s="63" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G58" s="64" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H58" s="64" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="I58" s="64" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="J58" s="65"/>
       <c r="K58" s="65"/>
@@ -6866,14 +6872,13 @@
       <c r="R58" s="66"/>
       <c r="S58" s="67"/>
       <c r="T58" s="68" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="U58" s="55"/>
       <c r="V58" s="55"/>
       <c r="W58" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA58" s="0"/>
+        <v>73</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="10.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="60" customFormat="false" ht="10.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -8958,42 +8963,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -9033,106 +9038,106 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="18" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F1" s="70" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G1" s="71" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="72" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B2" s="72" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C2" s="73" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D2" s="73" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="72" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" s="72" t="s">
         <v>296</v>
       </c>
-      <c r="B3" s="72" t="s">
-        <v>293</v>
-      </c>
       <c r="C3" s="73" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D3" s="73" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="72" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B4" s="72" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C4" s="73" t="n">
         <v>446.447</v>
       </c>
       <c r="D4" s="74" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="72" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B5" s="72" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C5" s="73" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="72" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B6" s="72" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C6" s="73" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D6" s="74" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="72" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B7" s="72" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C7" s="73" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D7" s="74" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9140,55 +9145,55 @@
         <v>48</v>
       </c>
       <c r="B8" s="72" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C8" s="73" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D8" s="74" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="72" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B9" s="72" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C9" s="73" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D9" s="74" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="72" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B10" s="72" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C10" s="74" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D10" s="73" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="72" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B11" s="72" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C11" s="73" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D11" s="74" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -10181,7 +10186,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="75" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B2" s="75" t="s">
         <v>55</v>
@@ -10189,7 +10194,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="75" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B3" s="75" t="s">
         <v>56</v>

--- a/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="322">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -529,16 +529,7 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-28T20:18:14.986+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8107ff89bbb497f9e579c73abd205d36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21684011138832921504405eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cb0b245f6c85^^^^urn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il codice fiscale viene sanificato in fase di accettazione, quindi puo’ essere  solo maiuscolo</t>
+    <t xml:space="preserve">Il codice fiscale e' solo maiuscolo</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT7_KO</t>
@@ -1133,9 +1124,6 @@
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il codice fiscale e' solo maiuscolo</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT8_KO</t>
@@ -1999,19 +1987,6 @@
       <left style="thin">
         <color rgb="FF31363B"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF31363B"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF31363B"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium">
-        <color rgb="FF31363B"/>
-      </left>
       <right style="thin">
         <color rgb="FF31363B"/>
       </right>
@@ -2027,9 +2002,7 @@
       <left style="thin">
         <color rgb="FF31363B"/>
       </left>
-      <right style="thin">
-        <color rgb="FF31363B"/>
-      </right>
+      <right/>
       <top style="medium">
         <color rgb="FF31363B"/>
       </top>
@@ -2043,6 +2016,21 @@
         <color rgb="FF31363B"/>
       </left>
       <right style="medium">
+        <color rgb="FF31363B"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF31363B"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF31363B"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium">
+        <color rgb="FF31363B"/>
+      </left>
+      <right style="thin">
         <color rgb="FF31363B"/>
       </right>
       <top style="medium">
@@ -2377,7 +2365,31 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2421,44 +2433,20 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -3958,25 +3946,33 @@
   <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="K49" activeCellId="0" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="31.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="96.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="33.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="48.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="98.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="27.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="11" style="1" width="36.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="20.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="25.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="17.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="21.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="11.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="11.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="10.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="27.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="33.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="36.43"/>
@@ -4251,9 +4247,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" s="37" customFormat="true" ht="160.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" s="37" customFormat="true" ht="65.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="27" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B10" s="28" t="s">
         <v>47</v>
@@ -4312,7 +4308,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" s="37" customFormat="true" ht="132.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" s="37" customFormat="true" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="27" t="n">
         <v>40</v>
       </c>
@@ -4569,7 +4565,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" s="37" customFormat="true" ht="43.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="27" t="n">
         <v>150</v>
       </c>
@@ -4616,7 +4612,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" s="37" customFormat="true" ht="37.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="27" t="n">
         <v>151</v>
       </c>
@@ -4675,7 +4671,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" s="37" customFormat="true" ht="36.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="27" t="n">
         <v>152</v>
       </c>
@@ -4691,52 +4687,40 @@
       <c r="E18" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="32" t="s">
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="H18" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="I18" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="J18" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="K18" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="L18" s="33"/>
+      <c r="L18" s="42"/>
       <c r="M18" s="33" t="s">
         <v>56</v>
       </c>
       <c r="N18" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33" t="s">
-        <v>55</v>
-      </c>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
       <c r="Q18" s="33" t="s">
         <v>55</v>
       </c>
       <c r="R18" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="S18" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="T18" s="33"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="36" t="s">
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="45" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" s="37" customFormat="true" ht="23.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="27" t="n">
         <v>153</v>
       </c>
@@ -4747,22 +4731,22 @@
         <v>48</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>69</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H19" s="32" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J19" s="33" t="s">
         <v>55</v>
@@ -4795,7 +4779,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" s="37" customFormat="true" ht="28.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="27" t="n">
         <v>154</v>
       </c>
@@ -4806,22 +4790,22 @@
         <v>48</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>69</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H20" s="32" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I20" s="32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J20" s="33" t="s">
         <v>55</v>
@@ -4854,7 +4838,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" s="37" customFormat="true" ht="29.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="27" t="n">
         <v>155</v>
       </c>
@@ -4865,22 +4849,22 @@
         <v>48</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>69</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H21" s="32" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I21" s="32" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J21" s="33" t="s">
         <v>55</v>
@@ -4913,7 +4897,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" s="37" customFormat="true" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="27" t="n">
         <v>156</v>
       </c>
@@ -4924,22 +4908,22 @@
         <v>48</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>69</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H22" s="32" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I22" s="32" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J22" s="33" t="s">
         <v>55</v>
@@ -4972,7 +4956,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" s="37" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="27" t="n">
         <v>157</v>
       </c>
@@ -4983,22 +4967,22 @@
         <v>48</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>69</v>
       </c>
       <c r="G23" s="32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H23" s="32" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J23" s="33" t="s">
         <v>55</v>
@@ -5031,7 +5015,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" s="37" customFormat="true" ht="23.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="27" t="n">
         <v>158</v>
       </c>
@@ -5042,22 +5026,22 @@
         <v>48</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>69</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H24" s="32" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I24" s="32" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J24" s="33" t="s">
         <v>55</v>
@@ -5090,7 +5074,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" s="37" customFormat="true" ht="26.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="27" t="n">
         <v>159</v>
       </c>
@@ -5101,22 +5085,22 @@
         <v>48</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>69</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H25" s="32" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I25" s="32" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J25" s="33" t="s">
         <v>55</v>
@@ -5149,7 +5133,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" s="37" customFormat="true" ht="25.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="27" t="n">
         <v>160</v>
       </c>
@@ -5160,22 +5144,22 @@
         <v>48</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>69</v>
       </c>
       <c r="G26" s="32" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H26" s="32" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I26" s="32" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J26" s="33" t="s">
         <v>55</v>
@@ -5208,7 +5192,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" s="37" customFormat="true" ht="26.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="27" t="n">
         <v>161</v>
       </c>
@@ -5219,22 +5203,22 @@
         <v>48</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>69</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H27" s="32" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I27" s="32" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J27" s="33" t="s">
         <v>55</v>
@@ -5267,7 +5251,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" s="37" customFormat="true" ht="24.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="27" t="n">
         <v>162</v>
       </c>
@@ -5278,22 +5262,22 @@
         <v>48</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F28" s="30" t="s">
         <v>69</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H28" s="32" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I28" s="32" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J28" s="33" t="s">
         <v>55</v>
@@ -5326,7 +5310,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" s="37" customFormat="true" ht="32.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="27" t="n">
         <v>163</v>
       </c>
@@ -5337,22 +5321,22 @@
         <v>48</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E29" s="38" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F29" s="30" t="s">
         <v>69</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H29" s="32" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I29" s="32" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J29" s="33" t="s">
         <v>55</v>
@@ -5385,7 +5369,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" s="37" customFormat="true" ht="26.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="27" t="n">
         <v>164</v>
       </c>
@@ -5396,22 +5380,22 @@
         <v>48</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>69</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H30" s="32" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I30" s="32" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J30" s="33" t="s">
         <v>55</v>
@@ -5444,7 +5428,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" s="37" customFormat="true" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="27" t="n">
         <v>165</v>
       </c>
@@ -5455,22 +5439,22 @@
         <v>48</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F31" s="30" t="s">
         <v>69</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H31" s="32" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J31" s="33" t="s">
         <v>55</v>
@@ -5503,7 +5487,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" s="37" customFormat="true" ht="27.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="27" t="n">
         <v>166</v>
       </c>
@@ -5514,22 +5498,22 @@
         <v>48</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F32" s="30" t="s">
         <v>69</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H32" s="32" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I32" s="32" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J32" s="33" t="s">
         <v>55</v>
@@ -5562,7 +5546,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" s="37" customFormat="true" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="27" t="n">
         <v>167</v>
       </c>
@@ -5573,22 +5557,22 @@
         <v>48</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F33" s="30" t="s">
         <v>69</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H33" s="32" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I33" s="32" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J33" s="33" t="s">
         <v>55</v>
@@ -5612,7 +5596,7 @@
         <v>55</v>
       </c>
       <c r="S33" s="33" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="T33" s="33"/>
       <c r="U33" s="34"/>
@@ -5621,7 +5605,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" s="37" customFormat="true" ht="24.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="27" t="n">
         <v>168</v>
       </c>
@@ -5632,22 +5616,22 @@
         <v>48</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F34" s="30" t="s">
         <v>69</v>
       </c>
       <c r="G34" s="32" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H34" s="32" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I34" s="32" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J34" s="33" t="s">
         <v>55</v>
@@ -5671,7 +5655,7 @@
         <v>55</v>
       </c>
       <c r="S34" s="33" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="T34" s="33"/>
       <c r="U34" s="34"/>
@@ -5680,7 +5664,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" s="37" customFormat="true" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="27" t="n">
         <v>169</v>
       </c>
@@ -5691,22 +5675,22 @@
         <v>48</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F35" s="30" t="s">
         <v>69</v>
       </c>
       <c r="G35" s="32" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H35" s="32" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I35" s="32" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J35" s="33" t="s">
         <v>55</v>
@@ -5739,1008 +5723,1012 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="594.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="40" t="n">
+    <row r="36" customFormat="false" ht="29.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="46" t="n">
         <v>374</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="41" t="s">
+      <c r="D36" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="E36" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="F36" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="H36" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="E36" s="42" t="s">
+      <c r="I36" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="F36" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="G36" s="44" t="s">
+      <c r="J36" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" s="37" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="H36" s="45" t="s">
+      <c r="D37" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="I36" s="45" t="s">
+      <c r="E37" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="J36" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="K36" s="46"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="46"/>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="47"/>
-      <c r="S36" s="48"/>
-      <c r="T36" s="49" t="s">
+      <c r="F37" s="39" t="n">
+        <v>45362</v>
+      </c>
+      <c r="G37" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="H37" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="I37" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="J37" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R37" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S37" s="42"/>
+      <c r="T37" s="42"/>
+      <c r="U37" s="43"/>
+      <c r="V37" s="44"/>
+      <c r="W37" s="45" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="B37" s="51" t="s">
+    <row r="38" s="37" customFormat="true" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="B38" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="D37" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="E37" s="52" t="s">
-        <v>193</v>
-      </c>
-      <c r="F37" s="53" t="n">
+      <c r="C38" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="D38" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="E38" s="58" t="s">
+        <v>195</v>
+      </c>
+      <c r="F38" s="39" t="n">
         <v>45362</v>
       </c>
-      <c r="G37" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="H37" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="I37" s="54" t="s">
+      <c r="G38" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="J37" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="R37" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="S37" s="39"/>
-      <c r="T37" s="39"/>
-      <c r="U37" s="55"/>
-      <c r="V37" s="56"/>
-      <c r="W37" s="57" t="s">
+      <c r="H38" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="I38" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="J38" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R38" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S38" s="42"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="44"/>
+      <c r="W38" s="45" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="50" t="n">
-        <v>2</v>
-      </c>
-      <c r="B38" s="51" t="s">
+    <row r="39" s="37" customFormat="true" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="56" t="n">
+        <v>3</v>
+      </c>
+      <c r="B39" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="D38" s="51" t="s">
-        <v>197</v>
-      </c>
-      <c r="E38" s="52" t="s">
-        <v>198</v>
-      </c>
-      <c r="F38" s="53" t="n">
+      <c r="C39" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="D39" s="57" t="s">
+        <v>199</v>
+      </c>
+      <c r="E39" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="F39" s="39" t="n">
         <v>45362</v>
       </c>
-      <c r="G38" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="H38" s="54" t="s">
-        <v>200</v>
-      </c>
-      <c r="I38" s="54" t="s">
+      <c r="G39" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="H39" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="J38" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="39"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="39"/>
-      <c r="Q38" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="R38" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="S38" s="39"/>
-      <c r="T38" s="39"/>
-      <c r="U38" s="55"/>
-      <c r="V38" s="56"/>
-      <c r="W38" s="57" t="s">
+      <c r="I39" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="J39" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R39" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S39" s="42"/>
+      <c r="T39" s="42"/>
+      <c r="U39" s="43"/>
+      <c r="V39" s="44"/>
+      <c r="W39" s="45" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="B39" s="51" t="s">
+    <row r="40" s="37" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="56" t="n">
+        <v>4</v>
+      </c>
+      <c r="B40" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="D39" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="E39" s="52" t="s">
+      <c r="C40" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="D40" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="F39" s="53" t="n">
+      <c r="E40" s="58" t="s">
+        <v>204</v>
+      </c>
+      <c r="F40" s="39" t="n">
         <v>45362</v>
       </c>
-      <c r="G39" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="H39" s="54" t="s">
-        <v>204</v>
-      </c>
-      <c r="I39" s="54" t="s">
+      <c r="G40" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="J39" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="R39" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="S39" s="39"/>
-      <c r="T39" s="39"/>
-      <c r="U39" s="55"/>
-      <c r="V39" s="56"/>
-      <c r="W39" s="57" t="s">
+      <c r="H40" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="I40" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="J40" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R40" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S40" s="42"/>
+      <c r="T40" s="42"/>
+      <c r="U40" s="43"/>
+      <c r="V40" s="44"/>
+      <c r="W40" s="45" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="50" t="n">
-        <v>4</v>
-      </c>
-      <c r="B40" s="51" t="s">
+    <row r="41" s="37" customFormat="true" ht="27.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="56" t="n">
+        <v>5</v>
+      </c>
+      <c r="B41" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="D40" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="E40" s="52" t="s">
-        <v>207</v>
-      </c>
-      <c r="F40" s="53" t="n">
+      <c r="C41" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="D41" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="E41" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="F41" s="39" t="n">
         <v>45362</v>
       </c>
-      <c r="G40" s="54" t="s">
-        <v>208</v>
-      </c>
-      <c r="H40" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="I40" s="54" t="s">
+      <c r="G41" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="J40" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="R40" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="S40" s="39"/>
-      <c r="T40" s="39"/>
-      <c r="U40" s="55"/>
-      <c r="V40" s="56"/>
-      <c r="W40" s="57" t="s">
+      <c r="H41" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="I41" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="J41" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R41" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S41" s="42"/>
+      <c r="T41" s="42"/>
+      <c r="U41" s="43"/>
+      <c r="V41" s="44"/>
+      <c r="W41" s="45" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="50" t="n">
-        <v>5</v>
-      </c>
-      <c r="B41" s="51" t="s">
+    <row r="42" s="37" customFormat="true" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="56" t="n">
+        <v>28</v>
+      </c>
+      <c r="B42" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="D41" s="51" t="s">
-        <v>211</v>
-      </c>
-      <c r="E41" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="F41" s="53" t="n">
+      <c r="C42" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="D42" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="E42" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="F42" s="39" t="n">
         <v>45362</v>
       </c>
-      <c r="G41" s="54" t="s">
-        <v>213</v>
-      </c>
-      <c r="H41" s="54" t="s">
-        <v>214</v>
-      </c>
-      <c r="I41" s="54" t="s">
+      <c r="G42" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="J41" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="R41" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="S41" s="39"/>
-      <c r="T41" s="39"/>
-      <c r="U41" s="55"/>
-      <c r="V41" s="56"/>
-      <c r="W41" s="57" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="50" t="n">
-        <v>28</v>
-      </c>
-      <c r="B42" s="51" t="s">
+      <c r="H42" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="I42" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="J42" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="N42" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="O42" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="P42" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q42" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R42" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S42" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="T42" s="42"/>
+      <c r="U42" s="43"/>
+      <c r="V42" s="44"/>
+      <c r="W42" s="45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" s="37" customFormat="true" ht="28.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="56" t="n">
+        <v>36</v>
+      </c>
+      <c r="B43" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="D42" s="51" t="s">
-        <v>216</v>
-      </c>
-      <c r="E42" s="58" t="s">
+      <c r="C43" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="D43" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="E43" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="F43" s="39" t="n">
+        <v>45362</v>
+      </c>
+      <c r="G43" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="H43" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="I43" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="J43" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="N43" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="O43" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="P43" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q43" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R43" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S43" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="T43" s="42"/>
+      <c r="U43" s="43"/>
+      <c r="V43" s="44"/>
+      <c r="W43" s="45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" s="37" customFormat="true" ht="24.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="56" t="n">
+        <v>44</v>
+      </c>
+      <c r="B44" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="D44" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="E44" s="58" t="s">
+        <v>225</v>
+      </c>
+      <c r="F44" s="39"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="N44" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="O44" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="P44" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q44" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R44" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S44" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="T44" s="42"/>
+      <c r="U44" s="43"/>
+      <c r="V44" s="44"/>
+      <c r="W44" s="45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" s="37" customFormat="true" ht="28.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="56" t="n">
+        <v>52</v>
+      </c>
+      <c r="B45" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="D45" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="E45" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="F45" s="39"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="K45" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R45" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S45" s="42"/>
+      <c r="T45" s="42"/>
+      <c r="U45" s="43"/>
+      <c r="V45" s="44"/>
+      <c r="W45" s="45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" s="37" customFormat="true" ht="30.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="56" t="n">
+        <v>53</v>
+      </c>
+      <c r="B46" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="D46" s="57" t="s">
+        <v>231</v>
+      </c>
+      <c r="E46" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="F46" s="39"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="K46" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="L46" s="42"/>
+      <c r="M46" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="N46" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R46" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S46" s="42"/>
+      <c r="T46" s="42"/>
+      <c r="U46" s="43"/>
+      <c r="V46" s="44"/>
+      <c r="W46" s="45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" s="37" customFormat="true" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="56" t="n">
+        <v>54</v>
+      </c>
+      <c r="B47" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="D47" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="E47" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="F47" s="39"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="K47" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R47" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S47" s="42"/>
+      <c r="T47" s="42"/>
+      <c r="U47" s="43"/>
+      <c r="V47" s="44"/>
+      <c r="W47" s="45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B48" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="D48" s="57" t="s">
+        <v>236</v>
+      </c>
+      <c r="E48" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="F48" s="39"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="K48" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="42"/>
+      <c r="P48" s="42"/>
+      <c r="Q48" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R48" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S48" s="42"/>
+      <c r="T48" s="42"/>
+      <c r="U48" s="43"/>
+      <c r="V48" s="44"/>
+      <c r="W48" s="45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="56" t="n">
+        <v>56</v>
+      </c>
+      <c r="B49" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="D49" s="57" t="s">
+        <v>239</v>
+      </c>
+      <c r="E49" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="F49" s="39"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="K49" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="L49" s="42"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="42"/>
+      <c r="P49" s="42"/>
+      <c r="Q49" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R49" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S49" s="42"/>
+      <c r="T49" s="42"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="44"/>
+      <c r="W49" s="45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="56" t="n">
+        <v>57</v>
+      </c>
+      <c r="B50" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="D50" s="57" t="s">
+        <v>242</v>
+      </c>
+      <c r="E50" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="F50" s="39"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="K50" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="42"/>
+      <c r="Q50" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R50" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S50" s="42"/>
+      <c r="T50" s="42"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="56" t="n">
+        <v>58</v>
+      </c>
+      <c r="B51" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="D51" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="E51" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="F51" s="39"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="K51" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="42"/>
+      <c r="Q51" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R51" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S51" s="42"/>
+      <c r="T51" s="42"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="56" t="n">
+        <v>59</v>
+      </c>
+      <c r="B52" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="D52" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="E52" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="F52" s="39"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="K52" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R52" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S52" s="42"/>
+      <c r="T52" s="42"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="44"/>
+      <c r="W52" s="45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="56" t="n">
+        <v>60</v>
+      </c>
+      <c r="B53" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="D53" s="57" t="s">
+        <v>251</v>
+      </c>
+      <c r="E53" s="58" t="s">
+        <v>252</v>
+      </c>
+      <c r="F53" s="39" t="n">
+        <v>45362</v>
+      </c>
+      <c r="G53" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="H53" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="I53" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="J53" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="K53" s="42"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="N53" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="O53" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="P53" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q53" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R53" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S53" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="F42" s="53" t="n">
+      <c r="T53" s="42"/>
+      <c r="U53" s="43"/>
+      <c r="V53" s="44"/>
+      <c r="W53" s="45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="56" t="n">
+        <v>61</v>
+      </c>
+      <c r="B54" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="D54" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="E54" s="58" t="s">
+        <v>257</v>
+      </c>
+      <c r="F54" s="39"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="K54" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="L54" s="42"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="42"/>
+      <c r="O54" s="42"/>
+      <c r="P54" s="42"/>
+      <c r="Q54" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R54" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S54" s="42"/>
+      <c r="T54" s="42"/>
+      <c r="U54" s="43"/>
+      <c r="V54" s="44"/>
+      <c r="W54" s="45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="56" t="n">
+        <v>62</v>
+      </c>
+      <c r="B55" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="D55" s="57" t="s">
+        <v>259</v>
+      </c>
+      <c r="E55" s="58" t="s">
+        <v>260</v>
+      </c>
+      <c r="F55" s="39" t="n">
         <v>45362</v>
       </c>
-      <c r="G42" s="54" t="s">
-        <v>218</v>
-      </c>
-      <c r="H42" s="54" t="s">
-        <v>219</v>
-      </c>
-      <c r="I42" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="J42" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="N42" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="O42" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="P42" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q42" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="R42" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="S42" s="39" t="s">
-        <v>220</v>
-      </c>
-      <c r="T42" s="39"/>
-      <c r="U42" s="55"/>
-      <c r="V42" s="56"/>
-      <c r="W42" s="57" t="s">
+      <c r="G55" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="H55" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="I55" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="J55" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="N55" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="O55" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="P55" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q55" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R55" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S55" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="T55" s="42"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="44"/>
+      <c r="W55" s="45" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="50" t="n">
-        <v>36</v>
-      </c>
-      <c r="B43" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="D43" s="51" t="s">
-        <v>221</v>
-      </c>
-      <c r="E43" s="58" t="s">
-        <v>222</v>
-      </c>
-      <c r="F43" s="53" t="n">
-        <v>45362</v>
-      </c>
-      <c r="G43" s="54" t="s">
-        <v>223</v>
-      </c>
-      <c r="H43" s="54" t="s">
-        <v>224</v>
-      </c>
-      <c r="I43" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="J43" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="K43" s="39"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="N43" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="O43" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="P43" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q43" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="R43" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="S43" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="T43" s="39"/>
-      <c r="U43" s="55"/>
-      <c r="V43" s="56"/>
-      <c r="W43" s="57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="50" t="n">
-        <v>44</v>
-      </c>
-      <c r="B44" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="D44" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="E44" s="52" t="s">
-        <v>228</v>
-      </c>
-      <c r="F44" s="53"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="K44" s="39"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="N44" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="O44" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="P44" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q44" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="R44" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="S44" s="39" t="s">
-        <v>230</v>
-      </c>
-      <c r="T44" s="39"/>
-      <c r="U44" s="55"/>
-      <c r="V44" s="56"/>
-      <c r="W44" s="57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="50" t="n">
-        <v>52</v>
-      </c>
-      <c r="B45" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="D45" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="E45" s="52" t="s">
-        <v>232</v>
-      </c>
-      <c r="F45" s="53"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="K45" s="39" t="s">
-        <v>233</v>
-      </c>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="39"/>
-      <c r="O45" s="39"/>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="R45" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="S45" s="39"/>
-      <c r="T45" s="39"/>
-      <c r="U45" s="55"/>
-      <c r="V45" s="56"/>
-      <c r="W45" s="57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="50" t="n">
-        <v>53</v>
-      </c>
-      <c r="B46" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="D46" s="51" t="s">
-        <v>234</v>
-      </c>
-      <c r="E46" s="52" t="s">
-        <v>235</v>
-      </c>
-      <c r="F46" s="53"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="K46" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="39"/>
-      <c r="O46" s="39"/>
-      <c r="P46" s="39"/>
-      <c r="Q46" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="R46" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="S46" s="39"/>
-      <c r="T46" s="39"/>
-      <c r="U46" s="55"/>
-      <c r="V46" s="56"/>
-      <c r="W46" s="57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="50" t="n">
-        <v>54</v>
-      </c>
-      <c r="B47" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="D47" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="E47" s="52" t="s">
-        <v>238</v>
-      </c>
-      <c r="F47" s="53"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="K47" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="39"/>
-      <c r="O47" s="39"/>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="R47" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="S47" s="39"/>
-      <c r="T47" s="39"/>
-      <c r="U47" s="55"/>
-      <c r="V47" s="56"/>
-      <c r="W47" s="57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="50" t="n">
-        <v>55</v>
-      </c>
-      <c r="B48" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="D48" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="E48" s="52" t="s">
-        <v>241</v>
-      </c>
-      <c r="F48" s="53"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="K48" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="L48" s="39"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="39"/>
-      <c r="O48" s="39"/>
-      <c r="P48" s="39"/>
-      <c r="Q48" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="R48" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="S48" s="39"/>
-      <c r="T48" s="39"/>
-      <c r="U48" s="55"/>
-      <c r="V48" s="56"/>
-      <c r="W48" s="57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="50" t="n">
-        <v>56</v>
-      </c>
-      <c r="B49" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="D49" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="E49" s="52" t="s">
-        <v>244</v>
-      </c>
-      <c r="F49" s="53"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="K49" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="39"/>
-      <c r="O49" s="39"/>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="R49" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="S49" s="39"/>
-      <c r="T49" s="39"/>
-      <c r="U49" s="55"/>
-      <c r="V49" s="56"/>
-      <c r="W49" s="57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="50" t="n">
-        <v>57</v>
-      </c>
-      <c r="B50" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="D50" s="51" t="s">
-        <v>246</v>
-      </c>
-      <c r="E50" s="52" t="s">
-        <v>247</v>
-      </c>
-      <c r="F50" s="53"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="54"/>
-      <c r="J50" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="K50" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="39"/>
-      <c r="O50" s="39"/>
-      <c r="P50" s="39"/>
-      <c r="Q50" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="R50" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="S50" s="39"/>
-      <c r="T50" s="39"/>
-      <c r="U50" s="55"/>
-      <c r="V50" s="56"/>
-      <c r="W50" s="57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="50" t="n">
-        <v>58</v>
-      </c>
-      <c r="B51" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="D51" s="51" t="s">
-        <v>249</v>
-      </c>
-      <c r="E51" s="52" t="s">
-        <v>250</v>
-      </c>
-      <c r="F51" s="53"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="K51" s="39" t="s">
-        <v>251</v>
-      </c>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39"/>
-      <c r="N51" s="39"/>
-      <c r="O51" s="39"/>
-      <c r="P51" s="39"/>
-      <c r="Q51" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="R51" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="S51" s="39"/>
-      <c r="T51" s="39"/>
-      <c r="U51" s="55"/>
-      <c r="V51" s="56"/>
-      <c r="W51" s="57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="50" t="n">
-        <v>59</v>
-      </c>
-      <c r="B52" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C52" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="D52" s="51" t="s">
-        <v>252</v>
-      </c>
-      <c r="E52" s="52" t="s">
-        <v>253</v>
-      </c>
-      <c r="F52" s="53"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="K52" s="39" t="s">
-        <v>254</v>
-      </c>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="39"/>
-      <c r="O52" s="39"/>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="R52" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="S52" s="39"/>
-      <c r="T52" s="39"/>
-      <c r="U52" s="55"/>
-      <c r="V52" s="56"/>
-      <c r="W52" s="57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="50" t="n">
-        <v>60</v>
-      </c>
-      <c r="B53" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="D53" s="51" t="s">
-        <v>255</v>
-      </c>
-      <c r="E53" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="F53" s="53" t="n">
-        <v>45362</v>
-      </c>
-      <c r="G53" s="59" t="s">
-        <v>257</v>
-      </c>
-      <c r="H53" s="54" t="s">
-        <v>258</v>
-      </c>
-      <c r="I53" s="54" t="s">
-        <v>259</v>
-      </c>
-      <c r="J53" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="K53" s="39"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="N53" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="O53" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="P53" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q53" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="R53" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="S53" s="39" t="s">
-        <v>220</v>
-      </c>
-      <c r="T53" s="39"/>
-      <c r="U53" s="55"/>
-      <c r="V53" s="56"/>
-      <c r="W53" s="57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="50" t="n">
-        <v>61</v>
-      </c>
-      <c r="B54" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C54" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="D54" s="51" t="s">
-        <v>260</v>
-      </c>
-      <c r="E54" s="52" t="s">
-        <v>261</v>
-      </c>
-      <c r="F54" s="53"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="54"/>
-      <c r="J54" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="K54" s="39" t="s">
-        <v>262</v>
-      </c>
-      <c r="L54" s="39"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="39"/>
-      <c r="O54" s="39"/>
-      <c r="P54" s="39"/>
-      <c r="Q54" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="R54" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="S54" s="39"/>
-      <c r="T54" s="39"/>
-      <c r="U54" s="55"/>
-      <c r="V54" s="56"/>
-      <c r="W54" s="57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="55" s="37" customFormat="true" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="50" t="n">
-        <v>62</v>
-      </c>
-      <c r="B55" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C55" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="D55" s="51" t="s">
-        <v>263</v>
-      </c>
-      <c r="E55" s="52" t="s">
-        <v>264</v>
-      </c>
-      <c r="F55" s="53" t="n">
-        <v>45362</v>
-      </c>
-      <c r="G55" s="59" t="s">
-        <v>265</v>
-      </c>
-      <c r="H55" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="I55" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="J55" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="N55" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="O55" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="P55" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q55" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="R55" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="S55" s="39" t="s">
-        <v>220</v>
-      </c>
-      <c r="T55" s="39"/>
-      <c r="U55" s="55"/>
-      <c r="V55" s="56"/>
-      <c r="W55" s="57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="174" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="52.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="60" t="n">
         <v>191</v>
       </c>
@@ -6748,27 +6736,29 @@
         <v>47</v>
       </c>
       <c r="C56" s="61" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D56" s="61" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E56" s="62" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F56" s="63" t="s">
         <v>69</v>
       </c>
       <c r="G56" s="64" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H56" s="64" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I56" s="64" t="s">
-        <v>272</v>
-      </c>
-      <c r="J56" s="65"/>
+        <v>268</v>
+      </c>
+      <c r="J56" s="42" t="s">
+        <v>55</v>
+      </c>
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
@@ -6781,13 +6771,13 @@
       <c r="T56" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="U56" s="55"/>
-      <c r="V56" s="55"/>
-      <c r="W56" s="57" t="s">
+      <c r="U56" s="43"/>
+      <c r="V56" s="43"/>
+      <c r="W56" s="45" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="174" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="23.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="60" t="n">
         <v>368</v>
       </c>
@@ -6795,27 +6785,29 @@
         <v>47</v>
       </c>
       <c r="C57" s="61" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D57" s="61" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E57" s="62" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F57" s="63" t="s">
         <v>69</v>
       </c>
       <c r="G57" s="64" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H57" s="64" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I57" s="64" t="s">
-        <v>277</v>
-      </c>
-      <c r="J57" s="65"/>
+        <v>273</v>
+      </c>
+      <c r="J57" s="42" t="s">
+        <v>55</v>
+      </c>
       <c r="K57" s="65"/>
       <c r="L57" s="65"/>
       <c r="M57" s="65"/>
@@ -6828,12 +6820,12 @@
       <c r="T57" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="V57" s="55"/>
-      <c r="W57" s="57" t="s">
+      <c r="V57" s="43"/>
+      <c r="W57" s="45" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="174" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="60" t="n">
         <v>376</v>
       </c>
@@ -6841,27 +6833,29 @@
         <v>47</v>
       </c>
       <c r="C58" s="61" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D58" s="61" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E58" s="62" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F58" s="63" t="s">
         <v>69</v>
       </c>
       <c r="G58" s="64" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H58" s="64" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I58" s="64" t="s">
-        <v>282</v>
-      </c>
-      <c r="J58" s="65"/>
+        <v>278</v>
+      </c>
+      <c r="J58" s="42" t="s">
+        <v>55</v>
+      </c>
       <c r="K58" s="65"/>
       <c r="L58" s="65"/>
       <c r="M58" s="65"/>
@@ -6874,9 +6868,9 @@
       <c r="T58" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="U58" s="55"/>
-      <c r="V58" s="55"/>
-      <c r="W58" s="57" t="s">
+      <c r="U58" s="43"/>
+      <c r="V58" s="43"/>
+      <c r="W58" s="45" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8919,15 +8913,15 @@
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J37:J55 L37:N55 P37:P55" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J18 L18 P18 J37:J56 L37:N45 P37:P55 L46 L47:N55 J57:J58" type="list">
       <formula1>Summary!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T37:T55" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T18 T37:T55" type="list">
       <formula1>Summary!$A$2:$A$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J36 L36:M36 O36 J56:J58 L56:M58 O56:O58" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J36 L36:M36 O36 L56:M58 O56:O58" type="list">
       <formula1>Summary!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8963,42 +8957,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -9038,106 +9032,106 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="18" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F1" s="70" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G1" s="71" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="72" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B2" s="72" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C2" s="73" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D2" s="73" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="72" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B3" s="72" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" s="73" t="s">
         <v>296</v>
       </c>
-      <c r="C3" s="73" t="s">
-        <v>300</v>
-      </c>
       <c r="D3" s="73" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="72" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B4" s="72" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C4" s="73" t="n">
         <v>446.447</v>
       </c>
       <c r="D4" s="74" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="72" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B5" s="72" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C5" s="73" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="72" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B6" s="72" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C6" s="73" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D6" s="74" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="72" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B7" s="72" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C7" s="73" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D7" s="74" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9145,55 +9139,55 @@
         <v>48</v>
       </c>
       <c r="B8" s="72" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C8" s="73" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D8" s="74" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="72" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B9" s="72" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C9" s="73" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D9" s="74" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="72" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B10" s="72" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C10" s="74" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D10" s="73" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="72" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B11" s="72" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C11" s="73" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D11" s="74" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -10186,7 +10180,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="75" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B2" s="75" t="s">
         <v>55</v>
@@ -10194,7 +10188,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="75" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B3" s="75" t="s">
         <v>56</v>

--- a/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="322">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -527,6 +527,9 @@
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Altro (specificare)</t>
   </si>
   <si>
     <t xml:space="preserve">Il codice fiscale e' solo maiuscolo</t>
@@ -1302,9 +1305,6 @@
   </si>
   <si>
     <t xml:space="preserve">L’applicativo effettua controlli preventivi sul dato inserito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Altro (specificare)</t>
   </si>
   <si>
     <t xml:space="preserve">TIPO DOCUMENTO</t>
@@ -3946,11 +3946,11 @@
   <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="H53" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K49" activeCellId="0" sqref="K49"/>
+      <selection pane="bottomLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
+      <selection pane="bottomRight" activeCell="K53" activeCellId="0" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3963,11 +3963,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="20.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="25.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="25.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="17.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="21.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="11.77"/>
@@ -4697,7 +4697,9 @@
       <c r="K18" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="L18" s="42"/>
+      <c r="L18" s="42" t="s">
+        <v>97</v>
+      </c>
       <c r="M18" s="33" t="s">
         <v>56</v>
       </c>
@@ -4731,22 +4733,22 @@
         <v>48</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>69</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H19" s="32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J19" s="33" t="s">
         <v>55</v>
@@ -4790,22 +4792,22 @@
         <v>48</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>69</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H20" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I20" s="32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J20" s="33" t="s">
         <v>55</v>
@@ -4849,22 +4851,22 @@
         <v>48</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>69</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H21" s="32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I21" s="32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J21" s="33" t="s">
         <v>55</v>
@@ -4908,22 +4910,22 @@
         <v>48</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>69</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H22" s="32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I22" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J22" s="33" t="s">
         <v>55</v>
@@ -4967,22 +4969,22 @@
         <v>48</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>69</v>
       </c>
       <c r="G23" s="32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H23" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J23" s="33" t="s">
         <v>55</v>
@@ -5026,22 +5028,22 @@
         <v>48</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>69</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H24" s="32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I24" s="32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J24" s="33" t="s">
         <v>55</v>
@@ -5085,22 +5087,22 @@
         <v>48</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>69</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H25" s="32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I25" s="32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J25" s="33" t="s">
         <v>55</v>
@@ -5144,22 +5146,22 @@
         <v>48</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>69</v>
       </c>
       <c r="G26" s="32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H26" s="32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I26" s="32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J26" s="33" t="s">
         <v>55</v>
@@ -5203,22 +5205,22 @@
         <v>48</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>69</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H27" s="32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I27" s="32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J27" s="33" t="s">
         <v>55</v>
@@ -5262,22 +5264,22 @@
         <v>48</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F28" s="30" t="s">
         <v>69</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H28" s="32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I28" s="32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J28" s="33" t="s">
         <v>55</v>
@@ -5321,22 +5323,22 @@
         <v>48</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E29" s="38" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F29" s="30" t="s">
         <v>69</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H29" s="32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I29" s="32" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J29" s="33" t="s">
         <v>55</v>
@@ -5380,22 +5382,22 @@
         <v>48</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>69</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H30" s="32" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I30" s="32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J30" s="33" t="s">
         <v>55</v>
@@ -5439,22 +5441,22 @@
         <v>48</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F31" s="30" t="s">
         <v>69</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H31" s="32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J31" s="33" t="s">
         <v>55</v>
@@ -5498,22 +5500,22 @@
         <v>48</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F32" s="30" t="s">
         <v>69</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H32" s="32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I32" s="32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J32" s="33" t="s">
         <v>55</v>
@@ -5557,22 +5559,22 @@
         <v>48</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F33" s="30" t="s">
         <v>69</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H33" s="32" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I33" s="32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J33" s="33" t="s">
         <v>55</v>
@@ -5596,7 +5598,7 @@
         <v>55</v>
       </c>
       <c r="S33" s="33" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="T33" s="33"/>
       <c r="U33" s="34"/>
@@ -5616,22 +5618,22 @@
         <v>48</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F34" s="30" t="s">
         <v>69</v>
       </c>
       <c r="G34" s="32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H34" s="32" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I34" s="32" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J34" s="33" t="s">
         <v>55</v>
@@ -5655,7 +5657,7 @@
         <v>55</v>
       </c>
       <c r="S34" s="33" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="T34" s="33"/>
       <c r="U34" s="34"/>
@@ -5675,22 +5677,22 @@
         <v>48</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F35" s="30" t="s">
         <v>69</v>
       </c>
       <c r="G35" s="32" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H35" s="32" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I35" s="32" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J35" s="33" t="s">
         <v>55</v>
@@ -5734,22 +5736,22 @@
         <v>48</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E36" s="48" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F36" s="49" t="s">
         <v>69</v>
       </c>
       <c r="G36" s="50" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H36" s="51" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I36" s="51" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J36" s="52" t="s">
         <v>55</v>
@@ -5775,25 +5777,25 @@
         <v>47</v>
       </c>
       <c r="C37" s="57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D37" s="57" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E37" s="58" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F37" s="39" t="n">
         <v>45362</v>
       </c>
       <c r="G37" s="41" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H37" s="41" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I37" s="41" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J37" s="42" t="s">
         <v>55</v>
@@ -5826,25 +5828,25 @@
         <v>47</v>
       </c>
       <c r="C38" s="57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D38" s="57" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E38" s="58" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F38" s="39" t="n">
         <v>45362</v>
       </c>
       <c r="G38" s="41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H38" s="41" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I38" s="41" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J38" s="42" t="s">
         <v>55</v>
@@ -5877,25 +5879,25 @@
         <v>47</v>
       </c>
       <c r="C39" s="57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D39" s="57" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E39" s="58" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F39" s="39" t="n">
         <v>45362</v>
       </c>
       <c r="G39" s="41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H39" s="41" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I39" s="41" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J39" s="42" t="s">
         <v>55</v>
@@ -5928,25 +5930,25 @@
         <v>47</v>
       </c>
       <c r="C40" s="57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D40" s="57" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E40" s="58" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F40" s="39" t="n">
         <v>45362</v>
       </c>
       <c r="G40" s="41" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H40" s="41" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I40" s="41" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J40" s="42" t="s">
         <v>55</v>
@@ -5979,25 +5981,25 @@
         <v>47</v>
       </c>
       <c r="C41" s="57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D41" s="57" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E41" s="58" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F41" s="39" t="n">
         <v>45362</v>
       </c>
       <c r="G41" s="41" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H41" s="41" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I41" s="41" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J41" s="42" t="s">
         <v>55</v>
@@ -6030,22 +6032,22 @@
         <v>47</v>
       </c>
       <c r="C42" s="57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D42" s="57" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E42" s="59" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F42" s="39" t="n">
         <v>45362</v>
       </c>
       <c r="G42" s="41" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H42" s="41" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I42" s="41" t="s">
         <v>54</v>
@@ -6074,7 +6076,7 @@
         <v>55</v>
       </c>
       <c r="S42" s="42" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="T42" s="42"/>
       <c r="U42" s="43"/>
@@ -6091,22 +6093,22 @@
         <v>47</v>
       </c>
       <c r="C43" s="57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D43" s="57" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E43" s="59" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F43" s="39" t="n">
         <v>45362</v>
       </c>
       <c r="G43" s="41" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H43" s="41" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I43" s="41" t="s">
         <v>54</v>
@@ -6123,7 +6125,7 @@
         <v>55</v>
       </c>
       <c r="O43" s="42" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P43" s="42" t="s">
         <v>55</v>
@@ -6135,7 +6137,7 @@
         <v>55</v>
       </c>
       <c r="S43" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="T43" s="42"/>
       <c r="U43" s="43"/>
@@ -6152,13 +6154,13 @@
         <v>47</v>
       </c>
       <c r="C44" s="57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D44" s="57" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E44" s="58" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F44" s="39"/>
       <c r="G44" s="41"/>
@@ -6176,7 +6178,7 @@
         <v>55</v>
       </c>
       <c r="O44" s="42" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P44" s="42" t="s">
         <v>55</v>
@@ -6188,7 +6190,7 @@
         <v>55</v>
       </c>
       <c r="S44" s="42" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="T44" s="42"/>
       <c r="U44" s="43"/>
@@ -6205,13 +6207,13 @@
         <v>47</v>
       </c>
       <c r="C45" s="57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D45" s="57" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E45" s="58" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F45" s="39"/>
       <c r="G45" s="40"/>
@@ -6221,9 +6223,11 @@
         <v>56</v>
       </c>
       <c r="K45" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="L45" s="42"/>
+        <v>96</v>
+      </c>
+      <c r="L45" s="42" t="s">
+        <v>231</v>
+      </c>
       <c r="M45" s="42"/>
       <c r="N45" s="42"/>
       <c r="O45" s="42"/>
@@ -6250,13 +6254,13 @@
         <v>47</v>
       </c>
       <c r="C46" s="57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D46" s="57" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E46" s="58" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F46" s="39"/>
       <c r="G46" s="40"/>
@@ -6268,7 +6272,9 @@
       <c r="K46" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="L46" s="42"/>
+      <c r="L46" s="42" t="s">
+        <v>97</v>
+      </c>
       <c r="M46" s="33" t="s">
         <v>56</v>
       </c>
@@ -6299,13 +6305,13 @@
         <v>47</v>
       </c>
       <c r="C47" s="57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D47" s="57" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E47" s="58" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F47" s="39"/>
       <c r="G47" s="40"/>
@@ -6315,9 +6321,11 @@
         <v>56</v>
       </c>
       <c r="K47" s="42" t="s">
-        <v>235</v>
-      </c>
-      <c r="L47" s="42"/>
+        <v>96</v>
+      </c>
+      <c r="L47" s="42" t="s">
+        <v>236</v>
+      </c>
       <c r="M47" s="42"/>
       <c r="N47" s="42"/>
       <c r="O47" s="42"/>
@@ -6344,13 +6352,13 @@
         <v>47</v>
       </c>
       <c r="C48" s="57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D48" s="57" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E48" s="58" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F48" s="39"/>
       <c r="G48" s="40"/>
@@ -6360,9 +6368,11 @@
         <v>56</v>
       </c>
       <c r="K48" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="L48" s="42"/>
+        <v>96</v>
+      </c>
+      <c r="L48" s="42" t="s">
+        <v>239</v>
+      </c>
       <c r="M48" s="42"/>
       <c r="N48" s="42"/>
       <c r="O48" s="42"/>
@@ -6389,13 +6399,13 @@
         <v>47</v>
       </c>
       <c r="C49" s="57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D49" s="57" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E49" s="58" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F49" s="39"/>
       <c r="G49" s="40"/>
@@ -6405,9 +6415,11 @@
         <v>56</v>
       </c>
       <c r="K49" s="42" t="s">
-        <v>241</v>
-      </c>
-      <c r="L49" s="42"/>
+        <v>96</v>
+      </c>
+      <c r="L49" s="42" t="s">
+        <v>242</v>
+      </c>
       <c r="M49" s="42"/>
       <c r="N49" s="42"/>
       <c r="O49" s="42"/>
@@ -6434,13 +6446,13 @@
         <v>47</v>
       </c>
       <c r="C50" s="57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D50" s="57" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E50" s="58" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F50" s="39"/>
       <c r="G50" s="40"/>
@@ -6450,9 +6462,11 @@
         <v>56</v>
       </c>
       <c r="K50" s="42" t="s">
-        <v>244</v>
-      </c>
-      <c r="L50" s="42"/>
+        <v>96</v>
+      </c>
+      <c r="L50" s="42" t="s">
+        <v>245</v>
+      </c>
       <c r="M50" s="42"/>
       <c r="N50" s="42"/>
       <c r="O50" s="42"/>
@@ -6479,13 +6493,13 @@
         <v>47</v>
       </c>
       <c r="C51" s="57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D51" s="57" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E51" s="58" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F51" s="39"/>
       <c r="G51" s="40"/>
@@ -6495,9 +6509,11 @@
         <v>56</v>
       </c>
       <c r="K51" s="42" t="s">
-        <v>247</v>
-      </c>
-      <c r="L51" s="42"/>
+        <v>96</v>
+      </c>
+      <c r="L51" s="42" t="s">
+        <v>248</v>
+      </c>
       <c r="M51" s="42"/>
       <c r="N51" s="42"/>
       <c r="O51" s="42"/>
@@ -6524,13 +6540,13 @@
         <v>47</v>
       </c>
       <c r="C52" s="57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D52" s="57" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E52" s="58" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F52" s="39"/>
       <c r="G52" s="40"/>
@@ -6540,9 +6556,11 @@
         <v>56</v>
       </c>
       <c r="K52" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="L52" s="42"/>
+        <v>96</v>
+      </c>
+      <c r="L52" s="42" t="s">
+        <v>251</v>
+      </c>
       <c r="M52" s="42"/>
       <c r="N52" s="42"/>
       <c r="O52" s="42"/>
@@ -6569,25 +6587,25 @@
         <v>47</v>
       </c>
       <c r="C53" s="57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D53" s="57" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E53" s="58" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F53" s="39" t="n">
         <v>45362</v>
       </c>
       <c r="G53" s="40" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H53" s="41" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I53" s="41" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J53" s="42" t="s">
         <v>55</v>
@@ -6601,7 +6619,7 @@
         <v>55</v>
       </c>
       <c r="O53" s="42" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P53" s="42" t="s">
         <v>55</v>
@@ -6613,7 +6631,7 @@
         <v>55</v>
       </c>
       <c r="S53" s="42" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="T53" s="42"/>
       <c r="U53" s="43"/>
@@ -6630,13 +6648,13 @@
         <v>47</v>
       </c>
       <c r="C54" s="57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D54" s="57" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E54" s="58" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F54" s="39"/>
       <c r="G54" s="40"/>
@@ -6646,9 +6664,11 @@
         <v>56</v>
       </c>
       <c r="K54" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="L54" s="42"/>
+        <v>96</v>
+      </c>
+      <c r="L54" s="42" t="s">
+        <v>259</v>
+      </c>
       <c r="M54" s="42"/>
       <c r="N54" s="42"/>
       <c r="O54" s="42"/>
@@ -6675,25 +6695,25 @@
         <v>47</v>
       </c>
       <c r="C55" s="57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D55" s="57" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E55" s="58" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F55" s="39" t="n">
         <v>45362</v>
       </c>
       <c r="G55" s="40" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H55" s="41" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I55" s="41" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J55" s="42" t="s">
         <v>55</v>
@@ -6707,7 +6727,7 @@
         <v>55</v>
       </c>
       <c r="O55" s="42" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P55" s="42" t="s">
         <v>55</v>
@@ -6719,7 +6739,7 @@
         <v>55</v>
       </c>
       <c r="S55" s="42" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="T55" s="42"/>
       <c r="U55" s="43"/>
@@ -6736,25 +6756,25 @@
         <v>47</v>
       </c>
       <c r="C56" s="61" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D56" s="61" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E56" s="62" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F56" s="63" t="s">
         <v>69</v>
       </c>
       <c r="G56" s="64" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H56" s="64" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I56" s="64" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J56" s="42" t="s">
         <v>55</v>
@@ -6785,25 +6805,25 @@
         <v>47</v>
       </c>
       <c r="C57" s="61" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D57" s="61" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E57" s="62" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F57" s="63" t="s">
         <v>69</v>
       </c>
       <c r="G57" s="64" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H57" s="64" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I57" s="64" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J57" s="42" t="s">
         <v>55</v>
@@ -6833,25 +6853,25 @@
         <v>47</v>
       </c>
       <c r="C58" s="61" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D58" s="61" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E58" s="62" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F58" s="63" t="s">
         <v>69</v>
       </c>
       <c r="G58" s="64" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H58" s="64" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I58" s="64" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J58" s="42" t="s">
         <v>55</v>
@@ -8913,7 +8933,7 @@
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J18 L18 P18 J37:J56 L37:N45 P37:P55 L46 L47:N55 J57:J58" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J18 P18 J37:J56 L37:N44 P37:P55 M45:N45 M47:N52 L53:N53 M54:N54 L55:N55 J57:J58" type="list">
       <formula1>Summary!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8957,42 +8977,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>286</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -9052,7 +9072,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="72" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B2" s="72" t="s">
         <v>292</v>

--- a/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="530">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -303,91 +303,16 @@
     <t xml:space="preserve">216840111388329215044687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34fa0799c677b3^^^^urn</t>
   </si>
   <si>
+    <t xml:space="preserve">SI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASS</t>
+  </si>
+  <si>
     <t xml:space="preserve">OK</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_LAB_KO</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Precondizioni:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Il fornitore utilizza un token jwt mancante di campi obbligatori, quindi non valido.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Descrizione di Business del caso di test: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Al fine di rendere non valido il token è necessario non valorizzare nel JWT il campo "purpose_of_use".</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-11-03T20:57:07Z
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9f5045d6ed05ecd5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNKNOWN_WORKFLOW_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene registrata la risposta del gateway e proposta all’operatore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L’operatore di back office corregge I dati errati o mancanti ed il referto viene rimesso in coda per una trasmissione.  Se non e’ un grado di fare fronte apre un ticket verso il fornitore.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_LDO_KO</t>
   </si>
   <si>
     <t xml:space="preserve">Precondizioni:
@@ -395,6 +320,34 @@
 Descrizione di Business del caso di test: 
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Al fine di rendere non valido il token è necessario non valorizzare nel JWT il campo "purpose_of_use".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-11-03T20:57:07Z
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9f5045d6ed05ecd5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNKNOWN_WORKFLOW_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene registrata la risposta del gateway e proposta all’operatore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’operatore di back office corregge I dati errati o mancanti ed il referto viene rimesso in coda per una trasmissione.  Se non e’ un grado di fare fronte apre un ticket verso il fornitore.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_LDO_KO</t>
   </si>
   <si>
     <t xml:space="preserve">PSS</t>
@@ -2039,9 +1992,6 @@
     <t xml:space="preserve">423,424,425,427,428,429,430,431,432,433,434,435,436,437,438,439,440,441,442,443,448,449, 470</t>
   </si>
   <si>
-    <t xml:space="preserve">PASS</t>
-  </si>
-  <si>
     <t xml:space="preserve">FAIL</t>
   </si>
 </sst>
@@ -2055,7 +2005,7 @@
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="167" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2176,13 +2126,6 @@
     <font>
       <b val="true"/>
       <u val="single"/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2565,10 +2508,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2589,6 +2528,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
@@ -2605,7 +2548,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2669,7 +2612,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3015,7 +2958,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="F186 A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3102,7 +3045,7 @@
   <dimension ref="A1:B996"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="1" sqref="F186 B15"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4179,11 +4122,11 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="T10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="T1" activeCellId="0" sqref="T1"/>
       <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F186" activeCellId="0" sqref="F186"/>
+      <selection pane="bottomRight" activeCell="T10" activeCellId="0" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4473,7 +4416,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="161.65" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="161.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="28" t="n">
         <v>4</v>
       </c>
@@ -4501,82 +4444,86 @@
       <c r="I10" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="34"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="35" t="s">
+      <c r="J10" s="34" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="189.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="U10" s="35"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="189.05" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="30" t="n">
         <v>28</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>59</v>
       </c>
       <c r="F11" s="32" t="n">
         <v>45362</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="N11" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="O11" s="35" t="s">
+      <c r="J11" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="P11" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q11" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="R11" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="S11" s="35" t="s">
+      <c r="N11" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="T11" s="35"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="35" t="s">
+      <c r="P11" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q11" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R11" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S11" s="34" t="s">
         <v>65</v>
+      </c>
+      <c r="T11" s="34"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="140.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4586,34 +4533,34 @@
       <c r="B12" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="38" t="s">
-        <v>66</v>
+      <c r="C12" s="37" t="s">
+        <v>67</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
       <c r="I12" s="41"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="35" t="s">
-        <v>65</v>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="140.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4623,34 +4570,34 @@
       <c r="B13" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>70</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
       <c r="H13" s="40"/>
       <c r="I13" s="41"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="35" t="s">
-        <v>65</v>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="140.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4660,34 +4607,34 @@
       <c r="B14" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="37" t="s">
         <v>71</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>72</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
       <c r="H14" s="40"/>
       <c r="I14" s="41"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="35" t="s">
-        <v>65</v>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4697,14 +4644,14 @@
       <c r="B15" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="37" t="s">
         <v>73</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>74</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F15" s="40" t="s">
         <v>75</v>
@@ -4716,29 +4663,29 @@
         <v>77</v>
       </c>
       <c r="I15" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="N15" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="35" t="s">
-        <v>65</v>
+      <c r="J15" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N15" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4775,7 +4722,7 @@
       <c r="U16" s="48"/>
       <c r="V16" s="49"/>
       <c r="W16" s="47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4785,34 +4732,34 @@
       <c r="B17" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>82</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
       <c r="H17" s="40"/>
       <c r="I17" s="41"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="35" t="s">
-        <v>65</v>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4822,44 +4769,44 @@
       <c r="B18" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="37" t="s">
         <v>83</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>84</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
       <c r="H18" s="40"/>
       <c r="I18" s="41"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="30" t="n">
         <v>36</v>
       </c>
       <c r="B19" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="30" t="s">
@@ -4878,39 +4825,39 @@
         <v>88</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="J19" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="N19" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="O19" s="35" t="s">
+      <c r="J19" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="P19" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q19" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="R19" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="S19" s="35" t="s">
+      <c r="N19" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="O19" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="T19" s="35"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="35" t="s">
+      <c r="P19" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q19" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R19" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S19" s="34" t="s">
         <v>65</v>
+      </c>
+      <c r="T19" s="34"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4920,8 +4867,8 @@
       <c r="B20" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="38" t="s">
-        <v>66</v>
+      <c r="C20" s="37" t="s">
+        <v>67</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>89</v>
@@ -4933,21 +4880,21 @@
       <c r="G20" s="40"/>
       <c r="H20" s="40"/>
       <c r="I20" s="41"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="35" t="s">
-        <v>65</v>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4957,7 +4904,7 @@
       <c r="B21" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D21" s="30" t="s">
@@ -4970,21 +4917,21 @@
       <c r="G21" s="40"/>
       <c r="H21" s="40"/>
       <c r="I21" s="41"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="35" t="s">
-        <v>65</v>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4994,7 +4941,7 @@
       <c r="B22" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="37" t="s">
         <v>71</v>
       </c>
       <c r="D22" s="30" t="s">
@@ -5007,21 +4954,21 @@
       <c r="G22" s="40"/>
       <c r="H22" s="40"/>
       <c r="I22" s="41"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="35" t="s">
-        <v>65</v>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5031,7 +4978,7 @@
       <c r="B23" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="37" t="s">
         <v>73</v>
       </c>
       <c r="D23" s="30" t="s">
@@ -5050,27 +4997,27 @@
         <v>94</v>
       </c>
       <c r="I23" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="J23" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="35" t="s">
-        <v>65</v>
+      <c r="J23" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5107,7 +5054,7 @@
       <c r="U24" s="48"/>
       <c r="V24" s="49"/>
       <c r="W24" s="47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5117,7 +5064,7 @@
       <c r="B25" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D25" s="30" t="s">
@@ -5130,21 +5077,21 @@
       <c r="G25" s="40"/>
       <c r="H25" s="40"/>
       <c r="I25" s="41"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="37"/>
-      <c r="W25" s="35" t="s">
-        <v>65</v>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5154,7 +5101,7 @@
       <c r="B26" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="37" t="s">
         <v>83</v>
       </c>
       <c r="D26" s="30" t="s">
@@ -5167,31 +5114,31 @@
       <c r="G26" s="40"/>
       <c r="H26" s="40"/>
       <c r="I26" s="41"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="30" t="n">
         <v>44</v>
       </c>
       <c r="B27" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D27" s="30" t="s">
@@ -5204,35 +5151,35 @@
       <c r="G27" s="40"/>
       <c r="H27" s="40"/>
       <c r="I27" s="41"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="N27" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="O27" s="35" t="s">
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="P27" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q27" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="R27" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="S27" s="35" t="s">
+      <c r="N27" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="O27" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="T27" s="35"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="35" t="s">
+      <c r="P27" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q27" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R27" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S27" s="34" t="s">
         <v>65</v>
+      </c>
+      <c r="T27" s="34"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5242,8 +5189,8 @@
       <c r="B28" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="38" t="s">
-        <v>66</v>
+      <c r="C28" s="37" t="s">
+        <v>67</v>
       </c>
       <c r="D28" s="30" t="s">
         <v>101</v>
@@ -5255,23 +5202,23 @@
       <c r="G28" s="40"/>
       <c r="H28" s="40"/>
       <c r="I28" s="41"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="V28" s="37"/>
-      <c r="W28" s="35" t="s">
-        <v>65</v>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="V28" s="36"/>
+      <c r="W28" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5281,7 +5228,7 @@
       <c r="B29" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D29" s="30" t="s">
@@ -5294,23 +5241,23 @@
       <c r="G29" s="40"/>
       <c r="H29" s="40"/>
       <c r="I29" s="41"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="35"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="V29" s="37"/>
-      <c r="W29" s="35" t="s">
-        <v>65</v>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="V29" s="36"/>
+      <c r="W29" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5320,7 +5267,7 @@
       <c r="B30" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="37" t="s">
         <v>71</v>
       </c>
       <c r="D30" s="30" t="s">
@@ -5333,23 +5280,23 @@
       <c r="G30" s="40"/>
       <c r="H30" s="40"/>
       <c r="I30" s="41"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="V30" s="37"/>
-      <c r="W30" s="35" t="s">
-        <v>65</v>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="V30" s="36"/>
+      <c r="W30" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5359,7 +5306,7 @@
       <c r="B31" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="37" t="s">
         <v>73</v>
       </c>
       <c r="D31" s="30" t="s">
@@ -5374,35 +5321,35 @@
       <c r="G31" s="40"/>
       <c r="H31" s="40"/>
       <c r="I31" s="41"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="N31" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="O31" s="35" t="s">
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N31" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="O31" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="P31" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q31" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="R31" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="S31" s="35" t="s">
+      <c r="P31" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q31" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R31" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S31" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="T31" s="35"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="35" t="s">
-        <v>65</v>
+      <c r="T31" s="34"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5437,11 +5384,11 @@
       <c r="S32" s="47"/>
       <c r="T32" s="47"/>
       <c r="U32" s="48" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="V32" s="49"/>
       <c r="W32" s="47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5451,7 +5398,7 @@
       <c r="B33" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D33" s="30" t="s">
@@ -5464,23 +5411,23 @@
       <c r="G33" s="40"/>
       <c r="H33" s="40"/>
       <c r="I33" s="41"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="V33" s="37"/>
-      <c r="W33" s="35" t="s">
-        <v>65</v>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="V33" s="36"/>
+      <c r="W33" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5490,7 +5437,7 @@
       <c r="B34" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="37" t="s">
         <v>83</v>
       </c>
       <c r="D34" s="30" t="s">
@@ -5503,33 +5450,33 @@
       <c r="G34" s="40"/>
       <c r="H34" s="40"/>
       <c r="I34" s="41"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="35"/>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="V34" s="37"/>
-      <c r="W34" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="V34" s="36"/>
+      <c r="W34" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="30" t="n">
         <v>53</v>
       </c>
       <c r="B35" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D35" s="30" t="s">
@@ -5542,35 +5489,35 @@
       <c r="G35" s="40"/>
       <c r="H35" s="40"/>
       <c r="I35" s="41"/>
-      <c r="J35" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="K35" s="35" t="s">
+      <c r="J35" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="K35" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="L35" s="34"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="35"/>
-      <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
-      <c r="U35" s="36"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="L35" s="39"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="30" t="n">
         <v>55</v>
       </c>
       <c r="B36" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="30" t="s">
@@ -5583,35 +5530,35 @@
       <c r="G36" s="51"/>
       <c r="H36" s="33"/>
       <c r="I36" s="33"/>
-      <c r="J36" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="K36" s="35" t="s">
+      <c r="J36" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="K36" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="35"/>
-      <c r="T36" s="35"/>
-      <c r="U36" s="36"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="30" t="n">
         <v>56</v>
       </c>
       <c r="B37" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="30" t="s">
@@ -5624,35 +5571,35 @@
       <c r="G37" s="40"/>
       <c r="H37" s="40"/>
       <c r="I37" s="41"/>
-      <c r="J37" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="K37" s="35" t="s">
+      <c r="J37" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="K37" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
-      <c r="U37" s="36"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="30" t="n">
         <v>57</v>
       </c>
       <c r="B38" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="30" t="s">
@@ -5665,35 +5612,35 @@
       <c r="G38" s="40"/>
       <c r="H38" s="40"/>
       <c r="I38" s="41"/>
-      <c r="J38" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="K38" s="35" t="s">
+      <c r="J38" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="K38" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="L38" s="34"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="35"/>
-      <c r="S38" s="35"/>
-      <c r="T38" s="35"/>
-      <c r="U38" s="36"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="L38" s="39"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="34"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="30" t="n">
         <v>58</v>
       </c>
       <c r="B39" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D39" s="30" t="s">
@@ -5706,35 +5653,35 @@
       <c r="G39" s="40"/>
       <c r="H39" s="40"/>
       <c r="I39" s="41"/>
-      <c r="J39" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="K39" s="35" t="s">
+      <c r="J39" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="K39" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="L39" s="34"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="35"/>
-      <c r="S39" s="35"/>
-      <c r="T39" s="35"/>
-      <c r="U39" s="36"/>
-      <c r="V39" s="37"/>
-      <c r="W39" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="L39" s="39"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="35"/>
+      <c r="V39" s="36"/>
+      <c r="W39" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="30" t="n">
         <v>59</v>
       </c>
       <c r="B40" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="38" t="s">
+      <c r="C40" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D40" s="30" t="s">
@@ -5747,35 +5694,35 @@
       <c r="G40" s="40"/>
       <c r="H40" s="40"/>
       <c r="I40" s="41"/>
-      <c r="J40" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="K40" s="35" t="s">
+      <c r="J40" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="K40" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="34"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="35"/>
-      <c r="R40" s="35"/>
-      <c r="S40" s="35"/>
-      <c r="T40" s="35"/>
-      <c r="U40" s="36"/>
-      <c r="V40" s="37"/>
-      <c r="W40" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="L40" s="39"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="34"/>
+      <c r="T40" s="34"/>
+      <c r="U40" s="35"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="30" t="n">
         <v>60</v>
       </c>
       <c r="B41" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="38" t="s">
+      <c r="C41" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D41" s="30" t="s">
@@ -5796,47 +5743,47 @@
       <c r="I41" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="J41" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="N41" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="O41" s="35" t="s">
+      <c r="J41" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="P41" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q41" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="R41" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="S41" s="35" t="s">
+      <c r="N41" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="O41" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="T41" s="35"/>
-      <c r="U41" s="36"/>
-      <c r="V41" s="37"/>
-      <c r="W41" s="35" t="s">
+      <c r="P41" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q41" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R41" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S41" s="34" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T41" s="34"/>
+      <c r="U41" s="35"/>
+      <c r="V41" s="36"/>
+      <c r="W41" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="30" t="n">
         <v>61</v>
       </c>
       <c r="B42" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="38" t="s">
+      <c r="C42" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D42" s="30" t="s">
@@ -5857,47 +5804,47 @@
       <c r="I42" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="J42" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="K42" s="35"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="N42" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="O42" s="35" t="s">
+      <c r="J42" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="K42" s="34"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="P42" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q42" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="R42" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="S42" s="35" t="s">
+      <c r="N42" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="O42" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="T42" s="35"/>
-      <c r="U42" s="36"/>
-      <c r="V42" s="37"/>
-      <c r="W42" s="35" t="s">
+      <c r="P42" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q42" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R42" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S42" s="34" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T42" s="34"/>
+      <c r="U42" s="35"/>
+      <c r="V42" s="36"/>
+      <c r="W42" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="30" t="n">
         <v>62</v>
       </c>
       <c r="B43" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="38" t="s">
+      <c r="C43" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D43" s="30" t="s">
@@ -5918,37 +5865,37 @@
       <c r="I43" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="J43" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="N43" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="O43" s="35" t="s">
+      <c r="J43" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="P43" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q43" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="R43" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="S43" s="35" t="s">
+      <c r="N43" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="O43" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="T43" s="35"/>
-      <c r="U43" s="36"/>
-      <c r="V43" s="37"/>
-      <c r="W43" s="35" t="s">
+      <c r="P43" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q43" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R43" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S43" s="34" t="s">
         <v>65</v>
+      </c>
+      <c r="T43" s="34"/>
+      <c r="U43" s="35"/>
+      <c r="V43" s="36"/>
+      <c r="W43" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5958,8 +5905,8 @@
       <c r="B44" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="38" t="s">
-        <v>66</v>
+      <c r="C44" s="37" t="s">
+        <v>67</v>
       </c>
       <c r="D44" s="30" t="s">
         <v>138</v>
@@ -5971,21 +5918,21 @@
       <c r="G44" s="40"/>
       <c r="H44" s="40"/>
       <c r="I44" s="41"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="35"/>
-      <c r="N44" s="35"/>
-      <c r="O44" s="35"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="35"/>
-      <c r="R44" s="35"/>
-      <c r="S44" s="35"/>
-      <c r="T44" s="35"/>
-      <c r="U44" s="36"/>
-      <c r="V44" s="37"/>
-      <c r="W44" s="35" t="s">
-        <v>65</v>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="34"/>
+      <c r="S44" s="34"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="35"/>
+      <c r="V44" s="36"/>
+      <c r="W44" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5995,8 +5942,8 @@
       <c r="B45" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="38" t="s">
-        <v>66</v>
+      <c r="C45" s="37" t="s">
+        <v>67</v>
       </c>
       <c r="D45" s="30" t="s">
         <v>140</v>
@@ -6008,21 +5955,21 @@
       <c r="G45" s="40"/>
       <c r="H45" s="40"/>
       <c r="I45" s="41"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="35"/>
-      <c r="O45" s="35"/>
-      <c r="P45" s="35"/>
-      <c r="Q45" s="35"/>
-      <c r="R45" s="35"/>
-      <c r="S45" s="35"/>
-      <c r="T45" s="35"/>
-      <c r="U45" s="36"/>
-      <c r="V45" s="37"/>
-      <c r="W45" s="35" t="s">
-        <v>65</v>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="34"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="35"/>
+      <c r="V45" s="36"/>
+      <c r="W45" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6032,8 +5979,8 @@
       <c r="B46" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="38" t="s">
-        <v>66</v>
+      <c r="C46" s="37" t="s">
+        <v>67</v>
       </c>
       <c r="D46" s="30" t="s">
         <v>142</v>
@@ -6045,21 +5992,21 @@
       <c r="G46" s="40"/>
       <c r="H46" s="40"/>
       <c r="I46" s="41"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="35"/>
-      <c r="O46" s="35"/>
-      <c r="P46" s="35"/>
-      <c r="Q46" s="35"/>
-      <c r="R46" s="35"/>
-      <c r="S46" s="35"/>
-      <c r="T46" s="35"/>
-      <c r="U46" s="36"/>
-      <c r="V46" s="37"/>
-      <c r="W46" s="35" t="s">
-        <v>65</v>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="34"/>
+      <c r="S46" s="34"/>
+      <c r="T46" s="34"/>
+      <c r="U46" s="35"/>
+      <c r="V46" s="36"/>
+      <c r="W46" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6069,8 +6016,8 @@
       <c r="B47" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="38" t="s">
-        <v>66</v>
+      <c r="C47" s="37" t="s">
+        <v>67</v>
       </c>
       <c r="D47" s="30" t="s">
         <v>144</v>
@@ -6082,21 +6029,21 @@
       <c r="G47" s="40"/>
       <c r="H47" s="40"/>
       <c r="I47" s="41"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="35"/>
-      <c r="N47" s="35"/>
-      <c r="O47" s="35"/>
-      <c r="P47" s="35"/>
-      <c r="Q47" s="35"/>
-      <c r="R47" s="35"/>
-      <c r="S47" s="35"/>
-      <c r="T47" s="35"/>
-      <c r="U47" s="36"/>
-      <c r="V47" s="37"/>
-      <c r="W47" s="35" t="s">
-        <v>65</v>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="34"/>
+      <c r="O47" s="34"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34"/>
+      <c r="S47" s="34"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="35"/>
+      <c r="V47" s="36"/>
+      <c r="W47" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6106,8 +6053,8 @@
       <c r="B48" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="38" t="s">
-        <v>66</v>
+      <c r="C48" s="37" t="s">
+        <v>67</v>
       </c>
       <c r="D48" s="30" t="s">
         <v>146</v>
@@ -6119,21 +6066,21 @@
       <c r="G48" s="40"/>
       <c r="H48" s="40"/>
       <c r="I48" s="41"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="35"/>
-      <c r="O48" s="35"/>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="35"/>
-      <c r="R48" s="35"/>
-      <c r="S48" s="35"/>
-      <c r="T48" s="35"/>
-      <c r="U48" s="36"/>
-      <c r="V48" s="37"/>
-      <c r="W48" s="35" t="s">
-        <v>65</v>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="34"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="34"/>
+      <c r="S48" s="34"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="35"/>
+      <c r="V48" s="36"/>
+      <c r="W48" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6143,8 +6090,8 @@
       <c r="B49" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="38" t="s">
-        <v>66</v>
+      <c r="C49" s="37" t="s">
+        <v>67</v>
       </c>
       <c r="D49" s="30" t="s">
         <v>148</v>
@@ -6156,21 +6103,21 @@
       <c r="G49" s="40"/>
       <c r="H49" s="40"/>
       <c r="I49" s="41"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="35"/>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="35"/>
-      <c r="S49" s="35"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="36"/>
-      <c r="V49" s="37"/>
-      <c r="W49" s="35" t="s">
-        <v>65</v>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="34"/>
+      <c r="S49" s="34"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="35"/>
+      <c r="V49" s="36"/>
+      <c r="W49" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6180,8 +6127,8 @@
       <c r="B50" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="38" t="s">
-        <v>66</v>
+      <c r="C50" s="37" t="s">
+        <v>67</v>
       </c>
       <c r="D50" s="30" t="s">
         <v>150</v>
@@ -6193,21 +6140,21 @@
       <c r="G50" s="40"/>
       <c r="H50" s="40"/>
       <c r="I50" s="41"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="35"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="35"/>
-      <c r="R50" s="35"/>
-      <c r="S50" s="35"/>
-      <c r="T50" s="35"/>
-      <c r="U50" s="36"/>
-      <c r="V50" s="37"/>
-      <c r="W50" s="35" t="s">
-        <v>65</v>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="34"/>
+      <c r="S50" s="34"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="35"/>
+      <c r="V50" s="36"/>
+      <c r="W50" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6217,8 +6164,8 @@
       <c r="B51" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="38" t="s">
-        <v>66</v>
+      <c r="C51" s="37" t="s">
+        <v>67</v>
       </c>
       <c r="D51" s="30" t="s">
         <v>152</v>
@@ -6230,21 +6177,21 @@
       <c r="G51" s="40"/>
       <c r="H51" s="40"/>
       <c r="I51" s="41"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="35"/>
-      <c r="S51" s="35"/>
-      <c r="T51" s="35"/>
-      <c r="U51" s="36"/>
-      <c r="V51" s="37"/>
-      <c r="W51" s="35" t="s">
-        <v>65</v>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="34"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="34"/>
+      <c r="S51" s="34"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="35"/>
+      <c r="V51" s="36"/>
+      <c r="W51" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6254,8 +6201,8 @@
       <c r="B52" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="38" t="s">
-        <v>66</v>
+      <c r="C52" s="37" t="s">
+        <v>67</v>
       </c>
       <c r="D52" s="30" t="s">
         <v>154</v>
@@ -6267,21 +6214,21 @@
       <c r="G52" s="40"/>
       <c r="H52" s="40"/>
       <c r="I52" s="41"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="35"/>
-      <c r="O52" s="35"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="35"/>
-      <c r="R52" s="35"/>
-      <c r="S52" s="35"/>
-      <c r="T52" s="35"/>
-      <c r="U52" s="36"/>
-      <c r="V52" s="37"/>
-      <c r="W52" s="35" t="s">
-        <v>65</v>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="34"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="34"/>
+      <c r="S52" s="34"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="35"/>
+      <c r="V52" s="36"/>
+      <c r="W52" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6291,8 +6238,8 @@
       <c r="B53" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="38" t="s">
-        <v>66</v>
+      <c r="C53" s="37" t="s">
+        <v>67</v>
       </c>
       <c r="D53" s="30" t="s">
         <v>156</v>
@@ -6304,21 +6251,21 @@
       <c r="G53" s="40"/>
       <c r="H53" s="40"/>
       <c r="I53" s="41"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="35"/>
-      <c r="O53" s="35"/>
-      <c r="P53" s="35"/>
-      <c r="Q53" s="35"/>
-      <c r="R53" s="35"/>
-      <c r="S53" s="35"/>
-      <c r="T53" s="35"/>
-      <c r="U53" s="36"/>
-      <c r="V53" s="37"/>
-      <c r="W53" s="35" t="s">
-        <v>65</v>
+      <c r="J53" s="34"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="34"/>
+      <c r="N53" s="34"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="34"/>
+      <c r="R53" s="34"/>
+      <c r="S53" s="34"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="35"/>
+      <c r="V53" s="36"/>
+      <c r="W53" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6328,7 +6275,7 @@
       <c r="B54" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="38" t="s">
+      <c r="C54" s="37" t="s">
         <v>71</v>
       </c>
       <c r="D54" s="30" t="s">
@@ -6341,21 +6288,21 @@
       <c r="G54" s="40"/>
       <c r="H54" s="40"/>
       <c r="I54" s="41"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="35"/>
-      <c r="O54" s="35"/>
-      <c r="P54" s="35"/>
-      <c r="Q54" s="35"/>
-      <c r="R54" s="35"/>
-      <c r="S54" s="35"/>
-      <c r="T54" s="35"/>
-      <c r="U54" s="36"/>
-      <c r="V54" s="37"/>
-      <c r="W54" s="35" t="s">
-        <v>65</v>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="34"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="34"/>
+      <c r="R54" s="34"/>
+      <c r="S54" s="34"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="35"/>
+      <c r="V54" s="36"/>
+      <c r="W54" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6365,7 +6312,7 @@
       <c r="B55" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="38" t="s">
+      <c r="C55" s="37" t="s">
         <v>71</v>
       </c>
       <c r="D55" s="30" t="s">
@@ -6378,21 +6325,21 @@
       <c r="G55" s="40"/>
       <c r="H55" s="40"/>
       <c r="I55" s="41"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="35"/>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="35"/>
-      <c r="R55" s="35"/>
-      <c r="S55" s="35"/>
-      <c r="T55" s="35"/>
-      <c r="U55" s="36"/>
-      <c r="V55" s="37"/>
-      <c r="W55" s="35" t="s">
-        <v>65</v>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="34"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="34"/>
+      <c r="Q55" s="34"/>
+      <c r="R55" s="34"/>
+      <c r="S55" s="34"/>
+      <c r="T55" s="34"/>
+      <c r="U55" s="35"/>
+      <c r="V55" s="36"/>
+      <c r="W55" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6402,7 +6349,7 @@
       <c r="B56" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="38" t="s">
+      <c r="C56" s="37" t="s">
         <v>71</v>
       </c>
       <c r="D56" s="30" t="s">
@@ -6415,21 +6362,21 @@
       <c r="G56" s="40"/>
       <c r="H56" s="40"/>
       <c r="I56" s="41"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="35"/>
-      <c r="N56" s="35"/>
-      <c r="O56" s="35"/>
-      <c r="P56" s="35"/>
-      <c r="Q56" s="35"/>
-      <c r="R56" s="35"/>
-      <c r="S56" s="35"/>
-      <c r="T56" s="35"/>
-      <c r="U56" s="36"/>
-      <c r="V56" s="37"/>
-      <c r="W56" s="35" t="s">
-        <v>65</v>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="34"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="34"/>
+      <c r="Q56" s="34"/>
+      <c r="R56" s="34"/>
+      <c r="S56" s="34"/>
+      <c r="T56" s="34"/>
+      <c r="U56" s="35"/>
+      <c r="V56" s="36"/>
+      <c r="W56" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6439,7 +6386,7 @@
       <c r="B57" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="38" t="s">
+      <c r="C57" s="37" t="s">
         <v>71</v>
       </c>
       <c r="D57" s="30" t="s">
@@ -6452,21 +6399,21 @@
       <c r="G57" s="40"/>
       <c r="H57" s="40"/>
       <c r="I57" s="41"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="35"/>
-      <c r="N57" s="35"/>
-      <c r="O57" s="35"/>
-      <c r="P57" s="35"/>
-      <c r="Q57" s="35"/>
-      <c r="R57" s="35"/>
-      <c r="S57" s="35"/>
-      <c r="T57" s="35"/>
-      <c r="U57" s="36"/>
-      <c r="V57" s="37"/>
-      <c r="W57" s="35" t="s">
-        <v>65</v>
+      <c r="J57" s="34"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="34"/>
+      <c r="N57" s="34"/>
+      <c r="O57" s="34"/>
+      <c r="P57" s="34"/>
+      <c r="Q57" s="34"/>
+      <c r="R57" s="34"/>
+      <c r="S57" s="34"/>
+      <c r="T57" s="34"/>
+      <c r="U57" s="35"/>
+      <c r="V57" s="36"/>
+      <c r="W57" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6476,7 +6423,7 @@
       <c r="B58" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C58" s="38" t="s">
+      <c r="C58" s="37" t="s">
         <v>71</v>
       </c>
       <c r="D58" s="30" t="s">
@@ -6489,21 +6436,21 @@
       <c r="G58" s="40"/>
       <c r="H58" s="40"/>
       <c r="I58" s="41"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="35"/>
-      <c r="O58" s="35"/>
-      <c r="P58" s="35"/>
-      <c r="Q58" s="35"/>
-      <c r="R58" s="35"/>
-      <c r="S58" s="35"/>
-      <c r="T58" s="35"/>
-      <c r="U58" s="36"/>
-      <c r="V58" s="37"/>
-      <c r="W58" s="35" t="s">
-        <v>65</v>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="34"/>
+      <c r="M58" s="34"/>
+      <c r="N58" s="34"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="34"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="34"/>
+      <c r="S58" s="34"/>
+      <c r="T58" s="34"/>
+      <c r="U58" s="35"/>
+      <c r="V58" s="36"/>
+      <c r="W58" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6513,7 +6460,7 @@
       <c r="B59" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="38" t="s">
+      <c r="C59" s="37" t="s">
         <v>71</v>
       </c>
       <c r="D59" s="30" t="s">
@@ -6526,21 +6473,21 @@
       <c r="G59" s="40"/>
       <c r="H59" s="40"/>
       <c r="I59" s="41"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="35"/>
-      <c r="O59" s="35"/>
-      <c r="P59" s="35"/>
-      <c r="Q59" s="35"/>
-      <c r="R59" s="35"/>
-      <c r="S59" s="35"/>
-      <c r="T59" s="35"/>
-      <c r="U59" s="36"/>
-      <c r="V59" s="37"/>
-      <c r="W59" s="35" t="s">
-        <v>65</v>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="34"/>
+      <c r="N59" s="34"/>
+      <c r="O59" s="34"/>
+      <c r="P59" s="34"/>
+      <c r="Q59" s="34"/>
+      <c r="R59" s="34"/>
+      <c r="S59" s="34"/>
+      <c r="T59" s="34"/>
+      <c r="U59" s="35"/>
+      <c r="V59" s="36"/>
+      <c r="W59" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6550,7 +6497,7 @@
       <c r="B60" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="38" t="s">
+      <c r="C60" s="37" t="s">
         <v>71</v>
       </c>
       <c r="D60" s="30" t="s">
@@ -6563,21 +6510,21 @@
       <c r="G60" s="40"/>
       <c r="H60" s="40"/>
       <c r="I60" s="41"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="35"/>
-      <c r="N60" s="35"/>
-      <c r="O60" s="35"/>
-      <c r="P60" s="35"/>
-      <c r="Q60" s="35"/>
-      <c r="R60" s="35"/>
-      <c r="S60" s="35"/>
-      <c r="T60" s="35"/>
-      <c r="U60" s="36"/>
-      <c r="V60" s="37"/>
-      <c r="W60" s="35" t="s">
-        <v>65</v>
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="34"/>
+      <c r="N60" s="34"/>
+      <c r="O60" s="34"/>
+      <c r="P60" s="34"/>
+      <c r="Q60" s="34"/>
+      <c r="R60" s="34"/>
+      <c r="S60" s="34"/>
+      <c r="T60" s="34"/>
+      <c r="U60" s="35"/>
+      <c r="V60" s="36"/>
+      <c r="W60" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6587,7 +6534,7 @@
       <c r="B61" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C61" s="38" t="s">
+      <c r="C61" s="37" t="s">
         <v>71</v>
       </c>
       <c r="D61" s="30" t="s">
@@ -6600,21 +6547,21 @@
       <c r="G61" s="40"/>
       <c r="H61" s="40"/>
       <c r="I61" s="41"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="35"/>
-      <c r="N61" s="35"/>
-      <c r="O61" s="35"/>
-      <c r="P61" s="35"/>
-      <c r="Q61" s="35"/>
-      <c r="R61" s="35"/>
-      <c r="S61" s="35"/>
-      <c r="T61" s="35"/>
-      <c r="U61" s="36"/>
-      <c r="V61" s="37"/>
-      <c r="W61" s="35" t="s">
-        <v>65</v>
+      <c r="J61" s="34"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="34"/>
+      <c r="M61" s="34"/>
+      <c r="N61" s="34"/>
+      <c r="O61" s="34"/>
+      <c r="P61" s="34"/>
+      <c r="Q61" s="34"/>
+      <c r="R61" s="34"/>
+      <c r="S61" s="34"/>
+      <c r="T61" s="34"/>
+      <c r="U61" s="35"/>
+      <c r="V61" s="36"/>
+      <c r="W61" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6624,7 +6571,7 @@
       <c r="B62" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="38" t="s">
+      <c r="C62" s="37" t="s">
         <v>71</v>
       </c>
       <c r="D62" s="30" t="s">
@@ -6637,21 +6584,21 @@
       <c r="G62" s="40"/>
       <c r="H62" s="40"/>
       <c r="I62" s="41"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="35"/>
-      <c r="N62" s="35"/>
-      <c r="O62" s="35"/>
-      <c r="P62" s="35"/>
-      <c r="Q62" s="35"/>
-      <c r="R62" s="35"/>
-      <c r="S62" s="35"/>
-      <c r="T62" s="35"/>
-      <c r="U62" s="36"/>
-      <c r="V62" s="37"/>
-      <c r="W62" s="35" t="s">
-        <v>65</v>
+      <c r="J62" s="34"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="34"/>
+      <c r="M62" s="34"/>
+      <c r="N62" s="34"/>
+      <c r="O62" s="34"/>
+      <c r="P62" s="34"/>
+      <c r="Q62" s="34"/>
+      <c r="R62" s="34"/>
+      <c r="S62" s="34"/>
+      <c r="T62" s="34"/>
+      <c r="U62" s="35"/>
+      <c r="V62" s="36"/>
+      <c r="W62" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6661,7 +6608,7 @@
       <c r="B63" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C63" s="38" t="s">
+      <c r="C63" s="37" t="s">
         <v>71</v>
       </c>
       <c r="D63" s="30" t="s">
@@ -6674,21 +6621,21 @@
       <c r="G63" s="40"/>
       <c r="H63" s="40"/>
       <c r="I63" s="41"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="35"/>
-      <c r="N63" s="35"/>
-      <c r="O63" s="35"/>
-      <c r="P63" s="35"/>
-      <c r="Q63" s="35"/>
-      <c r="R63" s="35"/>
-      <c r="S63" s="35"/>
-      <c r="T63" s="35"/>
-      <c r="U63" s="36"/>
-      <c r="V63" s="37"/>
-      <c r="W63" s="35" t="s">
-        <v>65</v>
+      <c r="J63" s="34"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="34"/>
+      <c r="M63" s="34"/>
+      <c r="N63" s="34"/>
+      <c r="O63" s="34"/>
+      <c r="P63" s="34"/>
+      <c r="Q63" s="34"/>
+      <c r="R63" s="34"/>
+      <c r="S63" s="34"/>
+      <c r="T63" s="34"/>
+      <c r="U63" s="35"/>
+      <c r="V63" s="36"/>
+      <c r="W63" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6698,7 +6645,7 @@
       <c r="B64" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C64" s="38" t="s">
+      <c r="C64" s="37" t="s">
         <v>71</v>
       </c>
       <c r="D64" s="30" t="s">
@@ -6711,21 +6658,21 @@
       <c r="G64" s="40"/>
       <c r="H64" s="40"/>
       <c r="I64" s="41"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="35"/>
-      <c r="O64" s="35"/>
-      <c r="P64" s="35"/>
-      <c r="Q64" s="35"/>
-      <c r="R64" s="35"/>
-      <c r="S64" s="35"/>
-      <c r="T64" s="35"/>
-      <c r="U64" s="36"/>
-      <c r="V64" s="37"/>
-      <c r="W64" s="35" t="s">
-        <v>65</v>
+      <c r="J64" s="34"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="34"/>
+      <c r="M64" s="34"/>
+      <c r="N64" s="34"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="34"/>
+      <c r="Q64" s="34"/>
+      <c r="R64" s="34"/>
+      <c r="S64" s="34"/>
+      <c r="T64" s="34"/>
+      <c r="U64" s="35"/>
+      <c r="V64" s="36"/>
+      <c r="W64" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6735,7 +6682,7 @@
       <c r="B65" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C65" s="38" t="s">
+      <c r="C65" s="37" t="s">
         <v>71</v>
       </c>
       <c r="D65" s="30" t="s">
@@ -6748,21 +6695,21 @@
       <c r="G65" s="40"/>
       <c r="H65" s="40"/>
       <c r="I65" s="41"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="35"/>
-      <c r="N65" s="35"/>
-      <c r="O65" s="35"/>
-      <c r="P65" s="35"/>
-      <c r="Q65" s="35"/>
-      <c r="R65" s="35"/>
-      <c r="S65" s="35"/>
-      <c r="T65" s="35"/>
-      <c r="U65" s="36"/>
-      <c r="V65" s="37"/>
-      <c r="W65" s="35" t="s">
-        <v>65</v>
+      <c r="J65" s="34"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="34"/>
+      <c r="M65" s="34"/>
+      <c r="N65" s="34"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
+      <c r="Q65" s="34"/>
+      <c r="R65" s="34"/>
+      <c r="S65" s="34"/>
+      <c r="T65" s="34"/>
+      <c r="U65" s="35"/>
+      <c r="V65" s="36"/>
+      <c r="W65" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6772,7 +6719,7 @@
       <c r="B66" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C66" s="38" t="s">
+      <c r="C66" s="37" t="s">
         <v>71</v>
       </c>
       <c r="D66" s="30" t="s">
@@ -6785,21 +6732,21 @@
       <c r="G66" s="40"/>
       <c r="H66" s="40"/>
       <c r="I66" s="41"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="35"/>
-      <c r="M66" s="35"/>
-      <c r="N66" s="35"/>
-      <c r="O66" s="35"/>
-      <c r="P66" s="35"/>
-      <c r="Q66" s="35"/>
-      <c r="R66" s="35"/>
-      <c r="S66" s="35"/>
-      <c r="T66" s="35"/>
-      <c r="U66" s="36"/>
-      <c r="V66" s="37"/>
-      <c r="W66" s="35" t="s">
-        <v>65</v>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="34"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
+      <c r="Q66" s="34"/>
+      <c r="R66" s="34"/>
+      <c r="S66" s="34"/>
+      <c r="T66" s="34"/>
+      <c r="U66" s="35"/>
+      <c r="V66" s="36"/>
+      <c r="W66" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6809,7 +6756,7 @@
       <c r="B67" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C67" s="38" t="s">
+      <c r="C67" s="37" t="s">
         <v>71</v>
       </c>
       <c r="D67" s="30" t="s">
@@ -6822,21 +6769,21 @@
       <c r="G67" s="40"/>
       <c r="H67" s="40"/>
       <c r="I67" s="41"/>
-      <c r="J67" s="35"/>
-      <c r="K67" s="35"/>
-      <c r="L67" s="35"/>
-      <c r="M67" s="35"/>
-      <c r="N67" s="35"/>
-      <c r="O67" s="35"/>
-      <c r="P67" s="35"/>
-      <c r="Q67" s="35"/>
-      <c r="R67" s="35"/>
-      <c r="S67" s="35"/>
-      <c r="T67" s="35"/>
-      <c r="U67" s="36"/>
-      <c r="V67" s="37"/>
-      <c r="W67" s="35" t="s">
-        <v>65</v>
+      <c r="J67" s="34"/>
+      <c r="K67" s="34"/>
+      <c r="L67" s="34"/>
+      <c r="M67" s="34"/>
+      <c r="N67" s="34"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
+      <c r="Q67" s="34"/>
+      <c r="R67" s="34"/>
+      <c r="S67" s="34"/>
+      <c r="T67" s="34"/>
+      <c r="U67" s="35"/>
+      <c r="V67" s="36"/>
+      <c r="W67" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6846,7 +6793,7 @@
       <c r="B68" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="C68" s="37" t="s">
         <v>71</v>
       </c>
       <c r="D68" s="30" t="s">
@@ -6859,21 +6806,21 @@
       <c r="G68" s="40"/>
       <c r="H68" s="40"/>
       <c r="I68" s="41"/>
-      <c r="J68" s="35"/>
-      <c r="K68" s="35"/>
-      <c r="L68" s="35"/>
-      <c r="M68" s="35"/>
-      <c r="N68" s="35"/>
-      <c r="O68" s="35"/>
-      <c r="P68" s="35"/>
-      <c r="Q68" s="35"/>
-      <c r="R68" s="35"/>
-      <c r="S68" s="35"/>
-      <c r="T68" s="35"/>
-      <c r="U68" s="36"/>
-      <c r="V68" s="37"/>
-      <c r="W68" s="35" t="s">
-        <v>65</v>
+      <c r="J68" s="34"/>
+      <c r="K68" s="34"/>
+      <c r="L68" s="34"/>
+      <c r="M68" s="34"/>
+      <c r="N68" s="34"/>
+      <c r="O68" s="34"/>
+      <c r="P68" s="34"/>
+      <c r="Q68" s="34"/>
+      <c r="R68" s="34"/>
+      <c r="S68" s="34"/>
+      <c r="T68" s="34"/>
+      <c r="U68" s="35"/>
+      <c r="V68" s="36"/>
+      <c r="W68" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6883,7 +6830,7 @@
       <c r="B69" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C69" s="38" t="s">
+      <c r="C69" s="37" t="s">
         <v>71</v>
       </c>
       <c r="D69" s="30" t="s">
@@ -6896,21 +6843,21 @@
       <c r="G69" s="40"/>
       <c r="H69" s="40"/>
       <c r="I69" s="41"/>
-      <c r="J69" s="35"/>
-      <c r="K69" s="35"/>
-      <c r="L69" s="35"/>
-      <c r="M69" s="35"/>
-      <c r="N69" s="35"/>
-      <c r="O69" s="35"/>
-      <c r="P69" s="35"/>
-      <c r="Q69" s="35"/>
-      <c r="R69" s="35"/>
-      <c r="S69" s="35"/>
-      <c r="T69" s="35"/>
-      <c r="U69" s="36"/>
-      <c r="V69" s="37"/>
-      <c r="W69" s="35" t="s">
-        <v>65</v>
+      <c r="J69" s="34"/>
+      <c r="K69" s="34"/>
+      <c r="L69" s="34"/>
+      <c r="M69" s="34"/>
+      <c r="N69" s="34"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="34"/>
+      <c r="Q69" s="34"/>
+      <c r="R69" s="34"/>
+      <c r="S69" s="34"/>
+      <c r="T69" s="34"/>
+      <c r="U69" s="35"/>
+      <c r="V69" s="36"/>
+      <c r="W69" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6920,7 +6867,7 @@
       <c r="B70" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C70" s="38" t="s">
+      <c r="C70" s="37" t="s">
         <v>71</v>
       </c>
       <c r="D70" s="30" t="s">
@@ -6933,21 +6880,21 @@
       <c r="G70" s="40"/>
       <c r="H70" s="40"/>
       <c r="I70" s="41"/>
-      <c r="J70" s="35"/>
-      <c r="K70" s="35"/>
-      <c r="L70" s="35"/>
-      <c r="M70" s="35"/>
-      <c r="N70" s="35"/>
-      <c r="O70" s="35"/>
-      <c r="P70" s="35"/>
-      <c r="Q70" s="35"/>
-      <c r="R70" s="35"/>
-      <c r="S70" s="35"/>
-      <c r="T70" s="35"/>
-      <c r="U70" s="36"/>
-      <c r="V70" s="37"/>
-      <c r="W70" s="35" t="s">
-        <v>65</v>
+      <c r="J70" s="34"/>
+      <c r="K70" s="34"/>
+      <c r="L70" s="34"/>
+      <c r="M70" s="34"/>
+      <c r="N70" s="34"/>
+      <c r="O70" s="34"/>
+      <c r="P70" s="34"/>
+      <c r="Q70" s="34"/>
+      <c r="R70" s="34"/>
+      <c r="S70" s="34"/>
+      <c r="T70" s="34"/>
+      <c r="U70" s="35"/>
+      <c r="V70" s="36"/>
+      <c r="W70" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6984,7 +6931,7 @@
       <c r="U71" s="48"/>
       <c r="V71" s="49"/>
       <c r="W71" s="47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7021,7 +6968,7 @@
       <c r="U72" s="48"/>
       <c r="V72" s="49"/>
       <c r="W72" s="47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7058,7 +7005,7 @@
       <c r="U73" s="48"/>
       <c r="V73" s="49"/>
       <c r="W73" s="47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7095,7 +7042,7 @@
       <c r="U74" s="48"/>
       <c r="V74" s="49"/>
       <c r="W74" s="47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7132,7 +7079,7 @@
       <c r="U75" s="48"/>
       <c r="V75" s="49"/>
       <c r="W75" s="47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7169,7 +7116,7 @@
       <c r="U76" s="48"/>
       <c r="V76" s="49"/>
       <c r="W76" s="47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7206,7 +7153,7 @@
       <c r="U77" s="48"/>
       <c r="V77" s="49"/>
       <c r="W77" s="47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7243,7 +7190,7 @@
       <c r="U78" s="48"/>
       <c r="V78" s="49"/>
       <c r="W78" s="47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7280,7 +7227,7 @@
       <c r="U79" s="48"/>
       <c r="V79" s="49"/>
       <c r="W79" s="47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7317,7 +7264,7 @@
       <c r="U80" s="48"/>
       <c r="V80" s="49"/>
       <c r="W80" s="47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7354,7 +7301,7 @@
       <c r="U81" s="48"/>
       <c r="V81" s="49"/>
       <c r="W81" s="47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7364,7 +7311,7 @@
       <c r="B82" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C82" s="38" t="s">
+      <c r="C82" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D82" s="30" t="s">
@@ -7377,21 +7324,21 @@
       <c r="G82" s="40"/>
       <c r="H82" s="40"/>
       <c r="I82" s="41"/>
-      <c r="J82" s="35"/>
-      <c r="K82" s="35"/>
-      <c r="L82" s="35"/>
-      <c r="M82" s="35"/>
-      <c r="N82" s="35"/>
-      <c r="O82" s="35"/>
-      <c r="P82" s="35"/>
-      <c r="Q82" s="35"/>
-      <c r="R82" s="35"/>
-      <c r="S82" s="35"/>
-      <c r="T82" s="35"/>
-      <c r="U82" s="36"/>
-      <c r="V82" s="37"/>
-      <c r="W82" s="35" t="s">
-        <v>65</v>
+      <c r="J82" s="34"/>
+      <c r="K82" s="34"/>
+      <c r="L82" s="34"/>
+      <c r="M82" s="34"/>
+      <c r="N82" s="34"/>
+      <c r="O82" s="34"/>
+      <c r="P82" s="34"/>
+      <c r="Q82" s="34"/>
+      <c r="R82" s="34"/>
+      <c r="S82" s="34"/>
+      <c r="T82" s="34"/>
+      <c r="U82" s="35"/>
+      <c r="V82" s="36"/>
+      <c r="W82" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7401,7 +7348,7 @@
       <c r="B83" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C83" s="38" t="s">
+      <c r="C83" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D83" s="30" t="s">
@@ -7414,21 +7361,21 @@
       <c r="G83" s="40"/>
       <c r="H83" s="40"/>
       <c r="I83" s="41"/>
-      <c r="J83" s="35"/>
-      <c r="K83" s="35"/>
-      <c r="L83" s="35"/>
-      <c r="M83" s="35"/>
-      <c r="N83" s="35"/>
-      <c r="O83" s="35"/>
-      <c r="P83" s="35"/>
-      <c r="Q83" s="35"/>
-      <c r="R83" s="35"/>
-      <c r="S83" s="35"/>
-      <c r="T83" s="35"/>
-      <c r="U83" s="36"/>
-      <c r="V83" s="37"/>
-      <c r="W83" s="35" t="s">
-        <v>65</v>
+      <c r="J83" s="34"/>
+      <c r="K83" s="34"/>
+      <c r="L83" s="34"/>
+      <c r="M83" s="34"/>
+      <c r="N83" s="34"/>
+      <c r="O83" s="34"/>
+      <c r="P83" s="34"/>
+      <c r="Q83" s="34"/>
+      <c r="R83" s="34"/>
+      <c r="S83" s="34"/>
+      <c r="T83" s="34"/>
+      <c r="U83" s="35"/>
+      <c r="V83" s="36"/>
+      <c r="W83" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7438,7 +7385,7 @@
       <c r="B84" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C84" s="38" t="s">
+      <c r="C84" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D84" s="30" t="s">
@@ -7451,21 +7398,21 @@
       <c r="G84" s="40"/>
       <c r="H84" s="40"/>
       <c r="I84" s="41"/>
-      <c r="J84" s="35"/>
-      <c r="K84" s="35"/>
-      <c r="L84" s="35"/>
-      <c r="M84" s="35"/>
-      <c r="N84" s="35"/>
-      <c r="O84" s="35"/>
-      <c r="P84" s="35"/>
-      <c r="Q84" s="35"/>
-      <c r="R84" s="35"/>
-      <c r="S84" s="35"/>
-      <c r="T84" s="35"/>
-      <c r="U84" s="36"/>
-      <c r="V84" s="37"/>
-      <c r="W84" s="35" t="s">
-        <v>65</v>
+      <c r="J84" s="34"/>
+      <c r="K84" s="34"/>
+      <c r="L84" s="34"/>
+      <c r="M84" s="34"/>
+      <c r="N84" s="34"/>
+      <c r="O84" s="34"/>
+      <c r="P84" s="34"/>
+      <c r="Q84" s="34"/>
+      <c r="R84" s="34"/>
+      <c r="S84" s="34"/>
+      <c r="T84" s="34"/>
+      <c r="U84" s="35"/>
+      <c r="V84" s="36"/>
+      <c r="W84" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7475,7 +7422,7 @@
       <c r="B85" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C85" s="38" t="s">
+      <c r="C85" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D85" s="30" t="s">
@@ -7488,21 +7435,21 @@
       <c r="G85" s="40"/>
       <c r="H85" s="40"/>
       <c r="I85" s="41"/>
-      <c r="J85" s="35"/>
-      <c r="K85" s="35"/>
-      <c r="L85" s="35"/>
-      <c r="M85" s="35"/>
-      <c r="N85" s="35"/>
-      <c r="O85" s="35"/>
-      <c r="P85" s="35"/>
-      <c r="Q85" s="35"/>
-      <c r="R85" s="35"/>
-      <c r="S85" s="35"/>
-      <c r="T85" s="35"/>
-      <c r="U85" s="36"/>
-      <c r="V85" s="37"/>
-      <c r="W85" s="35" t="s">
-        <v>65</v>
+      <c r="J85" s="34"/>
+      <c r="K85" s="34"/>
+      <c r="L85" s="34"/>
+      <c r="M85" s="34"/>
+      <c r="N85" s="34"/>
+      <c r="O85" s="34"/>
+      <c r="P85" s="34"/>
+      <c r="Q85" s="34"/>
+      <c r="R85" s="34"/>
+      <c r="S85" s="34"/>
+      <c r="T85" s="34"/>
+      <c r="U85" s="35"/>
+      <c r="V85" s="36"/>
+      <c r="W85" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7512,7 +7459,7 @@
       <c r="B86" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C86" s="38" t="s">
+      <c r="C86" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D86" s="30" t="s">
@@ -7525,21 +7472,21 @@
       <c r="G86" s="40"/>
       <c r="H86" s="40"/>
       <c r="I86" s="41"/>
-      <c r="J86" s="35"/>
-      <c r="K86" s="35"/>
-      <c r="L86" s="35"/>
-      <c r="M86" s="35"/>
-      <c r="N86" s="35"/>
-      <c r="O86" s="35"/>
-      <c r="P86" s="35"/>
-      <c r="Q86" s="35"/>
-      <c r="R86" s="35"/>
-      <c r="S86" s="35"/>
-      <c r="T86" s="35"/>
-      <c r="U86" s="36"/>
-      <c r="V86" s="37"/>
-      <c r="W86" s="35" t="s">
-        <v>65</v>
+      <c r="J86" s="34"/>
+      <c r="K86" s="34"/>
+      <c r="L86" s="34"/>
+      <c r="M86" s="34"/>
+      <c r="N86" s="34"/>
+      <c r="O86" s="34"/>
+      <c r="P86" s="34"/>
+      <c r="Q86" s="34"/>
+      <c r="R86" s="34"/>
+      <c r="S86" s="34"/>
+      <c r="T86" s="34"/>
+      <c r="U86" s="35"/>
+      <c r="V86" s="36"/>
+      <c r="W86" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7549,7 +7496,7 @@
       <c r="B87" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C87" s="38" t="s">
+      <c r="C87" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D87" s="30" t="s">
@@ -7562,21 +7509,21 @@
       <c r="G87" s="40"/>
       <c r="H87" s="40"/>
       <c r="I87" s="41"/>
-      <c r="J87" s="35"/>
-      <c r="K87" s="35"/>
-      <c r="L87" s="35"/>
-      <c r="M87" s="35"/>
-      <c r="N87" s="35"/>
-      <c r="O87" s="35"/>
-      <c r="P87" s="35"/>
-      <c r="Q87" s="35"/>
-      <c r="R87" s="35"/>
-      <c r="S87" s="35"/>
-      <c r="T87" s="35"/>
-      <c r="U87" s="36"/>
-      <c r="V87" s="37"/>
-      <c r="W87" s="35" t="s">
-        <v>65</v>
+      <c r="J87" s="34"/>
+      <c r="K87" s="34"/>
+      <c r="L87" s="34"/>
+      <c r="M87" s="34"/>
+      <c r="N87" s="34"/>
+      <c r="O87" s="34"/>
+      <c r="P87" s="34"/>
+      <c r="Q87" s="34"/>
+      <c r="R87" s="34"/>
+      <c r="S87" s="34"/>
+      <c r="T87" s="34"/>
+      <c r="U87" s="35"/>
+      <c r="V87" s="36"/>
+      <c r="W87" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7586,7 +7533,7 @@
       <c r="B88" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C88" s="38" t="s">
+      <c r="C88" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D88" s="30" t="s">
@@ -7599,21 +7546,21 @@
       <c r="G88" s="40"/>
       <c r="H88" s="40"/>
       <c r="I88" s="41"/>
-      <c r="J88" s="35"/>
-      <c r="K88" s="35"/>
-      <c r="L88" s="35"/>
-      <c r="M88" s="35"/>
-      <c r="N88" s="35"/>
-      <c r="O88" s="35"/>
-      <c r="P88" s="35"/>
-      <c r="Q88" s="35"/>
-      <c r="R88" s="35"/>
-      <c r="S88" s="35"/>
-      <c r="T88" s="35"/>
-      <c r="U88" s="36"/>
-      <c r="V88" s="37"/>
-      <c r="W88" s="35" t="s">
-        <v>65</v>
+      <c r="J88" s="34"/>
+      <c r="K88" s="34"/>
+      <c r="L88" s="34"/>
+      <c r="M88" s="34"/>
+      <c r="N88" s="34"/>
+      <c r="O88" s="34"/>
+      <c r="P88" s="34"/>
+      <c r="Q88" s="34"/>
+      <c r="R88" s="34"/>
+      <c r="S88" s="34"/>
+      <c r="T88" s="34"/>
+      <c r="U88" s="35"/>
+      <c r="V88" s="36"/>
+      <c r="W88" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7623,7 +7570,7 @@
       <c r="B89" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C89" s="38" t="s">
+      <c r="C89" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D89" s="30" t="s">
@@ -7636,21 +7583,21 @@
       <c r="G89" s="40"/>
       <c r="H89" s="40"/>
       <c r="I89" s="41"/>
-      <c r="J89" s="35"/>
-      <c r="K89" s="35"/>
-      <c r="L89" s="35"/>
-      <c r="M89" s="35"/>
-      <c r="N89" s="35"/>
-      <c r="O89" s="35"/>
-      <c r="P89" s="35"/>
-      <c r="Q89" s="35"/>
-      <c r="R89" s="35"/>
-      <c r="S89" s="35"/>
-      <c r="T89" s="35"/>
-      <c r="U89" s="36"/>
-      <c r="V89" s="37"/>
-      <c r="W89" s="35" t="s">
-        <v>65</v>
+      <c r="J89" s="34"/>
+      <c r="K89" s="34"/>
+      <c r="L89" s="34"/>
+      <c r="M89" s="34"/>
+      <c r="N89" s="34"/>
+      <c r="O89" s="34"/>
+      <c r="P89" s="34"/>
+      <c r="Q89" s="34"/>
+      <c r="R89" s="34"/>
+      <c r="S89" s="34"/>
+      <c r="T89" s="34"/>
+      <c r="U89" s="35"/>
+      <c r="V89" s="36"/>
+      <c r="W89" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7660,7 +7607,7 @@
       <c r="B90" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C90" s="38" t="s">
+      <c r="C90" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D90" s="30" t="s">
@@ -7673,21 +7620,21 @@
       <c r="G90" s="40"/>
       <c r="H90" s="40"/>
       <c r="I90" s="41"/>
-      <c r="J90" s="35"/>
-      <c r="K90" s="35"/>
-      <c r="L90" s="35"/>
-      <c r="M90" s="35"/>
-      <c r="N90" s="35"/>
-      <c r="O90" s="35"/>
-      <c r="P90" s="35"/>
-      <c r="Q90" s="35"/>
-      <c r="R90" s="35"/>
-      <c r="S90" s="35"/>
-      <c r="T90" s="35"/>
-      <c r="U90" s="36"/>
-      <c r="V90" s="37"/>
-      <c r="W90" s="35" t="s">
-        <v>65</v>
+      <c r="J90" s="34"/>
+      <c r="K90" s="34"/>
+      <c r="L90" s="34"/>
+      <c r="M90" s="34"/>
+      <c r="N90" s="34"/>
+      <c r="O90" s="34"/>
+      <c r="P90" s="34"/>
+      <c r="Q90" s="34"/>
+      <c r="R90" s="34"/>
+      <c r="S90" s="34"/>
+      <c r="T90" s="34"/>
+      <c r="U90" s="35"/>
+      <c r="V90" s="36"/>
+      <c r="W90" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7697,7 +7644,7 @@
       <c r="B91" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C91" s="38" t="s">
+      <c r="C91" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D91" s="30" t="s">
@@ -7710,21 +7657,21 @@
       <c r="G91" s="40"/>
       <c r="H91" s="40"/>
       <c r="I91" s="41"/>
-      <c r="J91" s="35"/>
-      <c r="K91" s="35"/>
-      <c r="L91" s="35"/>
-      <c r="M91" s="35"/>
-      <c r="N91" s="35"/>
-      <c r="O91" s="35"/>
-      <c r="P91" s="35"/>
-      <c r="Q91" s="35"/>
-      <c r="R91" s="35"/>
-      <c r="S91" s="35"/>
-      <c r="T91" s="35"/>
-      <c r="U91" s="36"/>
-      <c r="V91" s="37"/>
-      <c r="W91" s="35" t="s">
-        <v>65</v>
+      <c r="J91" s="34"/>
+      <c r="K91" s="34"/>
+      <c r="L91" s="34"/>
+      <c r="M91" s="34"/>
+      <c r="N91" s="34"/>
+      <c r="O91" s="34"/>
+      <c r="P91" s="34"/>
+      <c r="Q91" s="34"/>
+      <c r="R91" s="34"/>
+      <c r="S91" s="34"/>
+      <c r="T91" s="34"/>
+      <c r="U91" s="35"/>
+      <c r="V91" s="36"/>
+      <c r="W91" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7734,7 +7681,7 @@
       <c r="B92" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C92" s="38" t="s">
+      <c r="C92" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D92" s="30" t="s">
@@ -7747,21 +7694,21 @@
       <c r="G92" s="40"/>
       <c r="H92" s="40"/>
       <c r="I92" s="41"/>
-      <c r="J92" s="35"/>
-      <c r="K92" s="35"/>
-      <c r="L92" s="35"/>
-      <c r="M92" s="35"/>
-      <c r="N92" s="35"/>
-      <c r="O92" s="35"/>
-      <c r="P92" s="35"/>
-      <c r="Q92" s="35"/>
-      <c r="R92" s="35"/>
-      <c r="S92" s="35"/>
-      <c r="T92" s="35"/>
-      <c r="U92" s="36"/>
-      <c r="V92" s="37"/>
-      <c r="W92" s="35" t="s">
-        <v>65</v>
+      <c r="J92" s="34"/>
+      <c r="K92" s="34"/>
+      <c r="L92" s="34"/>
+      <c r="M92" s="34"/>
+      <c r="N92" s="34"/>
+      <c r="O92" s="34"/>
+      <c r="P92" s="34"/>
+      <c r="Q92" s="34"/>
+      <c r="R92" s="34"/>
+      <c r="S92" s="34"/>
+      <c r="T92" s="34"/>
+      <c r="U92" s="35"/>
+      <c r="V92" s="36"/>
+      <c r="W92" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7771,7 +7718,7 @@
       <c r="B93" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C93" s="38" t="s">
+      <c r="C93" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D93" s="30" t="s">
@@ -7784,21 +7731,21 @@
       <c r="G93" s="40"/>
       <c r="H93" s="40"/>
       <c r="I93" s="41"/>
-      <c r="J93" s="35"/>
-      <c r="K93" s="35"/>
-      <c r="L93" s="35"/>
-      <c r="M93" s="35"/>
-      <c r="N93" s="35"/>
-      <c r="O93" s="35"/>
-      <c r="P93" s="35"/>
-      <c r="Q93" s="35"/>
-      <c r="R93" s="35"/>
-      <c r="S93" s="35"/>
-      <c r="T93" s="35"/>
-      <c r="U93" s="36"/>
-      <c r="V93" s="37"/>
-      <c r="W93" s="35" t="s">
-        <v>65</v>
+      <c r="J93" s="34"/>
+      <c r="K93" s="34"/>
+      <c r="L93" s="34"/>
+      <c r="M93" s="34"/>
+      <c r="N93" s="34"/>
+      <c r="O93" s="34"/>
+      <c r="P93" s="34"/>
+      <c r="Q93" s="34"/>
+      <c r="R93" s="34"/>
+      <c r="S93" s="34"/>
+      <c r="T93" s="34"/>
+      <c r="U93" s="35"/>
+      <c r="V93" s="36"/>
+      <c r="W93" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7808,7 +7755,7 @@
       <c r="B94" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C94" s="38" t="s">
+      <c r="C94" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D94" s="30" t="s">
@@ -7821,21 +7768,21 @@
       <c r="G94" s="40"/>
       <c r="H94" s="40"/>
       <c r="I94" s="41"/>
-      <c r="J94" s="35"/>
-      <c r="K94" s="35"/>
-      <c r="L94" s="35"/>
-      <c r="M94" s="35"/>
-      <c r="N94" s="35"/>
-      <c r="O94" s="35"/>
-      <c r="P94" s="35"/>
-      <c r="Q94" s="35"/>
-      <c r="R94" s="35"/>
-      <c r="S94" s="35"/>
-      <c r="T94" s="35"/>
-      <c r="U94" s="36"/>
-      <c r="V94" s="37"/>
-      <c r="W94" s="35" t="s">
-        <v>65</v>
+      <c r="J94" s="34"/>
+      <c r="K94" s="34"/>
+      <c r="L94" s="34"/>
+      <c r="M94" s="34"/>
+      <c r="N94" s="34"/>
+      <c r="O94" s="34"/>
+      <c r="P94" s="34"/>
+      <c r="Q94" s="34"/>
+      <c r="R94" s="34"/>
+      <c r="S94" s="34"/>
+      <c r="T94" s="34"/>
+      <c r="U94" s="35"/>
+      <c r="V94" s="36"/>
+      <c r="W94" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7845,7 +7792,7 @@
       <c r="B95" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C95" s="38" t="s">
+      <c r="C95" s="37" t="s">
         <v>83</v>
       </c>
       <c r="D95" s="30" t="s">
@@ -7858,21 +7805,21 @@
       <c r="G95" s="40"/>
       <c r="H95" s="40"/>
       <c r="I95" s="41"/>
-      <c r="J95" s="35"/>
-      <c r="K95" s="35"/>
-      <c r="L95" s="35"/>
-      <c r="M95" s="35"/>
-      <c r="N95" s="35"/>
-      <c r="O95" s="35"/>
-      <c r="P95" s="35"/>
-      <c r="Q95" s="35"/>
-      <c r="R95" s="35"/>
-      <c r="S95" s="35"/>
-      <c r="T95" s="35"/>
-      <c r="U95" s="36"/>
-      <c r="V95" s="37"/>
-      <c r="W95" s="35" t="s">
-        <v>65</v>
+      <c r="J95" s="34"/>
+      <c r="K95" s="34"/>
+      <c r="L95" s="34"/>
+      <c r="M95" s="34"/>
+      <c r="N95" s="34"/>
+      <c r="O95" s="34"/>
+      <c r="P95" s="34"/>
+      <c r="Q95" s="34"/>
+      <c r="R95" s="34"/>
+      <c r="S95" s="34"/>
+      <c r="T95" s="34"/>
+      <c r="U95" s="35"/>
+      <c r="V95" s="36"/>
+      <c r="W95" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7882,7 +7829,7 @@
       <c r="B96" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C96" s="38" t="s">
+      <c r="C96" s="37" t="s">
         <v>83</v>
       </c>
       <c r="D96" s="30" t="s">
@@ -7895,21 +7842,21 @@
       <c r="G96" s="40"/>
       <c r="H96" s="40"/>
       <c r="I96" s="41"/>
-      <c r="J96" s="35"/>
-      <c r="K96" s="35"/>
-      <c r="L96" s="35"/>
-      <c r="M96" s="35"/>
-      <c r="N96" s="35"/>
-      <c r="O96" s="35"/>
-      <c r="P96" s="35"/>
-      <c r="Q96" s="35"/>
-      <c r="R96" s="35"/>
-      <c r="S96" s="35"/>
-      <c r="T96" s="35"/>
-      <c r="U96" s="36"/>
-      <c r="V96" s="37"/>
-      <c r="W96" s="35" t="s">
-        <v>65</v>
+      <c r="J96" s="34"/>
+      <c r="K96" s="34"/>
+      <c r="L96" s="34"/>
+      <c r="M96" s="34"/>
+      <c r="N96" s="34"/>
+      <c r="O96" s="34"/>
+      <c r="P96" s="34"/>
+      <c r="Q96" s="34"/>
+      <c r="R96" s="34"/>
+      <c r="S96" s="34"/>
+      <c r="T96" s="34"/>
+      <c r="U96" s="35"/>
+      <c r="V96" s="36"/>
+      <c r="W96" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7919,7 +7866,7 @@
       <c r="B97" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C97" s="38" t="s">
+      <c r="C97" s="37" t="s">
         <v>83</v>
       </c>
       <c r="D97" s="30" t="s">
@@ -7932,21 +7879,21 @@
       <c r="G97" s="40"/>
       <c r="H97" s="40"/>
       <c r="I97" s="41"/>
-      <c r="J97" s="35"/>
-      <c r="K97" s="35"/>
-      <c r="L97" s="35"/>
-      <c r="M97" s="35"/>
-      <c r="N97" s="35"/>
-      <c r="O97" s="35"/>
-      <c r="P97" s="35"/>
-      <c r="Q97" s="35"/>
-      <c r="R97" s="35"/>
-      <c r="S97" s="35"/>
-      <c r="T97" s="35"/>
-      <c r="U97" s="36"/>
-      <c r="V97" s="37"/>
-      <c r="W97" s="35" t="s">
-        <v>65</v>
+      <c r="J97" s="34"/>
+      <c r="K97" s="34"/>
+      <c r="L97" s="34"/>
+      <c r="M97" s="34"/>
+      <c r="N97" s="34"/>
+      <c r="O97" s="34"/>
+      <c r="P97" s="34"/>
+      <c r="Q97" s="34"/>
+      <c r="R97" s="34"/>
+      <c r="S97" s="34"/>
+      <c r="T97" s="34"/>
+      <c r="U97" s="35"/>
+      <c r="V97" s="36"/>
+      <c r="W97" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7956,7 +7903,7 @@
       <c r="B98" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C98" s="38" t="s">
+      <c r="C98" s="37" t="s">
         <v>83</v>
       </c>
       <c r="D98" s="30" t="s">
@@ -7969,21 +7916,21 @@
       <c r="G98" s="40"/>
       <c r="H98" s="40"/>
       <c r="I98" s="41"/>
-      <c r="J98" s="35"/>
-      <c r="K98" s="35"/>
-      <c r="L98" s="35"/>
-      <c r="M98" s="35"/>
-      <c r="N98" s="35"/>
-      <c r="O98" s="35"/>
-      <c r="P98" s="35"/>
-      <c r="Q98" s="35"/>
-      <c r="R98" s="35"/>
-      <c r="S98" s="35"/>
-      <c r="T98" s="35"/>
-      <c r="U98" s="36"/>
-      <c r="V98" s="37"/>
-      <c r="W98" s="35" t="s">
-        <v>65</v>
+      <c r="J98" s="34"/>
+      <c r="K98" s="34"/>
+      <c r="L98" s="34"/>
+      <c r="M98" s="34"/>
+      <c r="N98" s="34"/>
+      <c r="O98" s="34"/>
+      <c r="P98" s="34"/>
+      <c r="Q98" s="34"/>
+      <c r="R98" s="34"/>
+      <c r="S98" s="34"/>
+      <c r="T98" s="34"/>
+      <c r="U98" s="35"/>
+      <c r="V98" s="36"/>
+      <c r="W98" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7993,7 +7940,7 @@
       <c r="B99" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C99" s="38" t="s">
+      <c r="C99" s="37" t="s">
         <v>83</v>
       </c>
       <c r="D99" s="30" t="s">
@@ -8006,21 +7953,21 @@
       <c r="G99" s="40"/>
       <c r="H99" s="40"/>
       <c r="I99" s="41"/>
-      <c r="J99" s="35"/>
-      <c r="K99" s="35"/>
-      <c r="L99" s="35"/>
-      <c r="M99" s="35"/>
-      <c r="N99" s="35"/>
-      <c r="O99" s="35"/>
-      <c r="P99" s="35"/>
-      <c r="Q99" s="35"/>
-      <c r="R99" s="35"/>
-      <c r="S99" s="35"/>
-      <c r="T99" s="35"/>
-      <c r="U99" s="36"/>
-      <c r="V99" s="37"/>
-      <c r="W99" s="35" t="s">
-        <v>65</v>
+      <c r="J99" s="34"/>
+      <c r="K99" s="34"/>
+      <c r="L99" s="34"/>
+      <c r="M99" s="34"/>
+      <c r="N99" s="34"/>
+      <c r="O99" s="34"/>
+      <c r="P99" s="34"/>
+      <c r="Q99" s="34"/>
+      <c r="R99" s="34"/>
+      <c r="S99" s="34"/>
+      <c r="T99" s="34"/>
+      <c r="U99" s="35"/>
+      <c r="V99" s="36"/>
+      <c r="W99" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8030,7 +7977,7 @@
       <c r="B100" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C100" s="38" t="s">
+      <c r="C100" s="37" t="s">
         <v>83</v>
       </c>
       <c r="D100" s="30" t="s">
@@ -8043,21 +7990,21 @@
       <c r="G100" s="40"/>
       <c r="H100" s="40"/>
       <c r="I100" s="41"/>
-      <c r="J100" s="35"/>
-      <c r="K100" s="35"/>
-      <c r="L100" s="35"/>
-      <c r="M100" s="35"/>
-      <c r="N100" s="35"/>
-      <c r="O100" s="35"/>
-      <c r="P100" s="35"/>
-      <c r="Q100" s="35"/>
-      <c r="R100" s="35"/>
-      <c r="S100" s="35"/>
-      <c r="T100" s="35"/>
-      <c r="U100" s="36"/>
-      <c r="V100" s="37"/>
-      <c r="W100" s="35" t="s">
-        <v>65</v>
+      <c r="J100" s="34"/>
+      <c r="K100" s="34"/>
+      <c r="L100" s="34"/>
+      <c r="M100" s="34"/>
+      <c r="N100" s="34"/>
+      <c r="O100" s="34"/>
+      <c r="P100" s="34"/>
+      <c r="Q100" s="34"/>
+      <c r="R100" s="34"/>
+      <c r="S100" s="34"/>
+      <c r="T100" s="34"/>
+      <c r="U100" s="35"/>
+      <c r="V100" s="36"/>
+      <c r="W100" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8067,7 +8014,7 @@
       <c r="B101" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C101" s="38" t="s">
+      <c r="C101" s="37" t="s">
         <v>83</v>
       </c>
       <c r="D101" s="30" t="s">
@@ -8080,21 +8027,21 @@
       <c r="G101" s="40"/>
       <c r="H101" s="40"/>
       <c r="I101" s="41"/>
-      <c r="J101" s="35"/>
-      <c r="K101" s="35"/>
-      <c r="L101" s="35"/>
-      <c r="M101" s="35"/>
-      <c r="N101" s="35"/>
-      <c r="O101" s="35"/>
-      <c r="P101" s="35"/>
-      <c r="Q101" s="35"/>
-      <c r="R101" s="35"/>
-      <c r="S101" s="35"/>
-      <c r="T101" s="35"/>
-      <c r="U101" s="36"/>
-      <c r="V101" s="37"/>
-      <c r="W101" s="35" t="s">
-        <v>65</v>
+      <c r="J101" s="34"/>
+      <c r="K101" s="34"/>
+      <c r="L101" s="34"/>
+      <c r="M101" s="34"/>
+      <c r="N101" s="34"/>
+      <c r="O101" s="34"/>
+      <c r="P101" s="34"/>
+      <c r="Q101" s="34"/>
+      <c r="R101" s="34"/>
+      <c r="S101" s="34"/>
+      <c r="T101" s="34"/>
+      <c r="U101" s="35"/>
+      <c r="V101" s="36"/>
+      <c r="W101" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8104,7 +8051,7 @@
       <c r="B102" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C102" s="38" t="s">
+      <c r="C102" s="37" t="s">
         <v>83</v>
       </c>
       <c r="D102" s="30" t="s">
@@ -8117,21 +8064,21 @@
       <c r="G102" s="40"/>
       <c r="H102" s="40"/>
       <c r="I102" s="41"/>
-      <c r="J102" s="35"/>
-      <c r="K102" s="35"/>
-      <c r="L102" s="35"/>
-      <c r="M102" s="35"/>
-      <c r="N102" s="35"/>
-      <c r="O102" s="35"/>
-      <c r="P102" s="35"/>
-      <c r="Q102" s="35"/>
-      <c r="R102" s="35"/>
-      <c r="S102" s="35"/>
-      <c r="T102" s="35"/>
-      <c r="U102" s="36"/>
-      <c r="V102" s="37"/>
-      <c r="W102" s="35" t="s">
-        <v>65</v>
+      <c r="J102" s="34"/>
+      <c r="K102" s="34"/>
+      <c r="L102" s="34"/>
+      <c r="M102" s="34"/>
+      <c r="N102" s="34"/>
+      <c r="O102" s="34"/>
+      <c r="P102" s="34"/>
+      <c r="Q102" s="34"/>
+      <c r="R102" s="34"/>
+      <c r="S102" s="34"/>
+      <c r="T102" s="34"/>
+      <c r="U102" s="35"/>
+      <c r="V102" s="36"/>
+      <c r="W102" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8141,7 +8088,7 @@
       <c r="B103" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C103" s="38" t="s">
+      <c r="C103" s="37" t="s">
         <v>83</v>
       </c>
       <c r="D103" s="30" t="s">
@@ -8154,21 +8101,21 @@
       <c r="G103" s="40"/>
       <c r="H103" s="40"/>
       <c r="I103" s="41"/>
-      <c r="J103" s="35"/>
-      <c r="K103" s="35"/>
-      <c r="L103" s="35"/>
-      <c r="M103" s="35"/>
-      <c r="N103" s="35"/>
-      <c r="O103" s="35"/>
-      <c r="P103" s="35"/>
-      <c r="Q103" s="35"/>
-      <c r="R103" s="35"/>
-      <c r="S103" s="35"/>
-      <c r="T103" s="35"/>
-      <c r="U103" s="36"/>
-      <c r="V103" s="37"/>
-      <c r="W103" s="35" t="s">
-        <v>65</v>
+      <c r="J103" s="34"/>
+      <c r="K103" s="34"/>
+      <c r="L103" s="34"/>
+      <c r="M103" s="34"/>
+      <c r="N103" s="34"/>
+      <c r="O103" s="34"/>
+      <c r="P103" s="34"/>
+      <c r="Q103" s="34"/>
+      <c r="R103" s="34"/>
+      <c r="S103" s="34"/>
+      <c r="T103" s="34"/>
+      <c r="U103" s="35"/>
+      <c r="V103" s="36"/>
+      <c r="W103" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8178,7 +8125,7 @@
       <c r="B104" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C104" s="38" t="s">
+      <c r="C104" s="37" t="s">
         <v>83</v>
       </c>
       <c r="D104" s="30" t="s">
@@ -8191,21 +8138,21 @@
       <c r="G104" s="40"/>
       <c r="H104" s="40"/>
       <c r="I104" s="41"/>
-      <c r="J104" s="35"/>
-      <c r="K104" s="35"/>
-      <c r="L104" s="35"/>
-      <c r="M104" s="35"/>
-      <c r="N104" s="35"/>
-      <c r="O104" s="35"/>
-      <c r="P104" s="35"/>
-      <c r="Q104" s="35"/>
-      <c r="R104" s="35"/>
-      <c r="S104" s="35"/>
-      <c r="T104" s="35"/>
-      <c r="U104" s="36"/>
-      <c r="V104" s="37"/>
-      <c r="W104" s="35" t="s">
-        <v>65</v>
+      <c r="J104" s="34"/>
+      <c r="K104" s="34"/>
+      <c r="L104" s="34"/>
+      <c r="M104" s="34"/>
+      <c r="N104" s="34"/>
+      <c r="O104" s="34"/>
+      <c r="P104" s="34"/>
+      <c r="Q104" s="34"/>
+      <c r="R104" s="34"/>
+      <c r="S104" s="34"/>
+      <c r="T104" s="34"/>
+      <c r="U104" s="35"/>
+      <c r="V104" s="36"/>
+      <c r="W104" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8215,7 +8162,7 @@
       <c r="B105" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C105" s="38" t="s">
+      <c r="C105" s="37" t="s">
         <v>83</v>
       </c>
       <c r="D105" s="30" t="s">
@@ -8228,21 +8175,21 @@
       <c r="G105" s="40"/>
       <c r="H105" s="40"/>
       <c r="I105" s="41"/>
-      <c r="J105" s="35"/>
-      <c r="K105" s="35"/>
-      <c r="L105" s="35"/>
-      <c r="M105" s="35"/>
-      <c r="N105" s="35"/>
-      <c r="O105" s="35"/>
-      <c r="P105" s="35"/>
-      <c r="Q105" s="35"/>
-      <c r="R105" s="35"/>
-      <c r="S105" s="35"/>
-      <c r="T105" s="35"/>
-      <c r="U105" s="36"/>
-      <c r="V105" s="37"/>
-      <c r="W105" s="35" t="s">
-        <v>65</v>
+      <c r="J105" s="34"/>
+      <c r="K105" s="34"/>
+      <c r="L105" s="34"/>
+      <c r="M105" s="34"/>
+      <c r="N105" s="34"/>
+      <c r="O105" s="34"/>
+      <c r="P105" s="34"/>
+      <c r="Q105" s="34"/>
+      <c r="R105" s="34"/>
+      <c r="S105" s="34"/>
+      <c r="T105" s="34"/>
+      <c r="U105" s="35"/>
+      <c r="V105" s="36"/>
+      <c r="W105" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8252,7 +8199,7 @@
       <c r="B106" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C106" s="38" t="s">
+      <c r="C106" s="37" t="s">
         <v>83</v>
       </c>
       <c r="D106" s="30" t="s">
@@ -8265,21 +8212,21 @@
       <c r="G106" s="40"/>
       <c r="H106" s="40"/>
       <c r="I106" s="41"/>
-      <c r="J106" s="35"/>
-      <c r="K106" s="35"/>
-      <c r="L106" s="35"/>
-      <c r="M106" s="35"/>
-      <c r="N106" s="35"/>
-      <c r="O106" s="35"/>
-      <c r="P106" s="35"/>
-      <c r="Q106" s="35"/>
-      <c r="R106" s="35"/>
-      <c r="S106" s="35"/>
-      <c r="T106" s="35"/>
-      <c r="U106" s="36"/>
-      <c r="V106" s="37"/>
-      <c r="W106" s="35" t="s">
-        <v>65</v>
+      <c r="J106" s="34"/>
+      <c r="K106" s="34"/>
+      <c r="L106" s="34"/>
+      <c r="M106" s="34"/>
+      <c r="N106" s="34"/>
+      <c r="O106" s="34"/>
+      <c r="P106" s="34"/>
+      <c r="Q106" s="34"/>
+      <c r="R106" s="34"/>
+      <c r="S106" s="34"/>
+      <c r="T106" s="34"/>
+      <c r="U106" s="35"/>
+      <c r="V106" s="36"/>
+      <c r="W106" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8289,7 +8236,7 @@
       <c r="B107" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C107" s="38" t="s">
+      <c r="C107" s="37" t="s">
         <v>83</v>
       </c>
       <c r="D107" s="30" t="s">
@@ -8302,21 +8249,21 @@
       <c r="G107" s="40"/>
       <c r="H107" s="40"/>
       <c r="I107" s="41"/>
-      <c r="J107" s="35"/>
-      <c r="K107" s="35"/>
-      <c r="L107" s="35"/>
-      <c r="M107" s="35"/>
-      <c r="N107" s="35"/>
-      <c r="O107" s="35"/>
-      <c r="P107" s="35"/>
-      <c r="Q107" s="35"/>
-      <c r="R107" s="35"/>
-      <c r="S107" s="35"/>
-      <c r="T107" s="35"/>
-      <c r="U107" s="36"/>
-      <c r="V107" s="37"/>
-      <c r="W107" s="35" t="s">
-        <v>65</v>
+      <c r="J107" s="34"/>
+      <c r="K107" s="34"/>
+      <c r="L107" s="34"/>
+      <c r="M107" s="34"/>
+      <c r="N107" s="34"/>
+      <c r="O107" s="34"/>
+      <c r="P107" s="34"/>
+      <c r="Q107" s="34"/>
+      <c r="R107" s="34"/>
+      <c r="S107" s="34"/>
+      <c r="T107" s="34"/>
+      <c r="U107" s="35"/>
+      <c r="V107" s="36"/>
+      <c r="W107" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8326,7 +8273,7 @@
       <c r="B108" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C108" s="38" t="s">
+      <c r="C108" s="37" t="s">
         <v>83</v>
       </c>
       <c r="D108" s="30" t="s">
@@ -8339,21 +8286,21 @@
       <c r="G108" s="40"/>
       <c r="H108" s="40"/>
       <c r="I108" s="41"/>
-      <c r="J108" s="35"/>
-      <c r="K108" s="35"/>
-      <c r="L108" s="35"/>
-      <c r="M108" s="35"/>
-      <c r="N108" s="35"/>
-      <c r="O108" s="35"/>
-      <c r="P108" s="35"/>
-      <c r="Q108" s="35"/>
-      <c r="R108" s="35"/>
-      <c r="S108" s="35"/>
-      <c r="T108" s="35"/>
-      <c r="U108" s="36"/>
-      <c r="V108" s="37"/>
-      <c r="W108" s="35" t="s">
-        <v>65</v>
+      <c r="J108" s="34"/>
+      <c r="K108" s="34"/>
+      <c r="L108" s="34"/>
+      <c r="M108" s="34"/>
+      <c r="N108" s="34"/>
+      <c r="O108" s="34"/>
+      <c r="P108" s="34"/>
+      <c r="Q108" s="34"/>
+      <c r="R108" s="34"/>
+      <c r="S108" s="34"/>
+      <c r="T108" s="34"/>
+      <c r="U108" s="35"/>
+      <c r="V108" s="36"/>
+      <c r="W108" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8363,7 +8310,7 @@
       <c r="B109" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C109" s="38" t="s">
+      <c r="C109" s="37" t="s">
         <v>83</v>
       </c>
       <c r="D109" s="30" t="s">
@@ -8376,21 +8323,21 @@
       <c r="G109" s="40"/>
       <c r="H109" s="40"/>
       <c r="I109" s="41"/>
-      <c r="J109" s="35"/>
-      <c r="K109" s="35"/>
-      <c r="L109" s="35"/>
-      <c r="M109" s="35"/>
-      <c r="N109" s="35"/>
-      <c r="O109" s="35"/>
-      <c r="P109" s="35"/>
-      <c r="Q109" s="35"/>
-      <c r="R109" s="35"/>
-      <c r="S109" s="35"/>
-      <c r="T109" s="35"/>
-      <c r="U109" s="36"/>
-      <c r="V109" s="37"/>
-      <c r="W109" s="35" t="s">
-        <v>65</v>
+      <c r="J109" s="34"/>
+      <c r="K109" s="34"/>
+      <c r="L109" s="34"/>
+      <c r="M109" s="34"/>
+      <c r="N109" s="34"/>
+      <c r="O109" s="34"/>
+      <c r="P109" s="34"/>
+      <c r="Q109" s="34"/>
+      <c r="R109" s="34"/>
+      <c r="S109" s="34"/>
+      <c r="T109" s="34"/>
+      <c r="U109" s="35"/>
+      <c r="V109" s="36"/>
+      <c r="W109" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8400,7 +8347,7 @@
       <c r="B110" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C110" s="38" t="s">
+      <c r="C110" s="37" t="s">
         <v>83</v>
       </c>
       <c r="D110" s="30" t="s">
@@ -8413,21 +8360,21 @@
       <c r="G110" s="40"/>
       <c r="H110" s="40"/>
       <c r="I110" s="41"/>
-      <c r="J110" s="35"/>
-      <c r="K110" s="35"/>
-      <c r="L110" s="35"/>
-      <c r="M110" s="35"/>
-      <c r="N110" s="35"/>
-      <c r="O110" s="35"/>
-      <c r="P110" s="35"/>
-      <c r="Q110" s="35"/>
-      <c r="R110" s="35"/>
-      <c r="S110" s="35"/>
-      <c r="T110" s="35"/>
-      <c r="U110" s="36"/>
-      <c r="V110" s="37"/>
-      <c r="W110" s="35" t="s">
-        <v>65</v>
+      <c r="J110" s="34"/>
+      <c r="K110" s="34"/>
+      <c r="L110" s="34"/>
+      <c r="M110" s="34"/>
+      <c r="N110" s="34"/>
+      <c r="O110" s="34"/>
+      <c r="P110" s="34"/>
+      <c r="Q110" s="34"/>
+      <c r="R110" s="34"/>
+      <c r="S110" s="34"/>
+      <c r="T110" s="34"/>
+      <c r="U110" s="35"/>
+      <c r="V110" s="36"/>
+      <c r="W110" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8437,7 +8384,7 @@
       <c r="B111" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C111" s="38" t="s">
+      <c r="C111" s="37" t="s">
         <v>83</v>
       </c>
       <c r="D111" s="30" t="s">
@@ -8450,21 +8397,21 @@
       <c r="G111" s="40"/>
       <c r="H111" s="40"/>
       <c r="I111" s="41"/>
-      <c r="J111" s="35"/>
-      <c r="K111" s="35"/>
-      <c r="L111" s="35"/>
-      <c r="M111" s="35"/>
-      <c r="N111" s="35"/>
-      <c r="O111" s="35"/>
-      <c r="P111" s="35"/>
-      <c r="Q111" s="35"/>
-      <c r="R111" s="35"/>
-      <c r="S111" s="35"/>
-      <c r="T111" s="35"/>
-      <c r="U111" s="36"/>
-      <c r="V111" s="37"/>
-      <c r="W111" s="35" t="s">
-        <v>65</v>
+      <c r="J111" s="34"/>
+      <c r="K111" s="34"/>
+      <c r="L111" s="34"/>
+      <c r="M111" s="34"/>
+      <c r="N111" s="34"/>
+      <c r="O111" s="34"/>
+      <c r="P111" s="34"/>
+      <c r="Q111" s="34"/>
+      <c r="R111" s="34"/>
+      <c r="S111" s="34"/>
+      <c r="T111" s="34"/>
+      <c r="U111" s="35"/>
+      <c r="V111" s="36"/>
+      <c r="W111" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8474,7 +8421,7 @@
       <c r="B112" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C112" s="38" t="s">
+      <c r="C112" s="37" t="s">
         <v>83</v>
       </c>
       <c r="D112" s="30" t="s">
@@ -8487,21 +8434,21 @@
       <c r="G112" s="40"/>
       <c r="H112" s="40"/>
       <c r="I112" s="41"/>
-      <c r="J112" s="35"/>
-      <c r="K112" s="35"/>
-      <c r="L112" s="35"/>
-      <c r="M112" s="35"/>
-      <c r="N112" s="35"/>
-      <c r="O112" s="35"/>
-      <c r="P112" s="35"/>
-      <c r="Q112" s="35"/>
-      <c r="R112" s="35"/>
-      <c r="S112" s="35"/>
-      <c r="T112" s="35"/>
-      <c r="U112" s="36"/>
-      <c r="V112" s="37"/>
-      <c r="W112" s="35" t="s">
-        <v>65</v>
+      <c r="J112" s="34"/>
+      <c r="K112" s="34"/>
+      <c r="L112" s="34"/>
+      <c r="M112" s="34"/>
+      <c r="N112" s="34"/>
+      <c r="O112" s="34"/>
+      <c r="P112" s="34"/>
+      <c r="Q112" s="34"/>
+      <c r="R112" s="34"/>
+      <c r="S112" s="34"/>
+      <c r="T112" s="34"/>
+      <c r="U112" s="35"/>
+      <c r="V112" s="36"/>
+      <c r="W112" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8511,7 +8458,7 @@
       <c r="B113" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C113" s="38" t="s">
+      <c r="C113" s="37" t="s">
         <v>83</v>
       </c>
       <c r="D113" s="30" t="s">
@@ -8524,21 +8471,21 @@
       <c r="G113" s="40"/>
       <c r="H113" s="40"/>
       <c r="I113" s="41"/>
-      <c r="J113" s="35"/>
-      <c r="K113" s="35"/>
-      <c r="L113" s="35"/>
-      <c r="M113" s="35"/>
-      <c r="N113" s="35"/>
-      <c r="O113" s="35"/>
-      <c r="P113" s="35"/>
-      <c r="Q113" s="35"/>
-      <c r="R113" s="35"/>
-      <c r="S113" s="35"/>
-      <c r="T113" s="35"/>
-      <c r="U113" s="36"/>
-      <c r="V113" s="37"/>
-      <c r="W113" s="35" t="s">
-        <v>65</v>
+      <c r="J113" s="34"/>
+      <c r="K113" s="34"/>
+      <c r="L113" s="34"/>
+      <c r="M113" s="34"/>
+      <c r="N113" s="34"/>
+      <c r="O113" s="34"/>
+      <c r="P113" s="34"/>
+      <c r="Q113" s="34"/>
+      <c r="R113" s="34"/>
+      <c r="S113" s="34"/>
+      <c r="T113" s="34"/>
+      <c r="U113" s="35"/>
+      <c r="V113" s="36"/>
+      <c r="W113" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8548,7 +8495,7 @@
       <c r="B114" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C114" s="38" t="s">
+      <c r="C114" s="37" t="s">
         <v>83</v>
       </c>
       <c r="D114" s="30" t="s">
@@ -8561,21 +8508,21 @@
       <c r="G114" s="40"/>
       <c r="H114" s="40"/>
       <c r="I114" s="41"/>
-      <c r="J114" s="35"/>
-      <c r="K114" s="35"/>
-      <c r="L114" s="35"/>
-      <c r="M114" s="35"/>
-      <c r="N114" s="35"/>
-      <c r="O114" s="35"/>
-      <c r="P114" s="35"/>
-      <c r="Q114" s="35"/>
-      <c r="R114" s="35"/>
-      <c r="S114" s="35"/>
-      <c r="T114" s="35"/>
-      <c r="U114" s="36"/>
-      <c r="V114" s="37"/>
-      <c r="W114" s="35" t="s">
-        <v>65</v>
+      <c r="J114" s="34"/>
+      <c r="K114" s="34"/>
+      <c r="L114" s="34"/>
+      <c r="M114" s="34"/>
+      <c r="N114" s="34"/>
+      <c r="O114" s="34"/>
+      <c r="P114" s="34"/>
+      <c r="Q114" s="34"/>
+      <c r="R114" s="34"/>
+      <c r="S114" s="34"/>
+      <c r="T114" s="34"/>
+      <c r="U114" s="35"/>
+      <c r="V114" s="36"/>
+      <c r="W114" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8585,7 +8532,7 @@
       <c r="B115" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C115" s="38" t="s">
+      <c r="C115" s="37" t="s">
         <v>83</v>
       </c>
       <c r="D115" s="30" t="s">
@@ -8598,21 +8545,21 @@
       <c r="G115" s="40"/>
       <c r="H115" s="40"/>
       <c r="I115" s="41"/>
-      <c r="J115" s="35"/>
-      <c r="K115" s="35"/>
-      <c r="L115" s="35"/>
-      <c r="M115" s="35"/>
-      <c r="N115" s="35"/>
-      <c r="O115" s="35"/>
-      <c r="P115" s="35"/>
-      <c r="Q115" s="35"/>
-      <c r="R115" s="35"/>
-      <c r="S115" s="35"/>
-      <c r="T115" s="35"/>
-      <c r="U115" s="36"/>
-      <c r="V115" s="37"/>
-      <c r="W115" s="35" t="s">
-        <v>65</v>
+      <c r="J115" s="34"/>
+      <c r="K115" s="34"/>
+      <c r="L115" s="34"/>
+      <c r="M115" s="34"/>
+      <c r="N115" s="34"/>
+      <c r="O115" s="34"/>
+      <c r="P115" s="34"/>
+      <c r="Q115" s="34"/>
+      <c r="R115" s="34"/>
+      <c r="S115" s="34"/>
+      <c r="T115" s="34"/>
+      <c r="U115" s="35"/>
+      <c r="V115" s="36"/>
+      <c r="W115" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8622,7 +8569,7 @@
       <c r="B116" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C116" s="38" t="s">
+      <c r="C116" s="37" t="s">
         <v>83</v>
       </c>
       <c r="D116" s="30" t="s">
@@ -8635,21 +8582,21 @@
       <c r="G116" s="40"/>
       <c r="H116" s="40"/>
       <c r="I116" s="41"/>
-      <c r="J116" s="35"/>
-      <c r="K116" s="35"/>
-      <c r="L116" s="35"/>
-      <c r="M116" s="35"/>
-      <c r="N116" s="35"/>
-      <c r="O116" s="35"/>
-      <c r="P116" s="35"/>
-      <c r="Q116" s="35"/>
-      <c r="R116" s="35"/>
-      <c r="S116" s="35"/>
-      <c r="T116" s="35"/>
-      <c r="U116" s="36"/>
-      <c r="V116" s="37"/>
-      <c r="W116" s="35" t="s">
-        <v>65</v>
+      <c r="J116" s="34"/>
+      <c r="K116" s="34"/>
+      <c r="L116" s="34"/>
+      <c r="M116" s="34"/>
+      <c r="N116" s="34"/>
+      <c r="O116" s="34"/>
+      <c r="P116" s="34"/>
+      <c r="Q116" s="34"/>
+      <c r="R116" s="34"/>
+      <c r="S116" s="34"/>
+      <c r="T116" s="34"/>
+      <c r="U116" s="35"/>
+      <c r="V116" s="36"/>
+      <c r="W116" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8659,7 +8606,7 @@
       <c r="B117" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C117" s="38" t="s">
+      <c r="C117" s="37" t="s">
         <v>83</v>
       </c>
       <c r="D117" s="30" t="s">
@@ -8672,21 +8619,21 @@
       <c r="G117" s="40"/>
       <c r="H117" s="40"/>
       <c r="I117" s="41"/>
-      <c r="J117" s="35"/>
-      <c r="K117" s="35"/>
-      <c r="L117" s="35"/>
-      <c r="M117" s="35"/>
-      <c r="N117" s="35"/>
-      <c r="O117" s="35"/>
-      <c r="P117" s="35"/>
-      <c r="Q117" s="35"/>
-      <c r="R117" s="35"/>
-      <c r="S117" s="35"/>
-      <c r="T117" s="35"/>
-      <c r="U117" s="36"/>
-      <c r="V117" s="37"/>
-      <c r="W117" s="35" t="s">
-        <v>65</v>
+      <c r="J117" s="34"/>
+      <c r="K117" s="34"/>
+      <c r="L117" s="34"/>
+      <c r="M117" s="34"/>
+      <c r="N117" s="34"/>
+      <c r="O117" s="34"/>
+      <c r="P117" s="34"/>
+      <c r="Q117" s="34"/>
+      <c r="R117" s="34"/>
+      <c r="S117" s="34"/>
+      <c r="T117" s="34"/>
+      <c r="U117" s="35"/>
+      <c r="V117" s="36"/>
+      <c r="W117" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8696,7 +8643,7 @@
       <c r="B118" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C118" s="38" t="s">
+      <c r="C118" s="37" t="s">
         <v>73</v>
       </c>
       <c r="D118" s="30" t="s">
@@ -8709,25 +8656,25 @@
       <c r="G118" s="40"/>
       <c r="H118" s="40"/>
       <c r="I118" s="41"/>
-      <c r="J118" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="K118" s="35" t="s">
+      <c r="J118" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="K118" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="L118" s="35"/>
-      <c r="M118" s="35"/>
-      <c r="N118" s="35"/>
-      <c r="O118" s="35"/>
-      <c r="P118" s="35"/>
-      <c r="Q118" s="35"/>
-      <c r="R118" s="35"/>
-      <c r="S118" s="35"/>
-      <c r="T118" s="35"/>
-      <c r="U118" s="36"/>
-      <c r="V118" s="37"/>
-      <c r="W118" s="35" t="s">
-        <v>65</v>
+      <c r="L118" s="34"/>
+      <c r="M118" s="34"/>
+      <c r="N118" s="34"/>
+      <c r="O118" s="34"/>
+      <c r="P118" s="34"/>
+      <c r="Q118" s="34"/>
+      <c r="R118" s="34"/>
+      <c r="S118" s="34"/>
+      <c r="T118" s="34"/>
+      <c r="U118" s="35"/>
+      <c r="V118" s="36"/>
+      <c r="W118" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8737,7 +8684,7 @@
       <c r="B119" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C119" s="38" t="s">
+      <c r="C119" s="37" t="s">
         <v>73</v>
       </c>
       <c r="D119" s="30" t="s">
@@ -8750,25 +8697,25 @@
       <c r="G119" s="40"/>
       <c r="H119" s="40"/>
       <c r="I119" s="41"/>
-      <c r="J119" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="K119" s="35" t="s">
+      <c r="J119" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="K119" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="L119" s="35"/>
-      <c r="M119" s="35"/>
-      <c r="N119" s="35"/>
-      <c r="O119" s="35"/>
-      <c r="P119" s="35"/>
-      <c r="Q119" s="35"/>
-      <c r="R119" s="35"/>
-      <c r="S119" s="35"/>
-      <c r="T119" s="35"/>
-      <c r="U119" s="36"/>
-      <c r="V119" s="37"/>
-      <c r="W119" s="35" t="s">
-        <v>65</v>
+      <c r="L119" s="34"/>
+      <c r="M119" s="34"/>
+      <c r="N119" s="34"/>
+      <c r="O119" s="34"/>
+      <c r="P119" s="34"/>
+      <c r="Q119" s="34"/>
+      <c r="R119" s="34"/>
+      <c r="S119" s="34"/>
+      <c r="T119" s="34"/>
+      <c r="U119" s="35"/>
+      <c r="V119" s="36"/>
+      <c r="W119" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8778,7 +8725,7 @@
       <c r="B120" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C120" s="38" t="s">
+      <c r="C120" s="37" t="s">
         <v>73</v>
       </c>
       <c r="D120" s="30" t="s">
@@ -8791,25 +8738,25 @@
       <c r="G120" s="40"/>
       <c r="H120" s="40"/>
       <c r="I120" s="41"/>
-      <c r="J120" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="K120" s="35" t="s">
+      <c r="J120" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="K120" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="L120" s="35"/>
-      <c r="M120" s="35"/>
-      <c r="N120" s="35"/>
-      <c r="O120" s="35"/>
-      <c r="P120" s="35"/>
-      <c r="Q120" s="35"/>
-      <c r="R120" s="35"/>
-      <c r="S120" s="35"/>
-      <c r="T120" s="35"/>
-      <c r="U120" s="36"/>
-      <c r="V120" s="37"/>
-      <c r="W120" s="35" t="s">
-        <v>65</v>
+      <c r="L120" s="34"/>
+      <c r="M120" s="34"/>
+      <c r="N120" s="34"/>
+      <c r="O120" s="34"/>
+      <c r="P120" s="34"/>
+      <c r="Q120" s="34"/>
+      <c r="R120" s="34"/>
+      <c r="S120" s="34"/>
+      <c r="T120" s="34"/>
+      <c r="U120" s="35"/>
+      <c r="V120" s="36"/>
+      <c r="W120" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8819,7 +8766,7 @@
       <c r="B121" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C121" s="38" t="s">
+      <c r="C121" s="37" t="s">
         <v>73</v>
       </c>
       <c r="D121" s="30" t="s">
@@ -8832,25 +8779,25 @@
       <c r="G121" s="40"/>
       <c r="H121" s="40"/>
       <c r="I121" s="41"/>
-      <c r="J121" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="K121" s="35" t="s">
+      <c r="J121" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="K121" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="L121" s="35"/>
-      <c r="M121" s="35"/>
-      <c r="N121" s="35"/>
-      <c r="O121" s="35"/>
-      <c r="P121" s="35"/>
-      <c r="Q121" s="35"/>
-      <c r="R121" s="35"/>
-      <c r="S121" s="35"/>
-      <c r="T121" s="35"/>
-      <c r="U121" s="36"/>
-      <c r="V121" s="37"/>
-      <c r="W121" s="35" t="s">
-        <v>65</v>
+      <c r="L121" s="34"/>
+      <c r="M121" s="34"/>
+      <c r="N121" s="34"/>
+      <c r="O121" s="34"/>
+      <c r="P121" s="34"/>
+      <c r="Q121" s="34"/>
+      <c r="R121" s="34"/>
+      <c r="S121" s="34"/>
+      <c r="T121" s="34"/>
+      <c r="U121" s="35"/>
+      <c r="V121" s="36"/>
+      <c r="W121" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="125.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8860,7 +8807,7 @@
       <c r="B122" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C122" s="38" t="s">
+      <c r="C122" s="37" t="s">
         <v>73</v>
       </c>
       <c r="D122" s="30" t="s">
@@ -8881,35 +8828,35 @@
       <c r="I122" s="41" t="s">
         <v>298</v>
       </c>
-      <c r="J122" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="K122" s="35"/>
-      <c r="L122" s="35"/>
-      <c r="M122" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="N122" s="35"/>
-      <c r="O122" s="35" t="s">
+      <c r="J122" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="K122" s="34"/>
+      <c r="L122" s="34"/>
+      <c r="M122" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="P122" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q122" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="R122" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="S122" s="35" t="s">
+      <c r="N122" s="34"/>
+      <c r="O122" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="T122" s="35"/>
-      <c r="U122" s="36"/>
-      <c r="V122" s="37"/>
-      <c r="W122" s="35" t="s">
+      <c r="P122" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q122" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R122" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S122" s="34" t="s">
         <v>65</v>
+      </c>
+      <c r="T122" s="34"/>
+      <c r="U122" s="35"/>
+      <c r="V122" s="36"/>
+      <c r="W122" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8919,7 +8866,7 @@
       <c r="B123" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C123" s="38" t="s">
+      <c r="C123" s="37" t="s">
         <v>73</v>
       </c>
       <c r="D123" s="30" t="s">
@@ -8940,35 +8887,35 @@
       <c r="I123" s="41" t="s">
         <v>303</v>
       </c>
-      <c r="J123" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="K123" s="35"/>
-      <c r="L123" s="35"/>
-      <c r="M123" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="N123" s="35"/>
-      <c r="O123" s="35" t="s">
+      <c r="J123" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="K123" s="34"/>
+      <c r="L123" s="34"/>
+      <c r="M123" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="P123" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q123" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="R123" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="S123" s="35" t="s">
+      <c r="N123" s="34"/>
+      <c r="O123" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="T123" s="35"/>
-      <c r="U123" s="36"/>
-      <c r="V123" s="37"/>
-      <c r="W123" s="35" t="s">
+      <c r="P123" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q123" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R123" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S123" s="34" t="s">
         <v>65</v>
+      </c>
+      <c r="T123" s="34"/>
+      <c r="U123" s="35"/>
+      <c r="V123" s="36"/>
+      <c r="W123" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8978,7 +8925,7 @@
       <c r="B124" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C124" s="38" t="s">
+      <c r="C124" s="37" t="s">
         <v>73</v>
       </c>
       <c r="D124" s="30" t="s">
@@ -8999,35 +8946,35 @@
       <c r="I124" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="J124" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="K124" s="35"/>
-      <c r="L124" s="35"/>
-      <c r="M124" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="N124" s="35"/>
-      <c r="O124" s="35" t="s">
+      <c r="J124" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="K124" s="34"/>
+      <c r="L124" s="34"/>
+      <c r="M124" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="P124" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q124" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="R124" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="S124" s="35" t="s">
+      <c r="N124" s="34"/>
+      <c r="O124" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="T124" s="35"/>
-      <c r="U124" s="36"/>
-      <c r="V124" s="37"/>
-      <c r="W124" s="35" t="s">
+      <c r="P124" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q124" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R124" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S124" s="34" t="s">
         <v>65</v>
+      </c>
+      <c r="T124" s="34"/>
+      <c r="U124" s="35"/>
+      <c r="V124" s="36"/>
+      <c r="W124" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9037,7 +8984,7 @@
       <c r="B125" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C125" s="38" t="s">
+      <c r="C125" s="37" t="s">
         <v>73</v>
       </c>
       <c r="D125" s="30" t="s">
@@ -9058,35 +9005,35 @@
       <c r="I125" s="41" t="s">
         <v>313</v>
       </c>
-      <c r="J125" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="K125" s="35"/>
-      <c r="L125" s="35"/>
-      <c r="M125" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="N125" s="35"/>
-      <c r="O125" s="35" t="s">
+      <c r="J125" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="K125" s="34"/>
+      <c r="L125" s="34"/>
+      <c r="M125" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="P125" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q125" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="R125" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="S125" s="35" t="s">
+      <c r="N125" s="34"/>
+      <c r="O125" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="T125" s="35"/>
-      <c r="U125" s="36"/>
-      <c r="V125" s="37"/>
-      <c r="W125" s="35" t="s">
+      <c r="P125" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q125" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R125" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S125" s="34" t="s">
         <v>65</v>
+      </c>
+      <c r="T125" s="34"/>
+      <c r="U125" s="35"/>
+      <c r="V125" s="36"/>
+      <c r="W125" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9096,7 +9043,7 @@
       <c r="B126" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C126" s="38" t="s">
+      <c r="C126" s="37" t="s">
         <v>73</v>
       </c>
       <c r="D126" s="30" t="s">
@@ -9117,35 +9064,35 @@
       <c r="I126" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="J126" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="K126" s="35"/>
-      <c r="L126" s="35"/>
-      <c r="M126" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="N126" s="35"/>
-      <c r="O126" s="35" t="s">
+      <c r="J126" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="K126" s="34"/>
+      <c r="L126" s="34"/>
+      <c r="M126" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="P126" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q126" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="R126" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="S126" s="35" t="s">
+      <c r="N126" s="34"/>
+      <c r="O126" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="T126" s="35"/>
-      <c r="U126" s="36"/>
-      <c r="V126" s="37"/>
-      <c r="W126" s="35" t="s">
+      <c r="P126" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q126" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R126" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S126" s="34" t="s">
         <v>65</v>
+      </c>
+      <c r="T126" s="34"/>
+      <c r="U126" s="35"/>
+      <c r="V126" s="36"/>
+      <c r="W126" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9155,7 +9102,7 @@
       <c r="B127" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C127" s="38" t="s">
+      <c r="C127" s="37" t="s">
         <v>73</v>
       </c>
       <c r="D127" s="30" t="s">
@@ -9176,35 +9123,35 @@
       <c r="I127" s="41" t="s">
         <v>323</v>
       </c>
-      <c r="J127" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="K127" s="35"/>
-      <c r="L127" s="35"/>
-      <c r="M127" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="N127" s="35"/>
-      <c r="O127" s="35" t="s">
+      <c r="J127" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="K127" s="34"/>
+      <c r="L127" s="34"/>
+      <c r="M127" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="P127" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q127" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="R127" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="S127" s="35" t="s">
+      <c r="N127" s="34"/>
+      <c r="O127" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="T127" s="35"/>
-      <c r="U127" s="36"/>
-      <c r="V127" s="37"/>
-      <c r="W127" s="35" t="s">
+      <c r="P127" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q127" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R127" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S127" s="34" t="s">
         <v>65</v>
+      </c>
+      <c r="T127" s="34"/>
+      <c r="U127" s="35"/>
+      <c r="V127" s="36"/>
+      <c r="W127" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9214,7 +9161,7 @@
       <c r="B128" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C128" s="38" t="s">
+      <c r="C128" s="37" t="s">
         <v>73</v>
       </c>
       <c r="D128" s="30" t="s">
@@ -9235,35 +9182,35 @@
       <c r="I128" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="J128" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="K128" s="35"/>
-      <c r="L128" s="35"/>
-      <c r="M128" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="N128" s="35"/>
-      <c r="O128" s="35" t="s">
+      <c r="J128" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="K128" s="34"/>
+      <c r="L128" s="34"/>
+      <c r="M128" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="P128" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q128" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="R128" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="S128" s="35" t="s">
+      <c r="N128" s="34"/>
+      <c r="O128" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="T128" s="35"/>
-      <c r="U128" s="36"/>
-      <c r="V128" s="37"/>
-      <c r="W128" s="35" t="s">
+      <c r="P128" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q128" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R128" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S128" s="34" t="s">
         <v>65</v>
+      </c>
+      <c r="T128" s="34"/>
+      <c r="U128" s="35"/>
+      <c r="V128" s="36"/>
+      <c r="W128" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9273,7 +9220,7 @@
       <c r="B129" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C129" s="38" t="s">
+      <c r="C129" s="37" t="s">
         <v>73</v>
       </c>
       <c r="D129" s="30" t="s">
@@ -9294,35 +9241,35 @@
       <c r="I129" s="41" t="s">
         <v>333</v>
       </c>
-      <c r="J129" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="K129" s="35"/>
-      <c r="L129" s="35"/>
-      <c r="M129" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="N129" s="35"/>
-      <c r="O129" s="35" t="s">
+      <c r="J129" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="K129" s="34"/>
+      <c r="L129" s="34"/>
+      <c r="M129" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="P129" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q129" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="R129" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="S129" s="35" t="s">
+      <c r="N129" s="34"/>
+      <c r="O129" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="T129" s="35"/>
-      <c r="U129" s="36"/>
-      <c r="V129" s="37"/>
-      <c r="W129" s="35" t="s">
+      <c r="P129" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q129" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R129" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S129" s="34" t="s">
         <v>65</v>
+      </c>
+      <c r="T129" s="34"/>
+      <c r="U129" s="35"/>
+      <c r="V129" s="36"/>
+      <c r="W129" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9332,7 +9279,7 @@
       <c r="B130" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C130" s="38" t="s">
+      <c r="C130" s="37" t="s">
         <v>73</v>
       </c>
       <c r="D130" s="30" t="s">
@@ -9353,35 +9300,35 @@
       <c r="I130" s="41" t="s">
         <v>338</v>
       </c>
-      <c r="J130" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="K130" s="35"/>
-      <c r="L130" s="35"/>
-      <c r="M130" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="N130" s="35"/>
-      <c r="O130" s="35" t="s">
+      <c r="J130" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="K130" s="34"/>
+      <c r="L130" s="34"/>
+      <c r="M130" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="P130" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q130" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="R130" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="S130" s="35" t="s">
+      <c r="N130" s="34"/>
+      <c r="O130" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="T130" s="35"/>
-      <c r="U130" s="36"/>
-      <c r="V130" s="37"/>
-      <c r="W130" s="35" t="s">
+      <c r="P130" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q130" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R130" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S130" s="34" t="s">
         <v>65</v>
+      </c>
+      <c r="T130" s="34"/>
+      <c r="U130" s="35"/>
+      <c r="V130" s="36"/>
+      <c r="W130" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9391,7 +9338,7 @@
       <c r="B131" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C131" s="38" t="s">
+      <c r="C131" s="37" t="s">
         <v>73</v>
       </c>
       <c r="D131" s="30" t="s">
@@ -9412,35 +9359,35 @@
       <c r="I131" s="41" t="s">
         <v>343</v>
       </c>
-      <c r="J131" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="K131" s="35"/>
-      <c r="L131" s="35"/>
-      <c r="M131" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="N131" s="35"/>
-      <c r="O131" s="35" t="s">
+      <c r="J131" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="K131" s="34"/>
+      <c r="L131" s="34"/>
+      <c r="M131" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="P131" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q131" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="R131" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="S131" s="35" t="s">
+      <c r="N131" s="34"/>
+      <c r="O131" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="T131" s="35"/>
-      <c r="U131" s="36"/>
-      <c r="V131" s="37"/>
-      <c r="W131" s="35" t="s">
+      <c r="P131" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q131" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R131" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S131" s="34" t="s">
         <v>65</v>
+      </c>
+      <c r="T131" s="34"/>
+      <c r="U131" s="35"/>
+      <c r="V131" s="36"/>
+      <c r="W131" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9450,7 +9397,7 @@
       <c r="B132" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C132" s="38" t="s">
+      <c r="C132" s="37" t="s">
         <v>73</v>
       </c>
       <c r="D132" s="30" t="s">
@@ -9471,35 +9418,35 @@
       <c r="I132" s="41" t="s">
         <v>348</v>
       </c>
-      <c r="J132" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="K132" s="35"/>
-      <c r="L132" s="35"/>
-      <c r="M132" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="N132" s="35"/>
-      <c r="O132" s="35" t="s">
+      <c r="J132" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="K132" s="34"/>
+      <c r="L132" s="34"/>
+      <c r="M132" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="P132" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q132" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="R132" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="S132" s="35" t="s">
+      <c r="N132" s="34"/>
+      <c r="O132" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="T132" s="35"/>
-      <c r="U132" s="36"/>
-      <c r="V132" s="37"/>
-      <c r="W132" s="35" t="s">
+      <c r="P132" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q132" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R132" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S132" s="34" t="s">
         <v>65</v>
+      </c>
+      <c r="T132" s="34"/>
+      <c r="U132" s="35"/>
+      <c r="V132" s="36"/>
+      <c r="W132" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9509,7 +9456,7 @@
       <c r="B133" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C133" s="38" t="s">
+      <c r="C133" s="37" t="s">
         <v>73</v>
       </c>
       <c r="D133" s="30" t="s">
@@ -9530,35 +9477,35 @@
       <c r="I133" s="41" t="s">
         <v>353</v>
       </c>
-      <c r="J133" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="K133" s="35"/>
-      <c r="L133" s="35"/>
-      <c r="M133" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="N133" s="35"/>
-      <c r="O133" s="35" t="s">
+      <c r="J133" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="K133" s="34"/>
+      <c r="L133" s="34"/>
+      <c r="M133" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="P133" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q133" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="R133" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="S133" s="35" t="s">
+      <c r="N133" s="34"/>
+      <c r="O133" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="T133" s="35"/>
-      <c r="U133" s="36"/>
-      <c r="V133" s="37"/>
-      <c r="W133" s="35" t="s">
+      <c r="P133" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q133" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R133" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S133" s="34" t="s">
         <v>65</v>
+      </c>
+      <c r="T133" s="34"/>
+      <c r="U133" s="35"/>
+      <c r="V133" s="36"/>
+      <c r="W133" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9568,7 +9515,7 @@
       <c r="B134" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C134" s="38" t="s">
+      <c r="C134" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D134" s="30" t="s">
@@ -9581,21 +9528,21 @@
       <c r="G134" s="40"/>
       <c r="H134" s="40"/>
       <c r="I134" s="41"/>
-      <c r="J134" s="35"/>
-      <c r="K134" s="35"/>
-      <c r="L134" s="35"/>
-      <c r="M134" s="35"/>
-      <c r="N134" s="35"/>
-      <c r="O134" s="35"/>
-      <c r="P134" s="35"/>
-      <c r="Q134" s="35"/>
-      <c r="R134" s="35"/>
-      <c r="S134" s="35"/>
-      <c r="T134" s="35"/>
-      <c r="U134" s="36"/>
-      <c r="V134" s="37"/>
-      <c r="W134" s="35" t="s">
-        <v>65</v>
+      <c r="J134" s="34"/>
+      <c r="K134" s="34"/>
+      <c r="L134" s="34"/>
+      <c r="M134" s="34"/>
+      <c r="N134" s="34"/>
+      <c r="O134" s="34"/>
+      <c r="P134" s="34"/>
+      <c r="Q134" s="34"/>
+      <c r="R134" s="34"/>
+      <c r="S134" s="34"/>
+      <c r="T134" s="34"/>
+      <c r="U134" s="35"/>
+      <c r="V134" s="36"/>
+      <c r="W134" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9605,7 +9552,7 @@
       <c r="B135" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C135" s="38" t="s">
+      <c r="C135" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D135" s="30" t="s">
@@ -9618,21 +9565,21 @@
       <c r="G135" s="40"/>
       <c r="H135" s="40"/>
       <c r="I135" s="41"/>
-      <c r="J135" s="35"/>
-      <c r="K135" s="35"/>
-      <c r="L135" s="35"/>
-      <c r="M135" s="35"/>
-      <c r="N135" s="35"/>
-      <c r="O135" s="35"/>
-      <c r="P135" s="35"/>
-      <c r="Q135" s="35"/>
-      <c r="R135" s="35"/>
-      <c r="S135" s="35"/>
-      <c r="T135" s="35"/>
-      <c r="U135" s="36"/>
-      <c r="V135" s="37"/>
-      <c r="W135" s="35" t="s">
-        <v>65</v>
+      <c r="J135" s="34"/>
+      <c r="K135" s="34"/>
+      <c r="L135" s="34"/>
+      <c r="M135" s="34"/>
+      <c r="N135" s="34"/>
+      <c r="O135" s="34"/>
+      <c r="P135" s="34"/>
+      <c r="Q135" s="34"/>
+      <c r="R135" s="34"/>
+      <c r="S135" s="34"/>
+      <c r="T135" s="34"/>
+      <c r="U135" s="35"/>
+      <c r="V135" s="36"/>
+      <c r="W135" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9642,7 +9589,7 @@
       <c r="B136" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C136" s="38" t="s">
+      <c r="C136" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D136" s="30" t="s">
@@ -9655,21 +9602,21 @@
       <c r="G136" s="40"/>
       <c r="H136" s="40"/>
       <c r="I136" s="41"/>
-      <c r="J136" s="35"/>
-      <c r="K136" s="35"/>
-      <c r="L136" s="35"/>
-      <c r="M136" s="35"/>
-      <c r="N136" s="35"/>
-      <c r="O136" s="35"/>
-      <c r="P136" s="35"/>
-      <c r="Q136" s="35"/>
-      <c r="R136" s="35"/>
-      <c r="S136" s="35"/>
-      <c r="T136" s="35"/>
-      <c r="U136" s="36"/>
-      <c r="V136" s="37"/>
-      <c r="W136" s="35" t="s">
-        <v>65</v>
+      <c r="J136" s="34"/>
+      <c r="K136" s="34"/>
+      <c r="L136" s="34"/>
+      <c r="M136" s="34"/>
+      <c r="N136" s="34"/>
+      <c r="O136" s="34"/>
+      <c r="P136" s="34"/>
+      <c r="Q136" s="34"/>
+      <c r="R136" s="34"/>
+      <c r="S136" s="34"/>
+      <c r="T136" s="34"/>
+      <c r="U136" s="35"/>
+      <c r="V136" s="36"/>
+      <c r="W136" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9679,7 +9626,7 @@
       <c r="B137" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C137" s="38" t="s">
+      <c r="C137" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D137" s="30" t="s">
@@ -9692,21 +9639,21 @@
       <c r="G137" s="40"/>
       <c r="H137" s="40"/>
       <c r="I137" s="41"/>
-      <c r="J137" s="35"/>
-      <c r="K137" s="35"/>
-      <c r="L137" s="35"/>
-      <c r="M137" s="35"/>
-      <c r="N137" s="35"/>
-      <c r="O137" s="35"/>
-      <c r="P137" s="35"/>
-      <c r="Q137" s="35"/>
-      <c r="R137" s="35"/>
-      <c r="S137" s="35"/>
-      <c r="T137" s="35"/>
-      <c r="U137" s="36"/>
-      <c r="V137" s="37"/>
-      <c r="W137" s="35" t="s">
-        <v>65</v>
+      <c r="J137" s="34"/>
+      <c r="K137" s="34"/>
+      <c r="L137" s="34"/>
+      <c r="M137" s="34"/>
+      <c r="N137" s="34"/>
+      <c r="O137" s="34"/>
+      <c r="P137" s="34"/>
+      <c r="Q137" s="34"/>
+      <c r="R137" s="34"/>
+      <c r="S137" s="34"/>
+      <c r="T137" s="34"/>
+      <c r="U137" s="35"/>
+      <c r="V137" s="36"/>
+      <c r="W137" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9716,7 +9663,7 @@
       <c r="B138" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C138" s="38" t="s">
+      <c r="C138" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D138" s="30" t="s">
@@ -9729,21 +9676,21 @@
       <c r="G138" s="40"/>
       <c r="H138" s="40"/>
       <c r="I138" s="41"/>
-      <c r="J138" s="35"/>
-      <c r="K138" s="35"/>
-      <c r="L138" s="35"/>
-      <c r="M138" s="35"/>
-      <c r="N138" s="35"/>
-      <c r="O138" s="35"/>
-      <c r="P138" s="35"/>
-      <c r="Q138" s="35"/>
-      <c r="R138" s="35"/>
-      <c r="S138" s="35"/>
-      <c r="T138" s="35"/>
-      <c r="U138" s="36"/>
-      <c r="V138" s="37"/>
-      <c r="W138" s="35" t="s">
-        <v>65</v>
+      <c r="J138" s="34"/>
+      <c r="K138" s="34"/>
+      <c r="L138" s="34"/>
+      <c r="M138" s="34"/>
+      <c r="N138" s="34"/>
+      <c r="O138" s="34"/>
+      <c r="P138" s="34"/>
+      <c r="Q138" s="34"/>
+      <c r="R138" s="34"/>
+      <c r="S138" s="34"/>
+      <c r="T138" s="34"/>
+      <c r="U138" s="35"/>
+      <c r="V138" s="36"/>
+      <c r="W138" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9753,7 +9700,7 @@
       <c r="B139" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C139" s="38" t="s">
+      <c r="C139" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D139" s="30" t="s">
@@ -9766,21 +9713,21 @@
       <c r="G139" s="40"/>
       <c r="H139" s="40"/>
       <c r="I139" s="41"/>
-      <c r="J139" s="35"/>
-      <c r="K139" s="35"/>
-      <c r="L139" s="35"/>
-      <c r="M139" s="35"/>
-      <c r="N139" s="35"/>
-      <c r="O139" s="35"/>
-      <c r="P139" s="35"/>
-      <c r="Q139" s="35"/>
-      <c r="R139" s="35"/>
-      <c r="S139" s="35"/>
-      <c r="T139" s="35"/>
-      <c r="U139" s="36"/>
-      <c r="V139" s="37"/>
-      <c r="W139" s="35" t="s">
-        <v>65</v>
+      <c r="J139" s="34"/>
+      <c r="K139" s="34"/>
+      <c r="L139" s="34"/>
+      <c r="M139" s="34"/>
+      <c r="N139" s="34"/>
+      <c r="O139" s="34"/>
+      <c r="P139" s="34"/>
+      <c r="Q139" s="34"/>
+      <c r="R139" s="34"/>
+      <c r="S139" s="34"/>
+      <c r="T139" s="34"/>
+      <c r="U139" s="35"/>
+      <c r="V139" s="36"/>
+      <c r="W139" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9790,7 +9737,7 @@
       <c r="B140" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C140" s="38" t="s">
+      <c r="C140" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D140" s="30" t="s">
@@ -9803,21 +9750,21 @@
       <c r="G140" s="40"/>
       <c r="H140" s="40"/>
       <c r="I140" s="41"/>
-      <c r="J140" s="35"/>
-      <c r="K140" s="35"/>
-      <c r="L140" s="35"/>
-      <c r="M140" s="35"/>
-      <c r="N140" s="35"/>
-      <c r="O140" s="35"/>
-      <c r="P140" s="35"/>
-      <c r="Q140" s="35"/>
-      <c r="R140" s="35"/>
-      <c r="S140" s="35"/>
-      <c r="T140" s="35"/>
-      <c r="U140" s="36"/>
-      <c r="V140" s="37"/>
-      <c r="W140" s="35" t="s">
-        <v>65</v>
+      <c r="J140" s="34"/>
+      <c r="K140" s="34"/>
+      <c r="L140" s="34"/>
+      <c r="M140" s="34"/>
+      <c r="N140" s="34"/>
+      <c r="O140" s="34"/>
+      <c r="P140" s="34"/>
+      <c r="Q140" s="34"/>
+      <c r="R140" s="34"/>
+      <c r="S140" s="34"/>
+      <c r="T140" s="34"/>
+      <c r="U140" s="35"/>
+      <c r="V140" s="36"/>
+      <c r="W140" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9827,7 +9774,7 @@
       <c r="B141" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C141" s="38" t="s">
+      <c r="C141" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D141" s="30" t="s">
@@ -9840,21 +9787,21 @@
       <c r="G141" s="40"/>
       <c r="H141" s="40"/>
       <c r="I141" s="41"/>
-      <c r="J141" s="35"/>
-      <c r="K141" s="35"/>
-      <c r="L141" s="35"/>
-      <c r="M141" s="35"/>
-      <c r="N141" s="35"/>
-      <c r="O141" s="35"/>
-      <c r="P141" s="35"/>
-      <c r="Q141" s="35"/>
-      <c r="R141" s="35"/>
-      <c r="S141" s="35"/>
-      <c r="T141" s="35"/>
-      <c r="U141" s="36"/>
-      <c r="V141" s="37"/>
-      <c r="W141" s="35" t="s">
-        <v>65</v>
+      <c r="J141" s="34"/>
+      <c r="K141" s="34"/>
+      <c r="L141" s="34"/>
+      <c r="M141" s="34"/>
+      <c r="N141" s="34"/>
+      <c r="O141" s="34"/>
+      <c r="P141" s="34"/>
+      <c r="Q141" s="34"/>
+      <c r="R141" s="34"/>
+      <c r="S141" s="34"/>
+      <c r="T141" s="34"/>
+      <c r="U141" s="35"/>
+      <c r="V141" s="36"/>
+      <c r="W141" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9864,7 +9811,7 @@
       <c r="B142" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C142" s="38" t="s">
+      <c r="C142" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D142" s="30" t="s">
@@ -9877,21 +9824,21 @@
       <c r="G142" s="40"/>
       <c r="H142" s="40"/>
       <c r="I142" s="41"/>
-      <c r="J142" s="35"/>
-      <c r="K142" s="35"/>
-      <c r="L142" s="35"/>
-      <c r="M142" s="35"/>
-      <c r="N142" s="35"/>
-      <c r="O142" s="35"/>
-      <c r="P142" s="35"/>
-      <c r="Q142" s="35"/>
-      <c r="R142" s="35"/>
-      <c r="S142" s="35"/>
-      <c r="T142" s="35"/>
-      <c r="U142" s="36"/>
-      <c r="V142" s="37"/>
-      <c r="W142" s="35" t="s">
-        <v>65</v>
+      <c r="J142" s="34"/>
+      <c r="K142" s="34"/>
+      <c r="L142" s="34"/>
+      <c r="M142" s="34"/>
+      <c r="N142" s="34"/>
+      <c r="O142" s="34"/>
+      <c r="P142" s="34"/>
+      <c r="Q142" s="34"/>
+      <c r="R142" s="34"/>
+      <c r="S142" s="34"/>
+      <c r="T142" s="34"/>
+      <c r="U142" s="35"/>
+      <c r="V142" s="36"/>
+      <c r="W142" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9901,7 +9848,7 @@
       <c r="B143" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C143" s="38" t="s">
+      <c r="C143" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D143" s="30" t="s">
@@ -9914,21 +9861,21 @@
       <c r="G143" s="40"/>
       <c r="H143" s="40"/>
       <c r="I143" s="41"/>
-      <c r="J143" s="35"/>
-      <c r="K143" s="35"/>
-      <c r="L143" s="35"/>
-      <c r="M143" s="35"/>
-      <c r="N143" s="35"/>
-      <c r="O143" s="35"/>
-      <c r="P143" s="35"/>
-      <c r="Q143" s="35"/>
-      <c r="R143" s="35"/>
-      <c r="S143" s="35"/>
-      <c r="T143" s="35"/>
-      <c r="U143" s="36"/>
-      <c r="V143" s="37"/>
-      <c r="W143" s="35" t="s">
-        <v>65</v>
+      <c r="J143" s="34"/>
+      <c r="K143" s="34"/>
+      <c r="L143" s="34"/>
+      <c r="M143" s="34"/>
+      <c r="N143" s="34"/>
+      <c r="O143" s="34"/>
+      <c r="P143" s="34"/>
+      <c r="Q143" s="34"/>
+      <c r="R143" s="34"/>
+      <c r="S143" s="34"/>
+      <c r="T143" s="34"/>
+      <c r="U143" s="35"/>
+      <c r="V143" s="36"/>
+      <c r="W143" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9938,7 +9885,7 @@
       <c r="B144" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C144" s="38" t="s">
+      <c r="C144" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D144" s="30" t="s">
@@ -9951,21 +9898,21 @@
       <c r="G144" s="40"/>
       <c r="H144" s="40"/>
       <c r="I144" s="41"/>
-      <c r="J144" s="35"/>
-      <c r="K144" s="35"/>
-      <c r="L144" s="35"/>
-      <c r="M144" s="35"/>
-      <c r="N144" s="35"/>
-      <c r="O144" s="35"/>
-      <c r="P144" s="35"/>
-      <c r="Q144" s="35"/>
-      <c r="R144" s="35"/>
-      <c r="S144" s="35"/>
-      <c r="T144" s="35"/>
-      <c r="U144" s="36"/>
-      <c r="V144" s="37"/>
-      <c r="W144" s="35" t="s">
-        <v>65</v>
+      <c r="J144" s="34"/>
+      <c r="K144" s="34"/>
+      <c r="L144" s="34"/>
+      <c r="M144" s="34"/>
+      <c r="N144" s="34"/>
+      <c r="O144" s="34"/>
+      <c r="P144" s="34"/>
+      <c r="Q144" s="34"/>
+      <c r="R144" s="34"/>
+      <c r="S144" s="34"/>
+      <c r="T144" s="34"/>
+      <c r="U144" s="35"/>
+      <c r="V144" s="36"/>
+      <c r="W144" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9975,7 +9922,7 @@
       <c r="B145" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C145" s="38" t="s">
+      <c r="C145" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D145" s="30" t="s">
@@ -9988,21 +9935,21 @@
       <c r="G145" s="40"/>
       <c r="H145" s="40"/>
       <c r="I145" s="41"/>
-      <c r="J145" s="35"/>
-      <c r="K145" s="35"/>
-      <c r="L145" s="35"/>
-      <c r="M145" s="35"/>
-      <c r="N145" s="35"/>
-      <c r="O145" s="35"/>
-      <c r="P145" s="35"/>
-      <c r="Q145" s="35"/>
-      <c r="R145" s="35"/>
-      <c r="S145" s="35"/>
-      <c r="T145" s="35"/>
-      <c r="U145" s="36"/>
-      <c r="V145" s="37"/>
-      <c r="W145" s="35" t="s">
-        <v>65</v>
+      <c r="J145" s="34"/>
+      <c r="K145" s="34"/>
+      <c r="L145" s="34"/>
+      <c r="M145" s="34"/>
+      <c r="N145" s="34"/>
+      <c r="O145" s="34"/>
+      <c r="P145" s="34"/>
+      <c r="Q145" s="34"/>
+      <c r="R145" s="34"/>
+      <c r="S145" s="34"/>
+      <c r="T145" s="34"/>
+      <c r="U145" s="35"/>
+      <c r="V145" s="36"/>
+      <c r="W145" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10012,7 +9959,7 @@
       <c r="B146" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C146" s="38" t="s">
+      <c r="C146" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D146" s="30" t="s">
@@ -10025,21 +9972,21 @@
       <c r="G146" s="40"/>
       <c r="H146" s="40"/>
       <c r="I146" s="41"/>
-      <c r="J146" s="35"/>
-      <c r="K146" s="35"/>
-      <c r="L146" s="35"/>
-      <c r="M146" s="35"/>
-      <c r="N146" s="35"/>
-      <c r="O146" s="35"/>
-      <c r="P146" s="35"/>
-      <c r="Q146" s="35"/>
-      <c r="R146" s="35"/>
-      <c r="S146" s="35"/>
-      <c r="T146" s="35"/>
-      <c r="U146" s="36"/>
-      <c r="V146" s="37"/>
-      <c r="W146" s="35" t="s">
-        <v>65</v>
+      <c r="J146" s="34"/>
+      <c r="K146" s="34"/>
+      <c r="L146" s="34"/>
+      <c r="M146" s="34"/>
+      <c r="N146" s="34"/>
+      <c r="O146" s="34"/>
+      <c r="P146" s="34"/>
+      <c r="Q146" s="34"/>
+      <c r="R146" s="34"/>
+      <c r="S146" s="34"/>
+      <c r="T146" s="34"/>
+      <c r="U146" s="35"/>
+      <c r="V146" s="36"/>
+      <c r="W146" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10049,7 +9996,7 @@
       <c r="B147" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C147" s="38" t="s">
+      <c r="C147" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D147" s="30" t="s">
@@ -10062,21 +10009,21 @@
       <c r="G147" s="40"/>
       <c r="H147" s="40"/>
       <c r="I147" s="41"/>
-      <c r="J147" s="35"/>
-      <c r="K147" s="35"/>
-      <c r="L147" s="35"/>
-      <c r="M147" s="35"/>
-      <c r="N147" s="35"/>
-      <c r="O147" s="35"/>
-      <c r="P147" s="35"/>
-      <c r="Q147" s="35"/>
-      <c r="R147" s="35"/>
-      <c r="S147" s="35"/>
-      <c r="T147" s="35"/>
-      <c r="U147" s="36"/>
-      <c r="V147" s="37"/>
-      <c r="W147" s="35" t="s">
-        <v>65</v>
+      <c r="J147" s="34"/>
+      <c r="K147" s="34"/>
+      <c r="L147" s="34"/>
+      <c r="M147" s="34"/>
+      <c r="N147" s="34"/>
+      <c r="O147" s="34"/>
+      <c r="P147" s="34"/>
+      <c r="Q147" s="34"/>
+      <c r="R147" s="34"/>
+      <c r="S147" s="34"/>
+      <c r="T147" s="34"/>
+      <c r="U147" s="35"/>
+      <c r="V147" s="36"/>
+      <c r="W147" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10086,7 +10033,7 @@
       <c r="B148" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C148" s="38" t="s">
+      <c r="C148" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D148" s="30" t="s">
@@ -10099,31 +10046,31 @@
       <c r="G148" s="40"/>
       <c r="H148" s="40"/>
       <c r="I148" s="41"/>
-      <c r="J148" s="35"/>
-      <c r="K148" s="35"/>
-      <c r="L148" s="35"/>
-      <c r="M148" s="35"/>
-      <c r="N148" s="35"/>
-      <c r="O148" s="35"/>
-      <c r="P148" s="35"/>
-      <c r="Q148" s="35"/>
-      <c r="R148" s="35"/>
-      <c r="S148" s="35"/>
-      <c r="T148" s="35"/>
-      <c r="U148" s="36"/>
-      <c r="V148" s="37"/>
-      <c r="W148" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J148" s="34"/>
+      <c r="K148" s="34"/>
+      <c r="L148" s="34"/>
+      <c r="M148" s="34"/>
+      <c r="N148" s="34"/>
+      <c r="O148" s="34"/>
+      <c r="P148" s="34"/>
+      <c r="Q148" s="34"/>
+      <c r="R148" s="34"/>
+      <c r="S148" s="34"/>
+      <c r="T148" s="34"/>
+      <c r="U148" s="35"/>
+      <c r="V148" s="36"/>
+      <c r="W148" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="30" t="n">
         <v>191</v>
       </c>
       <c r="B149" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C149" s="38" t="s">
+      <c r="C149" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D149" s="30" t="s">
@@ -10144,31 +10091,35 @@
       <c r="I149" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="J149" s="35"/>
-      <c r="K149" s="35"/>
-      <c r="L149" s="35"/>
-      <c r="M149" s="35"/>
-      <c r="N149" s="35"/>
-      <c r="O149" s="35"/>
-      <c r="P149" s="35"/>
-      <c r="Q149" s="35"/>
-      <c r="R149" s="35"/>
-      <c r="S149" s="35"/>
-      <c r="T149" s="35"/>
-      <c r="U149" s="36"/>
-      <c r="V149" s="37"/>
-      <c r="W149" s="35" t="s">
+      <c r="J149" s="34" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="150" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K149" s="34"/>
+      <c r="L149" s="34"/>
+      <c r="M149" s="34"/>
+      <c r="N149" s="34"/>
+      <c r="O149" s="34"/>
+      <c r="P149" s="34"/>
+      <c r="Q149" s="34"/>
+      <c r="R149" s="34"/>
+      <c r="S149" s="34"/>
+      <c r="T149" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="U149" s="35"/>
+      <c r="V149" s="36"/>
+      <c r="W149" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="30" t="n">
         <v>376</v>
       </c>
       <c r="B150" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C150" s="38" t="s">
+      <c r="C150" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D150" s="30" t="s">
@@ -10189,21 +10140,25 @@
       <c r="I150" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="J150" s="35"/>
-      <c r="K150" s="35"/>
-      <c r="L150" s="35"/>
-      <c r="M150" s="35"/>
-      <c r="N150" s="35"/>
-      <c r="O150" s="35"/>
-      <c r="P150" s="35"/>
-      <c r="Q150" s="35"/>
-      <c r="R150" s="35"/>
-      <c r="S150" s="35"/>
-      <c r="T150" s="35"/>
-      <c r="U150" s="36"/>
-      <c r="V150" s="37"/>
-      <c r="W150" s="35" t="s">
+      <c r="J150" s="34" t="s">
         <v>55</v>
+      </c>
+      <c r="K150" s="34"/>
+      <c r="L150" s="34"/>
+      <c r="M150" s="34"/>
+      <c r="N150" s="34"/>
+      <c r="O150" s="34"/>
+      <c r="P150" s="34"/>
+      <c r="Q150" s="34"/>
+      <c r="R150" s="34"/>
+      <c r="S150" s="34"/>
+      <c r="T150" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="U150" s="35"/>
+      <c r="V150" s="36"/>
+      <c r="W150" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10213,7 +10168,7 @@
       <c r="B151" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C151" s="38" t="s">
+      <c r="C151" s="37" t="s">
         <v>394</v>
       </c>
       <c r="D151" s="30" t="s">
@@ -10226,21 +10181,21 @@
       <c r="G151" s="40"/>
       <c r="H151" s="40"/>
       <c r="I151" s="41"/>
-      <c r="J151" s="35"/>
-      <c r="K151" s="35"/>
-      <c r="L151" s="35"/>
-      <c r="M151" s="35"/>
-      <c r="N151" s="35"/>
-      <c r="O151" s="35"/>
-      <c r="P151" s="35"/>
-      <c r="Q151" s="35"/>
-      <c r="R151" s="35"/>
-      <c r="S151" s="35"/>
-      <c r="T151" s="35"/>
-      <c r="U151" s="36"/>
-      <c r="V151" s="37"/>
-      <c r="W151" s="35" t="s">
-        <v>55</v>
+      <c r="J151" s="34"/>
+      <c r="K151" s="34"/>
+      <c r="L151" s="34"/>
+      <c r="M151" s="34"/>
+      <c r="N151" s="34"/>
+      <c r="O151" s="34"/>
+      <c r="P151" s="34"/>
+      <c r="Q151" s="34"/>
+      <c r="R151" s="34"/>
+      <c r="S151" s="34"/>
+      <c r="T151" s="34"/>
+      <c r="U151" s="35"/>
+      <c r="V151" s="36"/>
+      <c r="W151" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10250,7 +10205,7 @@
       <c r="B152" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C152" s="38" t="s">
+      <c r="C152" s="37" t="s">
         <v>394</v>
       </c>
       <c r="D152" s="30" t="s">
@@ -10263,21 +10218,21 @@
       <c r="G152" s="40"/>
       <c r="H152" s="40"/>
       <c r="I152" s="41"/>
-      <c r="J152" s="35"/>
-      <c r="K152" s="35"/>
-      <c r="L152" s="35"/>
-      <c r="M152" s="35"/>
-      <c r="N152" s="35"/>
-      <c r="O152" s="35"/>
-      <c r="P152" s="35"/>
-      <c r="Q152" s="35"/>
-      <c r="R152" s="35"/>
-      <c r="S152" s="35"/>
-      <c r="T152" s="35"/>
-      <c r="U152" s="36"/>
-      <c r="V152" s="37"/>
-      <c r="W152" s="35" t="s">
-        <v>55</v>
+      <c r="J152" s="34"/>
+      <c r="K152" s="34"/>
+      <c r="L152" s="34"/>
+      <c r="M152" s="34"/>
+      <c r="N152" s="34"/>
+      <c r="O152" s="34"/>
+      <c r="P152" s="34"/>
+      <c r="Q152" s="34"/>
+      <c r="R152" s="34"/>
+      <c r="S152" s="34"/>
+      <c r="T152" s="34"/>
+      <c r="U152" s="35"/>
+      <c r="V152" s="36"/>
+      <c r="W152" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10287,7 +10242,7 @@
       <c r="B153" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C153" s="38" t="s">
+      <c r="C153" s="37" t="s">
         <v>394</v>
       </c>
       <c r="D153" s="30" t="s">
@@ -10300,21 +10255,21 @@
       <c r="G153" s="40"/>
       <c r="H153" s="40"/>
       <c r="I153" s="41"/>
-      <c r="J153" s="35"/>
-      <c r="K153" s="35"/>
-      <c r="L153" s="35"/>
-      <c r="M153" s="35"/>
-      <c r="N153" s="35"/>
-      <c r="O153" s="35"/>
-      <c r="P153" s="35"/>
-      <c r="Q153" s="35"/>
-      <c r="R153" s="35"/>
-      <c r="S153" s="35"/>
-      <c r="T153" s="35"/>
-      <c r="U153" s="36"/>
-      <c r="V153" s="37"/>
-      <c r="W153" s="35" t="s">
-        <v>55</v>
+      <c r="J153" s="34"/>
+      <c r="K153" s="34"/>
+      <c r="L153" s="34"/>
+      <c r="M153" s="34"/>
+      <c r="N153" s="34"/>
+      <c r="O153" s="34"/>
+      <c r="P153" s="34"/>
+      <c r="Q153" s="34"/>
+      <c r="R153" s="34"/>
+      <c r="S153" s="34"/>
+      <c r="T153" s="34"/>
+      <c r="U153" s="35"/>
+      <c r="V153" s="36"/>
+      <c r="W153" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10324,34 +10279,34 @@
       <c r="B154" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C154" s="38" t="s">
+      <c r="C154" s="37" t="s">
         <v>394</v>
       </c>
       <c r="D154" s="30" t="s">
         <v>401</v>
       </c>
       <c r="E154" s="31" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F154" s="40"/>
       <c r="G154" s="40"/>
       <c r="H154" s="40"/>
       <c r="I154" s="41"/>
-      <c r="J154" s="35"/>
-      <c r="K154" s="35"/>
-      <c r="L154" s="35"/>
-      <c r="M154" s="35"/>
-      <c r="N154" s="35"/>
-      <c r="O154" s="35"/>
-      <c r="P154" s="35"/>
-      <c r="Q154" s="35"/>
-      <c r="R154" s="35"/>
-      <c r="S154" s="35"/>
-      <c r="T154" s="35"/>
-      <c r="U154" s="36"/>
-      <c r="V154" s="37"/>
-      <c r="W154" s="35" t="s">
-        <v>65</v>
+      <c r="J154" s="34"/>
+      <c r="K154" s="34"/>
+      <c r="L154" s="34"/>
+      <c r="M154" s="34"/>
+      <c r="N154" s="34"/>
+      <c r="O154" s="34"/>
+      <c r="P154" s="34"/>
+      <c r="Q154" s="34"/>
+      <c r="R154" s="34"/>
+      <c r="S154" s="34"/>
+      <c r="T154" s="34"/>
+      <c r="U154" s="35"/>
+      <c r="V154" s="36"/>
+      <c r="W154" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10361,7 +10316,7 @@
       <c r="B155" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C155" s="38" t="s">
+      <c r="C155" s="37" t="s">
         <v>394</v>
       </c>
       <c r="D155" s="30" t="s">
@@ -10374,21 +10329,21 @@
       <c r="G155" s="40"/>
       <c r="H155" s="40"/>
       <c r="I155" s="41"/>
-      <c r="J155" s="35"/>
-      <c r="K155" s="35"/>
-      <c r="L155" s="35"/>
-      <c r="M155" s="35"/>
-      <c r="N155" s="35"/>
-      <c r="O155" s="35"/>
-      <c r="P155" s="35"/>
-      <c r="Q155" s="35"/>
-      <c r="R155" s="35"/>
-      <c r="S155" s="35"/>
-      <c r="T155" s="35"/>
-      <c r="U155" s="36"/>
-      <c r="V155" s="37"/>
-      <c r="W155" s="35" t="s">
-        <v>65</v>
+      <c r="J155" s="34"/>
+      <c r="K155" s="34"/>
+      <c r="L155" s="34"/>
+      <c r="M155" s="34"/>
+      <c r="N155" s="34"/>
+      <c r="O155" s="34"/>
+      <c r="P155" s="34"/>
+      <c r="Q155" s="34"/>
+      <c r="R155" s="34"/>
+      <c r="S155" s="34"/>
+      <c r="T155" s="34"/>
+      <c r="U155" s="35"/>
+      <c r="V155" s="36"/>
+      <c r="W155" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10398,7 +10353,7 @@
       <c r="B156" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C156" s="38" t="s">
+      <c r="C156" s="37" t="s">
         <v>394</v>
       </c>
       <c r="D156" s="30" t="s">
@@ -10411,21 +10366,21 @@
       <c r="G156" s="40"/>
       <c r="H156" s="40"/>
       <c r="I156" s="41"/>
-      <c r="J156" s="35"/>
-      <c r="K156" s="35"/>
-      <c r="L156" s="35"/>
-      <c r="M156" s="35"/>
-      <c r="N156" s="35"/>
-      <c r="O156" s="35"/>
-      <c r="P156" s="35"/>
-      <c r="Q156" s="35"/>
-      <c r="R156" s="35"/>
-      <c r="S156" s="35"/>
-      <c r="T156" s="35"/>
-      <c r="U156" s="36"/>
-      <c r="V156" s="37"/>
-      <c r="W156" s="35" t="s">
-        <v>65</v>
+      <c r="J156" s="34"/>
+      <c r="K156" s="34"/>
+      <c r="L156" s="34"/>
+      <c r="M156" s="34"/>
+      <c r="N156" s="34"/>
+      <c r="O156" s="34"/>
+      <c r="P156" s="34"/>
+      <c r="Q156" s="34"/>
+      <c r="R156" s="34"/>
+      <c r="S156" s="34"/>
+      <c r="T156" s="34"/>
+      <c r="U156" s="35"/>
+      <c r="V156" s="36"/>
+      <c r="W156" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10435,7 +10390,7 @@
       <c r="B157" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C157" s="38" t="s">
+      <c r="C157" s="37" t="s">
         <v>394</v>
       </c>
       <c r="D157" s="30" t="s">
@@ -10448,21 +10403,21 @@
       <c r="G157" s="40"/>
       <c r="H157" s="40"/>
       <c r="I157" s="41"/>
-      <c r="J157" s="35"/>
-      <c r="K157" s="35"/>
-      <c r="L157" s="35"/>
-      <c r="M157" s="35"/>
-      <c r="N157" s="35"/>
-      <c r="O157" s="35"/>
-      <c r="P157" s="35"/>
-      <c r="Q157" s="35"/>
-      <c r="R157" s="35"/>
-      <c r="S157" s="35"/>
-      <c r="T157" s="35"/>
-      <c r="U157" s="36"/>
-      <c r="V157" s="37"/>
-      <c r="W157" s="35" t="s">
-        <v>65</v>
+      <c r="J157" s="34"/>
+      <c r="K157" s="34"/>
+      <c r="L157" s="34"/>
+      <c r="M157" s="34"/>
+      <c r="N157" s="34"/>
+      <c r="O157" s="34"/>
+      <c r="P157" s="34"/>
+      <c r="Q157" s="34"/>
+      <c r="R157" s="34"/>
+      <c r="S157" s="34"/>
+      <c r="T157" s="34"/>
+      <c r="U157" s="35"/>
+      <c r="V157" s="36"/>
+      <c r="W157" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10472,7 +10427,7 @@
       <c r="B158" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C158" s="38" t="s">
+      <c r="C158" s="37" t="s">
         <v>394</v>
       </c>
       <c r="D158" s="30" t="s">
@@ -10485,21 +10440,21 @@
       <c r="G158" s="40"/>
       <c r="H158" s="40"/>
       <c r="I158" s="41"/>
-      <c r="J158" s="35"/>
-      <c r="K158" s="35"/>
-      <c r="L158" s="35"/>
-      <c r="M158" s="35"/>
-      <c r="N158" s="35"/>
-      <c r="O158" s="35"/>
-      <c r="P158" s="35"/>
-      <c r="Q158" s="35"/>
-      <c r="R158" s="35"/>
-      <c r="S158" s="35"/>
-      <c r="T158" s="35"/>
-      <c r="U158" s="36"/>
-      <c r="V158" s="37"/>
-      <c r="W158" s="35" t="s">
-        <v>65</v>
+      <c r="J158" s="34"/>
+      <c r="K158" s="34"/>
+      <c r="L158" s="34"/>
+      <c r="M158" s="34"/>
+      <c r="N158" s="34"/>
+      <c r="O158" s="34"/>
+      <c r="P158" s="34"/>
+      <c r="Q158" s="34"/>
+      <c r="R158" s="34"/>
+      <c r="S158" s="34"/>
+      <c r="T158" s="34"/>
+      <c r="U158" s="35"/>
+      <c r="V158" s="36"/>
+      <c r="W158" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10509,7 +10464,7 @@
       <c r="B159" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C159" s="38" t="s">
+      <c r="C159" s="37" t="s">
         <v>394</v>
       </c>
       <c r="D159" s="30" t="s">
@@ -10522,21 +10477,21 @@
       <c r="G159" s="40"/>
       <c r="H159" s="40"/>
       <c r="I159" s="41"/>
-      <c r="J159" s="35"/>
-      <c r="K159" s="35"/>
-      <c r="L159" s="35"/>
-      <c r="M159" s="35"/>
-      <c r="N159" s="35"/>
-      <c r="O159" s="35"/>
-      <c r="P159" s="35"/>
-      <c r="Q159" s="35"/>
-      <c r="R159" s="35"/>
-      <c r="S159" s="35"/>
-      <c r="T159" s="35"/>
-      <c r="U159" s="36"/>
-      <c r="V159" s="37"/>
-      <c r="W159" s="35" t="s">
-        <v>65</v>
+      <c r="J159" s="34"/>
+      <c r="K159" s="34"/>
+      <c r="L159" s="34"/>
+      <c r="M159" s="34"/>
+      <c r="N159" s="34"/>
+      <c r="O159" s="34"/>
+      <c r="P159" s="34"/>
+      <c r="Q159" s="34"/>
+      <c r="R159" s="34"/>
+      <c r="S159" s="34"/>
+      <c r="T159" s="34"/>
+      <c r="U159" s="35"/>
+      <c r="V159" s="36"/>
+      <c r="W159" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10546,7 +10501,7 @@
       <c r="B160" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C160" s="38" t="s">
+      <c r="C160" s="37" t="s">
         <v>394</v>
       </c>
       <c r="D160" s="30" t="s">
@@ -10559,21 +10514,21 @@
       <c r="G160" s="40"/>
       <c r="H160" s="40"/>
       <c r="I160" s="41"/>
-      <c r="J160" s="35"/>
-      <c r="K160" s="35"/>
-      <c r="L160" s="35"/>
-      <c r="M160" s="35"/>
-      <c r="N160" s="35"/>
-      <c r="O160" s="35"/>
-      <c r="P160" s="35"/>
-      <c r="Q160" s="35"/>
-      <c r="R160" s="35"/>
-      <c r="S160" s="35"/>
-      <c r="T160" s="35"/>
-      <c r="U160" s="36"/>
-      <c r="V160" s="37"/>
-      <c r="W160" s="35" t="s">
-        <v>65</v>
+      <c r="J160" s="34"/>
+      <c r="K160" s="34"/>
+      <c r="L160" s="34"/>
+      <c r="M160" s="34"/>
+      <c r="N160" s="34"/>
+      <c r="O160" s="34"/>
+      <c r="P160" s="34"/>
+      <c r="Q160" s="34"/>
+      <c r="R160" s="34"/>
+      <c r="S160" s="34"/>
+      <c r="T160" s="34"/>
+      <c r="U160" s="35"/>
+      <c r="V160" s="36"/>
+      <c r="W160" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10583,7 +10538,7 @@
       <c r="B161" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C161" s="38" t="s">
+      <c r="C161" s="37" t="s">
         <v>394</v>
       </c>
       <c r="D161" s="30" t="s">
@@ -10596,21 +10551,21 @@
       <c r="G161" s="40"/>
       <c r="H161" s="40"/>
       <c r="I161" s="41"/>
-      <c r="J161" s="35"/>
-      <c r="K161" s="35"/>
-      <c r="L161" s="35"/>
-      <c r="M161" s="35"/>
-      <c r="N161" s="35"/>
-      <c r="O161" s="35"/>
-      <c r="P161" s="35"/>
-      <c r="Q161" s="35"/>
-      <c r="R161" s="35"/>
-      <c r="S161" s="35"/>
-      <c r="T161" s="35"/>
-      <c r="U161" s="36"/>
-      <c r="V161" s="37"/>
-      <c r="W161" s="35" t="s">
-        <v>65</v>
+      <c r="J161" s="34"/>
+      <c r="K161" s="34"/>
+      <c r="L161" s="34"/>
+      <c r="M161" s="34"/>
+      <c r="N161" s="34"/>
+      <c r="O161" s="34"/>
+      <c r="P161" s="34"/>
+      <c r="Q161" s="34"/>
+      <c r="R161" s="34"/>
+      <c r="S161" s="34"/>
+      <c r="T161" s="34"/>
+      <c r="U161" s="35"/>
+      <c r="V161" s="36"/>
+      <c r="W161" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10620,7 +10575,7 @@
       <c r="B162" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C162" s="38" t="s">
+      <c r="C162" s="37" t="s">
         <v>394</v>
       </c>
       <c r="D162" s="30" t="s">
@@ -10633,21 +10588,21 @@
       <c r="G162" s="40"/>
       <c r="H162" s="40"/>
       <c r="I162" s="41"/>
-      <c r="J162" s="35"/>
-      <c r="K162" s="35"/>
-      <c r="L162" s="35"/>
-      <c r="M162" s="35"/>
-      <c r="N162" s="35"/>
-      <c r="O162" s="35"/>
-      <c r="P162" s="35"/>
-      <c r="Q162" s="35"/>
-      <c r="R162" s="35"/>
-      <c r="S162" s="35"/>
-      <c r="T162" s="35"/>
-      <c r="U162" s="36"/>
-      <c r="V162" s="37"/>
-      <c r="W162" s="35" t="s">
-        <v>65</v>
+      <c r="J162" s="34"/>
+      <c r="K162" s="34"/>
+      <c r="L162" s="34"/>
+      <c r="M162" s="34"/>
+      <c r="N162" s="34"/>
+      <c r="O162" s="34"/>
+      <c r="P162" s="34"/>
+      <c r="Q162" s="34"/>
+      <c r="R162" s="34"/>
+      <c r="S162" s="34"/>
+      <c r="T162" s="34"/>
+      <c r="U162" s="35"/>
+      <c r="V162" s="36"/>
+      <c r="W162" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10657,7 +10612,7 @@
       <c r="B163" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C163" s="38" t="s">
+      <c r="C163" s="37" t="s">
         <v>394</v>
       </c>
       <c r="D163" s="30" t="s">
@@ -10670,21 +10625,21 @@
       <c r="G163" s="40"/>
       <c r="H163" s="40"/>
       <c r="I163" s="41"/>
-      <c r="J163" s="35"/>
-      <c r="K163" s="35"/>
-      <c r="L163" s="35"/>
-      <c r="M163" s="35"/>
-      <c r="N163" s="35"/>
-      <c r="O163" s="35"/>
-      <c r="P163" s="35"/>
-      <c r="Q163" s="35"/>
-      <c r="R163" s="35"/>
-      <c r="S163" s="35"/>
-      <c r="T163" s="35"/>
-      <c r="U163" s="36"/>
-      <c r="V163" s="37"/>
-      <c r="W163" s="35" t="s">
-        <v>65</v>
+      <c r="J163" s="34"/>
+      <c r="K163" s="34"/>
+      <c r="L163" s="34"/>
+      <c r="M163" s="34"/>
+      <c r="N163" s="34"/>
+      <c r="O163" s="34"/>
+      <c r="P163" s="34"/>
+      <c r="Q163" s="34"/>
+      <c r="R163" s="34"/>
+      <c r="S163" s="34"/>
+      <c r="T163" s="34"/>
+      <c r="U163" s="35"/>
+      <c r="V163" s="36"/>
+      <c r="W163" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10694,7 +10649,7 @@
       <c r="B164" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C164" s="38" t="s">
+      <c r="C164" s="37" t="s">
         <v>394</v>
       </c>
       <c r="D164" s="30" t="s">
@@ -10707,21 +10662,21 @@
       <c r="G164" s="40"/>
       <c r="H164" s="40"/>
       <c r="I164" s="41"/>
-      <c r="J164" s="35"/>
-      <c r="K164" s="35"/>
-      <c r="L164" s="35"/>
-      <c r="M164" s="35"/>
-      <c r="N164" s="35"/>
-      <c r="O164" s="35"/>
-      <c r="P164" s="35"/>
-      <c r="Q164" s="35"/>
-      <c r="R164" s="35"/>
-      <c r="S164" s="35"/>
-      <c r="T164" s="35"/>
-      <c r="U164" s="36"/>
-      <c r="V164" s="37"/>
-      <c r="W164" s="35" t="s">
-        <v>65</v>
+      <c r="J164" s="34"/>
+      <c r="K164" s="34"/>
+      <c r="L164" s="34"/>
+      <c r="M164" s="34"/>
+      <c r="N164" s="34"/>
+      <c r="O164" s="34"/>
+      <c r="P164" s="34"/>
+      <c r="Q164" s="34"/>
+      <c r="R164" s="34"/>
+      <c r="S164" s="34"/>
+      <c r="T164" s="34"/>
+      <c r="U164" s="35"/>
+      <c r="V164" s="36"/>
+      <c r="W164" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10731,7 +10686,7 @@
       <c r="B165" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C165" s="38" t="s">
+      <c r="C165" s="37" t="s">
         <v>394</v>
       </c>
       <c r="D165" s="30" t="s">
@@ -10744,21 +10699,21 @@
       <c r="G165" s="40"/>
       <c r="H165" s="40"/>
       <c r="I165" s="41"/>
-      <c r="J165" s="35"/>
-      <c r="K165" s="35"/>
-      <c r="L165" s="35"/>
-      <c r="M165" s="35"/>
-      <c r="N165" s="35"/>
-      <c r="O165" s="35"/>
-      <c r="P165" s="35"/>
-      <c r="Q165" s="35"/>
-      <c r="R165" s="35"/>
-      <c r="S165" s="35"/>
-      <c r="T165" s="35"/>
-      <c r="U165" s="36"/>
-      <c r="V165" s="37"/>
-      <c r="W165" s="35" t="s">
-        <v>65</v>
+      <c r="J165" s="34"/>
+      <c r="K165" s="34"/>
+      <c r="L165" s="34"/>
+      <c r="M165" s="34"/>
+      <c r="N165" s="34"/>
+      <c r="O165" s="34"/>
+      <c r="P165" s="34"/>
+      <c r="Q165" s="34"/>
+      <c r="R165" s="34"/>
+      <c r="S165" s="34"/>
+      <c r="T165" s="34"/>
+      <c r="U165" s="35"/>
+      <c r="V165" s="36"/>
+      <c r="W165" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10768,7 +10723,7 @@
       <c r="B166" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C166" s="38" t="s">
+      <c r="C166" s="37" t="s">
         <v>394</v>
       </c>
       <c r="D166" s="30" t="s">
@@ -10781,21 +10736,21 @@
       <c r="G166" s="40"/>
       <c r="H166" s="40"/>
       <c r="I166" s="41"/>
-      <c r="J166" s="35"/>
-      <c r="K166" s="35"/>
-      <c r="L166" s="35"/>
-      <c r="M166" s="35"/>
-      <c r="N166" s="35"/>
-      <c r="O166" s="35"/>
-      <c r="P166" s="35"/>
-      <c r="Q166" s="35"/>
-      <c r="R166" s="35"/>
-      <c r="S166" s="35"/>
-      <c r="T166" s="35"/>
-      <c r="U166" s="36"/>
-      <c r="V166" s="37"/>
-      <c r="W166" s="35" t="s">
-        <v>65</v>
+      <c r="J166" s="34"/>
+      <c r="K166" s="34"/>
+      <c r="L166" s="34"/>
+      <c r="M166" s="34"/>
+      <c r="N166" s="34"/>
+      <c r="O166" s="34"/>
+      <c r="P166" s="34"/>
+      <c r="Q166" s="34"/>
+      <c r="R166" s="34"/>
+      <c r="S166" s="34"/>
+      <c r="T166" s="34"/>
+      <c r="U166" s="35"/>
+      <c r="V166" s="36"/>
+      <c r="W166" s="34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10805,7 +10760,7 @@
       <c r="B167" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C167" s="38" t="s">
+      <c r="C167" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D167" s="30" t="s">
@@ -10818,21 +10773,21 @@
       <c r="G167" s="40"/>
       <c r="H167" s="40"/>
       <c r="I167" s="41"/>
-      <c r="J167" s="35"/>
-      <c r="K167" s="35"/>
-      <c r="L167" s="35"/>
-      <c r="M167" s="35"/>
-      <c r="N167" s="35"/>
-      <c r="O167" s="35"/>
-      <c r="P167" s="35"/>
-      <c r="Q167" s="35"/>
-      <c r="R167" s="35"/>
-      <c r="S167" s="35"/>
-      <c r="T167" s="35"/>
-      <c r="U167" s="36"/>
-      <c r="V167" s="37"/>
-      <c r="W167" s="35" t="s">
-        <v>55</v>
+      <c r="J167" s="34"/>
+      <c r="K167" s="34"/>
+      <c r="L167" s="34"/>
+      <c r="M167" s="34"/>
+      <c r="N167" s="34"/>
+      <c r="O167" s="34"/>
+      <c r="P167" s="34"/>
+      <c r="Q167" s="34"/>
+      <c r="R167" s="34"/>
+      <c r="S167" s="34"/>
+      <c r="T167" s="34"/>
+      <c r="U167" s="35"/>
+      <c r="V167" s="36"/>
+      <c r="W167" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10842,7 +10797,7 @@
       <c r="B168" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C168" s="38" t="s">
+      <c r="C168" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D168" s="30" t="s">
@@ -10855,31 +10810,31 @@
       <c r="G168" s="40"/>
       <c r="H168" s="40"/>
       <c r="I168" s="41"/>
-      <c r="J168" s="35"/>
-      <c r="K168" s="35"/>
-      <c r="L168" s="35"/>
-      <c r="M168" s="35"/>
-      <c r="N168" s="35"/>
-      <c r="O168" s="35"/>
-      <c r="P168" s="35"/>
-      <c r="Q168" s="35"/>
-      <c r="R168" s="35"/>
-      <c r="S168" s="35"/>
-      <c r="T168" s="35"/>
-      <c r="U168" s="36"/>
-      <c r="V168" s="37"/>
-      <c r="W168" s="35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J168" s="34"/>
+      <c r="K168" s="34"/>
+      <c r="L168" s="34"/>
+      <c r="M168" s="34"/>
+      <c r="N168" s="34"/>
+      <c r="O168" s="34"/>
+      <c r="P168" s="34"/>
+      <c r="Q168" s="34"/>
+      <c r="R168" s="34"/>
+      <c r="S168" s="34"/>
+      <c r="T168" s="34"/>
+      <c r="U168" s="35"/>
+      <c r="V168" s="36"/>
+      <c r="W168" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="30" t="n">
         <v>448</v>
       </c>
       <c r="B169" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C169" s="38" t="s">
+      <c r="C169" s="37" t="s">
         <v>73</v>
       </c>
       <c r="D169" s="30" t="s">
@@ -10900,31 +10855,35 @@
       <c r="I169" s="41" t="s">
         <v>433</v>
       </c>
-      <c r="J169" s="35"/>
-      <c r="K169" s="35"/>
-      <c r="L169" s="35"/>
-      <c r="M169" s="35"/>
-      <c r="N169" s="35"/>
-      <c r="O169" s="35"/>
-      <c r="P169" s="35"/>
-      <c r="Q169" s="35"/>
-      <c r="R169" s="35"/>
-      <c r="S169" s="35"/>
-      <c r="T169" s="35"/>
-      <c r="U169" s="36"/>
-      <c r="V169" s="37"/>
-      <c r="W169" s="35" t="s">
+      <c r="J169" s="34" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="170" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K169" s="34"/>
+      <c r="L169" s="34"/>
+      <c r="M169" s="34"/>
+      <c r="N169" s="34"/>
+      <c r="O169" s="34"/>
+      <c r="P169" s="34"/>
+      <c r="Q169" s="34"/>
+      <c r="R169" s="34"/>
+      <c r="S169" s="34"/>
+      <c r="T169" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="U169" s="35"/>
+      <c r="V169" s="36"/>
+      <c r="W169" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="30" t="n">
         <v>449</v>
       </c>
       <c r="B170" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C170" s="38" t="s">
+      <c r="C170" s="37" t="s">
         <v>73</v>
       </c>
       <c r="D170" s="30" t="s">
@@ -10945,21 +10904,25 @@
       <c r="I170" s="41" t="s">
         <v>438</v>
       </c>
-      <c r="J170" s="35"/>
-      <c r="K170" s="35"/>
-      <c r="L170" s="35"/>
-      <c r="M170" s="35"/>
-      <c r="N170" s="35"/>
-      <c r="O170" s="35"/>
-      <c r="P170" s="35"/>
-      <c r="Q170" s="35"/>
-      <c r="R170" s="35"/>
-      <c r="S170" s="35"/>
-      <c r="T170" s="35"/>
-      <c r="U170" s="36"/>
-      <c r="V170" s="37"/>
-      <c r="W170" s="35" t="s">
+      <c r="J170" s="34" t="s">
         <v>55</v>
+      </c>
+      <c r="K170" s="34"/>
+      <c r="L170" s="34"/>
+      <c r="M170" s="34"/>
+      <c r="N170" s="34"/>
+      <c r="O170" s="34"/>
+      <c r="P170" s="34"/>
+      <c r="Q170" s="34"/>
+      <c r="R170" s="34"/>
+      <c r="S170" s="34"/>
+      <c r="T170" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="U170" s="35"/>
+      <c r="V170" s="36"/>
+      <c r="W170" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10969,8 +10932,8 @@
       <c r="B171" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C171" s="38" t="s">
-        <v>66</v>
+      <c r="C171" s="37" t="s">
+        <v>67</v>
       </c>
       <c r="D171" s="30" t="s">
         <v>439</v>
@@ -10982,21 +10945,21 @@
       <c r="G171" s="40"/>
       <c r="H171" s="40"/>
       <c r="I171" s="41"/>
-      <c r="J171" s="35"/>
-      <c r="K171" s="35"/>
-      <c r="L171" s="35"/>
-      <c r="M171" s="35"/>
-      <c r="N171" s="35"/>
-      <c r="O171" s="35"/>
-      <c r="P171" s="35"/>
-      <c r="Q171" s="35"/>
-      <c r="R171" s="35"/>
-      <c r="S171" s="35"/>
-      <c r="T171" s="35"/>
-      <c r="U171" s="36"/>
-      <c r="V171" s="37"/>
-      <c r="W171" s="35" t="s">
-        <v>55</v>
+      <c r="J171" s="34"/>
+      <c r="K171" s="34"/>
+      <c r="L171" s="34"/>
+      <c r="M171" s="34"/>
+      <c r="N171" s="34"/>
+      <c r="O171" s="34"/>
+      <c r="P171" s="34"/>
+      <c r="Q171" s="34"/>
+      <c r="R171" s="34"/>
+      <c r="S171" s="34"/>
+      <c r="T171" s="34"/>
+      <c r="U171" s="35"/>
+      <c r="V171" s="36"/>
+      <c r="W171" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11006,8 +10969,8 @@
       <c r="B172" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C172" s="38" t="s">
-        <v>66</v>
+      <c r="C172" s="37" t="s">
+        <v>67</v>
       </c>
       <c r="D172" s="30" t="s">
         <v>441</v>
@@ -11019,31 +10982,31 @@
       <c r="G172" s="40"/>
       <c r="H172" s="40"/>
       <c r="I172" s="41"/>
-      <c r="J172" s="35"/>
-      <c r="K172" s="35"/>
-      <c r="L172" s="35"/>
-      <c r="M172" s="35"/>
-      <c r="N172" s="35"/>
-      <c r="O172" s="35"/>
-      <c r="P172" s="35"/>
-      <c r="Q172" s="35"/>
-      <c r="R172" s="35"/>
-      <c r="S172" s="35"/>
-      <c r="T172" s="35"/>
-      <c r="U172" s="36"/>
-      <c r="V172" s="37"/>
-      <c r="W172" s="35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J172" s="34"/>
+      <c r="K172" s="34"/>
+      <c r="L172" s="34"/>
+      <c r="M172" s="34"/>
+      <c r="N172" s="34"/>
+      <c r="O172" s="34"/>
+      <c r="P172" s="34"/>
+      <c r="Q172" s="34"/>
+      <c r="R172" s="34"/>
+      <c r="S172" s="34"/>
+      <c r="T172" s="34"/>
+      <c r="U172" s="35"/>
+      <c r="V172" s="36"/>
+      <c r="W172" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="30" t="n">
         <v>452</v>
       </c>
       <c r="B173" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C173" s="38" t="s">
+      <c r="C173" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D173" s="30" t="s">
@@ -11064,21 +11027,25 @@
       <c r="I173" s="41" t="s">
         <v>447</v>
       </c>
-      <c r="J173" s="35"/>
-      <c r="K173" s="35"/>
-      <c r="L173" s="35"/>
-      <c r="M173" s="35"/>
-      <c r="N173" s="35"/>
-      <c r="O173" s="35"/>
-      <c r="P173" s="35"/>
-      <c r="Q173" s="35"/>
-      <c r="R173" s="35"/>
-      <c r="S173" s="35"/>
-      <c r="T173" s="35"/>
-      <c r="U173" s="36"/>
-      <c r="V173" s="37"/>
-      <c r="W173" s="35" t="s">
+      <c r="J173" s="34" t="s">
         <v>55</v>
+      </c>
+      <c r="K173" s="34"/>
+      <c r="L173" s="34"/>
+      <c r="M173" s="34"/>
+      <c r="N173" s="34"/>
+      <c r="O173" s="34"/>
+      <c r="P173" s="34"/>
+      <c r="Q173" s="34"/>
+      <c r="R173" s="34"/>
+      <c r="S173" s="34"/>
+      <c r="T173" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="U173" s="35"/>
+      <c r="V173" s="36"/>
+      <c r="W173" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11088,7 +11055,7 @@
       <c r="B174" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C174" s="38" t="s">
+      <c r="C174" s="37" t="s">
         <v>83</v>
       </c>
       <c r="D174" s="30" t="s">
@@ -11101,21 +11068,21 @@
       <c r="G174" s="40"/>
       <c r="H174" s="40"/>
       <c r="I174" s="41"/>
-      <c r="J174" s="35"/>
-      <c r="K174" s="35"/>
-      <c r="L174" s="35"/>
-      <c r="M174" s="35"/>
-      <c r="N174" s="35"/>
-      <c r="O174" s="35"/>
-      <c r="P174" s="35"/>
-      <c r="Q174" s="35"/>
-      <c r="R174" s="35"/>
-      <c r="S174" s="35"/>
-      <c r="T174" s="35"/>
-      <c r="U174" s="36"/>
-      <c r="V174" s="37"/>
-      <c r="W174" s="35" t="s">
-        <v>55</v>
+      <c r="J174" s="34"/>
+      <c r="K174" s="34"/>
+      <c r="L174" s="34"/>
+      <c r="M174" s="34"/>
+      <c r="N174" s="34"/>
+      <c r="O174" s="34"/>
+      <c r="P174" s="34"/>
+      <c r="Q174" s="34"/>
+      <c r="R174" s="34"/>
+      <c r="S174" s="34"/>
+      <c r="T174" s="34"/>
+      <c r="U174" s="35"/>
+      <c r="V174" s="36"/>
+      <c r="W174" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11125,7 +11092,7 @@
       <c r="B175" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C175" s="38" t="s">
+      <c r="C175" s="37" t="s">
         <v>83</v>
       </c>
       <c r="D175" s="30" t="s">
@@ -11138,21 +11105,21 @@
       <c r="G175" s="40"/>
       <c r="H175" s="40"/>
       <c r="I175" s="41"/>
-      <c r="J175" s="35"/>
-      <c r="K175" s="35"/>
-      <c r="L175" s="35"/>
-      <c r="M175" s="35"/>
-      <c r="N175" s="35"/>
-      <c r="O175" s="35"/>
-      <c r="P175" s="35"/>
-      <c r="Q175" s="35"/>
-      <c r="R175" s="35"/>
-      <c r="S175" s="35"/>
-      <c r="T175" s="35"/>
-      <c r="U175" s="36"/>
-      <c r="V175" s="37"/>
-      <c r="W175" s="35" t="s">
-        <v>55</v>
+      <c r="J175" s="34"/>
+      <c r="K175" s="34"/>
+      <c r="L175" s="34"/>
+      <c r="M175" s="34"/>
+      <c r="N175" s="34"/>
+      <c r="O175" s="34"/>
+      <c r="P175" s="34"/>
+      <c r="Q175" s="34"/>
+      <c r="R175" s="34"/>
+      <c r="S175" s="34"/>
+      <c r="T175" s="34"/>
+      <c r="U175" s="35"/>
+      <c r="V175" s="36"/>
+      <c r="W175" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11162,7 +11129,7 @@
       <c r="B176" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C176" s="38" t="s">
+      <c r="C176" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D176" s="30" t="s">
@@ -11175,21 +11142,21 @@
       <c r="G176" s="40"/>
       <c r="H176" s="40"/>
       <c r="I176" s="41"/>
-      <c r="J176" s="35"/>
-      <c r="K176" s="35"/>
-      <c r="L176" s="35"/>
-      <c r="M176" s="35"/>
-      <c r="N176" s="35"/>
-      <c r="O176" s="35"/>
-      <c r="P176" s="35"/>
-      <c r="Q176" s="35"/>
-      <c r="R176" s="35"/>
-      <c r="S176" s="35"/>
-      <c r="T176" s="35"/>
-      <c r="U176" s="36"/>
-      <c r="V176" s="37"/>
-      <c r="W176" s="35" t="s">
-        <v>55</v>
+      <c r="J176" s="34"/>
+      <c r="K176" s="34"/>
+      <c r="L176" s="34"/>
+      <c r="M176" s="34"/>
+      <c r="N176" s="34"/>
+      <c r="O176" s="34"/>
+      <c r="P176" s="34"/>
+      <c r="Q176" s="34"/>
+      <c r="R176" s="34"/>
+      <c r="S176" s="34"/>
+      <c r="T176" s="34"/>
+      <c r="U176" s="35"/>
+      <c r="V176" s="36"/>
+      <c r="W176" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11199,7 +11166,7 @@
       <c r="B177" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C177" s="38" t="s">
+      <c r="C177" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D177" s="30" t="s">
@@ -11212,21 +11179,21 @@
       <c r="G177" s="40"/>
       <c r="H177" s="40"/>
       <c r="I177" s="41"/>
-      <c r="J177" s="35"/>
-      <c r="K177" s="35"/>
-      <c r="L177" s="35"/>
-      <c r="M177" s="35"/>
-      <c r="N177" s="35"/>
-      <c r="O177" s="35"/>
-      <c r="P177" s="35"/>
-      <c r="Q177" s="35"/>
-      <c r="R177" s="35"/>
-      <c r="S177" s="35"/>
-      <c r="T177" s="35"/>
-      <c r="U177" s="36"/>
-      <c r="V177" s="37"/>
-      <c r="W177" s="35" t="s">
-        <v>55</v>
+      <c r="J177" s="34"/>
+      <c r="K177" s="34"/>
+      <c r="L177" s="34"/>
+      <c r="M177" s="34"/>
+      <c r="N177" s="34"/>
+      <c r="O177" s="34"/>
+      <c r="P177" s="34"/>
+      <c r="Q177" s="34"/>
+      <c r="R177" s="34"/>
+      <c r="S177" s="34"/>
+      <c r="T177" s="34"/>
+      <c r="U177" s="35"/>
+      <c r="V177" s="36"/>
+      <c r="W177" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11263,7 +11230,7 @@
       <c r="U178" s="48"/>
       <c r="V178" s="49"/>
       <c r="W178" s="47" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11300,7 +11267,7 @@
       <c r="U179" s="48"/>
       <c r="V179" s="49"/>
       <c r="W179" s="47" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11310,7 +11277,7 @@
       <c r="B180" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C180" s="38" t="s">
+      <c r="C180" s="37" t="s">
         <v>394</v>
       </c>
       <c r="D180" s="30" t="s">
@@ -11323,21 +11290,21 @@
       <c r="G180" s="40"/>
       <c r="H180" s="40"/>
       <c r="I180" s="41"/>
-      <c r="J180" s="35"/>
-      <c r="K180" s="35"/>
-      <c r="L180" s="35"/>
-      <c r="M180" s="35"/>
-      <c r="N180" s="35"/>
-      <c r="O180" s="35"/>
-      <c r="P180" s="35"/>
-      <c r="Q180" s="35"/>
-      <c r="R180" s="35"/>
-      <c r="S180" s="35"/>
-      <c r="T180" s="35"/>
-      <c r="U180" s="36"/>
-      <c r="V180" s="37"/>
-      <c r="W180" s="35" t="s">
-        <v>55</v>
+      <c r="J180" s="34"/>
+      <c r="K180" s="34"/>
+      <c r="L180" s="34"/>
+      <c r="M180" s="34"/>
+      <c r="N180" s="34"/>
+      <c r="O180" s="34"/>
+      <c r="P180" s="34"/>
+      <c r="Q180" s="34"/>
+      <c r="R180" s="34"/>
+      <c r="S180" s="34"/>
+      <c r="T180" s="34"/>
+      <c r="U180" s="35"/>
+      <c r="V180" s="36"/>
+      <c r="W180" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11347,7 +11314,7 @@
       <c r="B181" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C181" s="38" t="s">
+      <c r="C181" s="37" t="s">
         <v>73</v>
       </c>
       <c r="D181" s="30" t="s">
@@ -11368,33 +11335,35 @@
       <c r="I181" s="30" t="s">
         <v>466</v>
       </c>
-      <c r="J181" s="35"/>
-      <c r="K181" s="35"/>
+      <c r="J181" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="K181" s="34"/>
       <c r="L181" s="30"/>
-      <c r="M181" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="N181" s="35"/>
-      <c r="O181" s="35" t="s">
+      <c r="M181" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="P181" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q181" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="R181" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="S181" s="35" t="s">
+      <c r="N181" s="34"/>
+      <c r="O181" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="T181" s="35"/>
+      <c r="P181" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q181" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R181" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S181" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="T181" s="34"/>
       <c r="U181" s="30"/>
       <c r="V181" s="30"/>
       <c r="W181" s="30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11404,7 +11373,7 @@
       <c r="B182" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C182" s="38" t="s">
+      <c r="C182" s="37" t="s">
         <v>71</v>
       </c>
       <c r="D182" s="30" t="s">
@@ -11417,21 +11386,21 @@
       <c r="G182" s="30"/>
       <c r="H182" s="30"/>
       <c r="I182" s="30"/>
-      <c r="J182" s="35"/>
-      <c r="K182" s="35"/>
+      <c r="J182" s="34"/>
+      <c r="K182" s="34"/>
       <c r="L182" s="30"/>
-      <c r="M182" s="35"/>
-      <c r="N182" s="35"/>
+      <c r="M182" s="34"/>
+      <c r="N182" s="34"/>
       <c r="O182" s="30"/>
-      <c r="P182" s="35"/>
-      <c r="Q182" s="35"/>
-      <c r="R182" s="35"/>
+      <c r="P182" s="34"/>
+      <c r="Q182" s="34"/>
+      <c r="R182" s="34"/>
       <c r="S182" s="30"/>
-      <c r="T182" s="35"/>
+      <c r="T182" s="34"/>
       <c r="U182" s="30"/>
       <c r="V182" s="30"/>
       <c r="W182" s="30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11441,7 +11410,7 @@
       <c r="B183" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C183" s="38" t="s">
+      <c r="C183" s="37" t="s">
         <v>83</v>
       </c>
       <c r="D183" s="30" t="s">
@@ -11454,21 +11423,21 @@
       <c r="G183" s="30"/>
       <c r="H183" s="30"/>
       <c r="I183" s="30"/>
-      <c r="J183" s="35"/>
-      <c r="K183" s="35"/>
+      <c r="J183" s="34"/>
+      <c r="K183" s="34"/>
       <c r="L183" s="30"/>
-      <c r="M183" s="35"/>
-      <c r="N183" s="35"/>
+      <c r="M183" s="34"/>
+      <c r="N183" s="34"/>
       <c r="O183" s="30"/>
-      <c r="P183" s="35"/>
-      <c r="Q183" s="35"/>
-      <c r="R183" s="35"/>
+      <c r="P183" s="34"/>
+      <c r="Q183" s="34"/>
+      <c r="R183" s="34"/>
       <c r="S183" s="30"/>
-      <c r="T183" s="35"/>
+      <c r="T183" s="34"/>
       <c r="U183" s="30"/>
       <c r="V183" s="30"/>
       <c r="W183" s="30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11505,7 +11474,7 @@
       <c r="U184" s="42"/>
       <c r="V184" s="42"/>
       <c r="W184" s="42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11515,7 +11484,7 @@
       <c r="B185" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C185" s="38" t="s">
+      <c r="C185" s="37" t="s">
         <v>81</v>
       </c>
       <c r="D185" s="30" t="s">
@@ -11528,31 +11497,31 @@
       <c r="G185" s="30"/>
       <c r="H185" s="30"/>
       <c r="I185" s="30"/>
-      <c r="J185" s="35"/>
-      <c r="K185" s="35"/>
+      <c r="J185" s="34"/>
+      <c r="K185" s="34"/>
       <c r="L185" s="30"/>
-      <c r="M185" s="35"/>
-      <c r="N185" s="35"/>
+      <c r="M185" s="34"/>
+      <c r="N185" s="34"/>
       <c r="O185" s="30"/>
-      <c r="P185" s="35"/>
-      <c r="Q185" s="35"/>
-      <c r="R185" s="35"/>
+      <c r="P185" s="34"/>
+      <c r="Q185" s="34"/>
+      <c r="R185" s="34"/>
       <c r="S185" s="30"/>
-      <c r="T185" s="35"/>
+      <c r="T185" s="34"/>
       <c r="U185" s="30"/>
       <c r="V185" s="30"/>
       <c r="W185" s="30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="30" t="n">
         <v>466</v>
       </c>
       <c r="B186" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C186" s="38" t="s">
+      <c r="C186" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D186" s="30" t="s">
@@ -11573,35 +11542,37 @@
       <c r="I186" s="30" t="s">
         <v>479</v>
       </c>
-      <c r="J186" s="35"/>
-      <c r="K186" s="35"/>
+      <c r="J186" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="K186" s="34"/>
       <c r="L186" s="30"/>
-      <c r="M186" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="N186" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="O186" s="35" t="s">
+      <c r="M186" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="P186" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q186" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="R186" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="S186" s="35" t="s">
+      <c r="N186" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="O186" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="T186" s="35"/>
+      <c r="P186" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q186" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R186" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S186" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="T186" s="34"/>
       <c r="U186" s="30"/>
       <c r="V186" s="30"/>
       <c r="W186" s="30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11611,8 +11582,8 @@
       <c r="B187" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C187" s="38" t="s">
-        <v>66</v>
+      <c r="C187" s="37" t="s">
+        <v>67</v>
       </c>
       <c r="D187" s="30" t="s">
         <v>480</v>
@@ -11624,21 +11595,21 @@
       <c r="G187" s="30"/>
       <c r="H187" s="30"/>
       <c r="I187" s="30"/>
-      <c r="J187" s="35"/>
-      <c r="K187" s="35"/>
+      <c r="J187" s="34"/>
+      <c r="K187" s="34"/>
       <c r="L187" s="30"/>
-      <c r="M187" s="35"/>
-      <c r="N187" s="35"/>
+      <c r="M187" s="34"/>
+      <c r="N187" s="34"/>
       <c r="O187" s="30"/>
-      <c r="P187" s="35"/>
-      <c r="Q187" s="35"/>
-      <c r="R187" s="35"/>
+      <c r="P187" s="34"/>
+      <c r="Q187" s="34"/>
+      <c r="R187" s="34"/>
       <c r="S187" s="30"/>
-      <c r="T187" s="35"/>
+      <c r="T187" s="34"/>
       <c r="U187" s="30"/>
       <c r="V187" s="30"/>
       <c r="W187" s="30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11648,7 +11619,7 @@
       <c r="B188" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C188" s="38" t="s">
+      <c r="C188" s="37" t="s">
         <v>73</v>
       </c>
       <c r="D188" s="30" t="s">
@@ -11669,33 +11640,35 @@
       <c r="I188" s="30" t="s">
         <v>486</v>
       </c>
-      <c r="J188" s="35"/>
-      <c r="K188" s="35"/>
+      <c r="J188" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="K188" s="34"/>
       <c r="L188" s="30"/>
-      <c r="M188" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="N188" s="35"/>
-      <c r="O188" s="35" t="s">
+      <c r="M188" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="P188" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q188" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="R188" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="S188" s="35" t="s">
+      <c r="N188" s="34"/>
+      <c r="O188" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="T188" s="35"/>
+      <c r="P188" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q188" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R188" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S188" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="T188" s="34"/>
       <c r="U188" s="30"/>
       <c r="V188" s="30"/>
       <c r="W188" s="30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="140.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11705,7 +11678,7 @@
       <c r="B189" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C189" s="38" t="s">
+      <c r="C189" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D189" s="30" t="s">
@@ -11718,21 +11691,21 @@
       <c r="G189" s="30"/>
       <c r="H189" s="30"/>
       <c r="I189" s="30"/>
-      <c r="J189" s="35"/>
-      <c r="K189" s="35"/>
+      <c r="J189" s="34"/>
+      <c r="K189" s="34"/>
       <c r="L189" s="30"/>
-      <c r="M189" s="35"/>
-      <c r="N189" s="35"/>
+      <c r="M189" s="34"/>
+      <c r="N189" s="34"/>
       <c r="O189" s="30"/>
-      <c r="P189" s="35"/>
-      <c r="Q189" s="35"/>
-      <c r="R189" s="35"/>
+      <c r="P189" s="34"/>
+      <c r="Q189" s="34"/>
+      <c r="R189" s="34"/>
       <c r="S189" s="30"/>
-      <c r="T189" s="35"/>
+      <c r="T189" s="34"/>
       <c r="U189" s="30"/>
       <c r="V189" s="30"/>
       <c r="W189" s="30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="140.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11742,7 +11715,7 @@
       <c r="B190" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C190" s="38" t="s">
+      <c r="C190" s="37" t="s">
         <v>394</v>
       </c>
       <c r="D190" s="30" t="s">
@@ -11755,21 +11728,21 @@
       <c r="G190" s="30"/>
       <c r="H190" s="30"/>
       <c r="I190" s="30"/>
-      <c r="J190" s="35"/>
-      <c r="K190" s="35"/>
+      <c r="J190" s="34"/>
+      <c r="K190" s="34"/>
       <c r="L190" s="30"/>
-      <c r="M190" s="35"/>
-      <c r="N190" s="35"/>
+      <c r="M190" s="34"/>
+      <c r="N190" s="34"/>
       <c r="O190" s="30"/>
-      <c r="P190" s="35"/>
-      <c r="Q190" s="35"/>
-      <c r="R190" s="35"/>
+      <c r="P190" s="34"/>
+      <c r="Q190" s="34"/>
+      <c r="R190" s="34"/>
       <c r="S190" s="30"/>
-      <c r="T190" s="35"/>
+      <c r="T190" s="34"/>
       <c r="U190" s="30"/>
       <c r="V190" s="30"/>
       <c r="W190" s="30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="140.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11779,7 +11752,7 @@
       <c r="B191" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C191" s="38" t="s">
+      <c r="C191" s="37" t="s">
         <v>71</v>
       </c>
       <c r="D191" s="30" t="s">
@@ -11792,21 +11765,21 @@
       <c r="G191" s="40"/>
       <c r="H191" s="40"/>
       <c r="I191" s="41"/>
-      <c r="J191" s="35"/>
-      <c r="K191" s="35"/>
-      <c r="L191" s="35"/>
-      <c r="M191" s="35"/>
-      <c r="N191" s="35"/>
-      <c r="O191" s="35"/>
-      <c r="P191" s="35"/>
-      <c r="Q191" s="35"/>
-      <c r="R191" s="35"/>
-      <c r="S191" s="35"/>
-      <c r="T191" s="35"/>
-      <c r="U191" s="36"/>
-      <c r="V191" s="37"/>
-      <c r="W191" s="35" t="s">
-        <v>55</v>
+      <c r="J191" s="34"/>
+      <c r="K191" s="34"/>
+      <c r="L191" s="34"/>
+      <c r="M191" s="34"/>
+      <c r="N191" s="34"/>
+      <c r="O191" s="34"/>
+      <c r="P191" s="34"/>
+      <c r="Q191" s="34"/>
+      <c r="R191" s="34"/>
+      <c r="S191" s="34"/>
+      <c r="T191" s="34"/>
+      <c r="U191" s="35"/>
+      <c r="V191" s="36"/>
+      <c r="W191" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="43.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11816,7 +11789,7 @@
       <c r="B192" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C192" s="38" t="s">
+      <c r="C192" s="37" t="s">
         <v>71</v>
       </c>
       <c r="D192" s="30" t="s">
@@ -11829,21 +11802,21 @@
       <c r="G192" s="40"/>
       <c r="H192" s="40"/>
       <c r="I192" s="41"/>
-      <c r="J192" s="35"/>
-      <c r="K192" s="35"/>
-      <c r="L192" s="35"/>
-      <c r="M192" s="35"/>
-      <c r="N192" s="35"/>
-      <c r="O192" s="35"/>
-      <c r="P192" s="35"/>
-      <c r="Q192" s="35"/>
-      <c r="R192" s="35"/>
-      <c r="S192" s="35"/>
-      <c r="T192" s="35"/>
-      <c r="U192" s="36"/>
-      <c r="V192" s="37"/>
-      <c r="W192" s="35" t="s">
-        <v>55</v>
+      <c r="J192" s="34"/>
+      <c r="K192" s="34"/>
+      <c r="L192" s="34"/>
+      <c r="M192" s="34"/>
+      <c r="N192" s="34"/>
+      <c r="O192" s="34"/>
+      <c r="P192" s="34"/>
+      <c r="Q192" s="34"/>
+      <c r="R192" s="34"/>
+      <c r="S192" s="34"/>
+      <c r="T192" s="34"/>
+      <c r="U192" s="35"/>
+      <c r="V192" s="36"/>
+      <c r="W192" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="140.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15957,11 +15930,12 @@
     <filterColumn colId="2">
       <filters>
         <filter val="LAB"/>
+        <filter val="RSA"/>
       </filters>
     </filterColumn>
     <filterColumn colId="22">
       <filters>
-        <filter val="KO"/>
+        <filter val="OK"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -15975,7 +15949,7 @@
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M10:N192 P10:R192 J12:J18 J20:J35 J37:J192" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10 M10:N192 P10:R192 J12:J18 J20:J35 J37:J192" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -15987,7 +15961,7 @@
       <formula1>'LISTA VALORI'!$A$2:$A$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J11 J19 J36" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J11 J19 J36" type="list">
       <formula1>Summary!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -16012,7 +15986,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="1" sqref="F186 I15"/>
+      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16078,7 +16052,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G1" activeCellId="1" sqref="F186 G1"/>
+      <selection pane="bottomLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16128,7 +16102,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B3" s="62" t="s">
         <v>507</v>
@@ -17226,7 +17200,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F186 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17246,18 +17220,18 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="68" t="s">
-        <v>529</v>
+        <v>56</v>
       </c>
       <c r="B2" s="68" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="68" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B3" s="68" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
@@ -322,11 +322,11 @@
 Al fine di rendere non valido il token è necessario non valorizzare nel JWT il campo "purpose_of_use".</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-11-03T20:57:07Z
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9f5045d6ed05ecd5</t>
+    <t xml:space="preserve">
+2025-06-09T13:24:40.117+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9e0186a94df04a730cfe3e6866af44f3</t>
   </si>
   <si>
     <t xml:space="preserve">UNKNOWN_WORKFLOW_ID</t>
@@ -458,10 +458,10 @@
 Al fine di rendere non valido il token è necessario valorizzare il campo "action_id" con la stringa "TEST" (valore non ammesso).</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-03-11T20:36:51Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29d6a13440ad808c</t>
+    <t xml:space="preserve">2025-06-09T13:25:43.007+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fd9c1d7db9763664b89414fd2808c778</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_LDO_KO</t>
@@ -4128,11 +4128,11 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
-      <selection pane="bottomRight" activeCell="V131" activeCellId="0" sqref="V131"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4488,7 +4488,7 @@
         <v>59</v>
       </c>
       <c r="F11" s="32" t="n">
-        <v>45362</v>
+        <v>45906</v>
       </c>
       <c r="G11" s="33" t="s">
         <v>60</v>
@@ -4832,7 +4832,7 @@
         <v>87</v>
       </c>
       <c r="F19" s="32" t="n">
-        <v>45362</v>
+        <v>45817</v>
       </c>
       <c r="G19" s="33" t="s">
         <v>88</v>

--- a/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="533">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -291,16 +291,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">30-05-2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-05-30T22:40:41.184+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02cfcd8b48450e8b7336d9279f22ed53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">216840111388329215044687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34fa0799c677b3^^^^urn</t>
+    <t xml:space="preserve">12-06-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-12T20:16:38.477+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9f64966d7bb71950842217e96596a9cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216840111388329215044687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34fabcd2809429^^^^urn</t>
   </si>
   <si>
     <t xml:space="preserve">SI</t>
@@ -646,6 +646,9 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">30-05-2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">2025-05-30T22:57:16.614+02:00</t>
   </si>
   <si>
@@ -1522,10 +1525,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-30T22:57:19.954+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8ab7477b9d9d05f06e18d1f85cff089c</t>
+    <t xml:space="preserve">2025-06-12T20:16:40.082+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64c55452a49a38843c9239ce5221e4ac</t>
   </si>
   <si>
     <t xml:space="preserve">216840111388329215044603fe7510a741e2a7f48d448e064e7a00b61ce4fd1737cec7b51e28f46c932c50d5ddfa308^^^^urn</t>
@@ -1539,13 +1542,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-30T22:57:23.151+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d635fd7da6ff014eca0be8ef0d5cfde4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">216840111388329215044eb7a519691317da16d4c42161f82ef7bb02f924e49c69dbfa7603f1b0bb992e56bd0449057^^^^urn</t>
+    <t xml:space="preserve">2025-06-12T20:16:41.688+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26f2e6adbdba66eabe59e49e0b607f90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216840111388329215044eb7a519691317da16d4c42161f82ef7bb02f924e49c69dbfa7603f1b0bb992e52e5e9a9a59^^^^urn</t>
   </si>
   <si>
     <t xml:space="preserve">RAP</t>
@@ -1680,10 +1683,10 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-06-02T07:56:41.255+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c36ed6de0c4c68f084e1bf007f1a60b5</t>
+    <t xml:space="preserve">2025-06-12T20:15:19.132+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e685284558b^^^^urn</t>
   </si>
   <si>
     <t xml:space="preserve">21684011138832921504405eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cb4865211d7d^^^^urn</t>
@@ -1696,13 +1699,13 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-06-02T07:56:42.372+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9cd9e8acb9b7205b6fdff5b85ae3a747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">216840111388329215044981f588afc4d3ac4a492f869c165e57fee5d5f7277397b73a2dd3de1abccba35351ceaa6c8^^^^urn</t>
+    <t xml:space="preserve">2025-06-12T20:15:20.147+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5408de0d72048475c504b4c91371080d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36ec61c1750ce^^^^urn</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT17</t>
@@ -1727,13 +1730,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-30T22:57:24.688+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d00d4d56263ad6b7a1f01581f621e8e6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">216840111388329215044569369a4be5cef75f5ec38405b6b396793743e826d7b6c3922c90fb4f915d6383262c585de^^^^urn</t>
+    <t xml:space="preserve">2025-06-12T20:16:43.312+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96dee0b181c21109330032dcc4ee8af4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216840111388329215044f70061b6fb62760a6a7d3faf794cb69e984a096f6125de05271a7365475e1d58f8553de5db^^^^urn</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT30</t>
@@ -4128,11 +4131,11 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E150" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H19" activeCellId="0" sqref="H19"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A150" activeCellId="0" sqref="A150"/>
+      <selection pane="bottomRight" activeCell="I170" activeCellId="0" sqref="I170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4471,7 +4474,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="189.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="189.05" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="30" t="n">
         <v>28</v>
       </c>
@@ -4643,7 +4646,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="30" t="n">
         <v>32</v>
       </c>
@@ -4815,7 +4818,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="30" t="n">
         <v>36</v>
       </c>
@@ -4987,7 +4990,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="30" t="n">
         <v>40</v>
       </c>
@@ -5159,7 +5162,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="263.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="263.65" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="30" t="n">
         <v>44</v>
       </c>
@@ -5329,7 +5332,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="30" t="n">
         <v>48</v>
       </c>
@@ -5499,7 +5502,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="30" t="n">
         <v>53</v>
       </c>
@@ -5540,7 +5543,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="30" t="n">
         <v>55</v>
       </c>
@@ -5581,7 +5584,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="30" t="n">
         <v>56</v>
       </c>
@@ -5622,7 +5625,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="30" t="n">
         <v>57</v>
       </c>
@@ -5663,7 +5666,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="30" t="n">
         <v>58</v>
       </c>
@@ -5704,7 +5707,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="30" t="n">
         <v>59</v>
       </c>
@@ -5745,7 +5748,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="30" t="n">
         <v>60</v>
       </c>
@@ -5806,7 +5809,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="30" t="n">
         <v>61</v>
       </c>
@@ -5823,16 +5826,16 @@
         <v>131</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="G42" s="40" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H42" s="40" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I42" s="41" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J42" s="34" t="s">
         <v>55</v>
@@ -5867,7 +5870,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="30" t="n">
         <v>62</v>
       </c>
@@ -5878,22 +5881,22 @@
         <v>48</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="G43" s="51" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H43" s="33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I43" s="33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J43" s="34" t="s">
         <v>55</v>
@@ -5939,10 +5942,10 @@
         <v>67</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F44" s="40"/>
       <c r="G44" s="40"/>
@@ -5976,10 +5979,10 @@
         <v>67</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F45" s="40"/>
       <c r="G45" s="40"/>
@@ -6013,10 +6016,10 @@
         <v>67</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F46" s="40"/>
       <c r="G46" s="40"/>
@@ -6050,10 +6053,10 @@
         <v>67</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F47" s="40"/>
       <c r="G47" s="40"/>
@@ -6087,10 +6090,10 @@
         <v>67</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F48" s="40"/>
       <c r="G48" s="40"/>
@@ -6124,10 +6127,10 @@
         <v>67</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F49" s="40"/>
       <c r="G49" s="40"/>
@@ -6161,10 +6164,10 @@
         <v>67</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F50" s="40"/>
       <c r="G50" s="40"/>
@@ -6198,10 +6201,10 @@
         <v>67</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F51" s="40"/>
       <c r="G51" s="40"/>
@@ -6235,10 +6238,10 @@
         <v>67</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F52" s="40"/>
       <c r="G52" s="40"/>
@@ -6272,10 +6275,10 @@
         <v>67</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F53" s="40"/>
       <c r="G53" s="40"/>
@@ -6309,10 +6312,10 @@
         <v>71</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F54" s="40"/>
       <c r="G54" s="40"/>
@@ -6346,10 +6349,10 @@
         <v>71</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F55" s="40"/>
       <c r="G55" s="40"/>
@@ -6383,10 +6386,10 @@
         <v>71</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F56" s="40"/>
       <c r="G56" s="40"/>
@@ -6420,10 +6423,10 @@
         <v>71</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F57" s="40"/>
       <c r="G57" s="40"/>
@@ -6457,10 +6460,10 @@
         <v>71</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F58" s="40"/>
       <c r="G58" s="40"/>
@@ -6494,10 +6497,10 @@
         <v>71</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F59" s="40"/>
       <c r="G59" s="40"/>
@@ -6531,10 +6534,10 @@
         <v>71</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F60" s="40"/>
       <c r="G60" s="40"/>
@@ -6568,10 +6571,10 @@
         <v>71</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F61" s="40"/>
       <c r="G61" s="40"/>
@@ -6605,10 +6608,10 @@
         <v>71</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F62" s="40"/>
       <c r="G62" s="40"/>
@@ -6642,10 +6645,10 @@
         <v>71</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F63" s="40"/>
       <c r="G63" s="40"/>
@@ -6679,10 +6682,10 @@
         <v>71</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F64" s="40"/>
       <c r="G64" s="40"/>
@@ -6716,10 +6719,10 @@
         <v>71</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F65" s="40"/>
       <c r="G65" s="40"/>
@@ -6753,10 +6756,10 @@
         <v>71</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F66" s="40"/>
       <c r="G66" s="40"/>
@@ -6790,10 +6793,10 @@
         <v>71</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F67" s="40"/>
       <c r="G67" s="40"/>
@@ -6827,10 +6830,10 @@
         <v>71</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F68" s="40"/>
       <c r="G68" s="40"/>
@@ -6864,10 +6867,10 @@
         <v>71</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F69" s="40"/>
       <c r="G69" s="40"/>
@@ -6901,10 +6904,10 @@
         <v>71</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F70" s="40"/>
       <c r="G70" s="40"/>
@@ -6938,10 +6941,10 @@
         <v>79</v>
       </c>
       <c r="D71" s="42" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E71" s="50" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F71" s="45"/>
       <c r="G71" s="45"/>
@@ -6975,10 +6978,10 @@
         <v>79</v>
       </c>
       <c r="D72" s="42" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E72" s="50" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F72" s="45"/>
       <c r="G72" s="45"/>
@@ -7012,10 +7015,10 @@
         <v>79</v>
       </c>
       <c r="D73" s="42" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E73" s="50" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F73" s="45"/>
       <c r="G73" s="45"/>
@@ -7049,10 +7052,10 @@
         <v>79</v>
       </c>
       <c r="D74" s="42" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E74" s="50" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F74" s="45"/>
       <c r="G74" s="45"/>
@@ -7086,10 +7089,10 @@
         <v>79</v>
       </c>
       <c r="D75" s="42" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E75" s="50" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F75" s="45"/>
       <c r="G75" s="45"/>
@@ -7123,10 +7126,10 @@
         <v>79</v>
       </c>
       <c r="D76" s="42" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E76" s="50" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F76" s="45"/>
       <c r="G76" s="45"/>
@@ -7160,10 +7163,10 @@
         <v>79</v>
       </c>
       <c r="D77" s="42" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E77" s="50" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F77" s="45"/>
       <c r="G77" s="45"/>
@@ -7197,10 +7200,10 @@
         <v>79</v>
       </c>
       <c r="D78" s="42" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E78" s="50" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F78" s="45"/>
       <c r="G78" s="45"/>
@@ -7234,10 +7237,10 @@
         <v>79</v>
       </c>
       <c r="D79" s="42" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E79" s="50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F79" s="45"/>
       <c r="G79" s="45"/>
@@ -7271,10 +7274,10 @@
         <v>79</v>
       </c>
       <c r="D80" s="42" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E80" s="50" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F80" s="45"/>
       <c r="G80" s="45"/>
@@ -7308,10 +7311,10 @@
         <v>79</v>
       </c>
       <c r="D81" s="42" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E81" s="50" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F81" s="45"/>
       <c r="G81" s="45"/>
@@ -7345,10 +7348,10 @@
         <v>82</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F82" s="40"/>
       <c r="G82" s="40"/>
@@ -7382,10 +7385,10 @@
         <v>82</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F83" s="40"/>
       <c r="G83" s="40"/>
@@ -7419,10 +7422,10 @@
         <v>82</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F84" s="40"/>
       <c r="G84" s="40"/>
@@ -7456,10 +7459,10 @@
         <v>82</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F85" s="40"/>
       <c r="G85" s="40"/>
@@ -7493,10 +7496,10 @@
         <v>82</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E86" s="31" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F86" s="40"/>
       <c r="G86" s="40"/>
@@ -7530,10 +7533,10 @@
         <v>82</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F87" s="40"/>
       <c r="G87" s="40"/>
@@ -7567,10 +7570,10 @@
         <v>82</v>
       </c>
       <c r="D88" s="30" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F88" s="40"/>
       <c r="G88" s="40"/>
@@ -7604,10 +7607,10 @@
         <v>82</v>
       </c>
       <c r="D89" s="30" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F89" s="40"/>
       <c r="G89" s="40"/>
@@ -7641,10 +7644,10 @@
         <v>82</v>
       </c>
       <c r="D90" s="30" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F90" s="40"/>
       <c r="G90" s="40"/>
@@ -7678,10 +7681,10 @@
         <v>82</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F91" s="40"/>
       <c r="G91" s="40"/>
@@ -7715,10 +7718,10 @@
         <v>82</v>
       </c>
       <c r="D92" s="30" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E92" s="31" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F92" s="40"/>
       <c r="G92" s="40"/>
@@ -7752,10 +7755,10 @@
         <v>82</v>
       </c>
       <c r="D93" s="30" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E93" s="31" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F93" s="40"/>
       <c r="G93" s="40"/>
@@ -7789,10 +7792,10 @@
         <v>82</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F94" s="40"/>
       <c r="G94" s="40"/>
@@ -7826,10 +7829,10 @@
         <v>84</v>
       </c>
       <c r="D95" s="30" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E95" s="31" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F95" s="40"/>
       <c r="G95" s="40"/>
@@ -7863,10 +7866,10 @@
         <v>84</v>
       </c>
       <c r="D96" s="30" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E96" s="31" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F96" s="40"/>
       <c r="G96" s="40"/>
@@ -7900,10 +7903,10 @@
         <v>84</v>
       </c>
       <c r="D97" s="30" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F97" s="40"/>
       <c r="G97" s="40"/>
@@ -7937,10 +7940,10 @@
         <v>84</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E98" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F98" s="40"/>
       <c r="G98" s="40"/>
@@ -7974,10 +7977,10 @@
         <v>84</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E99" s="31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F99" s="40"/>
       <c r="G99" s="40"/>
@@ -8011,10 +8014,10 @@
         <v>84</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E100" s="31" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F100" s="40"/>
       <c r="G100" s="40"/>
@@ -8048,10 +8051,10 @@
         <v>84</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E101" s="31" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F101" s="40"/>
       <c r="G101" s="40"/>
@@ -8085,10 +8088,10 @@
         <v>84</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E102" s="31" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F102" s="40"/>
       <c r="G102" s="40"/>
@@ -8122,10 +8125,10 @@
         <v>84</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E103" s="31" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F103" s="40"/>
       <c r="G103" s="40"/>
@@ -8159,10 +8162,10 @@
         <v>84</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E104" s="31" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F104" s="40"/>
       <c r="G104" s="40"/>
@@ -8196,10 +8199,10 @@
         <v>84</v>
       </c>
       <c r="D105" s="30" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E105" s="31" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F105" s="40"/>
       <c r="G105" s="40"/>
@@ -8233,10 +8236,10 @@
         <v>84</v>
       </c>
       <c r="D106" s="30" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E106" s="31" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F106" s="40"/>
       <c r="G106" s="40"/>
@@ -8270,10 +8273,10 @@
         <v>84</v>
       </c>
       <c r="D107" s="30" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F107" s="40"/>
       <c r="G107" s="40"/>
@@ -8307,10 +8310,10 @@
         <v>84</v>
       </c>
       <c r="D108" s="30" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F108" s="40"/>
       <c r="G108" s="40"/>
@@ -8344,10 +8347,10 @@
         <v>84</v>
       </c>
       <c r="D109" s="30" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E109" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F109" s="40"/>
       <c r="G109" s="40"/>
@@ -8381,10 +8384,10 @@
         <v>84</v>
       </c>
       <c r="D110" s="30" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E110" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F110" s="40"/>
       <c r="G110" s="40"/>
@@ -8418,10 +8421,10 @@
         <v>84</v>
       </c>
       <c r="D111" s="30" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E111" s="31" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F111" s="40"/>
       <c r="G111" s="40"/>
@@ -8455,10 +8458,10 @@
         <v>84</v>
       </c>
       <c r="D112" s="30" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E112" s="31" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F112" s="40"/>
       <c r="G112" s="40"/>
@@ -8492,10 +8495,10 @@
         <v>84</v>
       </c>
       <c r="D113" s="30" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E113" s="31" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F113" s="40"/>
       <c r="G113" s="40"/>
@@ -8529,10 +8532,10 @@
         <v>84</v>
       </c>
       <c r="D114" s="30" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E114" s="31" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F114" s="40"/>
       <c r="G114" s="40"/>
@@ -8566,10 +8569,10 @@
         <v>84</v>
       </c>
       <c r="D115" s="30" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E115" s="31" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F115" s="40"/>
       <c r="G115" s="40"/>
@@ -8603,10 +8606,10 @@
         <v>84</v>
       </c>
       <c r="D116" s="30" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E116" s="31" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F116" s="40"/>
       <c r="G116" s="40"/>
@@ -8640,10 +8643,10 @@
         <v>84</v>
       </c>
       <c r="D117" s="30" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E117" s="31" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F117" s="40"/>
       <c r="G117" s="40"/>
@@ -8666,7 +8669,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="30" t="n">
         <v>152</v>
       </c>
@@ -8677,10 +8680,10 @@
         <v>73</v>
       </c>
       <c r="D118" s="30" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E118" s="31" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F118" s="40"/>
       <c r="G118" s="40"/>
@@ -8707,7 +8710,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="30" t="n">
         <v>154</v>
       </c>
@@ -8718,10 +8721,10 @@
         <v>73</v>
       </c>
       <c r="D119" s="30" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E119" s="31" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F119" s="40"/>
       <c r="G119" s="40"/>
@@ -8748,7 +8751,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="30" t="n">
         <v>155</v>
       </c>
@@ -8759,10 +8762,10 @@
         <v>73</v>
       </c>
       <c r="D120" s="30" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E120" s="31" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F120" s="40"/>
       <c r="G120" s="40"/>
@@ -8789,7 +8792,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="30" t="n">
         <v>156</v>
       </c>
@@ -8800,10 +8803,10 @@
         <v>73</v>
       </c>
       <c r="D121" s="30" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E121" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F121" s="40"/>
       <c r="G121" s="40"/>
@@ -8830,7 +8833,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="125.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="125.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="30" t="n">
         <v>158</v>
       </c>
@@ -8841,22 +8844,22 @@
         <v>73</v>
       </c>
       <c r="D122" s="30" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E122" s="31" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F122" s="40" t="s">
         <v>75</v>
       </c>
       <c r="G122" s="40" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H122" s="40" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I122" s="41" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J122" s="34" t="s">
         <v>55</v>
@@ -8891,7 +8894,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="30" t="n">
         <v>159</v>
       </c>
@@ -8902,22 +8905,22 @@
         <v>73</v>
       </c>
       <c r="D123" s="30" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E123" s="31" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F123" s="40" t="s">
         <v>75</v>
       </c>
       <c r="G123" s="40" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H123" s="40" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I123" s="41" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J123" s="34" t="s">
         <v>55</v>
@@ -8952,7 +8955,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="30" t="n">
         <v>160</v>
       </c>
@@ -8963,22 +8966,22 @@
         <v>73</v>
       </c>
       <c r="D124" s="30" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E124" s="31" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F124" s="40" t="s">
         <v>75</v>
       </c>
       <c r="G124" s="40" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H124" s="40" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I124" s="41" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J124" s="34" t="s">
         <v>55</v>
@@ -9013,7 +9016,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="30" t="n">
         <v>161</v>
       </c>
@@ -9024,22 +9027,22 @@
         <v>73</v>
       </c>
       <c r="D125" s="30" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E125" s="31" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F125" s="40" t="s">
         <v>75</v>
       </c>
       <c r="G125" s="40" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H125" s="40" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I125" s="41" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J125" s="34" t="s">
         <v>55</v>
@@ -9074,7 +9077,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="30" t="n">
         <v>162</v>
       </c>
@@ -9085,22 +9088,22 @@
         <v>73</v>
       </c>
       <c r="D126" s="30" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E126" s="31" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F126" s="40" t="s">
         <v>75</v>
       </c>
       <c r="G126" s="40" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H126" s="40" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I126" s="41" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J126" s="34" t="s">
         <v>55</v>
@@ -9135,7 +9138,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="30" t="n">
         <v>163</v>
       </c>
@@ -9146,22 +9149,22 @@
         <v>73</v>
       </c>
       <c r="D127" s="30" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E127" s="31" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F127" s="40" t="s">
         <v>75</v>
       </c>
       <c r="G127" s="40" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H127" s="40" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I127" s="41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J127" s="34" t="s">
         <v>55</v>
@@ -9196,7 +9199,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="30" t="n">
         <v>164</v>
       </c>
@@ -9207,22 +9210,22 @@
         <v>73</v>
       </c>
       <c r="D128" s="30" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E128" s="31" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F128" s="40" t="s">
         <v>75</v>
       </c>
       <c r="G128" s="40" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H128" s="40" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I128" s="41" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J128" s="34" t="s">
         <v>55</v>
@@ -9257,7 +9260,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="30" t="n">
         <v>165</v>
       </c>
@@ -9268,22 +9271,22 @@
         <v>73</v>
       </c>
       <c r="D129" s="30" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E129" s="31" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F129" s="40" t="s">
         <v>75</v>
       </c>
       <c r="G129" s="40" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H129" s="40" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I129" s="41" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J129" s="34" t="s">
         <v>55</v>
@@ -9318,7 +9321,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="30" t="n">
         <v>166</v>
       </c>
@@ -9329,22 +9332,22 @@
         <v>73</v>
       </c>
       <c r="D130" s="30" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E130" s="31" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F130" s="40" t="s">
         <v>75</v>
       </c>
       <c r="G130" s="40" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H130" s="40" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I130" s="41" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J130" s="34" t="s">
         <v>55</v>
@@ -9379,7 +9382,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="30" t="n">
         <v>167</v>
       </c>
@@ -9390,22 +9393,22 @@
         <v>73</v>
       </c>
       <c r="D131" s="30" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E131" s="31" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F131" s="40" t="s">
         <v>75</v>
       </c>
       <c r="G131" s="40" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H131" s="40" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I131" s="41" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J131" s="34" t="s">
         <v>55</v>
@@ -9440,7 +9443,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="30" t="n">
         <v>168</v>
       </c>
@@ -9451,22 +9454,22 @@
         <v>73</v>
       </c>
       <c r="D132" s="30" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E132" s="31" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F132" s="40" t="s">
         <v>75</v>
       </c>
       <c r="G132" s="40" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H132" s="40" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I132" s="41" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="J132" s="34" t="s">
         <v>55</v>
@@ -9501,7 +9504,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="30" t="n">
         <v>169</v>
       </c>
@@ -9512,22 +9515,22 @@
         <v>73</v>
       </c>
       <c r="D133" s="30" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E133" s="31" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F133" s="40" t="s">
         <v>75</v>
       </c>
       <c r="G133" s="40" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H133" s="40" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I133" s="41" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J133" s="34" t="s">
         <v>55</v>
@@ -9573,10 +9576,10 @@
         <v>69</v>
       </c>
       <c r="D134" s="30" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E134" s="31" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F134" s="40"/>
       <c r="G134" s="40"/>
@@ -9610,10 +9613,10 @@
         <v>69</v>
       </c>
       <c r="D135" s="30" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E135" s="31" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F135" s="40"/>
       <c r="G135" s="40"/>
@@ -9647,10 +9650,10 @@
         <v>69</v>
       </c>
       <c r="D136" s="30" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E136" s="31" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F136" s="40"/>
       <c r="G136" s="40"/>
@@ -9684,10 +9687,10 @@
         <v>69</v>
       </c>
       <c r="D137" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E137" s="31" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F137" s="40"/>
       <c r="G137" s="40"/>
@@ -9721,10 +9724,10 @@
         <v>69</v>
       </c>
       <c r="D138" s="30" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E138" s="31" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F138" s="40"/>
       <c r="G138" s="40"/>
@@ -9758,10 +9761,10 @@
         <v>69</v>
       </c>
       <c r="D139" s="30" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E139" s="31" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F139" s="40"/>
       <c r="G139" s="40"/>
@@ -9795,10 +9798,10 @@
         <v>69</v>
       </c>
       <c r="D140" s="30" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E140" s="31" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F140" s="40"/>
       <c r="G140" s="40"/>
@@ -9832,10 +9835,10 @@
         <v>69</v>
       </c>
       <c r="D141" s="30" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E141" s="31" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F141" s="40"/>
       <c r="G141" s="40"/>
@@ -9869,10 +9872,10 @@
         <v>69</v>
       </c>
       <c r="D142" s="30" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E142" s="31" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F142" s="40"/>
       <c r="G142" s="40"/>
@@ -9906,10 +9909,10 @@
         <v>69</v>
       </c>
       <c r="D143" s="30" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E143" s="31" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F143" s="40"/>
       <c r="G143" s="40"/>
@@ -9943,10 +9946,10 @@
         <v>69</v>
       </c>
       <c r="D144" s="30" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E144" s="31" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F144" s="40"/>
       <c r="G144" s="40"/>
@@ -9980,10 +9983,10 @@
         <v>69</v>
       </c>
       <c r="D145" s="30" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E145" s="31" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F145" s="40"/>
       <c r="G145" s="40"/>
@@ -10017,10 +10020,10 @@
         <v>69</v>
       </c>
       <c r="D146" s="30" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E146" s="31" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F146" s="40"/>
       <c r="G146" s="40"/>
@@ -10054,10 +10057,10 @@
         <v>69</v>
       </c>
       <c r="D147" s="30" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E147" s="31" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F147" s="40"/>
       <c r="G147" s="40"/>
@@ -10091,10 +10094,10 @@
         <v>69</v>
       </c>
       <c r="D148" s="30" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E148" s="31" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F148" s="40"/>
       <c r="G148" s="40"/>
@@ -10128,22 +10131,22 @@
         <v>48</v>
       </c>
       <c r="D149" s="30" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E149" s="31" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F149" s="32" t="s">
         <v>51</v>
       </c>
       <c r="G149" s="52" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H149" s="52" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I149" s="52" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J149" s="34" t="s">
         <v>55</v>
@@ -10177,22 +10180,22 @@
         <v>48</v>
       </c>
       <c r="D150" s="30" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E150" s="31" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F150" s="32" t="s">
         <v>51</v>
       </c>
       <c r="G150" s="52" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H150" s="52" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I150" s="52" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="J150" s="34" t="s">
         <v>55</v>
@@ -10223,13 +10226,13 @@
         <v>47</v>
       </c>
       <c r="C151" s="37" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D151" s="30" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E151" s="31" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F151" s="40"/>
       <c r="G151" s="40"/>
@@ -10260,13 +10263,13 @@
         <v>47</v>
       </c>
       <c r="C152" s="37" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D152" s="30" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E152" s="31" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F152" s="40"/>
       <c r="G152" s="40"/>
@@ -10297,13 +10300,13 @@
         <v>47</v>
       </c>
       <c r="C153" s="37" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D153" s="30" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E153" s="31" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F153" s="40"/>
       <c r="G153" s="40"/>
@@ -10334,10 +10337,10 @@
         <v>47</v>
       </c>
       <c r="C154" s="37" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D154" s="30" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E154" s="31" t="s">
         <v>59</v>
@@ -10371,10 +10374,10 @@
         <v>47</v>
       </c>
       <c r="C155" s="37" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D155" s="30" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E155" s="31" t="s">
         <v>87</v>
@@ -10408,13 +10411,13 @@
         <v>47</v>
       </c>
       <c r="C156" s="37" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D156" s="30" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E156" s="31" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F156" s="40"/>
       <c r="G156" s="40"/>
@@ -10445,13 +10448,13 @@
         <v>47</v>
       </c>
       <c r="C157" s="37" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D157" s="30" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E157" s="31" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F157" s="40"/>
       <c r="G157" s="40"/>
@@ -10482,13 +10485,13 @@
         <v>47</v>
       </c>
       <c r="C158" s="37" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D158" s="30" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E158" s="31" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F158" s="40"/>
       <c r="G158" s="40"/>
@@ -10519,13 +10522,13 @@
         <v>47</v>
       </c>
       <c r="C159" s="37" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D159" s="30" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E159" s="31" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F159" s="40"/>
       <c r="G159" s="40"/>
@@ -10556,13 +10559,13 @@
         <v>47</v>
       </c>
       <c r="C160" s="37" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D160" s="30" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E160" s="31" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F160" s="40"/>
       <c r="G160" s="40"/>
@@ -10593,13 +10596,13 @@
         <v>47</v>
       </c>
       <c r="C161" s="37" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D161" s="30" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E161" s="31" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F161" s="40"/>
       <c r="G161" s="40"/>
@@ -10630,13 +10633,13 @@
         <v>47</v>
       </c>
       <c r="C162" s="37" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D162" s="30" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E162" s="31" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F162" s="40"/>
       <c r="G162" s="40"/>
@@ -10667,13 +10670,13 @@
         <v>47</v>
       </c>
       <c r="C163" s="37" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D163" s="30" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E163" s="31" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F163" s="40"/>
       <c r="G163" s="40"/>
@@ -10704,13 +10707,13 @@
         <v>47</v>
       </c>
       <c r="C164" s="37" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D164" s="30" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E164" s="31" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F164" s="40"/>
       <c r="G164" s="40"/>
@@ -10741,13 +10744,13 @@
         <v>47</v>
       </c>
       <c r="C165" s="37" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D165" s="30" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E165" s="31" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F165" s="40"/>
       <c r="G165" s="40"/>
@@ -10778,13 +10781,13 @@
         <v>47</v>
       </c>
       <c r="C166" s="37" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D166" s="30" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E166" s="31" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F166" s="40"/>
       <c r="G166" s="40"/>
@@ -10818,10 +10821,10 @@
         <v>69</v>
       </c>
       <c r="D167" s="30" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E167" s="31" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F167" s="40"/>
       <c r="G167" s="40"/>
@@ -10855,10 +10858,10 @@
         <v>69</v>
       </c>
       <c r="D168" s="30" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E168" s="31" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F168" s="40"/>
       <c r="G168" s="40"/>
@@ -10881,7 +10884,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="30" t="n">
         <v>448</v>
       </c>
@@ -10892,22 +10895,22 @@
         <v>73</v>
       </c>
       <c r="D169" s="30" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E169" s="31" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F169" s="40" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G169" s="40" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H169" s="40" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I169" s="41" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="J169" s="34" t="s">
         <v>55</v>
@@ -10930,7 +10933,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="30" t="n">
         <v>449</v>
       </c>
@@ -10941,22 +10944,22 @@
         <v>73</v>
       </c>
       <c r="D170" s="30" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E170" s="31" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F170" s="40" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G170" s="40" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H170" s="40" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I170" s="41" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J170" s="34" t="s">
         <v>55</v>
@@ -10990,10 +10993,10 @@
         <v>67</v>
       </c>
       <c r="D171" s="30" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E171" s="31" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F171" s="40"/>
       <c r="G171" s="40"/>
@@ -11027,10 +11030,10 @@
         <v>67</v>
       </c>
       <c r="D172" s="30" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E172" s="31" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F172" s="40"/>
       <c r="G172" s="40"/>
@@ -11064,22 +11067,22 @@
         <v>48</v>
       </c>
       <c r="D173" s="30" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E173" s="31" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F173" s="32" t="s">
         <v>51</v>
       </c>
       <c r="G173" s="40" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H173" s="40" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="I173" s="41" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="J173" s="34" t="s">
         <v>55</v>
@@ -11113,10 +11116,10 @@
         <v>84</v>
       </c>
       <c r="D174" s="30" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E174" s="31" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F174" s="40"/>
       <c r="G174" s="40"/>
@@ -11150,10 +11153,10 @@
         <v>84</v>
       </c>
       <c r="D175" s="30" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E175" s="31" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F175" s="40"/>
       <c r="G175" s="40"/>
@@ -11187,10 +11190,10 @@
         <v>82</v>
       </c>
       <c r="D176" s="30" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E176" s="31" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F176" s="40"/>
       <c r="G176" s="40"/>
@@ -11224,10 +11227,10 @@
         <v>82</v>
       </c>
       <c r="D177" s="30" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E177" s="31" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F177" s="40"/>
       <c r="G177" s="40"/>
@@ -11261,10 +11264,10 @@
         <v>79</v>
       </c>
       <c r="D178" s="42" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E178" s="50" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F178" s="45"/>
       <c r="G178" s="45"/>
@@ -11298,10 +11301,10 @@
         <v>79</v>
       </c>
       <c r="D179" s="42" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E179" s="50" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F179" s="45"/>
       <c r="G179" s="45"/>
@@ -11332,13 +11335,13 @@
         <v>47</v>
       </c>
       <c r="C180" s="37" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D180" s="30" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E180" s="31" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F180" s="40"/>
       <c r="G180" s="40"/>
@@ -11361,7 +11364,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="30" t="n">
         <v>461</v>
       </c>
@@ -11372,22 +11375,22 @@
         <v>73</v>
       </c>
       <c r="D181" s="30" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E181" s="31" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F181" s="40" t="s">
         <v>75</v>
       </c>
       <c r="G181" s="30" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H181" s="30" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I181" s="30" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J181" s="34" t="s">
         <v>55</v>
@@ -11433,10 +11436,10 @@
         <v>71</v>
       </c>
       <c r="D182" s="30" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E182" s="31" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F182" s="30"/>
       <c r="G182" s="30"/>
@@ -11470,10 +11473,10 @@
         <v>84</v>
       </c>
       <c r="D183" s="30" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E183" s="31" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F183" s="30"/>
       <c r="G183" s="30"/>
@@ -11507,10 +11510,10 @@
         <v>79</v>
       </c>
       <c r="D184" s="42" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E184" s="50" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F184" s="42"/>
       <c r="G184" s="42"/>
@@ -11544,10 +11547,10 @@
         <v>82</v>
       </c>
       <c r="D185" s="30" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E185" s="31" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F185" s="30"/>
       <c r="G185" s="30"/>
@@ -11570,7 +11573,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="30" t="n">
         <v>466</v>
       </c>
@@ -11581,22 +11584,22 @@
         <v>48</v>
       </c>
       <c r="D186" s="30" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E186" s="31" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F186" s="32" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="G186" s="30" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H186" s="30" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="I186" s="30" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J186" s="34" t="s">
         <v>55</v>
@@ -11642,10 +11645,10 @@
         <v>67</v>
       </c>
       <c r="D187" s="30" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E187" s="31" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F187" s="30"/>
       <c r="G187" s="30"/>
@@ -11668,7 +11671,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="30" t="n">
         <v>468</v>
       </c>
@@ -11679,22 +11682,22 @@
         <v>73</v>
       </c>
       <c r="D188" s="30" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E188" s="31" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F188" s="40" t="s">
         <v>75</v>
       </c>
       <c r="G188" s="30" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H188" s="30" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="I188" s="30" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J188" s="34" t="s">
         <v>55</v>
@@ -11740,10 +11743,10 @@
         <v>69</v>
       </c>
       <c r="D189" s="30" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E189" s="31" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F189" s="30"/>
       <c r="G189" s="30"/>
@@ -11774,13 +11777,13 @@
         <v>47</v>
       </c>
       <c r="C190" s="37" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D190" s="30" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E190" s="31" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F190" s="30"/>
       <c r="G190" s="30"/>
@@ -11814,10 +11817,10 @@
         <v>71</v>
       </c>
       <c r="D191" s="30" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E191" s="31" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F191" s="40"/>
       <c r="G191" s="40"/>
@@ -11851,10 +11854,10 @@
         <v>71</v>
       </c>
       <c r="D192" s="30" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E192" s="31" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F192" s="40"/>
       <c r="G192" s="40"/>
@@ -15985,15 +15988,14 @@
     <row r="755" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A9:W192">
+    <filterColumn colId="22">
+      <filters>
+        <filter val="OK"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="LAB"/>
         <filter val="RSA"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="22">
-      <filters>
-        <filter val="KO"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -16051,32 +16053,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16086,7 +16088,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -16126,22 +16128,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="59" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F1" s="60" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G1" s="61" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16149,13 +16151,13 @@
         <v>48</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C2" s="63" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D2" s="64" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16163,13 +16165,13 @@
         <v>67</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16177,13 +16179,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="62" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16191,13 +16193,13 @@
         <v>79</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16205,13 +16207,13 @@
         <v>82</v>
       </c>
       <c r="B6" s="62" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D6" s="65" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16219,13 +16221,13 @@
         <v>84</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D7" s="65" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16233,13 +16235,13 @@
         <v>73</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D8" s="65" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16247,41 +16249,41 @@
         <v>69</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="62" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D10" s="64" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="62" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17286,7 +17288,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="68" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B3" s="68" t="s">
         <v>63</v>

--- a/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
@@ -300,7 +300,7 @@
     <t xml:space="preserve">9f64966d7bb71950842217e96596a9cc</t>
   </si>
   <si>
-    <t xml:space="preserve">216840111388329215044687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34fabcd2809429^^^^urn</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34fa.bcd2809429^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">SI</t>
@@ -633,7 +633,7 @@
     <t xml:space="preserve">1e981dfdeb211b18f7caff564e660f58</t>
   </si>
   <si>
-    <t xml:space="preserve">216840111388329215044569369a4be5cef75f5ec38405b6b396793743e826d7b6c3922c90fb4f915d638d362a9a7a5^^^^urn</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.569369a4be5cef75f5ec38405b6b396793743e826d7b6c3922c90fb4f915d638.d362a9a7a5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">L’operatore di back office corregge I dati errati o mancanti ed il referto viene rimesso in coda per una trasmissione.  Se non e’ un grado di fare fronte apre un ticket verso il fornitore.</t>
@@ -655,7 +655,7 @@
     <t xml:space="preserve">eb4391e1d5d142a2c8613cea22e4d05e</t>
   </si>
   <si>
-    <t xml:space="preserve">216840111388329215044687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34fa14f8b58d44^^^^urn</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34fa.14f8b58d44^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT16_KO</t>
@@ -671,7 +671,7 @@
     <t xml:space="preserve">b783ce240a786f9ff29c996dfe159272</t>
   </si>
   <si>
-    <t xml:space="preserve">216840111388329215044687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34fa784d9db48b^^^^urn</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34fa.784d9db48b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT6_KO</t>
@@ -1233,7 +1233,7 @@
     <t xml:space="preserve">83fa184547f0da80cdae52be53352807</t>
   </si>
   <si>
-    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e9b4301b11c^^^^urn</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.9b4301b11c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT13_KO</t>
@@ -1249,7 +1249,7 @@
     <t xml:space="preserve">1cbffa4332be3e0da7095e3bbec98a3c</t>
   </si>
   <si>
-    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e5d1be4e5af^^^^urn</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.5d1be4e5af^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT14_KO</t>
@@ -1265,7 +1265,7 @@
     <t xml:space="preserve">c9958dfebd86dff3dc771ef026d11592</t>
   </si>
   <si>
-    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e28ddde02da^^^^urn</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.28ddde02da^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT15_KO</t>
@@ -1281,7 +1281,7 @@
     <t xml:space="preserve">ad1bde26fc620bbbea2dad23f2cdb056</t>
   </si>
   <si>
-    <t xml:space="preserve">21684011138832921504405eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cb293a56fa16^^^^urn</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.05eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cb.293a56fa16^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT16_KO</t>
@@ -1297,7 +1297,7 @@
     <t xml:space="preserve">70468db2371ef2e553b7bc99e66e5d89</t>
   </si>
   <si>
-    <t xml:space="preserve">21684011138832921504405eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cbd3dc25f614^^^^urn</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.05eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cb.d3dc25f614^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT17_KO</t>
@@ -1313,7 +1313,7 @@
     <t xml:space="preserve">c0300a1a9d2589a7ee92ad493e90e03e</t>
   </si>
   <si>
-    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36edbb3182c42^^^^urn</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.dbb3182c42^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT18_KO</t>
@@ -1329,7 +1329,7 @@
     <t xml:space="preserve">70098091c16203560dfcc4704e354986</t>
   </si>
   <si>
-    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36eea8d380bbc^^^^urn</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.ea8d380bbc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT19_KO</t>
@@ -1345,7 +1345,7 @@
     <t xml:space="preserve">b071fd4cadb661a18f9901c5f1086a57</t>
   </si>
   <si>
-    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36ec3cc545fba^^^^urn</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.c3cc545fba^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT20_KO</t>
@@ -1361,7 +1361,7 @@
     <t xml:space="preserve">304dbf4e623e3802f881fa8539a2b832</t>
   </si>
   <si>
-    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e092a19338f^^^^urn</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.092a19338f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT21_KO</t>
@@ -1377,7 +1377,7 @@
     <t xml:space="preserve">117c3e19beb5f04e697b5c2ea0ce7dfe</t>
   </si>
   <si>
-    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e404f410ee6^^^^urn</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.404f410ee6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT22_KO</t>
@@ -1393,7 +1393,7 @@
     <t xml:space="preserve">f95daba30756297ef5e85670f6b02256</t>
   </si>
   <si>
-    <t xml:space="preserve">21684011138832921504405eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cbe17720e89d^^^^urn</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.05eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cb.e17720e89d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT23_KO</t>
@@ -1409,7 +1409,7 @@
     <t xml:space="preserve">115cbd9e58bd83d2b6f3a14a78c5c4ea</t>
   </si>
   <si>
-    <t xml:space="preserve">21684011138832921504405eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cb7e51867ebb^^^^urn</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.05eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cb.7e51867ebb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_PSS_CT6_KO</t>
@@ -1531,7 +1531,7 @@
     <t xml:space="preserve">64c55452a49a38843c9239ce5221e4ac</t>
   </si>
   <si>
-    <t xml:space="preserve">216840111388329215044603fe7510a741e2a7f48d448e064e7a00b61ce4fd1737cec7b51e28f46c932c50d5ddfa308^^^^urn</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.603fe7510a741e2a7f48d448e064e7a00b61ce4fd1737cec7b51e28f46c932c5.f958f7ad15^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_TRASF_CT2</t>
@@ -1548,7 +1548,7 @@
     <t xml:space="preserve">26f2e6adbdba66eabe59e49e0b607f90</t>
   </si>
   <si>
-    <t xml:space="preserve">216840111388329215044eb7a519691317da16d4c42161f82ef7bb02f924e49c69dbfa7603f1b0bb992e52e5e9a9a59^^^^urn</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.eb7a519691317da16d4c42161f82ef7bb02f924e49c69dbfa7603f1b0bb992e5.2e5e9a9a59^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">RAP</t>
@@ -1689,7 +1689,7 @@
     <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e685284558b^^^^urn</t>
   </si>
   <si>
-    <t xml:space="preserve">21684011138832921504405eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cb4865211d7d^^^^urn</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.685284558b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT25</t>
@@ -1705,7 +1705,7 @@
     <t xml:space="preserve">5408de0d72048475c504b4c91371080d</t>
   </si>
   <si>
-    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36ec61c1750ce^^^^urn</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.c61c1750ce^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT17</t>
@@ -1736,7 +1736,7 @@
     <t xml:space="preserve">96dee0b181c21109330032dcc4ee8af4</t>
   </si>
   <si>
-    <t xml:space="preserve">216840111388329215044f70061b6fb62760a6a7d3faf794cb69e984a096f6125de05271a7365475e1d58f8553de5db^^^^urn</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.f70061b6fb62760a6a7d3faf794cb69e984a096f6125de05271a7365475e1d58.f8553de5db^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT30</t>
@@ -1801,7 +1801,7 @@
     <t xml:space="preserve">0e1110078534768c5fb1e3320444cd9f</t>
   </si>
   <si>
-    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e8e2d2ad23e^^^^urn</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.8e2d2ad23e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT24_KO</t>
@@ -1845,7 +1845,7 @@
     <t xml:space="preserve">abdbaf202d64acc6ce6749b8e63b8223</t>
   </si>
   <si>
-    <t xml:space="preserve">216840111388329215044687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34fafb3346d4e0^^^^urn</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34fa.fb3346d4e0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT19_KO</t>
@@ -1868,7 +1868,7 @@
     <t xml:space="preserve">c6a540019332bdbbafcadd80e5e91f80</t>
   </si>
   <si>
-    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e687ea71060^^^^urn</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.687ea71060^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_PSS_CT22_KO</t>
@@ -2581,20 +2581,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -4131,11 +4131,11 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E150" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="I41" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A150" activeCellId="0" sqref="A150"/>
-      <selection pane="bottomRight" activeCell="I170" activeCellId="0" sqref="I170"/>
+      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
+      <selection pane="bottomRight" activeCell="I43" activeCellId="0" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4143,12 +4143,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="51.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="85.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="61.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="47.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="55.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="24.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="88.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="215.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="27.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="11" style="1" width="36.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="45.29"/>
@@ -4425,7 +4425,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="161.65" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="58" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="28" t="n">
         <v>4</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="189.05" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="43.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="30" t="n">
         <v>28</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="30" t="n">
         <v>32</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="30" t="n">
         <v>36</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="30" t="n">
         <v>40</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="263.65" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="263.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="30" t="n">
         <v>44</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="30" t="n">
         <v>48</v>
       </c>
@@ -5385,42 +5385,42 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="42" t="n">
+    <row r="32" s="50" customFormat="true" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="30" t="n">
         <v>49</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="E32" s="50" t="s">
+      <c r="E32" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="47"/>
-      <c r="S32" s="47"/>
-      <c r="T32" s="47"/>
-      <c r="U32" s="48" t="s">
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="V32" s="49"/>
-      <c r="W32" s="47" t="s">
+      <c r="V32" s="36"/>
+      <c r="W32" s="34" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5502,7 +5502,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="30" t="n">
         <v>53</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="30" t="n">
         <v>55</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="30" t="n">
         <v>56</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="30" t="n">
         <v>57</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="30" t="n">
         <v>58</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="30" t="n">
         <v>59</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="30" t="n">
         <v>60</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="30" t="n">
         <v>61</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="30" t="n">
         <v>62</v>
       </c>
@@ -6943,7 +6943,7 @@
       <c r="D71" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="E71" s="50" t="s">
+      <c r="E71" s="52" t="s">
         <v>196</v>
       </c>
       <c r="F71" s="45"/>
@@ -6980,7 +6980,7 @@
       <c r="D72" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="E72" s="50" t="s">
+      <c r="E72" s="52" t="s">
         <v>198</v>
       </c>
       <c r="F72" s="45"/>
@@ -7017,7 +7017,7 @@
       <c r="D73" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="E73" s="50" t="s">
+      <c r="E73" s="52" t="s">
         <v>200</v>
       </c>
       <c r="F73" s="45"/>
@@ -7054,7 +7054,7 @@
       <c r="D74" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="E74" s="50" t="s">
+      <c r="E74" s="52" t="s">
         <v>202</v>
       </c>
       <c r="F74" s="45"/>
@@ -7091,7 +7091,7 @@
       <c r="D75" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="E75" s="50" t="s">
+      <c r="E75" s="52" t="s">
         <v>204</v>
       </c>
       <c r="F75" s="45"/>
@@ -7128,7 +7128,7 @@
       <c r="D76" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="E76" s="50" t="s">
+      <c r="E76" s="52" t="s">
         <v>206</v>
       </c>
       <c r="F76" s="45"/>
@@ -7165,7 +7165,7 @@
       <c r="D77" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="E77" s="50" t="s">
+      <c r="E77" s="52" t="s">
         <v>208</v>
       </c>
       <c r="F77" s="45"/>
@@ -7202,7 +7202,7 @@
       <c r="D78" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="E78" s="50" t="s">
+      <c r="E78" s="52" t="s">
         <v>210</v>
       </c>
       <c r="F78" s="45"/>
@@ -7239,7 +7239,7 @@
       <c r="D79" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="E79" s="50" t="s">
+      <c r="E79" s="52" t="s">
         <v>212</v>
       </c>
       <c r="F79" s="45"/>
@@ -7276,7 +7276,7 @@
       <c r="D80" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="E80" s="50" t="s">
+      <c r="E80" s="52" t="s">
         <v>214</v>
       </c>
       <c r="F80" s="45"/>
@@ -7313,7 +7313,7 @@
       <c r="D81" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="E81" s="50" t="s">
+      <c r="E81" s="52" t="s">
         <v>216</v>
       </c>
       <c r="F81" s="45"/>
@@ -8669,7 +8669,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="30" t="n">
         <v>152</v>
       </c>
@@ -8710,7 +8710,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="30" t="n">
         <v>154</v>
       </c>
@@ -8751,7 +8751,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="30" t="n">
         <v>155</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="30" t="n">
         <v>156</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="125.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="125.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="30" t="n">
         <v>158</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="30" t="n">
         <v>159</v>
       </c>
@@ -8955,7 +8955,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="30" t="n">
         <v>160</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="30" t="n">
         <v>161</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="30" t="n">
         <v>162</v>
       </c>
@@ -9138,7 +9138,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="30" t="n">
         <v>163</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="30" t="n">
         <v>164</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="30" t="n">
         <v>165</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="30" t="n">
         <v>166</v>
       </c>
@@ -9382,7 +9382,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="30" t="n">
         <v>167</v>
       </c>
@@ -9443,7 +9443,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="30" t="n">
         <v>168</v>
       </c>
@@ -9504,7 +9504,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="30" t="n">
         <v>169</v>
       </c>
@@ -10120,7 +10120,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="30" t="n">
         <v>191</v>
       </c>
@@ -10139,13 +10139,13 @@
       <c r="F149" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="G149" s="52" t="s">
+      <c r="G149" s="53" t="s">
         <v>389</v>
       </c>
-      <c r="H149" s="52" t="s">
+      <c r="H149" s="53" t="s">
         <v>390</v>
       </c>
-      <c r="I149" s="52" t="s">
+      <c r="I149" s="53" t="s">
         <v>391</v>
       </c>
       <c r="J149" s="34" t="s">
@@ -10169,7 +10169,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="30" t="n">
         <v>376</v>
       </c>
@@ -10188,13 +10188,13 @@
       <c r="F150" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="G150" s="52" t="s">
+      <c r="G150" s="53" t="s">
         <v>394</v>
       </c>
-      <c r="H150" s="52" t="s">
+      <c r="H150" s="53" t="s">
         <v>395</v>
       </c>
-      <c r="I150" s="52" t="s">
+      <c r="I150" s="53" t="s">
         <v>396</v>
       </c>
       <c r="J150" s="34" t="s">
@@ -10933,7 +10933,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="35.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="30" t="n">
         <v>449</v>
       </c>
@@ -11056,7 +11056,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="46.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="30" t="n">
         <v>452</v>
       </c>
@@ -11266,7 +11266,7 @@
       <c r="D178" s="42" t="s">
         <v>459</v>
       </c>
-      <c r="E178" s="50" t="s">
+      <c r="E178" s="52" t="s">
         <v>460</v>
       </c>
       <c r="F178" s="45"/>
@@ -11303,7 +11303,7 @@
       <c r="D179" s="42" t="s">
         <v>461</v>
       </c>
-      <c r="E179" s="50" t="s">
+      <c r="E179" s="52" t="s">
         <v>462</v>
       </c>
       <c r="F179" s="45"/>
@@ -11364,7 +11364,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="30" t="n">
         <v>461</v>
       </c>
@@ -11512,7 +11512,7 @@
       <c r="D184" s="42" t="s">
         <v>474</v>
       </c>
-      <c r="E184" s="50" t="s">
+      <c r="E184" s="52" t="s">
         <v>475</v>
       </c>
       <c r="F184" s="42"/>
@@ -11573,7 +11573,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="40.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="30" t="n">
         <v>466</v>
       </c>
@@ -11671,7 +11671,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="25.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="30" t="n">
         <v>468</v>
       </c>
@@ -11881,11 +11881,11 @@
       </c>
     </row>
     <row r="193" customFormat="false" ht="140.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="53"/>
-      <c r="B193" s="53"/>
-      <c r="C193" s="53"/>
-      <c r="D193" s="53"/>
-      <c r="E193" s="53"/>
+      <c r="A193" s="50"/>
+      <c r="B193" s="50"/>
+      <c r="C193" s="50"/>
+      <c r="D193" s="50"/>
+      <c r="E193" s="50"/>
       <c r="F193" s="40"/>
       <c r="G193" s="54"/>
       <c r="H193" s="54"/>
@@ -11906,11 +11906,11 @@
       <c r="W193" s="58"/>
     </row>
     <row r="194" customFormat="false" ht="140.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="53"/>
-      <c r="B194" s="53"/>
-      <c r="C194" s="53"/>
-      <c r="D194" s="53"/>
-      <c r="E194" s="53"/>
+      <c r="A194" s="50"/>
+      <c r="B194" s="50"/>
+      <c r="C194" s="50"/>
+      <c r="D194" s="50"/>
+      <c r="E194" s="50"/>
       <c r="F194" s="54"/>
       <c r="G194" s="54"/>
       <c r="H194" s="54"/>
@@ -11931,11 +11931,11 @@
       <c r="W194" s="58"/>
     </row>
     <row r="195" customFormat="false" ht="140.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="53"/>
-      <c r="B195" s="53"/>
-      <c r="C195" s="53"/>
-      <c r="D195" s="53"/>
-      <c r="E195" s="53"/>
+      <c r="A195" s="50"/>
+      <c r="B195" s="50"/>
+      <c r="C195" s="50"/>
+      <c r="D195" s="50"/>
+      <c r="E195" s="50"/>
       <c r="F195" s="54"/>
       <c r="G195" s="54"/>
       <c r="H195" s="54"/>
@@ -11956,11 +11956,11 @@
       <c r="W195" s="58"/>
     </row>
     <row r="196" customFormat="false" ht="140.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="53"/>
-      <c r="B196" s="53"/>
-      <c r="C196" s="53"/>
-      <c r="D196" s="53"/>
-      <c r="E196" s="53"/>
+      <c r="A196" s="50"/>
+      <c r="B196" s="50"/>
+      <c r="C196" s="50"/>
+      <c r="D196" s="50"/>
+      <c r="E196" s="50"/>
       <c r="F196" s="54"/>
       <c r="G196" s="54"/>
       <c r="H196" s="54"/>
@@ -11981,11 +11981,11 @@
       <c r="W196" s="58"/>
     </row>
     <row r="197" customFormat="false" ht="140.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="53"/>
-      <c r="B197" s="53"/>
-      <c r="C197" s="53"/>
-      <c r="D197" s="53"/>
-      <c r="E197" s="53"/>
+      <c r="A197" s="50"/>
+      <c r="B197" s="50"/>
+      <c r="C197" s="50"/>
+      <c r="D197" s="50"/>
+      <c r="E197" s="50"/>
       <c r="F197" s="54"/>
       <c r="G197" s="54"/>
       <c r="H197" s="54"/>
@@ -12006,11 +12006,11 @@
       <c r="W197" s="58"/>
     </row>
     <row r="198" customFormat="false" ht="140.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="53"/>
-      <c r="B198" s="53"/>
-      <c r="C198" s="53"/>
-      <c r="D198" s="53"/>
-      <c r="E198" s="53"/>
+      <c r="A198" s="50"/>
+      <c r="B198" s="50"/>
+      <c r="C198" s="50"/>
+      <c r="D198" s="50"/>
+      <c r="E198" s="50"/>
       <c r="F198" s="54"/>
       <c r="G198" s="54"/>
       <c r="H198" s="54"/>
@@ -15988,13 +15988,9 @@
     <row r="755" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A9:W192">
-    <filterColumn colId="22">
-      <filters>
-        <filter val="OK"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="2">
       <filters>
+        <filter val="LAB"/>
         <filter val="RSA"/>
       </filters>
     </filterColumn>

--- a/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="534">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1683,13 +1683,16 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-06-12T20:15:19.132+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e685284558b^^^^urn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.685284558b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">19-06-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-19T18:29:23.145+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">342dd2ff849628579670319feab0ffd3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.908e5e5323^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT25</t>
@@ -1699,13 +1702,13 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-06-12T20:15:20.147+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5408de0d72048475c504b4c91371080d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.c61c1750ce^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-06-19T18:29:46.229+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8b3b06cf37ce8877e9b0945c8b191688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.f4cf365ac8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT17</t>
@@ -1730,13 +1733,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2025-06-12T20:16:43.312+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96dee0b181c21109330032dcc4ee8af4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.f70061b6fb62760a6a7d3faf794cb69e984a096f6125de05271a7365475e1d58.f8553de5db^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-06-19T18:27:35.883+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9a634cd42d92003cf4708fd463201a12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34fa.3cc1131d94^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT30</t>
@@ -4131,11 +4134,11 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="I41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
-      <selection pane="bottomRight" activeCell="I43" activeCellId="0" sqref="I43"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="I173" activeCellId="0" sqref="I173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4474,7 +4477,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="43.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="43.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="30" t="n">
         <v>28</v>
       </c>
@@ -4646,7 +4649,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="30" t="n">
         <v>32</v>
       </c>
@@ -4818,7 +4821,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="30" t="n">
         <v>36</v>
       </c>
@@ -4990,7 +4993,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="30" t="n">
         <v>40</v>
       </c>
@@ -5162,7 +5165,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="263.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="263.65" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="30" t="n">
         <v>44</v>
       </c>
@@ -5332,7 +5335,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="30" t="n">
         <v>48</v>
       </c>
@@ -5502,7 +5505,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="30" t="n">
         <v>53</v>
       </c>
@@ -5543,7 +5546,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="30" t="n">
         <v>55</v>
       </c>
@@ -5584,7 +5587,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="30" t="n">
         <v>56</v>
       </c>
@@ -5625,7 +5628,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="30" t="n">
         <v>57</v>
       </c>
@@ -5666,7 +5669,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="30" t="n">
         <v>58</v>
       </c>
@@ -5707,7 +5710,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="30" t="n">
         <v>59</v>
       </c>
@@ -5748,7 +5751,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="30" t="n">
         <v>60</v>
       </c>
@@ -5809,7 +5812,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="30" t="n">
         <v>61</v>
       </c>
@@ -5870,7 +5873,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="30" t="n">
         <v>62</v>
       </c>
@@ -8669,7 +8672,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="30" t="n">
         <v>152</v>
       </c>
@@ -8710,7 +8713,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="30" t="n">
         <v>154</v>
       </c>
@@ -8751,7 +8754,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="30" t="n">
         <v>155</v>
       </c>
@@ -8792,7 +8795,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="30" t="n">
         <v>156</v>
       </c>
@@ -8833,7 +8836,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="125.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="125.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="30" t="n">
         <v>158</v>
       </c>
@@ -8894,7 +8897,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="30" t="n">
         <v>159</v>
       </c>
@@ -8955,7 +8958,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="30" t="n">
         <v>160</v>
       </c>
@@ -9016,7 +9019,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="30" t="n">
         <v>161</v>
       </c>
@@ -9077,7 +9080,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="30" t="n">
         <v>162</v>
       </c>
@@ -9138,7 +9141,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="30" t="n">
         <v>163</v>
       </c>
@@ -9199,7 +9202,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="30" t="n">
         <v>164</v>
       </c>
@@ -9260,7 +9263,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="30" t="n">
         <v>165</v>
       </c>
@@ -9321,7 +9324,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="30" t="n">
         <v>166</v>
       </c>
@@ -9382,7 +9385,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="30" t="n">
         <v>167</v>
       </c>
@@ -9443,7 +9446,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="30" t="n">
         <v>168</v>
       </c>
@@ -9504,7 +9507,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="30" t="n">
         <v>169</v>
       </c>
@@ -10884,7 +10887,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="30" t="n">
         <v>448</v>
       </c>
@@ -10901,16 +10904,16 @@
         <v>433</v>
       </c>
       <c r="F169" s="40" t="s">
-        <v>51</v>
+        <v>434</v>
       </c>
       <c r="G169" s="40" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H169" s="40" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I169" s="41" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J169" s="34" t="s">
         <v>55</v>
@@ -10933,7 +10936,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="35.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="35.65" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="30" t="n">
         <v>449</v>
       </c>
@@ -10944,22 +10947,22 @@
         <v>73</v>
       </c>
       <c r="D170" s="30" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E170" s="31" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F170" s="40" t="s">
         <v>51</v>
       </c>
       <c r="G170" s="40" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H170" s="40" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I170" s="41" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="J170" s="34" t="s">
         <v>55</v>
@@ -10993,10 +10996,10 @@
         <v>67</v>
       </c>
       <c r="D171" s="30" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E171" s="31" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F171" s="40"/>
       <c r="G171" s="40"/>
@@ -11030,10 +11033,10 @@
         <v>67</v>
       </c>
       <c r="D172" s="30" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E172" s="31" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F172" s="40"/>
       <c r="G172" s="40"/>
@@ -11067,22 +11070,22 @@
         <v>48</v>
       </c>
       <c r="D173" s="30" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E173" s="31" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F173" s="32" t="s">
-        <v>51</v>
+        <v>434</v>
       </c>
       <c r="G173" s="40" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H173" s="40" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I173" s="41" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="J173" s="34" t="s">
         <v>55</v>
@@ -11116,10 +11119,10 @@
         <v>84</v>
       </c>
       <c r="D174" s="30" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E174" s="31" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F174" s="40"/>
       <c r="G174" s="40"/>
@@ -11153,10 +11156,10 @@
         <v>84</v>
       </c>
       <c r="D175" s="30" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E175" s="31" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F175" s="40"/>
       <c r="G175" s="40"/>
@@ -11190,10 +11193,10 @@
         <v>82</v>
       </c>
       <c r="D176" s="30" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E176" s="31" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F176" s="40"/>
       <c r="G176" s="40"/>
@@ -11227,10 +11230,10 @@
         <v>82</v>
       </c>
       <c r="D177" s="30" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E177" s="31" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F177" s="40"/>
       <c r="G177" s="40"/>
@@ -11264,10 +11267,10 @@
         <v>79</v>
       </c>
       <c r="D178" s="42" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E178" s="52" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F178" s="45"/>
       <c r="G178" s="45"/>
@@ -11301,10 +11304,10 @@
         <v>79</v>
       </c>
       <c r="D179" s="42" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E179" s="52" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F179" s="45"/>
       <c r="G179" s="45"/>
@@ -11338,10 +11341,10 @@
         <v>397</v>
       </c>
       <c r="D180" s="30" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E180" s="31" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F180" s="40"/>
       <c r="G180" s="40"/>
@@ -11364,7 +11367,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="37.3" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="30" t="n">
         <v>461</v>
       </c>
@@ -11375,22 +11378,22 @@
         <v>73</v>
       </c>
       <c r="D181" s="30" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E181" s="31" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F181" s="40" t="s">
         <v>75</v>
       </c>
       <c r="G181" s="30" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H181" s="30" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="I181" s="30" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J181" s="34" t="s">
         <v>55</v>
@@ -11436,10 +11439,10 @@
         <v>71</v>
       </c>
       <c r="D182" s="30" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E182" s="31" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F182" s="30"/>
       <c r="G182" s="30"/>
@@ -11473,10 +11476,10 @@
         <v>84</v>
       </c>
       <c r="D183" s="30" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E183" s="31" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F183" s="30"/>
       <c r="G183" s="30"/>
@@ -11510,10 +11513,10 @@
         <v>79</v>
       </c>
       <c r="D184" s="42" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E184" s="52" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F184" s="42"/>
       <c r="G184" s="42"/>
@@ -11547,10 +11550,10 @@
         <v>82</v>
       </c>
       <c r="D185" s="30" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E185" s="31" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F185" s="30"/>
       <c r="G185" s="30"/>
@@ -11573,7 +11576,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="40.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="40.6" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="30" t="n">
         <v>466</v>
       </c>
@@ -11584,22 +11587,22 @@
         <v>48</v>
       </c>
       <c r="D186" s="30" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E186" s="31" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F186" s="32" t="s">
         <v>132</v>
       </c>
       <c r="G186" s="30" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H186" s="30" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="I186" s="30" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J186" s="34" t="s">
         <v>55</v>
@@ -11645,10 +11648,10 @@
         <v>67</v>
       </c>
       <c r="D187" s="30" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E187" s="31" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F187" s="30"/>
       <c r="G187" s="30"/>
@@ -11671,7 +11674,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="25.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="25.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="30" t="n">
         <v>468</v>
       </c>
@@ -11682,22 +11685,22 @@
         <v>73</v>
       </c>
       <c r="D188" s="30" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E188" s="31" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F188" s="40" t="s">
         <v>75</v>
       </c>
       <c r="G188" s="30" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H188" s="30" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="I188" s="30" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J188" s="34" t="s">
         <v>55</v>
@@ -11743,10 +11746,10 @@
         <v>69</v>
       </c>
       <c r="D189" s="30" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E189" s="31" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F189" s="30"/>
       <c r="G189" s="30"/>
@@ -11780,10 +11783,10 @@
         <v>397</v>
       </c>
       <c r="D190" s="30" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E190" s="31" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F190" s="30"/>
       <c r="G190" s="30"/>
@@ -11817,10 +11820,10 @@
         <v>71</v>
       </c>
       <c r="D191" s="30" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E191" s="31" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F191" s="40"/>
       <c r="G191" s="40"/>
@@ -11854,10 +11857,10 @@
         <v>71</v>
       </c>
       <c r="D192" s="30" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E192" s="31" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F192" s="40"/>
       <c r="G192" s="40"/>
@@ -15988,10 +15991,14 @@
     <row r="755" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A9:W192">
+    <filterColumn colId="22">
+      <filters>
+        <filter val="OK"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="LAB"/>
-        <filter val="RSA"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -16049,32 +16056,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16084,7 +16091,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -16124,22 +16131,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="59" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F1" s="60" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G1" s="61" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16147,13 +16154,13 @@
         <v>48</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C2" s="63" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D2" s="64" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16161,13 +16168,13 @@
         <v>67</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16175,13 +16182,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="62" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16189,13 +16196,13 @@
         <v>79</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16203,13 +16210,13 @@
         <v>82</v>
       </c>
       <c r="B6" s="62" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D6" s="65" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16217,13 +16224,13 @@
         <v>84</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D7" s="65" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16231,13 +16238,13 @@
         <v>73</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D8" s="65" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16245,27 +16252,27 @@
         <v>69</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="62" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D10" s="64" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16273,13 +16280,13 @@
         <v>397</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17284,7 +17291,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="68" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B3" s="68" t="s">
         <v>63</v>

--- a/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
@@ -1686,13 +1686,13 @@
     <t xml:space="preserve">19-06-2025</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-06-19T18:29:23.145+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">342dd2ff849628579670319feab0ffd3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.908e5e5323^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-06-24T16:01:37.853+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75e16731c7dc86e4a4ad7a8f325f22bf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.c172efc9ab^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT25</t>
@@ -1702,13 +1702,13 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-06-19T18:29:46.229+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8b3b06cf37ce8877e9b0945c8b191688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.f4cf365ac8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-06-24T16:01:01.723+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f44061837617ef70f0813561cec33377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.527c4955fe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT17</t>
@@ -4134,11 +4134,11 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I173" activeCellId="0" sqref="I173"/>
+      <selection pane="bottomRight" activeCell="I170" activeCellId="0" sqref="I170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4428,7 +4428,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="58" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="58" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="28" t="n">
         <v>4</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="30" t="n">
         <v>191</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="30" t="n">
         <v>376</v>
       </c>
@@ -10887,7 +10887,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="30" t="n">
         <v>448</v>
       </c>
@@ -10936,7 +10936,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="35.65" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="35.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="30" t="n">
         <v>449</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="46.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="46.4" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="30" t="n">
         <v>452</v>
       </c>
@@ -15998,7 +15998,7 @@
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="LAB"/>
+        <filter val="RSA"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
@@ -1686,13 +1686,13 @@
     <t xml:space="preserve">19-06-2025</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-06-24T16:01:37.853+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75e16731c7dc86e4a4ad7a8f325f22bf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.c172efc9ab^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-06-30T01:52:45.506+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b24ec5286aec7985314e62a6716d6149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.224062c279^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT25</t>
@@ -4138,7 +4138,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I170" activeCellId="0" sqref="I170"/>
+      <selection pane="bottomRight" activeCell="I169" activeCellId="0" sqref="I169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
@@ -31,7 +31,7 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>Unknown Author</author>
+    <author>Autore sconosciuto</author>
   </authors>
   <commentList>
     <comment ref="E9" authorId="0">
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="575">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -360,6 +360,15 @@
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_RAD_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29-09-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-29T21:27:36.121+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8cd00f1d39552a4f3264642f5a2a18ec</t>
   </si>
   <si>
     <t xml:space="preserve">RSA</t>
@@ -473,6 +482,12 @@
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_RAD_KO</t>
   </si>
   <si>
+    <t xml:space="preserve">2025-09-29T21:18:49.323+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">af9b48517843529de30025889ba2f687</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
   </si>
   <si>
@@ -779,6 +794,18 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">12-07-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-12T15:04:21.357+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31dc50e525227b2251b61fb6cc681021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.af1779c13b0111f295f0e564b152837375b4dd8cf5584df252a505b6563333d1.4cdf0b00d4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT12_KO</t>
   </si>
   <si>
@@ -786,6 +813,15 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2025-09-29T22:08:59.033+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">412797e18694664aaf2411671b3944dd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.1fdc76143ba1420c660eac64a9212b4d55587a2bde9ef562142f4b8b5f318e07.3c7550f2be^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT13_KO</t>
   </si>
   <si>
@@ -814,6 +850,15 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2025-07-12T15:04:22.165+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d0877d6d2f7d7a7d433be76f57d229ef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.af1779c13b0111f295f0e564b152837375b4dd8cf5584df252a505b6563333d1.b34297146b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT17_KO</t>
   </si>
   <si>
@@ -821,6 +866,15 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2025-07-12T15:04:23.175+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4f9b1f85ab7c01fc7b3848beddf91cdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.af1779c13b0111f295f0e564b152837375b4dd8cf5584df252a505b6563333d1.6b8eb93a71^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT18_KO</t>
   </si>
   <si>
@@ -828,6 +882,15 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2025-07-12T15:04:23.850+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d8b12d3cc5f3132cd803fcfea8cbdf6f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.af1779c13b0111f295f0e564b152837375b4dd8cf5584df252a505b6563333d1.897b9cf648^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT19_KO</t>
   </si>
   <si>
@@ -835,6 +898,15 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2025-07-12T15:04:24.470+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c9c720e7f5b6f69ff03c36cbbbef225b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.af1779c13b0111f295f0e564b152837375b4dd8cf5584df252a505b6563333d1.01cb1c92b3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT20_KO</t>
   </si>
   <si>
@@ -842,6 +914,15 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2025-07-12T15:04:25.131+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91290ac0cd156ae3af891ffce7a5db01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.af1779c13b0111f295f0e564b152837375b4dd8cf5584df252a505b6563333d1.a6729db3b5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT21_KO</t>
   </si>
   <si>
@@ -849,6 +930,15 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2025-07-12T15:04:25.813+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7012f4634f96fb041f25b6cc19446775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.af1779c13b0111f295f0e564b152837375b4dd8cf5584df252a505b6563333d1.d11d876fed^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT22_KO</t>
   </si>
   <si>
@@ -856,11 +946,26 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2025-07-12T15:04:26.494+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ff83dad4ad8cdccedd74377239d6e107</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT23_KO</t>
   </si>
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-12T15:04:27.140+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbbfbc7d0500d75ebaa500f7b452098f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.af1779c13b0111f295f0e564b152837375b4dd8cf5584df252a505b6563333d1.b5d175e543^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_CERT_VAC_CT6_KO</t>
@@ -1895,11 +2000,29 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2025-07-12T15:04:19.676+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9834aa02cb03a2ca5999d66622ced84a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.1fdc76143ba1420c660eac64a9212b4d55587a2bde9ef562142f4b8b5f318e07.b028a15813^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT26</t>
   </si>
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 26" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-12T15:04:20.687+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">186db661dc3d42f06a7afca148df8f6c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.af1779c13b0111f295f0e564b152837375b4dd8cf5584df252a505b6563333d1.634a9a021d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Razionale di Applicabilità</t>
@@ -4134,11 +4257,11 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B54" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I169" activeCellId="0" sqref="I169"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A54" activeCellId="0" sqref="A54"/>
+      <selection pane="bottomRight" activeCell="I59" activeCellId="0" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4147,11 +4270,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="85.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="61.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="33.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="47.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="88.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="215.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="39.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="103.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="27.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="11" style="1" width="36.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="45.29"/>
@@ -4477,7 +4600,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="43.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="43.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="30" t="n">
         <v>28</v>
       </c>
@@ -4612,7 +4735,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="140.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="140.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="30" t="n">
         <v>31</v>
       </c>
@@ -4628,20 +4751,44 @@
       <c r="E14" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="34"/>
+      <c r="F14" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>55</v>
+      </c>
       <c r="K14" s="34"/>
       <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
+      <c r="M14" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N14" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q14" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R14" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S14" s="34" t="s">
+        <v>65</v>
+      </c>
       <c r="T14" s="34"/>
       <c r="U14" s="35"/>
       <c r="V14" s="36"/>
@@ -4649,7 +4796,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="30" t="n">
         <v>32</v>
       </c>
@@ -4657,22 +4804,22 @@
         <v>47</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E15" s="31" t="s">
         <v>59</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G15" s="40" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I15" s="41" t="s">
         <v>62</v>
@@ -4701,7 +4848,7 @@
         <v>55</v>
       </c>
       <c r="S15" s="34" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="T15" s="34"/>
       <c r="U15" s="35"/>
@@ -4718,13 +4865,13 @@
         <v>47</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F16" s="45"/>
       <c r="G16" s="45"/>
@@ -4755,10 +4902,10 @@
         <v>47</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E17" s="31" t="s">
         <v>59</v>
@@ -4792,10 +4939,10 @@
         <v>47</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E18" s="31" t="s">
         <v>59</v>
@@ -4821,7 +4968,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="30" t="n">
         <v>36</v>
       </c>
@@ -4832,19 +4979,19 @@
         <v>48</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F19" s="32" t="n">
         <v>45817</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I19" s="33" t="s">
         <v>62</v>
@@ -4873,7 +5020,7 @@
         <v>55</v>
       </c>
       <c r="S19" s="34" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="T19" s="34"/>
       <c r="U19" s="35"/>
@@ -4893,10 +5040,10 @@
         <v>67</v>
       </c>
       <c r="D20" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="31" t="s">
         <v>90</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>87</v>
       </c>
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
@@ -4930,10 +5077,10 @@
         <v>69</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
@@ -4956,7 +5103,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="30" t="n">
         <v>39</v>
       </c>
@@ -4967,25 +5114,49 @@
         <v>71</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="34"/>
+        <v>90</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="39" t="s">
+        <v>55</v>
+      </c>
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
+      <c r="M22" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N22" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="O22" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="P22" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q22" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R22" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S22" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="T22" s="34"/>
       <c r="U22" s="35"/>
       <c r="V22" s="36"/>
@@ -4993,7 +5164,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="30" t="n">
         <v>40</v>
       </c>
@@ -5001,22 +5172,22 @@
         <v>47</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F23" s="40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G23" s="40" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H23" s="40" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I23" s="41" t="s">
         <v>62</v>
@@ -5045,7 +5216,7 @@
         <v>55</v>
       </c>
       <c r="S23" s="34" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="T23" s="34"/>
       <c r="U23" s="35"/>
@@ -5062,13 +5233,13 @@
         <v>47</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E24" s="44" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F24" s="45"/>
       <c r="G24" s="45"/>
@@ -5099,13 +5270,13 @@
         <v>47</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
@@ -5136,13 +5307,13 @@
         <v>47</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
@@ -5165,7 +5336,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="263.65" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="263.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="30" t="n">
         <v>44</v>
       </c>
@@ -5176,10 +5347,10 @@
         <v>48</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
@@ -5197,7 +5368,7 @@
         <v>55</v>
       </c>
       <c r="O27" s="34" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="P27" s="34" t="s">
         <v>55</v>
@@ -5209,7 +5380,7 @@
         <v>55</v>
       </c>
       <c r="S27" s="34" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="T27" s="34"/>
       <c r="U27" s="35"/>
@@ -5229,10 +5400,10 @@
         <v>67</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
@@ -5268,10 +5439,10 @@
         <v>69</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
@@ -5296,7 +5467,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="30" t="n">
         <v>47</v>
       </c>
@@ -5307,35 +5478,49 @@
         <v>71</v>
       </c>
       <c r="D30" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="31" t="s">
         <v>106</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>101</v>
       </c>
       <c r="F30" s="40"/>
       <c r="G30" s="40"/>
       <c r="H30" s="40"/>
       <c r="I30" s="41"/>
-      <c r="J30" s="34"/>
+      <c r="J30" s="34" t="s">
+        <v>55</v>
+      </c>
       <c r="K30" s="34"/>
       <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="34"/>
-      <c r="S30" s="34"/>
+      <c r="M30" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N30" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="O30" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="P30" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q30" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R30" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S30" s="34" t="s">
+        <v>108</v>
+      </c>
       <c r="T30" s="34"/>
-      <c r="U30" s="35" t="s">
-        <v>55</v>
-      </c>
+      <c r="U30" s="35"/>
       <c r="V30" s="36"/>
       <c r="W30" s="34" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="30" t="n">
         <v>48</v>
       </c>
@@ -5343,13 +5528,13 @@
         <v>47</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F31" s="40"/>
       <c r="G31" s="40"/>
@@ -5367,7 +5552,7 @@
         <v>55</v>
       </c>
       <c r="O31" s="34" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="P31" s="34" t="s">
         <v>55</v>
@@ -5379,7 +5564,7 @@
         <v>55</v>
       </c>
       <c r="S31" s="34" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="T31" s="34"/>
       <c r="U31" s="35"/>
@@ -5396,13 +5581,13 @@
         <v>47</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F32" s="40"/>
       <c r="G32" s="40"/>
@@ -5435,13 +5620,13 @@
         <v>47</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
@@ -5474,13 +5659,13 @@
         <v>47</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
@@ -5505,7 +5690,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="30" t="n">
         <v>53</v>
       </c>
@@ -5516,10 +5701,10 @@
         <v>48</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
@@ -5529,7 +5714,7 @@
         <v>63</v>
       </c>
       <c r="K35" s="34" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L35" s="39"/>
       <c r="M35" s="34"/>
@@ -5546,7 +5731,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="30" t="n">
         <v>55</v>
       </c>
@@ -5557,10 +5742,10 @@
         <v>48</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F36" s="32"/>
       <c r="G36" s="51"/>
@@ -5570,7 +5755,7 @@
         <v>63</v>
       </c>
       <c r="K36" s="34" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L36" s="34"/>
       <c r="M36" s="34"/>
@@ -5587,7 +5772,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="30" t="n">
         <v>56</v>
       </c>
@@ -5598,10 +5783,10 @@
         <v>48</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F37" s="40"/>
       <c r="G37" s="40"/>
@@ -5611,7 +5796,7 @@
         <v>63</v>
       </c>
       <c r="K37" s="34" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L37" s="34"/>
       <c r="M37" s="34"/>
@@ -5628,7 +5813,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="30" t="n">
         <v>57</v>
       </c>
@@ -5639,10 +5824,10 @@
         <v>48</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F38" s="40"/>
       <c r="G38" s="40"/>
@@ -5652,7 +5837,7 @@
         <v>63</v>
       </c>
       <c r="K38" s="34" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L38" s="39"/>
       <c r="M38" s="34"/>
@@ -5669,7 +5854,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="30" t="n">
         <v>58</v>
       </c>
@@ -5680,10 +5865,10 @@
         <v>48</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F39" s="40"/>
       <c r="G39" s="40"/>
@@ -5693,7 +5878,7 @@
         <v>63</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L39" s="39"/>
       <c r="M39" s="34"/>
@@ -5710,7 +5895,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="30" t="n">
         <v>59</v>
       </c>
@@ -5721,10 +5906,10 @@
         <v>48</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F40" s="40"/>
       <c r="G40" s="40"/>
@@ -5734,7 +5919,7 @@
         <v>63</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L40" s="39"/>
       <c r="M40" s="34"/>
@@ -5751,7 +5936,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="30" t="n">
         <v>60</v>
       </c>
@@ -5762,22 +5947,22 @@
         <v>48</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F41" s="32" t="n">
         <v>45362</v>
       </c>
       <c r="G41" s="51" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H41" s="33" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="I41" s="33" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="J41" s="34" t="s">
         <v>55</v>
@@ -5803,7 +5988,7 @@
         <v>55</v>
       </c>
       <c r="S41" s="34" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T41" s="34"/>
       <c r="U41" s="35"/>
@@ -5812,7 +5997,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="30" t="n">
         <v>61</v>
       </c>
@@ -5823,22 +6008,22 @@
         <v>48</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G42" s="40" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H42" s="40" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I42" s="41" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="J42" s="34" t="s">
         <v>55</v>
@@ -5864,7 +6049,7 @@
         <v>55</v>
       </c>
       <c r="S42" s="34" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T42" s="34"/>
       <c r="U42" s="35"/>
@@ -5873,7 +6058,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="30" t="n">
         <v>62</v>
       </c>
@@ -5884,22 +6069,22 @@
         <v>48</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E43" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="F43" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="F43" s="32" t="s">
-        <v>132</v>
-      </c>
       <c r="G43" s="51" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H43" s="33" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="I43" s="33" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="J43" s="34" t="s">
         <v>55</v>
@@ -5925,7 +6110,7 @@
         <v>55</v>
       </c>
       <c r="S43" s="34" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T43" s="34"/>
       <c r="U43" s="35"/>
@@ -5945,10 +6130,10 @@
         <v>67</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F44" s="40"/>
       <c r="G44" s="40"/>
@@ -5982,10 +6167,10 @@
         <v>67</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F45" s="40"/>
       <c r="G45" s="40"/>
@@ -6019,10 +6204,10 @@
         <v>67</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F46" s="40"/>
       <c r="G46" s="40"/>
@@ -6056,10 +6241,10 @@
         <v>67</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F47" s="40"/>
       <c r="G47" s="40"/>
@@ -6093,10 +6278,10 @@
         <v>67</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F48" s="40"/>
       <c r="G48" s="40"/>
@@ -6130,10 +6315,10 @@
         <v>67</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F49" s="40"/>
       <c r="G49" s="40"/>
@@ -6167,10 +6352,10 @@
         <v>67</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F50" s="40"/>
       <c r="G50" s="40"/>
@@ -6204,10 +6389,10 @@
         <v>67</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F51" s="40"/>
       <c r="G51" s="40"/>
@@ -6241,10 +6426,10 @@
         <v>67</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F52" s="40"/>
       <c r="G52" s="40"/>
@@ -6278,10 +6463,10 @@
         <v>67</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F53" s="40"/>
       <c r="G53" s="40"/>
@@ -6304,7 +6489,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="30" t="n">
         <v>76</v>
       </c>
@@ -6315,17 +6500,21 @@
         <v>71</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F54" s="40"/>
       <c r="G54" s="40"/>
       <c r="H54" s="40"/>
       <c r="I54" s="41"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
+      <c r="J54" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="K54" s="34" t="s">
+        <v>118</v>
+      </c>
       <c r="L54" s="34"/>
       <c r="M54" s="34"/>
       <c r="N54" s="34"/>
@@ -6341,7 +6530,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="30" t="n">
         <v>78</v>
       </c>
@@ -6352,17 +6541,21 @@
         <v>71</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F55" s="40"/>
       <c r="G55" s="40"/>
       <c r="H55" s="40"/>
       <c r="I55" s="41"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="34"/>
+      <c r="J55" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="K55" s="34" t="s">
+        <v>118</v>
+      </c>
       <c r="L55" s="34"/>
       <c r="M55" s="34"/>
       <c r="N55" s="34"/>
@@ -6378,7 +6571,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="30" t="n">
         <v>79</v>
       </c>
@@ -6389,17 +6582,21 @@
         <v>71</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F56" s="40"/>
       <c r="G56" s="40"/>
       <c r="H56" s="40"/>
       <c r="I56" s="41"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="34"/>
+      <c r="J56" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="K56" s="34" t="s">
+        <v>118</v>
+      </c>
       <c r="L56" s="34"/>
       <c r="M56" s="34"/>
       <c r="N56" s="34"/>
@@ -6415,7 +6612,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="30" t="n">
         <v>80</v>
       </c>
@@ -6426,17 +6623,21 @@
         <v>71</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F57" s="40"/>
       <c r="G57" s="40"/>
       <c r="H57" s="40"/>
       <c r="I57" s="41"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="34"/>
+      <c r="J57" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="K57" s="34" t="s">
+        <v>118</v>
+      </c>
       <c r="L57" s="34"/>
       <c r="M57" s="34"/>
       <c r="N57" s="34"/>
@@ -6452,7 +6653,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="30" t="n">
         <v>81</v>
       </c>
@@ -6463,15 +6664,23 @@
         <v>71</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40"/>
-      <c r="I58" s="41"/>
+        <v>175</v>
+      </c>
+      <c r="F58" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="G58" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="H58" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="I58" s="41" t="s">
+        <v>179</v>
+      </c>
       <c r="J58" s="34"/>
       <c r="K58" s="34"/>
       <c r="L58" s="34"/>
@@ -6489,7 +6698,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="30" t="n">
         <v>82</v>
       </c>
@@ -6500,15 +6709,23 @@
         <v>71</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="41"/>
+        <v>181</v>
+      </c>
+      <c r="F59" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G59" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="H59" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="I59" s="41" t="s">
+        <v>184</v>
+      </c>
       <c r="J59" s="34"/>
       <c r="K59" s="34"/>
       <c r="L59" s="34"/>
@@ -6526,7 +6743,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="30" t="n">
         <v>83</v>
       </c>
@@ -6537,17 +6754,21 @@
         <v>71</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="F60" s="40"/>
       <c r="G60" s="40"/>
       <c r="H60" s="40"/>
       <c r="I60" s="41"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="34"/>
+      <c r="J60" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="K60" s="34" t="s">
+        <v>118</v>
+      </c>
       <c r="L60" s="34"/>
       <c r="M60" s="34"/>
       <c r="N60" s="34"/>
@@ -6563,7 +6784,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="30" t="n">
         <v>84</v>
       </c>
@@ -6574,17 +6795,21 @@
         <v>71</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="F61" s="40"/>
       <c r="G61" s="40"/>
       <c r="H61" s="40"/>
       <c r="I61" s="41"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="34"/>
+      <c r="J61" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="K61" s="34" t="s">
+        <v>118</v>
+      </c>
       <c r="L61" s="34"/>
       <c r="M61" s="34"/>
       <c r="N61" s="34"/>
@@ -6600,7 +6825,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="30" t="n">
         <v>85</v>
       </c>
@@ -6611,17 +6836,21 @@
         <v>71</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="F62" s="40"/>
       <c r="G62" s="40"/>
       <c r="H62" s="40"/>
       <c r="I62" s="41"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="34"/>
+      <c r="J62" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="K62" s="34" t="s">
+        <v>118</v>
+      </c>
       <c r="L62" s="34"/>
       <c r="M62" s="34"/>
       <c r="N62" s="34"/>
@@ -6637,7 +6866,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="30" t="n">
         <v>86</v>
       </c>
@@ -6648,15 +6877,23 @@
         <v>71</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="F63" s="40"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="40"/>
-      <c r="I63" s="41"/>
+        <v>192</v>
+      </c>
+      <c r="F63" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="G63" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="H63" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="I63" s="41" t="s">
+        <v>195</v>
+      </c>
       <c r="J63" s="34"/>
       <c r="K63" s="34"/>
       <c r="L63" s="34"/>
@@ -6674,7 +6911,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="30" t="n">
         <v>87</v>
       </c>
@@ -6685,15 +6922,23 @@
         <v>71</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="F64" s="40"/>
-      <c r="G64" s="40"/>
-      <c r="H64" s="40"/>
-      <c r="I64" s="41"/>
+        <v>197</v>
+      </c>
+      <c r="F64" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="G64" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="H64" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="I64" s="41" t="s">
+        <v>200</v>
+      </c>
       <c r="J64" s="34"/>
       <c r="K64" s="34"/>
       <c r="L64" s="34"/>
@@ -6711,7 +6956,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="30" t="n">
         <v>88</v>
       </c>
@@ -6722,15 +6967,23 @@
         <v>71</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="F65" s="40"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="40"/>
-      <c r="I65" s="41"/>
+        <v>202</v>
+      </c>
+      <c r="F65" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="G65" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="H65" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="I65" s="41" t="s">
+        <v>205</v>
+      </c>
       <c r="J65" s="34"/>
       <c r="K65" s="34"/>
       <c r="L65" s="34"/>
@@ -6748,7 +7001,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="30" t="n">
         <v>89</v>
       </c>
@@ -6759,15 +7012,23 @@
         <v>71</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="F66" s="40"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="40"/>
-      <c r="I66" s="41"/>
+        <v>207</v>
+      </c>
+      <c r="F66" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="G66" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="H66" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="I66" s="41" t="s">
+        <v>210</v>
+      </c>
       <c r="J66" s="34"/>
       <c r="K66" s="34"/>
       <c r="L66" s="34"/>
@@ -6785,7 +7046,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="30" t="n">
         <v>90</v>
       </c>
@@ -6796,15 +7057,23 @@
         <v>71</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="F67" s="40"/>
-      <c r="G67" s="40"/>
-      <c r="H67" s="40"/>
-      <c r="I67" s="41"/>
+        <v>212</v>
+      </c>
+      <c r="F67" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="G67" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="H67" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="I67" s="41" t="s">
+        <v>215</v>
+      </c>
       <c r="J67" s="34"/>
       <c r="K67" s="34"/>
       <c r="L67" s="34"/>
@@ -6822,7 +7091,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="30" t="n">
         <v>91</v>
       </c>
@@ -6833,15 +7102,23 @@
         <v>71</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="41"/>
+        <v>217</v>
+      </c>
+      <c r="F68" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="G68" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="H68" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="I68" s="41" t="s">
+        <v>220</v>
+      </c>
       <c r="J68" s="34"/>
       <c r="K68" s="34"/>
       <c r="L68" s="34"/>
@@ -6859,7 +7136,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="30" t="n">
         <v>92</v>
       </c>
@@ -6870,15 +7147,23 @@
         <v>71</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="F69" s="40"/>
-      <c r="G69" s="40"/>
-      <c r="H69" s="40"/>
-      <c r="I69" s="41"/>
+        <v>222</v>
+      </c>
+      <c r="F69" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="G69" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="H69" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="I69" s="41" t="s">
+        <v>220</v>
+      </c>
       <c r="J69" s="34"/>
       <c r="K69" s="34"/>
       <c r="L69" s="34"/>
@@ -6896,7 +7181,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="30" t="n">
         <v>93</v>
       </c>
@@ -6907,15 +7192,23 @@
         <v>71</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="F70" s="40"/>
-      <c r="G70" s="40"/>
-      <c r="H70" s="40"/>
-      <c r="I70" s="41"/>
+        <v>226</v>
+      </c>
+      <c r="F70" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="G70" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="H70" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="I70" s="41" t="s">
+        <v>229</v>
+      </c>
       <c r="J70" s="34"/>
       <c r="K70" s="34"/>
       <c r="L70" s="34"/>
@@ -6941,13 +7234,13 @@
         <v>47</v>
       </c>
       <c r="C71" s="43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D71" s="42" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="E71" s="52" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="F71" s="45"/>
       <c r="G71" s="45"/>
@@ -6978,13 +7271,13 @@
         <v>47</v>
       </c>
       <c r="C72" s="43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D72" s="42" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="E72" s="52" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="F72" s="45"/>
       <c r="G72" s="45"/>
@@ -7015,13 +7308,13 @@
         <v>47</v>
       </c>
       <c r="C73" s="43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D73" s="42" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="E73" s="52" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="F73" s="45"/>
       <c r="G73" s="45"/>
@@ -7052,13 +7345,13 @@
         <v>47</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D74" s="42" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="E74" s="52" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="F74" s="45"/>
       <c r="G74" s="45"/>
@@ -7089,13 +7382,13 @@
         <v>47</v>
       </c>
       <c r="C75" s="43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D75" s="42" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="E75" s="52" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="F75" s="45"/>
       <c r="G75" s="45"/>
@@ -7126,13 +7419,13 @@
         <v>47</v>
       </c>
       <c r="C76" s="43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D76" s="42" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="E76" s="52" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="F76" s="45"/>
       <c r="G76" s="45"/>
@@ -7163,13 +7456,13 @@
         <v>47</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D77" s="42" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="E77" s="52" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="F77" s="45"/>
       <c r="G77" s="45"/>
@@ -7200,13 +7493,13 @@
         <v>47</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D78" s="42" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="E78" s="52" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="F78" s="45"/>
       <c r="G78" s="45"/>
@@ -7237,13 +7530,13 @@
         <v>47</v>
       </c>
       <c r="C79" s="43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D79" s="42" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="E79" s="52" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="F79" s="45"/>
       <c r="G79" s="45"/>
@@ -7274,13 +7567,13 @@
         <v>47</v>
       </c>
       <c r="C80" s="43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D80" s="42" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="E80" s="52" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="F80" s="45"/>
       <c r="G80" s="45"/>
@@ -7311,13 +7604,13 @@
         <v>47</v>
       </c>
       <c r="C81" s="43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D81" s="42" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="E81" s="52" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="F81" s="45"/>
       <c r="G81" s="45"/>
@@ -7348,13 +7641,13 @@
         <v>47</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="F82" s="40"/>
       <c r="G82" s="40"/>
@@ -7385,13 +7678,13 @@
         <v>47</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="F83" s="40"/>
       <c r="G83" s="40"/>
@@ -7422,13 +7715,13 @@
         <v>47</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="F84" s="40"/>
       <c r="G84" s="40"/>
@@ -7459,13 +7752,13 @@
         <v>47</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="F85" s="40"/>
       <c r="G85" s="40"/>
@@ -7496,13 +7789,13 @@
         <v>47</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="E86" s="31" t="s">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="F86" s="40"/>
       <c r="G86" s="40"/>
@@ -7533,13 +7826,13 @@
         <v>47</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="F87" s="40"/>
       <c r="G87" s="40"/>
@@ -7570,13 +7863,13 @@
         <v>47</v>
       </c>
       <c r="C88" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D88" s="30" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="F88" s="40"/>
       <c r="G88" s="40"/>
@@ -7607,13 +7900,13 @@
         <v>47</v>
       </c>
       <c r="C89" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D89" s="30" t="s">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="F89" s="40"/>
       <c r="G89" s="40"/>
@@ -7644,13 +7937,13 @@
         <v>47</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D90" s="30" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="F90" s="40"/>
       <c r="G90" s="40"/>
@@ -7681,13 +7974,13 @@
         <v>47</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="F91" s="40"/>
       <c r="G91" s="40"/>
@@ -7718,13 +8011,13 @@
         <v>47</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D92" s="30" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="E92" s="31" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="F92" s="40"/>
       <c r="G92" s="40"/>
@@ -7755,13 +8048,13 @@
         <v>47</v>
       </c>
       <c r="C93" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D93" s="30" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="E93" s="31" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="F93" s="40"/>
       <c r="G93" s="40"/>
@@ -7792,13 +8085,13 @@
         <v>47</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="F94" s="40"/>
       <c r="G94" s="40"/>
@@ -7829,13 +8122,13 @@
         <v>47</v>
       </c>
       <c r="C95" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D95" s="30" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="E95" s="31" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="F95" s="40"/>
       <c r="G95" s="40"/>
@@ -7866,13 +8159,13 @@
         <v>47</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D96" s="30" t="s">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="E96" s="31" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="F96" s="40"/>
       <c r="G96" s="40"/>
@@ -7903,13 +8196,13 @@
         <v>47</v>
       </c>
       <c r="C97" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D97" s="30" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="F97" s="40"/>
       <c r="G97" s="40"/>
@@ -7940,13 +8233,13 @@
         <v>47</v>
       </c>
       <c r="C98" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="E98" s="31" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="F98" s="40"/>
       <c r="G98" s="40"/>
@@ -7977,13 +8270,13 @@
         <v>47</v>
       </c>
       <c r="C99" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="E99" s="31" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="F99" s="40"/>
       <c r="G99" s="40"/>
@@ -8014,13 +8307,13 @@
         <v>47</v>
       </c>
       <c r="C100" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="E100" s="31" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="F100" s="40"/>
       <c r="G100" s="40"/>
@@ -8051,13 +8344,13 @@
         <v>47</v>
       </c>
       <c r="C101" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="E101" s="31" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="F101" s="40"/>
       <c r="G101" s="40"/>
@@ -8088,13 +8381,13 @@
         <v>47</v>
       </c>
       <c r="C102" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="E102" s="31" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="F102" s="40"/>
       <c r="G102" s="40"/>
@@ -8125,13 +8418,13 @@
         <v>47</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="E103" s="31" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="F103" s="40"/>
       <c r="G103" s="40"/>
@@ -8162,13 +8455,13 @@
         <v>47</v>
       </c>
       <c r="C104" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="E104" s="31" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="F104" s="40"/>
       <c r="G104" s="40"/>
@@ -8199,13 +8492,13 @@
         <v>47</v>
       </c>
       <c r="C105" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D105" s="30" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="E105" s="31" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="F105" s="40"/>
       <c r="G105" s="40"/>
@@ -8236,13 +8529,13 @@
         <v>47</v>
       </c>
       <c r="C106" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D106" s="30" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="E106" s="31" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="F106" s="40"/>
       <c r="G106" s="40"/>
@@ -8273,13 +8566,13 @@
         <v>47</v>
       </c>
       <c r="C107" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D107" s="30" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="F107" s="40"/>
       <c r="G107" s="40"/>
@@ -8310,13 +8603,13 @@
         <v>47</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D108" s="30" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="F108" s="40"/>
       <c r="G108" s="40"/>
@@ -8347,13 +8640,13 @@
         <v>47</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D109" s="30" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="E109" s="31" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="F109" s="40"/>
       <c r="G109" s="40"/>
@@ -8384,13 +8677,13 @@
         <v>47</v>
       </c>
       <c r="C110" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D110" s="30" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="E110" s="31" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="F110" s="40"/>
       <c r="G110" s="40"/>
@@ -8421,13 +8714,13 @@
         <v>47</v>
       </c>
       <c r="C111" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D111" s="30" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="E111" s="31" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="F111" s="40"/>
       <c r="G111" s="40"/>
@@ -8458,13 +8751,13 @@
         <v>47</v>
       </c>
       <c r="C112" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D112" s="30" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="E112" s="31" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="F112" s="40"/>
       <c r="G112" s="40"/>
@@ -8495,13 +8788,13 @@
         <v>47</v>
       </c>
       <c r="C113" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D113" s="30" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="E113" s="31" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="F113" s="40"/>
       <c r="G113" s="40"/>
@@ -8532,13 +8825,13 @@
         <v>47</v>
       </c>
       <c r="C114" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D114" s="30" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="E114" s="31" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="F114" s="40"/>
       <c r="G114" s="40"/>
@@ -8569,13 +8862,13 @@
         <v>47</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D115" s="30" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="E115" s="31" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="F115" s="40"/>
       <c r="G115" s="40"/>
@@ -8606,13 +8899,13 @@
         <v>47</v>
       </c>
       <c r="C116" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D116" s="30" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="E116" s="31" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="F116" s="40"/>
       <c r="G116" s="40"/>
@@ -8643,13 +8936,13 @@
         <v>47</v>
       </c>
       <c r="C117" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D117" s="30" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="E117" s="31" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="F117" s="40"/>
       <c r="G117" s="40"/>
@@ -8672,7 +8965,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="30" t="n">
         <v>152</v>
       </c>
@@ -8680,13 +8973,13 @@
         <v>47</v>
       </c>
       <c r="C118" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D118" s="30" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="E118" s="31" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="F118" s="40"/>
       <c r="G118" s="40"/>
@@ -8696,7 +8989,7 @@
         <v>63</v>
       </c>
       <c r="K118" s="34" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L118" s="34"/>
       <c r="M118" s="34"/>
@@ -8713,7 +9006,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="30" t="n">
         <v>154</v>
       </c>
@@ -8721,13 +9014,13 @@
         <v>47</v>
       </c>
       <c r="C119" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D119" s="30" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="E119" s="31" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="F119" s="40"/>
       <c r="G119" s="40"/>
@@ -8737,7 +9030,7 @@
         <v>63</v>
       </c>
       <c r="K119" s="34" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L119" s="34"/>
       <c r="M119" s="34"/>
@@ -8754,7 +9047,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="30" t="n">
         <v>155</v>
       </c>
@@ -8762,13 +9055,13 @@
         <v>47</v>
       </c>
       <c r="C120" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D120" s="30" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="E120" s="31" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="F120" s="40"/>
       <c r="G120" s="40"/>
@@ -8778,7 +9071,7 @@
         <v>63</v>
       </c>
       <c r="K120" s="34" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L120" s="34"/>
       <c r="M120" s="34"/>
@@ -8795,7 +9088,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="30" t="n">
         <v>156</v>
       </c>
@@ -8803,13 +9096,13 @@
         <v>47</v>
       </c>
       <c r="C121" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D121" s="30" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="E121" s="31" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="F121" s="40"/>
       <c r="G121" s="40"/>
@@ -8819,7 +9112,7 @@
         <v>63</v>
       </c>
       <c r="K121" s="34" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L121" s="34"/>
       <c r="M121" s="34"/>
@@ -8836,7 +9129,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="125.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="125.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="30" t="n">
         <v>158</v>
       </c>
@@ -8844,25 +9137,25 @@
         <v>47</v>
       </c>
       <c r="C122" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D122" s="30" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="E122" s="31" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="F122" s="40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G122" s="40" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="H122" s="40" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="I122" s="41" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="J122" s="34" t="s">
         <v>55</v>
@@ -8888,7 +9181,7 @@
         <v>55</v>
       </c>
       <c r="S122" s="34" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T122" s="34"/>
       <c r="U122" s="35"/>
@@ -8897,7 +9190,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="30" t="n">
         <v>159</v>
       </c>
@@ -8905,25 +9198,25 @@
         <v>47</v>
       </c>
       <c r="C123" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D123" s="30" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="E123" s="31" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="F123" s="40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G123" s="40" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="H123" s="40" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="I123" s="41" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="J123" s="34" t="s">
         <v>55</v>
@@ -8949,7 +9242,7 @@
         <v>55</v>
       </c>
       <c r="S123" s="34" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T123" s="34"/>
       <c r="U123" s="35"/>
@@ -8958,7 +9251,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="30" t="n">
         <v>160</v>
       </c>
@@ -8966,25 +9259,25 @@
         <v>47</v>
       </c>
       <c r="C124" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D124" s="30" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="E124" s="31" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="F124" s="40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G124" s="40" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="H124" s="40" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="I124" s="41" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="J124" s="34" t="s">
         <v>55</v>
@@ -9010,7 +9303,7 @@
         <v>55</v>
       </c>
       <c r="S124" s="34" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T124" s="34"/>
       <c r="U124" s="35"/>
@@ -9019,7 +9312,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="30" t="n">
         <v>161</v>
       </c>
@@ -9027,25 +9320,25 @@
         <v>47</v>
       </c>
       <c r="C125" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D125" s="30" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="E125" s="31" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="F125" s="40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G125" s="40" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="H125" s="40" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="I125" s="41" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="J125" s="34" t="s">
         <v>55</v>
@@ -9071,7 +9364,7 @@
         <v>55</v>
       </c>
       <c r="S125" s="34" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T125" s="34"/>
       <c r="U125" s="35"/>
@@ -9080,7 +9373,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="30" t="n">
         <v>162</v>
       </c>
@@ -9088,25 +9381,25 @@
         <v>47</v>
       </c>
       <c r="C126" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D126" s="30" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="E126" s="31" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="F126" s="40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G126" s="40" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="H126" s="40" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="I126" s="41" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="J126" s="34" t="s">
         <v>55</v>
@@ -9132,7 +9425,7 @@
         <v>55</v>
       </c>
       <c r="S126" s="34" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T126" s="34"/>
       <c r="U126" s="35"/>
@@ -9141,7 +9434,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="30" t="n">
         <v>163</v>
       </c>
@@ -9149,25 +9442,25 @@
         <v>47</v>
       </c>
       <c r="C127" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D127" s="30" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="E127" s="31" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="F127" s="40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G127" s="40" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="H127" s="40" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="I127" s="41" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="J127" s="34" t="s">
         <v>55</v>
@@ -9193,7 +9486,7 @@
         <v>55</v>
       </c>
       <c r="S127" s="34" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T127" s="34"/>
       <c r="U127" s="35"/>
@@ -9202,7 +9495,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="30" t="n">
         <v>164</v>
       </c>
@@ -9210,25 +9503,25 @@
         <v>47</v>
       </c>
       <c r="C128" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D128" s="30" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="E128" s="31" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="F128" s="40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G128" s="40" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="H128" s="40" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="I128" s="41" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="J128" s="34" t="s">
         <v>55</v>
@@ -9254,7 +9547,7 @@
         <v>55</v>
       </c>
       <c r="S128" s="34" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T128" s="34"/>
       <c r="U128" s="35"/>
@@ -9263,7 +9556,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="30" t="n">
         <v>165</v>
       </c>
@@ -9271,25 +9564,25 @@
         <v>47</v>
       </c>
       <c r="C129" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D129" s="30" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="E129" s="31" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="F129" s="40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G129" s="40" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="H129" s="40" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="I129" s="41" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="J129" s="34" t="s">
         <v>55</v>
@@ -9315,7 +9608,7 @@
         <v>55</v>
       </c>
       <c r="S129" s="34" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T129" s="34"/>
       <c r="U129" s="35"/>
@@ -9324,7 +9617,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="30" t="n">
         <v>166</v>
       </c>
@@ -9332,25 +9625,25 @@
         <v>47</v>
       </c>
       <c r="C130" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D130" s="30" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="E130" s="31" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="F130" s="40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G130" s="40" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="H130" s="40" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="I130" s="41" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="J130" s="34" t="s">
         <v>55</v>
@@ -9376,7 +9669,7 @@
         <v>55</v>
       </c>
       <c r="S130" s="34" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T130" s="34"/>
       <c r="U130" s="35"/>
@@ -9385,7 +9678,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="30" t="n">
         <v>167</v>
       </c>
@@ -9393,25 +9686,25 @@
         <v>47</v>
       </c>
       <c r="C131" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D131" s="30" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="E131" s="31" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="F131" s="40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G131" s="40" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="H131" s="40" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="I131" s="41" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="J131" s="34" t="s">
         <v>55</v>
@@ -9437,7 +9730,7 @@
         <v>55</v>
       </c>
       <c r="S131" s="34" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T131" s="34"/>
       <c r="U131" s="35"/>
@@ -9446,7 +9739,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="30" t="n">
         <v>168</v>
       </c>
@@ -9454,25 +9747,25 @@
         <v>47</v>
       </c>
       <c r="C132" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D132" s="30" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="E132" s="31" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="F132" s="40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G132" s="40" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="H132" s="40" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="I132" s="41" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="J132" s="34" t="s">
         <v>55</v>
@@ -9498,7 +9791,7 @@
         <v>55</v>
       </c>
       <c r="S132" s="34" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T132" s="34"/>
       <c r="U132" s="35"/>
@@ -9507,7 +9800,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="30" t="n">
         <v>169</v>
       </c>
@@ -9515,25 +9808,25 @@
         <v>47</v>
       </c>
       <c r="C133" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D133" s="30" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="E133" s="31" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="F133" s="40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G133" s="40" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="H133" s="40" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="I133" s="41" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="J133" s="34" t="s">
         <v>55</v>
@@ -9559,7 +9852,7 @@
         <v>55</v>
       </c>
       <c r="S133" s="34" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T133" s="34"/>
       <c r="U133" s="35"/>
@@ -9579,10 +9872,10 @@
         <v>69</v>
       </c>
       <c r="D134" s="30" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="E134" s="31" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="F134" s="40"/>
       <c r="G134" s="40"/>
@@ -9616,10 +9909,10 @@
         <v>69</v>
       </c>
       <c r="D135" s="30" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="E135" s="31" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="F135" s="40"/>
       <c r="G135" s="40"/>
@@ -9653,10 +9946,10 @@
         <v>69</v>
       </c>
       <c r="D136" s="30" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="E136" s="31" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="F136" s="40"/>
       <c r="G136" s="40"/>
@@ -9690,10 +9983,10 @@
         <v>69</v>
       </c>
       <c r="D137" s="30" t="s">
-        <v>363</v>
+        <v>398</v>
       </c>
       <c r="E137" s="31" t="s">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="F137" s="40"/>
       <c r="G137" s="40"/>
@@ -9727,10 +10020,10 @@
         <v>69</v>
       </c>
       <c r="D138" s="30" t="s">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="E138" s="31" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="F138" s="40"/>
       <c r="G138" s="40"/>
@@ -9764,10 +10057,10 @@
         <v>69</v>
       </c>
       <c r="D139" s="30" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="E139" s="31" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="F139" s="40"/>
       <c r="G139" s="40"/>
@@ -9801,10 +10094,10 @@
         <v>69</v>
       </c>
       <c r="D140" s="30" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="E140" s="31" t="s">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="F140" s="40"/>
       <c r="G140" s="40"/>
@@ -9838,10 +10131,10 @@
         <v>69</v>
       </c>
       <c r="D141" s="30" t="s">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="E141" s="31" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="F141" s="40"/>
       <c r="G141" s="40"/>
@@ -9875,10 +10168,10 @@
         <v>69</v>
       </c>
       <c r="D142" s="30" t="s">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="E142" s="31" t="s">
-        <v>374</v>
+        <v>409</v>
       </c>
       <c r="F142" s="40"/>
       <c r="G142" s="40"/>
@@ -9912,10 +10205,10 @@
         <v>69</v>
       </c>
       <c r="D143" s="30" t="s">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="E143" s="31" t="s">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="F143" s="40"/>
       <c r="G143" s="40"/>
@@ -9949,10 +10242,10 @@
         <v>69</v>
       </c>
       <c r="D144" s="30" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="E144" s="31" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="F144" s="40"/>
       <c r="G144" s="40"/>
@@ -9986,10 +10279,10 @@
         <v>69</v>
       </c>
       <c r="D145" s="30" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="E145" s="31" t="s">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="F145" s="40"/>
       <c r="G145" s="40"/>
@@ -10023,10 +10316,10 @@
         <v>69</v>
       </c>
       <c r="D146" s="30" t="s">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="E146" s="31" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="F146" s="40"/>
       <c r="G146" s="40"/>
@@ -10060,10 +10353,10 @@
         <v>69</v>
       </c>
       <c r="D147" s="30" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="E147" s="31" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="F147" s="40"/>
       <c r="G147" s="40"/>
@@ -10097,10 +10390,10 @@
         <v>69</v>
       </c>
       <c r="D148" s="30" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="E148" s="31" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="F148" s="40"/>
       <c r="G148" s="40"/>
@@ -10134,22 +10427,22 @@
         <v>48</v>
       </c>
       <c r="D149" s="30" t="s">
-        <v>387</v>
+        <v>422</v>
       </c>
       <c r="E149" s="31" t="s">
-        <v>388</v>
+        <v>423</v>
       </c>
       <c r="F149" s="32" t="s">
         <v>51</v>
       </c>
       <c r="G149" s="53" t="s">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="H149" s="53" t="s">
-        <v>390</v>
+        <v>425</v>
       </c>
       <c r="I149" s="53" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="J149" s="34" t="s">
         <v>55</v>
@@ -10183,22 +10476,22 @@
         <v>48</v>
       </c>
       <c r="D150" s="30" t="s">
-        <v>392</v>
+        <v>427</v>
       </c>
       <c r="E150" s="31" t="s">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="F150" s="32" t="s">
         <v>51</v>
       </c>
       <c r="G150" s="53" t="s">
-        <v>394</v>
+        <v>429</v>
       </c>
       <c r="H150" s="53" t="s">
-        <v>395</v>
+        <v>430</v>
       </c>
       <c r="I150" s="53" t="s">
-        <v>396</v>
+        <v>431</v>
       </c>
       <c r="J150" s="34" t="s">
         <v>55</v>
@@ -10229,13 +10522,13 @@
         <v>47</v>
       </c>
       <c r="C151" s="37" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D151" s="30" t="s">
-        <v>398</v>
+        <v>433</v>
       </c>
       <c r="E151" s="31" t="s">
-        <v>399</v>
+        <v>434</v>
       </c>
       <c r="F151" s="40"/>
       <c r="G151" s="40"/>
@@ -10266,13 +10559,13 @@
         <v>47</v>
       </c>
       <c r="C152" s="37" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D152" s="30" t="s">
-        <v>400</v>
+        <v>435</v>
       </c>
       <c r="E152" s="31" t="s">
-        <v>401</v>
+        <v>436</v>
       </c>
       <c r="F152" s="40"/>
       <c r="G152" s="40"/>
@@ -10303,13 +10596,13 @@
         <v>47</v>
       </c>
       <c r="C153" s="37" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D153" s="30" t="s">
-        <v>402</v>
+        <v>437</v>
       </c>
       <c r="E153" s="31" t="s">
-        <v>403</v>
+        <v>438</v>
       </c>
       <c r="F153" s="40"/>
       <c r="G153" s="40"/>
@@ -10340,10 +10633,10 @@
         <v>47</v>
       </c>
       <c r="C154" s="37" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D154" s="30" t="s">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="E154" s="31" t="s">
         <v>59</v>
@@ -10377,13 +10670,13 @@
         <v>47</v>
       </c>
       <c r="C155" s="37" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D155" s="30" t="s">
-        <v>405</v>
+        <v>440</v>
       </c>
       <c r="E155" s="31" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F155" s="40"/>
       <c r="G155" s="40"/>
@@ -10414,13 +10707,13 @@
         <v>47</v>
       </c>
       <c r="C156" s="37" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D156" s="30" t="s">
-        <v>406</v>
+        <v>441</v>
       </c>
       <c r="E156" s="31" t="s">
-        <v>407</v>
+        <v>442</v>
       </c>
       <c r="F156" s="40"/>
       <c r="G156" s="40"/>
@@ -10451,13 +10744,13 @@
         <v>47</v>
       </c>
       <c r="C157" s="37" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D157" s="30" t="s">
-        <v>408</v>
+        <v>443</v>
       </c>
       <c r="E157" s="31" t="s">
-        <v>409</v>
+        <v>444</v>
       </c>
       <c r="F157" s="40"/>
       <c r="G157" s="40"/>
@@ -10488,13 +10781,13 @@
         <v>47</v>
       </c>
       <c r="C158" s="37" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D158" s="30" t="s">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="E158" s="31" t="s">
-        <v>411</v>
+        <v>446</v>
       </c>
       <c r="F158" s="40"/>
       <c r="G158" s="40"/>
@@ -10525,13 +10818,13 @@
         <v>47</v>
       </c>
       <c r="C159" s="37" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D159" s="30" t="s">
-        <v>412</v>
+        <v>447</v>
       </c>
       <c r="E159" s="31" t="s">
-        <v>413</v>
+        <v>448</v>
       </c>
       <c r="F159" s="40"/>
       <c r="G159" s="40"/>
@@ -10562,13 +10855,13 @@
         <v>47</v>
       </c>
       <c r="C160" s="37" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D160" s="30" t="s">
-        <v>414</v>
+        <v>449</v>
       </c>
       <c r="E160" s="31" t="s">
-        <v>415</v>
+        <v>450</v>
       </c>
       <c r="F160" s="40"/>
       <c r="G160" s="40"/>
@@ -10599,13 +10892,13 @@
         <v>47</v>
       </c>
       <c r="C161" s="37" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D161" s="30" t="s">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="E161" s="31" t="s">
-        <v>417</v>
+        <v>452</v>
       </c>
       <c r="F161" s="40"/>
       <c r="G161" s="40"/>
@@ -10636,13 +10929,13 @@
         <v>47</v>
       </c>
       <c r="C162" s="37" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D162" s="30" t="s">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="E162" s="31" t="s">
-        <v>419</v>
+        <v>454</v>
       </c>
       <c r="F162" s="40"/>
       <c r="G162" s="40"/>
@@ -10673,13 +10966,13 @@
         <v>47</v>
       </c>
       <c r="C163" s="37" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D163" s="30" t="s">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="E163" s="31" t="s">
-        <v>421</v>
+        <v>456</v>
       </c>
       <c r="F163" s="40"/>
       <c r="G163" s="40"/>
@@ -10710,13 +11003,13 @@
         <v>47</v>
       </c>
       <c r="C164" s="37" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D164" s="30" t="s">
-        <v>422</v>
+        <v>457</v>
       </c>
       <c r="E164" s="31" t="s">
-        <v>423</v>
+        <v>458</v>
       </c>
       <c r="F164" s="40"/>
       <c r="G164" s="40"/>
@@ -10747,13 +11040,13 @@
         <v>47</v>
       </c>
       <c r="C165" s="37" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D165" s="30" t="s">
-        <v>424</v>
+        <v>459</v>
       </c>
       <c r="E165" s="31" t="s">
-        <v>425</v>
+        <v>460</v>
       </c>
       <c r="F165" s="40"/>
       <c r="G165" s="40"/>
@@ -10784,13 +11077,13 @@
         <v>47</v>
       </c>
       <c r="C166" s="37" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D166" s="30" t="s">
-        <v>426</v>
+        <v>461</v>
       </c>
       <c r="E166" s="31" t="s">
-        <v>427</v>
+        <v>462</v>
       </c>
       <c r="F166" s="40"/>
       <c r="G166" s="40"/>
@@ -10824,10 +11117,10 @@
         <v>69</v>
       </c>
       <c r="D167" s="30" t="s">
-        <v>428</v>
+        <v>463</v>
       </c>
       <c r="E167" s="31" t="s">
-        <v>429</v>
+        <v>464</v>
       </c>
       <c r="F167" s="40"/>
       <c r="G167" s="40"/>
@@ -10861,10 +11154,10 @@
         <v>69</v>
       </c>
       <c r="D168" s="30" t="s">
-        <v>430</v>
+        <v>465</v>
       </c>
       <c r="E168" s="31" t="s">
-        <v>431</v>
+        <v>466</v>
       </c>
       <c r="F168" s="40"/>
       <c r="G168" s="40"/>
@@ -10887,7 +11180,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="30" t="n">
         <v>448</v>
       </c>
@@ -10895,25 +11188,25 @@
         <v>47</v>
       </c>
       <c r="C169" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D169" s="30" t="s">
-        <v>432</v>
+        <v>467</v>
       </c>
       <c r="E169" s="31" t="s">
-        <v>433</v>
+        <v>468</v>
       </c>
       <c r="F169" s="40" t="s">
-        <v>434</v>
+        <v>469</v>
       </c>
       <c r="G169" s="40" t="s">
-        <v>435</v>
+        <v>470</v>
       </c>
       <c r="H169" s="40" t="s">
-        <v>436</v>
+        <v>471</v>
       </c>
       <c r="I169" s="41" t="s">
-        <v>437</v>
+        <v>472</v>
       </c>
       <c r="J169" s="34" t="s">
         <v>55</v>
@@ -10936,7 +11229,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="35.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="35.65" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="30" t="n">
         <v>449</v>
       </c>
@@ -10944,25 +11237,25 @@
         <v>47</v>
       </c>
       <c r="C170" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D170" s="30" t="s">
-        <v>438</v>
+        <v>473</v>
       </c>
       <c r="E170" s="31" t="s">
-        <v>439</v>
+        <v>474</v>
       </c>
       <c r="F170" s="40" t="s">
         <v>51</v>
       </c>
       <c r="G170" s="40" t="s">
-        <v>440</v>
+        <v>475</v>
       </c>
       <c r="H170" s="40" t="s">
-        <v>441</v>
+        <v>476</v>
       </c>
       <c r="I170" s="41" t="s">
-        <v>442</v>
+        <v>477</v>
       </c>
       <c r="J170" s="34" t="s">
         <v>55</v>
@@ -10996,10 +11289,10 @@
         <v>67</v>
       </c>
       <c r="D171" s="30" t="s">
-        <v>443</v>
+        <v>478</v>
       </c>
       <c r="E171" s="31" t="s">
-        <v>444</v>
+        <v>479</v>
       </c>
       <c r="F171" s="40"/>
       <c r="G171" s="40"/>
@@ -11033,10 +11326,10 @@
         <v>67</v>
       </c>
       <c r="D172" s="30" t="s">
-        <v>445</v>
+        <v>480</v>
       </c>
       <c r="E172" s="31" t="s">
-        <v>446</v>
+        <v>481</v>
       </c>
       <c r="F172" s="40"/>
       <c r="G172" s="40"/>
@@ -11070,22 +11363,22 @@
         <v>48</v>
       </c>
       <c r="D173" s="30" t="s">
-        <v>447</v>
+        <v>482</v>
       </c>
       <c r="E173" s="31" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
       <c r="F173" s="32" t="s">
-        <v>434</v>
+        <v>469</v>
       </c>
       <c r="G173" s="40" t="s">
-        <v>449</v>
+        <v>484</v>
       </c>
       <c r="H173" s="40" t="s">
-        <v>450</v>
+        <v>485</v>
       </c>
       <c r="I173" s="41" t="s">
-        <v>451</v>
+        <v>486</v>
       </c>
       <c r="J173" s="34" t="s">
         <v>55</v>
@@ -11116,13 +11409,13 @@
         <v>47</v>
       </c>
       <c r="C174" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D174" s="30" t="s">
-        <v>452</v>
+        <v>487</v>
       </c>
       <c r="E174" s="31" t="s">
-        <v>453</v>
+        <v>488</v>
       </c>
       <c r="F174" s="40"/>
       <c r="G174" s="40"/>
@@ -11153,13 +11446,13 @@
         <v>47</v>
       </c>
       <c r="C175" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D175" s="30" t="s">
-        <v>454</v>
+        <v>489</v>
       </c>
       <c r="E175" s="31" t="s">
-        <v>455</v>
+        <v>490</v>
       </c>
       <c r="F175" s="40"/>
       <c r="G175" s="40"/>
@@ -11190,13 +11483,13 @@
         <v>47</v>
       </c>
       <c r="C176" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D176" s="30" t="s">
-        <v>456</v>
+        <v>491</v>
       </c>
       <c r="E176" s="31" t="s">
-        <v>457</v>
+        <v>492</v>
       </c>
       <c r="F176" s="40"/>
       <c r="G176" s="40"/>
@@ -11227,13 +11520,13 @@
         <v>47</v>
       </c>
       <c r="C177" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D177" s="30" t="s">
-        <v>458</v>
+        <v>493</v>
       </c>
       <c r="E177" s="31" t="s">
-        <v>459</v>
+        <v>494</v>
       </c>
       <c r="F177" s="40"/>
       <c r="G177" s="40"/>
@@ -11264,13 +11557,13 @@
         <v>47</v>
       </c>
       <c r="C178" s="43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D178" s="42" t="s">
-        <v>460</v>
+        <v>495</v>
       </c>
       <c r="E178" s="52" t="s">
-        <v>461</v>
+        <v>496</v>
       </c>
       <c r="F178" s="45"/>
       <c r="G178" s="45"/>
@@ -11301,13 +11594,13 @@
         <v>47</v>
       </c>
       <c r="C179" s="43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D179" s="42" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="E179" s="52" t="s">
-        <v>463</v>
+        <v>498</v>
       </c>
       <c r="F179" s="45"/>
       <c r="G179" s="45"/>
@@ -11338,13 +11631,13 @@
         <v>47</v>
       </c>
       <c r="C180" s="37" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D180" s="30" t="s">
-        <v>464</v>
+        <v>499</v>
       </c>
       <c r="E180" s="31" t="s">
-        <v>465</v>
+        <v>500</v>
       </c>
       <c r="F180" s="40"/>
       <c r="G180" s="40"/>
@@ -11367,7 +11660,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="37.3" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="30" t="n">
         <v>461</v>
       </c>
@@ -11375,25 +11668,25 @@
         <v>47</v>
       </c>
       <c r="C181" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D181" s="30" t="s">
-        <v>466</v>
+        <v>501</v>
       </c>
       <c r="E181" s="31" t="s">
-        <v>467</v>
+        <v>502</v>
       </c>
       <c r="F181" s="40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G181" s="30" t="s">
-        <v>468</v>
+        <v>503</v>
       </c>
       <c r="H181" s="30" t="s">
-        <v>469</v>
+        <v>504</v>
       </c>
       <c r="I181" s="30" t="s">
-        <v>470</v>
+        <v>505</v>
       </c>
       <c r="J181" s="34" t="s">
         <v>55</v>
@@ -11419,7 +11712,7 @@
         <v>55</v>
       </c>
       <c r="S181" s="34" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T181" s="34"/>
       <c r="U181" s="30"/>
@@ -11428,7 +11721,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="30" t="n">
         <v>462</v>
       </c>
@@ -11439,17 +11732,21 @@
         <v>71</v>
       </c>
       <c r="D182" s="30" t="s">
-        <v>471</v>
+        <v>506</v>
       </c>
       <c r="E182" s="31" t="s">
-        <v>472</v>
+        <v>507</v>
       </c>
       <c r="F182" s="30"/>
       <c r="G182" s="30"/>
       <c r="H182" s="30"/>
       <c r="I182" s="30"/>
-      <c r="J182" s="34"/>
-      <c r="K182" s="34"/>
+      <c r="J182" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="K182" s="34" t="s">
+        <v>118</v>
+      </c>
       <c r="L182" s="30"/>
       <c r="M182" s="34"/>
       <c r="N182" s="34"/>
@@ -11473,13 +11770,13 @@
         <v>47</v>
       </c>
       <c r="C183" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D183" s="30" t="s">
-        <v>473</v>
+        <v>508</v>
       </c>
       <c r="E183" s="31" t="s">
-        <v>474</v>
+        <v>509</v>
       </c>
       <c r="F183" s="30"/>
       <c r="G183" s="30"/>
@@ -11510,13 +11807,13 @@
         <v>47</v>
       </c>
       <c r="C184" s="43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D184" s="42" t="s">
-        <v>475</v>
+        <v>510</v>
       </c>
       <c r="E184" s="52" t="s">
-        <v>476</v>
+        <v>511</v>
       </c>
       <c r="F184" s="42"/>
       <c r="G184" s="42"/>
@@ -11547,13 +11844,13 @@
         <v>47</v>
       </c>
       <c r="C185" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D185" s="30" t="s">
-        <v>477</v>
+        <v>512</v>
       </c>
       <c r="E185" s="31" t="s">
-        <v>478</v>
+        <v>513</v>
       </c>
       <c r="F185" s="30"/>
       <c r="G185" s="30"/>
@@ -11576,7 +11873,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="40.6" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="40.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="30" t="n">
         <v>466</v>
       </c>
@@ -11587,22 +11884,22 @@
         <v>48</v>
       </c>
       <c r="D186" s="30" t="s">
-        <v>479</v>
+        <v>514</v>
       </c>
       <c r="E186" s="31" t="s">
-        <v>480</v>
+        <v>515</v>
       </c>
       <c r="F186" s="32" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G186" s="30" t="s">
-        <v>481</v>
+        <v>516</v>
       </c>
       <c r="H186" s="30" t="s">
-        <v>482</v>
+        <v>517</v>
       </c>
       <c r="I186" s="30" t="s">
-        <v>483</v>
+        <v>518</v>
       </c>
       <c r="J186" s="34" t="s">
         <v>55</v>
@@ -11628,7 +11925,7 @@
         <v>55</v>
       </c>
       <c r="S186" s="34" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T186" s="34"/>
       <c r="U186" s="30"/>
@@ -11648,10 +11945,10 @@
         <v>67</v>
       </c>
       <c r="D187" s="30" t="s">
-        <v>484</v>
+        <v>519</v>
       </c>
       <c r="E187" s="31" t="s">
-        <v>485</v>
+        <v>520</v>
       </c>
       <c r="F187" s="30"/>
       <c r="G187" s="30"/>
@@ -11674,7 +11971,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="25.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="25.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="30" t="n">
         <v>468</v>
       </c>
@@ -11682,25 +11979,25 @@
         <v>47</v>
       </c>
       <c r="C188" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D188" s="30" t="s">
-        <v>486</v>
+        <v>521</v>
       </c>
       <c r="E188" s="31" t="s">
-        <v>487</v>
+        <v>522</v>
       </c>
       <c r="F188" s="40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G188" s="30" t="s">
-        <v>488</v>
+        <v>523</v>
       </c>
       <c r="H188" s="30" t="s">
-        <v>489</v>
+        <v>524</v>
       </c>
       <c r="I188" s="30" t="s">
-        <v>490</v>
+        <v>525</v>
       </c>
       <c r="J188" s="34" t="s">
         <v>55</v>
@@ -11726,7 +12023,7 @@
         <v>55</v>
       </c>
       <c r="S188" s="34" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T188" s="34"/>
       <c r="U188" s="30"/>
@@ -11746,10 +12043,10 @@
         <v>69</v>
       </c>
       <c r="D189" s="30" t="s">
-        <v>491</v>
+        <v>526</v>
       </c>
       <c r="E189" s="31" t="s">
-        <v>492</v>
+        <v>527</v>
       </c>
       <c r="F189" s="30"/>
       <c r="G189" s="30"/>
@@ -11780,13 +12077,13 @@
         <v>47</v>
       </c>
       <c r="C190" s="37" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D190" s="30" t="s">
-        <v>493</v>
+        <v>528</v>
       </c>
       <c r="E190" s="31" t="s">
-        <v>494</v>
+        <v>529</v>
       </c>
       <c r="F190" s="30"/>
       <c r="G190" s="30"/>
@@ -11820,15 +12117,23 @@
         <v>71</v>
       </c>
       <c r="D191" s="30" t="s">
-        <v>495</v>
+        <v>530</v>
       </c>
       <c r="E191" s="31" t="s">
-        <v>496</v>
-      </c>
-      <c r="F191" s="40"/>
-      <c r="G191" s="40"/>
-      <c r="H191" s="40"/>
-      <c r="I191" s="41"/>
+        <v>531</v>
+      </c>
+      <c r="F191" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="G191" s="40" t="s">
+        <v>532</v>
+      </c>
+      <c r="H191" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="I191" s="41" t="s">
+        <v>534</v>
+      </c>
       <c r="J191" s="34"/>
       <c r="K191" s="34"/>
       <c r="L191" s="34"/>
@@ -11839,14 +12144,16 @@
       <c r="Q191" s="34"/>
       <c r="R191" s="34"/>
       <c r="S191" s="34"/>
-      <c r="T191" s="34"/>
+      <c r="T191" s="34" t="s">
+        <v>56</v>
+      </c>
       <c r="U191" s="35"/>
       <c r="V191" s="36"/>
       <c r="W191" s="34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="43.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="111.9" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="30" t="n">
         <v>472</v>
       </c>
@@ -11857,15 +12164,23 @@
         <v>71</v>
       </c>
       <c r="D192" s="30" t="s">
-        <v>497</v>
+        <v>535</v>
       </c>
       <c r="E192" s="31" t="s">
-        <v>498</v>
-      </c>
-      <c r="F192" s="40"/>
-      <c r="G192" s="40"/>
-      <c r="H192" s="40"/>
-      <c r="I192" s="41"/>
+        <v>536</v>
+      </c>
+      <c r="F192" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="G192" s="40" t="s">
+        <v>537</v>
+      </c>
+      <c r="H192" s="40" t="s">
+        <v>538</v>
+      </c>
+      <c r="I192" s="41" t="s">
+        <v>539</v>
+      </c>
       <c r="J192" s="34"/>
       <c r="K192" s="34"/>
       <c r="L192" s="34"/>
@@ -11876,7 +12191,9 @@
       <c r="Q192" s="34"/>
       <c r="R192" s="34"/>
       <c r="S192" s="34"/>
-      <c r="T192" s="34"/>
+      <c r="T192" s="34" t="s">
+        <v>56</v>
+      </c>
       <c r="U192" s="35"/>
       <c r="V192" s="36"/>
       <c r="W192" s="34" t="s">
@@ -15993,11 +16310,13 @@
   <autoFilter ref="A9:W192">
     <filterColumn colId="22">
       <filters>
-        <filter val="OK"/>
+        <filter val="KO"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
       <filters>
+        <filter val="LAB"/>
+        <filter val="RAD"/>
         <filter val="RSA"/>
       </filters>
     </filterColumn>
@@ -16012,7 +16331,7 @@
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10 M10:N192 P10:R192 J12:J18 J20:J35 J37:J192" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10 M10:N192 P10:R192 J12:J13 J15:J18 J20:J21 J23:J35 J37:J192" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -16024,7 +16343,7 @@
       <formula1>'LISTA VALORI'!$A$2:$A$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J11 J19 J36" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J11 J14 J19 J22 J36" type="list">
       <formula1>Summary!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -16056,42 +16375,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>499</v>
+        <v>540</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>500</v>
+        <v>541</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>501</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>502</v>
+        <v>543</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>503</v>
+        <v>544</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>504</v>
+        <v>545</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>505</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -16131,22 +16450,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="59" t="s">
-        <v>506</v>
+        <v>547</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>507</v>
+        <v>548</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>508</v>
+        <v>549</v>
       </c>
       <c r="F1" s="60" t="s">
-        <v>509</v>
+        <v>550</v>
       </c>
       <c r="G1" s="61" t="s">
-        <v>510</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16154,13 +16473,13 @@
         <v>48</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>511</v>
+        <v>552</v>
       </c>
       <c r="C2" s="63" t="s">
-        <v>512</v>
+        <v>553</v>
       </c>
       <c r="D2" s="64" t="s">
-        <v>513</v>
+        <v>554</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16168,13 +16487,13 @@
         <v>67</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>511</v>
+        <v>552</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>514</v>
+        <v>555</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>515</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16182,69 +16501,69 @@
         <v>71</v>
       </c>
       <c r="B4" s="62" t="s">
-        <v>511</v>
+        <v>552</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>516</v>
+        <v>557</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>517</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="62" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>511</v>
+        <v>552</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>518</v>
+        <v>559</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>519</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="62" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B6" s="62" t="s">
-        <v>511</v>
+        <v>552</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>520</v>
+        <v>561</v>
       </c>
       <c r="D6" s="65" t="s">
-        <v>521</v>
+        <v>562</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="62" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>511</v>
+        <v>552</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>522</v>
+        <v>563</v>
       </c>
       <c r="D7" s="65" t="s">
-        <v>523</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="62" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>511</v>
+        <v>552</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>524</v>
+        <v>565</v>
       </c>
       <c r="D8" s="65" t="s">
-        <v>525</v>
+        <v>566</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16252,41 +16571,41 @@
         <v>69</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>511</v>
+        <v>552</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>526</v>
+        <v>567</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>527</v>
+        <v>568</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="62" t="s">
-        <v>528</v>
+        <v>569</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>511</v>
+        <v>552</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>529</v>
+        <v>570</v>
       </c>
       <c r="D10" s="64" t="s">
-        <v>530</v>
+        <v>571</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="62" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>511</v>
+        <v>552</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>531</v>
+        <v>572</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>532</v>
+        <v>573</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17291,7 +17610,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="68" t="s">
-        <v>533</v>
+        <v>574</v>
       </c>
       <c r="B3" s="68" t="s">
         <v>63</v>

--- a/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
@@ -31,7 +31,7 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>Autore sconosciuto</author>
+    <author>Unknown Author</author>
   </authors>
   <commentList>
     <comment ref="E9" authorId="0">
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="534">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -360,15 +360,6 @@
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_RAD_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29-09-2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-09-29T21:27:36.121+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8cd00f1d39552a4f3264642f5a2a18ec</t>
   </si>
   <si>
     <t xml:space="preserve">RSA</t>
@@ -482,12 +473,6 @@
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_RAD_KO</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-09-29T21:18:49.323+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">af9b48517843529de30025889ba2f687</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
   </si>
   <si>
@@ -794,18 +779,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">12-07-2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-07-12T15:04:21.357+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31dc50e525227b2251b61fb6cc681021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.af1779c13b0111f295f0e564b152837375b4dd8cf5584df252a505b6563333d1.4cdf0b00d4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT12_KO</t>
   </si>
   <si>
@@ -813,15 +786,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-09-29T22:08:59.033+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">412797e18694664aaf2411671b3944dd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.1fdc76143ba1420c660eac64a9212b4d55587a2bde9ef562142f4b8b5f318e07.3c7550f2be^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT13_KO</t>
   </si>
   <si>
@@ -850,15 +814,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-07-12T15:04:22.165+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d0877d6d2f7d7a7d433be76f57d229ef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.af1779c13b0111f295f0e564b152837375b4dd8cf5584df252a505b6563333d1.b34297146b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT17_KO</t>
   </si>
   <si>
@@ -866,15 +821,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-07-12T15:04:23.175+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4f9b1f85ab7c01fc7b3848beddf91cdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.af1779c13b0111f295f0e564b152837375b4dd8cf5584df252a505b6563333d1.6b8eb93a71^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT18_KO</t>
   </si>
   <si>
@@ -882,15 +828,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-07-12T15:04:23.850+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d8b12d3cc5f3132cd803fcfea8cbdf6f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.af1779c13b0111f295f0e564b152837375b4dd8cf5584df252a505b6563333d1.897b9cf648^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT19_KO</t>
   </si>
   <si>
@@ -898,15 +835,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-07-12T15:04:24.470+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c9c720e7f5b6f69ff03c36cbbbef225b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.af1779c13b0111f295f0e564b152837375b4dd8cf5584df252a505b6563333d1.01cb1c92b3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT20_KO</t>
   </si>
   <si>
@@ -914,15 +842,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-07-12T15:04:25.131+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91290ac0cd156ae3af891ffce7a5db01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.af1779c13b0111f295f0e564b152837375b4dd8cf5584df252a505b6563333d1.a6729db3b5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT21_KO</t>
   </si>
   <si>
@@ -930,15 +849,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-07-12T15:04:25.813+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7012f4634f96fb041f25b6cc19446775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.af1779c13b0111f295f0e564b152837375b4dd8cf5584df252a505b6563333d1.d11d876fed^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT22_KO</t>
   </si>
   <si>
@@ -946,26 +856,11 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-07-12T15:04:26.494+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ff83dad4ad8cdccedd74377239d6e107</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT23_KO</t>
   </si>
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-07-12T15:04:27.140+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cbbfbc7d0500d75ebaa500f7b452098f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.af1779c13b0111f295f0e564b152837375b4dd8cf5584df252a505b6563333d1.b5d175e543^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_CERT_VAC_CT6_KO</t>
@@ -2000,29 +1895,11 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-07-12T15:04:19.676+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9834aa02cb03a2ca5999d66622ced84a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.1fdc76143ba1420c660eac64a9212b4d55587a2bde9ef562142f4b8b5f318e07.b028a15813^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT26</t>
   </si>
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 26" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-07-12T15:04:20.687+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">186db661dc3d42f06a7afca148df8f6c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.af1779c13b0111f295f0e564b152837375b4dd8cf5584df252a505b6563333d1.634a9a021d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Razionale di Applicabilità</t>
@@ -4257,11 +4134,11 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A54" activeCellId="0" sqref="A54"/>
-      <selection pane="bottomRight" activeCell="I59" activeCellId="0" sqref="I59"/>
+      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="I169" activeCellId="0" sqref="I169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4270,11 +4147,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="85.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="33.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="61.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="39.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="103.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="47.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="88.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="215.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="27.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="11" style="1" width="36.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="45.29"/>
@@ -4600,7 +4477,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="43.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="43.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="30" t="n">
         <v>28</v>
       </c>
@@ -4735,7 +4612,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="140.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="140.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="30" t="n">
         <v>31</v>
       </c>
@@ -4751,44 +4628,20 @@
       <c r="E14" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="I14" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" s="39" t="s">
-        <v>55</v>
-      </c>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="34"/>
       <c r="K14" s="34"/>
       <c r="L14" s="34"/>
-      <c r="M14" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="N14" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O14" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="P14" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q14" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="R14" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="S14" s="34" t="s">
-        <v>65</v>
-      </c>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
       <c r="T14" s="34"/>
       <c r="U14" s="35"/>
       <c r="V14" s="36"/>
@@ -4796,7 +4649,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="30" t="n">
         <v>32</v>
       </c>
@@ -4804,22 +4657,22 @@
         <v>47</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E15" s="31" t="s">
         <v>59</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G15" s="40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I15" s="41" t="s">
         <v>62</v>
@@ -4848,7 +4701,7 @@
         <v>55</v>
       </c>
       <c r="S15" s="34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="T15" s="34"/>
       <c r="U15" s="35"/>
@@ -4865,13 +4718,13 @@
         <v>47</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F16" s="45"/>
       <c r="G16" s="45"/>
@@ -4902,10 +4755,10 @@
         <v>47</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E17" s="31" t="s">
         <v>59</v>
@@ -4939,10 +4792,10 @@
         <v>47</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E18" s="31" t="s">
         <v>59</v>
@@ -4968,7 +4821,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="30" t="n">
         <v>36</v>
       </c>
@@ -4979,19 +4832,19 @@
         <v>48</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F19" s="32" t="n">
         <v>45817</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I19" s="33" t="s">
         <v>62</v>
@@ -5020,7 +4873,7 @@
         <v>55</v>
       </c>
       <c r="S19" s="34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="T19" s="34"/>
       <c r="U19" s="35"/>
@@ -5040,10 +4893,10 @@
         <v>67</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
@@ -5077,10 +4930,10 @@
         <v>69</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
@@ -5103,7 +4956,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="30" t="n">
         <v>39</v>
       </c>
@@ -5114,49 +4967,25 @@
         <v>71</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="H22" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="I22" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="J22" s="39" t="s">
-        <v>55</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="34"/>
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
-      <c r="M22" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="N22" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O22" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="P22" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q22" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="R22" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="S22" s="34" t="s">
-        <v>81</v>
-      </c>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
       <c r="T22" s="34"/>
       <c r="U22" s="35"/>
       <c r="V22" s="36"/>
@@ -5164,7 +4993,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="30" t="n">
         <v>40</v>
       </c>
@@ -5172,22 +5001,22 @@
         <v>47</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F23" s="40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G23" s="40" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H23" s="40" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I23" s="41" t="s">
         <v>62</v>
@@ -5216,7 +5045,7 @@
         <v>55</v>
       </c>
       <c r="S23" s="34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="T23" s="34"/>
       <c r="U23" s="35"/>
@@ -5233,13 +5062,13 @@
         <v>47</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E24" s="44" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F24" s="45"/>
       <c r="G24" s="45"/>
@@ -5270,13 +5099,13 @@
         <v>47</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
@@ -5307,13 +5136,13 @@
         <v>47</v>
       </c>
       <c r="C26" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="31" t="s">
         <v>87</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>90</v>
       </c>
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
@@ -5336,7 +5165,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="263.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="263.65" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="30" t="n">
         <v>44</v>
       </c>
@@ -5347,10 +5176,10 @@
         <v>48</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
@@ -5368,7 +5197,7 @@
         <v>55</v>
       </c>
       <c r="O27" s="34" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="P27" s="34" t="s">
         <v>55</v>
@@ -5380,7 +5209,7 @@
         <v>55</v>
       </c>
       <c r="S27" s="34" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="T27" s="34"/>
       <c r="U27" s="35"/>
@@ -5400,10 +5229,10 @@
         <v>67</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
@@ -5439,10 +5268,10 @@
         <v>69</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
@@ -5467,7 +5296,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="30" t="n">
         <v>47</v>
       </c>
@@ -5478,49 +5307,35 @@
         <v>71</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F30" s="40"/>
       <c r="G30" s="40"/>
       <c r="H30" s="40"/>
       <c r="I30" s="41"/>
-      <c r="J30" s="34" t="s">
-        <v>55</v>
-      </c>
+      <c r="J30" s="34"/>
       <c r="K30" s="34"/>
       <c r="L30" s="34"/>
-      <c r="M30" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="N30" s="34" t="s">
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="O30" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="P30" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q30" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="R30" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="S30" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="T30" s="34"/>
-      <c r="U30" s="35"/>
       <c r="V30" s="36"/>
       <c r="W30" s="34" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="30" t="n">
         <v>48</v>
       </c>
@@ -5528,13 +5343,13 @@
         <v>47</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F31" s="40"/>
       <c r="G31" s="40"/>
@@ -5552,7 +5367,7 @@
         <v>55</v>
       </c>
       <c r="O31" s="34" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="P31" s="34" t="s">
         <v>55</v>
@@ -5564,7 +5379,7 @@
         <v>55</v>
       </c>
       <c r="S31" s="34" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="T31" s="34"/>
       <c r="U31" s="35"/>
@@ -5581,13 +5396,13 @@
         <v>47</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F32" s="40"/>
       <c r="G32" s="40"/>
@@ -5620,13 +5435,13 @@
         <v>47</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
@@ -5659,13 +5474,13 @@
         <v>47</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
@@ -5690,7 +5505,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="30" t="n">
         <v>53</v>
       </c>
@@ -5701,10 +5516,10 @@
         <v>48</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
@@ -5714,7 +5529,7 @@
         <v>63</v>
       </c>
       <c r="K35" s="34" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L35" s="39"/>
       <c r="M35" s="34"/>
@@ -5731,7 +5546,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="30" t="n">
         <v>55</v>
       </c>
@@ -5742,10 +5557,10 @@
         <v>48</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F36" s="32"/>
       <c r="G36" s="51"/>
@@ -5755,7 +5570,7 @@
         <v>63</v>
       </c>
       <c r="K36" s="34" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L36" s="34"/>
       <c r="M36" s="34"/>
@@ -5772,7 +5587,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="30" t="n">
         <v>56</v>
       </c>
@@ -5783,10 +5598,10 @@
         <v>48</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F37" s="40"/>
       <c r="G37" s="40"/>
@@ -5796,7 +5611,7 @@
         <v>63</v>
       </c>
       <c r="K37" s="34" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L37" s="34"/>
       <c r="M37" s="34"/>
@@ -5813,7 +5628,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="30" t="n">
         <v>57</v>
       </c>
@@ -5824,10 +5639,10 @@
         <v>48</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F38" s="40"/>
       <c r="G38" s="40"/>
@@ -5837,7 +5652,7 @@
         <v>63</v>
       </c>
       <c r="K38" s="34" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L38" s="39"/>
       <c r="M38" s="34"/>
@@ -5854,7 +5669,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="30" t="n">
         <v>58</v>
       </c>
@@ -5865,10 +5680,10 @@
         <v>48</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F39" s="40"/>
       <c r="G39" s="40"/>
@@ -5878,7 +5693,7 @@
         <v>63</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L39" s="39"/>
       <c r="M39" s="34"/>
@@ -5895,7 +5710,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="30" t="n">
         <v>59</v>
       </c>
@@ -5906,10 +5721,10 @@
         <v>48</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F40" s="40"/>
       <c r="G40" s="40"/>
@@ -5919,7 +5734,7 @@
         <v>63</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L40" s="39"/>
       <c r="M40" s="34"/>
@@ -5936,7 +5751,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="30" t="n">
         <v>60</v>
       </c>
@@ -5947,22 +5762,22 @@
         <v>48</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F41" s="32" t="n">
         <v>45362</v>
       </c>
       <c r="G41" s="51" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H41" s="33" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I41" s="33" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="J41" s="34" t="s">
         <v>55</v>
@@ -5988,7 +5803,7 @@
         <v>55</v>
       </c>
       <c r="S41" s="34" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="T41" s="34"/>
       <c r="U41" s="35"/>
@@ -5997,7 +5812,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="30" t="n">
         <v>61</v>
       </c>
@@ -6008,22 +5823,22 @@
         <v>48</v>
       </c>
       <c r="D42" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G42" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="H42" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="I42" s="41" t="s">
         <v>135</v>
-      </c>
-      <c r="E42" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="F42" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="G42" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="H42" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="I42" s="41" t="s">
-        <v>140</v>
       </c>
       <c r="J42" s="34" t="s">
         <v>55</v>
@@ -6049,7 +5864,7 @@
         <v>55</v>
       </c>
       <c r="S42" s="34" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="T42" s="34"/>
       <c r="U42" s="35"/>
@@ -6058,7 +5873,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="30" t="n">
         <v>62</v>
       </c>
@@ -6069,22 +5884,22 @@
         <v>48</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G43" s="51" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H43" s="33" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="I43" s="33" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J43" s="34" t="s">
         <v>55</v>
@@ -6110,7 +5925,7 @@
         <v>55</v>
       </c>
       <c r="S43" s="34" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="T43" s="34"/>
       <c r="U43" s="35"/>
@@ -6130,10 +5945,10 @@
         <v>67</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F44" s="40"/>
       <c r="G44" s="40"/>
@@ -6167,10 +5982,10 @@
         <v>67</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F45" s="40"/>
       <c r="G45" s="40"/>
@@ -6204,10 +6019,10 @@
         <v>67</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F46" s="40"/>
       <c r="G46" s="40"/>
@@ -6241,10 +6056,10 @@
         <v>67</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F47" s="40"/>
       <c r="G47" s="40"/>
@@ -6278,10 +6093,10 @@
         <v>67</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F48" s="40"/>
       <c r="G48" s="40"/>
@@ -6315,10 +6130,10 @@
         <v>67</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F49" s="40"/>
       <c r="G49" s="40"/>
@@ -6352,10 +6167,10 @@
         <v>67</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F50" s="40"/>
       <c r="G50" s="40"/>
@@ -6389,10 +6204,10 @@
         <v>67</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F51" s="40"/>
       <c r="G51" s="40"/>
@@ -6426,10 +6241,10 @@
         <v>67</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F52" s="40"/>
       <c r="G52" s="40"/>
@@ -6463,10 +6278,10 @@
         <v>67</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F53" s="40"/>
       <c r="G53" s="40"/>
@@ -6489,7 +6304,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="30" t="n">
         <v>76</v>
       </c>
@@ -6500,21 +6315,17 @@
         <v>71</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F54" s="40"/>
       <c r="G54" s="40"/>
       <c r="H54" s="40"/>
       <c r="I54" s="41"/>
-      <c r="J54" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="K54" s="34" t="s">
-        <v>118</v>
-      </c>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
       <c r="L54" s="34"/>
       <c r="M54" s="34"/>
       <c r="N54" s="34"/>
@@ -6530,7 +6341,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="30" t="n">
         <v>78</v>
       </c>
@@ -6541,21 +6352,17 @@
         <v>71</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F55" s="40"/>
       <c r="G55" s="40"/>
       <c r="H55" s="40"/>
       <c r="I55" s="41"/>
-      <c r="J55" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="K55" s="34" t="s">
-        <v>118</v>
-      </c>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
       <c r="L55" s="34"/>
       <c r="M55" s="34"/>
       <c r="N55" s="34"/>
@@ -6571,7 +6378,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="30" t="n">
         <v>79</v>
       </c>
@@ -6582,21 +6389,17 @@
         <v>71</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F56" s="40"/>
       <c r="G56" s="40"/>
       <c r="H56" s="40"/>
       <c r="I56" s="41"/>
-      <c r="J56" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="K56" s="34" t="s">
-        <v>118</v>
-      </c>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
       <c r="L56" s="34"/>
       <c r="M56" s="34"/>
       <c r="N56" s="34"/>
@@ -6612,7 +6415,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="30" t="n">
         <v>80</v>
       </c>
@@ -6623,21 +6426,17 @@
         <v>71</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F57" s="40"/>
       <c r="G57" s="40"/>
       <c r="H57" s="40"/>
       <c r="I57" s="41"/>
-      <c r="J57" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="K57" s="34" t="s">
-        <v>118</v>
-      </c>
+      <c r="J57" s="34"/>
+      <c r="K57" s="34"/>
       <c r="L57" s="34"/>
       <c r="M57" s="34"/>
       <c r="N57" s="34"/>
@@ -6653,7 +6452,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="30" t="n">
         <v>81</v>
       </c>
@@ -6664,23 +6463,15 @@
         <v>71</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="F58" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="G58" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="H58" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="I58" s="41" t="s">
-        <v>179</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="41"/>
       <c r="J58" s="34"/>
       <c r="K58" s="34"/>
       <c r="L58" s="34"/>
@@ -6698,7 +6489,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="30" t="n">
         <v>82</v>
       </c>
@@ -6709,23 +6500,15 @@
         <v>71</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="F59" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="G59" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="H59" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="I59" s="41" t="s">
-        <v>184</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="41"/>
       <c r="J59" s="34"/>
       <c r="K59" s="34"/>
       <c r="L59" s="34"/>
@@ -6743,7 +6526,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="30" t="n">
         <v>83</v>
       </c>
@@ -6754,21 +6537,17 @@
         <v>71</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F60" s="40"/>
       <c r="G60" s="40"/>
       <c r="H60" s="40"/>
       <c r="I60" s="41"/>
-      <c r="J60" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="K60" s="34" t="s">
-        <v>118</v>
-      </c>
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
       <c r="L60" s="34"/>
       <c r="M60" s="34"/>
       <c r="N60" s="34"/>
@@ -6784,7 +6563,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="30" t="n">
         <v>84</v>
       </c>
@@ -6795,21 +6574,17 @@
         <v>71</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="F61" s="40"/>
       <c r="G61" s="40"/>
       <c r="H61" s="40"/>
       <c r="I61" s="41"/>
-      <c r="J61" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="K61" s="34" t="s">
-        <v>118</v>
-      </c>
+      <c r="J61" s="34"/>
+      <c r="K61" s="34"/>
       <c r="L61" s="34"/>
       <c r="M61" s="34"/>
       <c r="N61" s="34"/>
@@ -6825,7 +6600,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="30" t="n">
         <v>85</v>
       </c>
@@ -6836,21 +6611,17 @@
         <v>71</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F62" s="40"/>
       <c r="G62" s="40"/>
       <c r="H62" s="40"/>
       <c r="I62" s="41"/>
-      <c r="J62" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="K62" s="34" t="s">
-        <v>118</v>
-      </c>
+      <c r="J62" s="34"/>
+      <c r="K62" s="34"/>
       <c r="L62" s="34"/>
       <c r="M62" s="34"/>
       <c r="N62" s="34"/>
@@ -6866,7 +6637,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="30" t="n">
         <v>86</v>
       </c>
@@ -6877,23 +6648,15 @@
         <v>71</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="F63" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="G63" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="H63" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="I63" s="41" t="s">
-        <v>195</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="41"/>
       <c r="J63" s="34"/>
       <c r="K63" s="34"/>
       <c r="L63" s="34"/>
@@ -6911,7 +6674,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="30" t="n">
         <v>87</v>
       </c>
@@ -6922,23 +6685,15 @@
         <v>71</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="F64" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="G64" s="40" t="s">
-        <v>198</v>
-      </c>
-      <c r="H64" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="I64" s="41" t="s">
-        <v>200</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="40"/>
+      <c r="I64" s="41"/>
       <c r="J64" s="34"/>
       <c r="K64" s="34"/>
       <c r="L64" s="34"/>
@@ -6956,7 +6711,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="30" t="n">
         <v>88</v>
       </c>
@@ -6967,23 +6722,15 @@
         <v>71</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="F65" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="G65" s="40" t="s">
-        <v>203</v>
-      </c>
-      <c r="H65" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="I65" s="41" t="s">
-        <v>205</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="41"/>
       <c r="J65" s="34"/>
       <c r="K65" s="34"/>
       <c r="L65" s="34"/>
@@ -7001,7 +6748,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="30" t="n">
         <v>89</v>
       </c>
@@ -7012,23 +6759,15 @@
         <v>71</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="F66" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="G66" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="H66" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="I66" s="41" t="s">
-        <v>210</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="F66" s="40"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="41"/>
       <c r="J66" s="34"/>
       <c r="K66" s="34"/>
       <c r="L66" s="34"/>
@@ -7046,7 +6785,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="30" t="n">
         <v>90</v>
       </c>
@@ -7057,23 +6796,15 @@
         <v>71</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="F67" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="G67" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="H67" s="40" t="s">
-        <v>214</v>
-      </c>
-      <c r="I67" s="41" t="s">
-        <v>215</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="F67" s="40"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="40"/>
+      <c r="I67" s="41"/>
       <c r="J67" s="34"/>
       <c r="K67" s="34"/>
       <c r="L67" s="34"/>
@@ -7091,7 +6822,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="30" t="n">
         <v>91</v>
       </c>
@@ -7102,23 +6833,15 @@
         <v>71</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="F68" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="G68" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="H68" s="40" t="s">
-        <v>219</v>
-      </c>
-      <c r="I68" s="41" t="s">
-        <v>220</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="41"/>
       <c r="J68" s="34"/>
       <c r="K68" s="34"/>
       <c r="L68" s="34"/>
@@ -7136,7 +6859,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="30" t="n">
         <v>92</v>
       </c>
@@ -7147,23 +6870,15 @@
         <v>71</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="F69" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="G69" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="H69" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="I69" s="41" t="s">
-        <v>220</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F69" s="40"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="40"/>
+      <c r="I69" s="41"/>
       <c r="J69" s="34"/>
       <c r="K69" s="34"/>
       <c r="L69" s="34"/>
@@ -7181,7 +6896,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="30" t="n">
         <v>93</v>
       </c>
@@ -7192,23 +6907,15 @@
         <v>71</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="F70" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="G70" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="H70" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="I70" s="41" t="s">
-        <v>229</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="F70" s="40"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="41"/>
       <c r="J70" s="34"/>
       <c r="K70" s="34"/>
       <c r="L70" s="34"/>
@@ -7234,13 +6941,13 @@
         <v>47</v>
       </c>
       <c r="C71" s="43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D71" s="42" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="E71" s="52" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="F71" s="45"/>
       <c r="G71" s="45"/>
@@ -7271,13 +6978,13 @@
         <v>47</v>
       </c>
       <c r="C72" s="43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D72" s="42" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="E72" s="52" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="F72" s="45"/>
       <c r="G72" s="45"/>
@@ -7308,13 +7015,13 @@
         <v>47</v>
       </c>
       <c r="C73" s="43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D73" s="42" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="E73" s="52" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="F73" s="45"/>
       <c r="G73" s="45"/>
@@ -7345,13 +7052,13 @@
         <v>47</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D74" s="42" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="E74" s="52" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="F74" s="45"/>
       <c r="G74" s="45"/>
@@ -7382,13 +7089,13 @@
         <v>47</v>
       </c>
       <c r="C75" s="43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D75" s="42" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="E75" s="52" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="F75" s="45"/>
       <c r="G75" s="45"/>
@@ -7419,13 +7126,13 @@
         <v>47</v>
       </c>
       <c r="C76" s="43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D76" s="42" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="E76" s="52" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="F76" s="45"/>
       <c r="G76" s="45"/>
@@ -7456,13 +7163,13 @@
         <v>47</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D77" s="42" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="E77" s="52" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="F77" s="45"/>
       <c r="G77" s="45"/>
@@ -7493,13 +7200,13 @@
         <v>47</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D78" s="42" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="E78" s="52" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="F78" s="45"/>
       <c r="G78" s="45"/>
@@ -7530,13 +7237,13 @@
         <v>47</v>
       </c>
       <c r="C79" s="43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D79" s="42" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="E79" s="52" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="F79" s="45"/>
       <c r="G79" s="45"/>
@@ -7567,13 +7274,13 @@
         <v>47</v>
       </c>
       <c r="C80" s="43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D80" s="42" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="E80" s="52" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="F80" s="45"/>
       <c r="G80" s="45"/>
@@ -7604,13 +7311,13 @@
         <v>47</v>
       </c>
       <c r="C81" s="43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D81" s="42" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="E81" s="52" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="F81" s="45"/>
       <c r="G81" s="45"/>
@@ -7641,13 +7348,13 @@
         <v>47</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="F82" s="40"/>
       <c r="G82" s="40"/>
@@ -7678,13 +7385,13 @@
         <v>47</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="F83" s="40"/>
       <c r="G83" s="40"/>
@@ -7715,13 +7422,13 @@
         <v>47</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="F84" s="40"/>
       <c r="G84" s="40"/>
@@ -7752,13 +7459,13 @@
         <v>47</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="F85" s="40"/>
       <c r="G85" s="40"/>
@@ -7789,13 +7496,13 @@
         <v>47</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="E86" s="31" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="F86" s="40"/>
       <c r="G86" s="40"/>
@@ -7826,13 +7533,13 @@
         <v>47</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="F87" s="40"/>
       <c r="G87" s="40"/>
@@ -7863,13 +7570,13 @@
         <v>47</v>
       </c>
       <c r="C88" s="37" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D88" s="30" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="F88" s="40"/>
       <c r="G88" s="40"/>
@@ -7900,13 +7607,13 @@
         <v>47</v>
       </c>
       <c r="C89" s="37" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D89" s="30" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="F89" s="40"/>
       <c r="G89" s="40"/>
@@ -7937,13 +7644,13 @@
         <v>47</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D90" s="30" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="F90" s="40"/>
       <c r="G90" s="40"/>
@@ -7974,13 +7681,13 @@
         <v>47</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="F91" s="40"/>
       <c r="G91" s="40"/>
@@ -8011,13 +7718,13 @@
         <v>47</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D92" s="30" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="E92" s="31" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="F92" s="40"/>
       <c r="G92" s="40"/>
@@ -8048,13 +7755,13 @@
         <v>47</v>
       </c>
       <c r="C93" s="37" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D93" s="30" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="E93" s="31" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="F93" s="40"/>
       <c r="G93" s="40"/>
@@ -8085,13 +7792,13 @@
         <v>47</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="F94" s="40"/>
       <c r="G94" s="40"/>
@@ -8122,13 +7829,13 @@
         <v>47</v>
       </c>
       <c r="C95" s="37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D95" s="30" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="E95" s="31" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="F95" s="40"/>
       <c r="G95" s="40"/>
@@ -8159,13 +7866,13 @@
         <v>47</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D96" s="30" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="E96" s="31" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="F96" s="40"/>
       <c r="G96" s="40"/>
@@ -8196,13 +7903,13 @@
         <v>47</v>
       </c>
       <c r="C97" s="37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D97" s="30" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="F97" s="40"/>
       <c r="G97" s="40"/>
@@ -8233,13 +7940,13 @@
         <v>47</v>
       </c>
       <c r="C98" s="37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="E98" s="31" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="F98" s="40"/>
       <c r="G98" s="40"/>
@@ -8270,13 +7977,13 @@
         <v>47</v>
       </c>
       <c r="C99" s="37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="E99" s="31" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="F99" s="40"/>
       <c r="G99" s="40"/>
@@ -8307,13 +8014,13 @@
         <v>47</v>
       </c>
       <c r="C100" s="37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="E100" s="31" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="F100" s="40"/>
       <c r="G100" s="40"/>
@@ -8344,13 +8051,13 @@
         <v>47</v>
       </c>
       <c r="C101" s="37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="E101" s="31" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="F101" s="40"/>
       <c r="G101" s="40"/>
@@ -8381,13 +8088,13 @@
         <v>47</v>
       </c>
       <c r="C102" s="37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="E102" s="31" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="F102" s="40"/>
       <c r="G102" s="40"/>
@@ -8418,13 +8125,13 @@
         <v>47</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="E103" s="31" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="F103" s="40"/>
       <c r="G103" s="40"/>
@@ -8455,13 +8162,13 @@
         <v>47</v>
       </c>
       <c r="C104" s="37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="E104" s="31" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="F104" s="40"/>
       <c r="G104" s="40"/>
@@ -8492,13 +8199,13 @@
         <v>47</v>
       </c>
       <c r="C105" s="37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D105" s="30" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="E105" s="31" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="F105" s="40"/>
       <c r="G105" s="40"/>
@@ -8529,13 +8236,13 @@
         <v>47</v>
       </c>
       <c r="C106" s="37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D106" s="30" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="E106" s="31" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="F106" s="40"/>
       <c r="G106" s="40"/>
@@ -8566,13 +8273,13 @@
         <v>47</v>
       </c>
       <c r="C107" s="37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D107" s="30" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="F107" s="40"/>
       <c r="G107" s="40"/>
@@ -8603,13 +8310,13 @@
         <v>47</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D108" s="30" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="F108" s="40"/>
       <c r="G108" s="40"/>
@@ -8640,13 +8347,13 @@
         <v>47</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D109" s="30" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="E109" s="31" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="F109" s="40"/>
       <c r="G109" s="40"/>
@@ -8677,13 +8384,13 @@
         <v>47</v>
       </c>
       <c r="C110" s="37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D110" s="30" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="E110" s="31" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="F110" s="40"/>
       <c r="G110" s="40"/>
@@ -8714,13 +8421,13 @@
         <v>47</v>
       </c>
       <c r="C111" s="37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D111" s="30" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="E111" s="31" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="F111" s="40"/>
       <c r="G111" s="40"/>
@@ -8751,13 +8458,13 @@
         <v>47</v>
       </c>
       <c r="C112" s="37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D112" s="30" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="E112" s="31" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="F112" s="40"/>
       <c r="G112" s="40"/>
@@ -8788,13 +8495,13 @@
         <v>47</v>
       </c>
       <c r="C113" s="37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D113" s="30" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="E113" s="31" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="F113" s="40"/>
       <c r="G113" s="40"/>
@@ -8825,13 +8532,13 @@
         <v>47</v>
       </c>
       <c r="C114" s="37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D114" s="30" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="E114" s="31" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="F114" s="40"/>
       <c r="G114" s="40"/>
@@ -8862,13 +8569,13 @@
         <v>47</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D115" s="30" t="s">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="E115" s="31" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="F115" s="40"/>
       <c r="G115" s="40"/>
@@ -8899,13 +8606,13 @@
         <v>47</v>
       </c>
       <c r="C116" s="37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D116" s="30" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="E116" s="31" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="F116" s="40"/>
       <c r="G116" s="40"/>
@@ -8936,13 +8643,13 @@
         <v>47</v>
       </c>
       <c r="C117" s="37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D117" s="30" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="E117" s="31" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="F117" s="40"/>
       <c r="G117" s="40"/>
@@ -8965,7 +8672,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="30" t="n">
         <v>152</v>
       </c>
@@ -8973,13 +8680,13 @@
         <v>47</v>
       </c>
       <c r="C118" s="37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D118" s="30" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="E118" s="31" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="F118" s="40"/>
       <c r="G118" s="40"/>
@@ -8989,7 +8696,7 @@
         <v>63</v>
       </c>
       <c r="K118" s="34" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L118" s="34"/>
       <c r="M118" s="34"/>
@@ -9006,7 +8713,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="30" t="n">
         <v>154</v>
       </c>
@@ -9014,13 +8721,13 @@
         <v>47</v>
       </c>
       <c r="C119" s="37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D119" s="30" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="E119" s="31" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="F119" s="40"/>
       <c r="G119" s="40"/>
@@ -9030,7 +8737,7 @@
         <v>63</v>
       </c>
       <c r="K119" s="34" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L119" s="34"/>
       <c r="M119" s="34"/>
@@ -9047,7 +8754,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="30" t="n">
         <v>155</v>
       </c>
@@ -9055,13 +8762,13 @@
         <v>47</v>
       </c>
       <c r="C120" s="37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D120" s="30" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="E120" s="31" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="F120" s="40"/>
       <c r="G120" s="40"/>
@@ -9071,7 +8778,7 @@
         <v>63</v>
       </c>
       <c r="K120" s="34" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L120" s="34"/>
       <c r="M120" s="34"/>
@@ -9088,7 +8795,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="30" t="n">
         <v>156</v>
       </c>
@@ -9096,13 +8803,13 @@
         <v>47</v>
       </c>
       <c r="C121" s="37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D121" s="30" t="s">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="E121" s="31" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="F121" s="40"/>
       <c r="G121" s="40"/>
@@ -9112,7 +8819,7 @@
         <v>63</v>
       </c>
       <c r="K121" s="34" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L121" s="34"/>
       <c r="M121" s="34"/>
@@ -9129,7 +8836,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="125.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="125.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="30" t="n">
         <v>158</v>
       </c>
@@ -9137,25 +8844,25 @@
         <v>47</v>
       </c>
       <c r="C122" s="37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D122" s="30" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="E122" s="31" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="F122" s="40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G122" s="40" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="H122" s="40" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="I122" s="41" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="J122" s="34" t="s">
         <v>55</v>
@@ -9181,7 +8888,7 @@
         <v>55</v>
       </c>
       <c r="S122" s="34" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="T122" s="34"/>
       <c r="U122" s="35"/>
@@ -9190,7 +8897,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="30" t="n">
         <v>159</v>
       </c>
@@ -9198,25 +8905,25 @@
         <v>47</v>
       </c>
       <c r="C123" s="37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D123" s="30" t="s">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="E123" s="31" t="s">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="F123" s="40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G123" s="40" t="s">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="H123" s="40" t="s">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="I123" s="41" t="s">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="J123" s="34" t="s">
         <v>55</v>
@@ -9242,7 +8949,7 @@
         <v>55</v>
       </c>
       <c r="S123" s="34" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="T123" s="34"/>
       <c r="U123" s="35"/>
@@ -9251,7 +8958,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="30" t="n">
         <v>160</v>
       </c>
@@ -9259,25 +8966,25 @@
         <v>47</v>
       </c>
       <c r="C124" s="37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D124" s="30" t="s">
-        <v>342</v>
+        <v>307</v>
       </c>
       <c r="E124" s="31" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="F124" s="40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G124" s="40" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="H124" s="40" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="I124" s="41" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="J124" s="34" t="s">
         <v>55</v>
@@ -9303,7 +9010,7 @@
         <v>55</v>
       </c>
       <c r="S124" s="34" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="T124" s="34"/>
       <c r="U124" s="35"/>
@@ -9312,7 +9019,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="30" t="n">
         <v>161</v>
       </c>
@@ -9320,25 +9027,25 @@
         <v>47</v>
       </c>
       <c r="C125" s="37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D125" s="30" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="E125" s="31" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="F125" s="40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G125" s="40" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="H125" s="40" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="I125" s="41" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="J125" s="34" t="s">
         <v>55</v>
@@ -9364,7 +9071,7 @@
         <v>55</v>
       </c>
       <c r="S125" s="34" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="T125" s="34"/>
       <c r="U125" s="35"/>
@@ -9373,7 +9080,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="30" t="n">
         <v>162</v>
       </c>
@@ -9381,25 +9088,25 @@
         <v>47</v>
       </c>
       <c r="C126" s="37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D126" s="30" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="E126" s="31" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="F126" s="40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G126" s="40" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="H126" s="40" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
       <c r="I126" s="41" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="J126" s="34" t="s">
         <v>55</v>
@@ -9425,7 +9132,7 @@
         <v>55</v>
       </c>
       <c r="S126" s="34" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="T126" s="34"/>
       <c r="U126" s="35"/>
@@ -9434,7 +9141,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="30" t="n">
         <v>163</v>
       </c>
@@ -9442,25 +9149,25 @@
         <v>47</v>
       </c>
       <c r="C127" s="37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D127" s="30" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="E127" s="31" t="s">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="F127" s="40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G127" s="40" t="s">
-        <v>359</v>
+        <v>324</v>
       </c>
       <c r="H127" s="40" t="s">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="I127" s="41" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="J127" s="34" t="s">
         <v>55</v>
@@ -9486,7 +9193,7 @@
         <v>55</v>
       </c>
       <c r="S127" s="34" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="T127" s="34"/>
       <c r="U127" s="35"/>
@@ -9495,7 +9202,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="30" t="n">
         <v>164</v>
       </c>
@@ -9503,25 +9210,25 @@
         <v>47</v>
       </c>
       <c r="C128" s="37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D128" s="30" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="E128" s="31" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="F128" s="40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G128" s="40" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="H128" s="40" t="s">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="I128" s="41" t="s">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="J128" s="34" t="s">
         <v>55</v>
@@ -9547,7 +9254,7 @@
         <v>55</v>
       </c>
       <c r="S128" s="34" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="T128" s="34"/>
       <c r="U128" s="35"/>
@@ -9556,7 +9263,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="30" t="n">
         <v>165</v>
       </c>
@@ -9564,25 +9271,25 @@
         <v>47</v>
       </c>
       <c r="C129" s="37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D129" s="30" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="E129" s="31" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="F129" s="40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G129" s="40" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="H129" s="40" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="I129" s="41" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="J129" s="34" t="s">
         <v>55</v>
@@ -9608,7 +9315,7 @@
         <v>55</v>
       </c>
       <c r="S129" s="34" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="T129" s="34"/>
       <c r="U129" s="35"/>
@@ -9617,7 +9324,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="30" t="n">
         <v>166</v>
       </c>
@@ -9625,25 +9332,25 @@
         <v>47</v>
       </c>
       <c r="C130" s="37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D130" s="30" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="E130" s="31" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="F130" s="40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G130" s="40" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="H130" s="40" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="I130" s="41" t="s">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="J130" s="34" t="s">
         <v>55</v>
@@ -9669,7 +9376,7 @@
         <v>55</v>
       </c>
       <c r="S130" s="34" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="T130" s="34"/>
       <c r="U130" s="35"/>
@@ -9678,7 +9385,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="30" t="n">
         <v>167</v>
       </c>
@@ -9686,25 +9393,25 @@
         <v>47</v>
       </c>
       <c r="C131" s="37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D131" s="30" t="s">
-        <v>377</v>
+        <v>342</v>
       </c>
       <c r="E131" s="31" t="s">
-        <v>378</v>
+        <v>343</v>
       </c>
       <c r="F131" s="40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G131" s="40" t="s">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="H131" s="40" t="s">
-        <v>380</v>
+        <v>345</v>
       </c>
       <c r="I131" s="41" t="s">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="J131" s="34" t="s">
         <v>55</v>
@@ -9730,7 +9437,7 @@
         <v>55</v>
       </c>
       <c r="S131" s="34" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="T131" s="34"/>
       <c r="U131" s="35"/>
@@ -9739,7 +9446,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="30" t="n">
         <v>168</v>
       </c>
@@ -9747,25 +9454,25 @@
         <v>47</v>
       </c>
       <c r="C132" s="37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D132" s="30" t="s">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="E132" s="31" t="s">
-        <v>383</v>
+        <v>348</v>
       </c>
       <c r="F132" s="40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G132" s="40" t="s">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="H132" s="40" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="I132" s="41" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
       <c r="J132" s="34" t="s">
         <v>55</v>
@@ -9791,7 +9498,7 @@
         <v>55</v>
       </c>
       <c r="S132" s="34" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="T132" s="34"/>
       <c r="U132" s="35"/>
@@ -9800,7 +9507,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="30" t="n">
         <v>169</v>
       </c>
@@ -9808,25 +9515,25 @@
         <v>47</v>
       </c>
       <c r="C133" s="37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D133" s="30" t="s">
-        <v>387</v>
+        <v>352</v>
       </c>
       <c r="E133" s="31" t="s">
-        <v>388</v>
+        <v>353</v>
       </c>
       <c r="F133" s="40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G133" s="40" t="s">
-        <v>389</v>
+        <v>354</v>
       </c>
       <c r="H133" s="40" t="s">
-        <v>390</v>
+        <v>355</v>
       </c>
       <c r="I133" s="41" t="s">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="J133" s="34" t="s">
         <v>55</v>
@@ -9852,7 +9559,7 @@
         <v>55</v>
       </c>
       <c r="S133" s="34" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="T133" s="34"/>
       <c r="U133" s="35"/>
@@ -9872,10 +9579,10 @@
         <v>69</v>
       </c>
       <c r="D134" s="30" t="s">
-        <v>392</v>
+        <v>357</v>
       </c>
       <c r="E134" s="31" t="s">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="F134" s="40"/>
       <c r="G134" s="40"/>
@@ -9909,10 +9616,10 @@
         <v>69</v>
       </c>
       <c r="D135" s="30" t="s">
-        <v>394</v>
+        <v>359</v>
       </c>
       <c r="E135" s="31" t="s">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="F135" s="40"/>
       <c r="G135" s="40"/>
@@ -9946,10 +9653,10 @@
         <v>69</v>
       </c>
       <c r="D136" s="30" t="s">
-        <v>396</v>
+        <v>361</v>
       </c>
       <c r="E136" s="31" t="s">
-        <v>397</v>
+        <v>362</v>
       </c>
       <c r="F136" s="40"/>
       <c r="G136" s="40"/>
@@ -9983,10 +9690,10 @@
         <v>69</v>
       </c>
       <c r="D137" s="30" t="s">
-        <v>398</v>
+        <v>363</v>
       </c>
       <c r="E137" s="31" t="s">
-        <v>399</v>
+        <v>364</v>
       </c>
       <c r="F137" s="40"/>
       <c r="G137" s="40"/>
@@ -10020,10 +9727,10 @@
         <v>69</v>
       </c>
       <c r="D138" s="30" t="s">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="E138" s="31" t="s">
-        <v>401</v>
+        <v>366</v>
       </c>
       <c r="F138" s="40"/>
       <c r="G138" s="40"/>
@@ -10057,10 +9764,10 @@
         <v>69</v>
       </c>
       <c r="D139" s="30" t="s">
-        <v>402</v>
+        <v>367</v>
       </c>
       <c r="E139" s="31" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="F139" s="40"/>
       <c r="G139" s="40"/>
@@ -10094,10 +9801,10 @@
         <v>69</v>
       </c>
       <c r="D140" s="30" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="E140" s="31" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="F140" s="40"/>
       <c r="G140" s="40"/>
@@ -10131,10 +9838,10 @@
         <v>69</v>
       </c>
       <c r="D141" s="30" t="s">
-        <v>406</v>
+        <v>371</v>
       </c>
       <c r="E141" s="31" t="s">
-        <v>407</v>
+        <v>372</v>
       </c>
       <c r="F141" s="40"/>
       <c r="G141" s="40"/>
@@ -10168,10 +9875,10 @@
         <v>69</v>
       </c>
       <c r="D142" s="30" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="E142" s="31" t="s">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="F142" s="40"/>
       <c r="G142" s="40"/>
@@ -10205,10 +9912,10 @@
         <v>69</v>
       </c>
       <c r="D143" s="30" t="s">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="E143" s="31" t="s">
-        <v>411</v>
+        <v>376</v>
       </c>
       <c r="F143" s="40"/>
       <c r="G143" s="40"/>
@@ -10242,10 +9949,10 @@
         <v>69</v>
       </c>
       <c r="D144" s="30" t="s">
-        <v>412</v>
+        <v>377</v>
       </c>
       <c r="E144" s="31" t="s">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="F144" s="40"/>
       <c r="G144" s="40"/>
@@ -10279,10 +9986,10 @@
         <v>69</v>
       </c>
       <c r="D145" s="30" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="E145" s="31" t="s">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="F145" s="40"/>
       <c r="G145" s="40"/>
@@ -10316,10 +10023,10 @@
         <v>69</v>
       </c>
       <c r="D146" s="30" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="E146" s="31" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="F146" s="40"/>
       <c r="G146" s="40"/>
@@ -10353,10 +10060,10 @@
         <v>69</v>
       </c>
       <c r="D147" s="30" t="s">
-        <v>418</v>
+        <v>383</v>
       </c>
       <c r="E147" s="31" t="s">
-        <v>419</v>
+        <v>384</v>
       </c>
       <c r="F147" s="40"/>
       <c r="G147" s="40"/>
@@ -10390,10 +10097,10 @@
         <v>69</v>
       </c>
       <c r="D148" s="30" t="s">
-        <v>420</v>
+        <v>385</v>
       </c>
       <c r="E148" s="31" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="F148" s="40"/>
       <c r="G148" s="40"/>
@@ -10427,22 +10134,22 @@
         <v>48</v>
       </c>
       <c r="D149" s="30" t="s">
-        <v>422</v>
+        <v>387</v>
       </c>
       <c r="E149" s="31" t="s">
-        <v>423</v>
+        <v>388</v>
       </c>
       <c r="F149" s="32" t="s">
         <v>51</v>
       </c>
       <c r="G149" s="53" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="H149" s="53" t="s">
-        <v>425</v>
+        <v>390</v>
       </c>
       <c r="I149" s="53" t="s">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="J149" s="34" t="s">
         <v>55</v>
@@ -10476,22 +10183,22 @@
         <v>48</v>
       </c>
       <c r="D150" s="30" t="s">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="E150" s="31" t="s">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="F150" s="32" t="s">
         <v>51</v>
       </c>
       <c r="G150" s="53" t="s">
-        <v>429</v>
+        <v>394</v>
       </c>
       <c r="H150" s="53" t="s">
-        <v>430</v>
+        <v>395</v>
       </c>
       <c r="I150" s="53" t="s">
-        <v>431</v>
+        <v>396</v>
       </c>
       <c r="J150" s="34" t="s">
         <v>55</v>
@@ -10522,13 +10229,13 @@
         <v>47</v>
       </c>
       <c r="C151" s="37" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="D151" s="30" t="s">
-        <v>433</v>
+        <v>398</v>
       </c>
       <c r="E151" s="31" t="s">
-        <v>434</v>
+        <v>399</v>
       </c>
       <c r="F151" s="40"/>
       <c r="G151" s="40"/>
@@ -10559,13 +10266,13 @@
         <v>47</v>
       </c>
       <c r="C152" s="37" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="D152" s="30" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="E152" s="31" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="F152" s="40"/>
       <c r="G152" s="40"/>
@@ -10596,13 +10303,13 @@
         <v>47</v>
       </c>
       <c r="C153" s="37" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="D153" s="30" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
       <c r="E153" s="31" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
       <c r="F153" s="40"/>
       <c r="G153" s="40"/>
@@ -10633,10 +10340,10 @@
         <v>47</v>
       </c>
       <c r="C154" s="37" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="D154" s="30" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="E154" s="31" t="s">
         <v>59</v>
@@ -10670,13 +10377,13 @@
         <v>47</v>
       </c>
       <c r="C155" s="37" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="D155" s="30" t="s">
-        <v>440</v>
+        <v>405</v>
       </c>
       <c r="E155" s="31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F155" s="40"/>
       <c r="G155" s="40"/>
@@ -10707,13 +10414,13 @@
         <v>47</v>
       </c>
       <c r="C156" s="37" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="D156" s="30" t="s">
-        <v>441</v>
+        <v>406</v>
       </c>
       <c r="E156" s="31" t="s">
-        <v>442</v>
+        <v>407</v>
       </c>
       <c r="F156" s="40"/>
       <c r="G156" s="40"/>
@@ -10744,13 +10451,13 @@
         <v>47</v>
       </c>
       <c r="C157" s="37" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="D157" s="30" t="s">
-        <v>443</v>
+        <v>408</v>
       </c>
       <c r="E157" s="31" t="s">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="F157" s="40"/>
       <c r="G157" s="40"/>
@@ -10781,13 +10488,13 @@
         <v>47</v>
       </c>
       <c r="C158" s="37" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="D158" s="30" t="s">
-        <v>445</v>
+        <v>410</v>
       </c>
       <c r="E158" s="31" t="s">
-        <v>446</v>
+        <v>411</v>
       </c>
       <c r="F158" s="40"/>
       <c r="G158" s="40"/>
@@ -10818,13 +10525,13 @@
         <v>47</v>
       </c>
       <c r="C159" s="37" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="D159" s="30" t="s">
-        <v>447</v>
+        <v>412</v>
       </c>
       <c r="E159" s="31" t="s">
-        <v>448</v>
+        <v>413</v>
       </c>
       <c r="F159" s="40"/>
       <c r="G159" s="40"/>
@@ -10855,13 +10562,13 @@
         <v>47</v>
       </c>
       <c r="C160" s="37" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="D160" s="30" t="s">
-        <v>449</v>
+        <v>414</v>
       </c>
       <c r="E160" s="31" t="s">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="F160" s="40"/>
       <c r="G160" s="40"/>
@@ -10892,13 +10599,13 @@
         <v>47</v>
       </c>
       <c r="C161" s="37" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="D161" s="30" t="s">
-        <v>451</v>
+        <v>416</v>
       </c>
       <c r="E161" s="31" t="s">
-        <v>452</v>
+        <v>417</v>
       </c>
       <c r="F161" s="40"/>
       <c r="G161" s="40"/>
@@ -10929,13 +10636,13 @@
         <v>47</v>
       </c>
       <c r="C162" s="37" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="D162" s="30" t="s">
-        <v>453</v>
+        <v>418</v>
       </c>
       <c r="E162" s="31" t="s">
-        <v>454</v>
+        <v>419</v>
       </c>
       <c r="F162" s="40"/>
       <c r="G162" s="40"/>
@@ -10966,13 +10673,13 @@
         <v>47</v>
       </c>
       <c r="C163" s="37" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="D163" s="30" t="s">
-        <v>455</v>
+        <v>420</v>
       </c>
       <c r="E163" s="31" t="s">
-        <v>456</v>
+        <v>421</v>
       </c>
       <c r="F163" s="40"/>
       <c r="G163" s="40"/>
@@ -11003,13 +10710,13 @@
         <v>47</v>
       </c>
       <c r="C164" s="37" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="D164" s="30" t="s">
-        <v>457</v>
+        <v>422</v>
       </c>
       <c r="E164" s="31" t="s">
-        <v>458</v>
+        <v>423</v>
       </c>
       <c r="F164" s="40"/>
       <c r="G164" s="40"/>
@@ -11040,13 +10747,13 @@
         <v>47</v>
       </c>
       <c r="C165" s="37" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="D165" s="30" t="s">
-        <v>459</v>
+        <v>424</v>
       </c>
       <c r="E165" s="31" t="s">
-        <v>460</v>
+        <v>425</v>
       </c>
       <c r="F165" s="40"/>
       <c r="G165" s="40"/>
@@ -11077,13 +10784,13 @@
         <v>47</v>
       </c>
       <c r="C166" s="37" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="D166" s="30" t="s">
-        <v>461</v>
+        <v>426</v>
       </c>
       <c r="E166" s="31" t="s">
-        <v>462</v>
+        <v>427</v>
       </c>
       <c r="F166" s="40"/>
       <c r="G166" s="40"/>
@@ -11117,10 +10824,10 @@
         <v>69</v>
       </c>
       <c r="D167" s="30" t="s">
-        <v>463</v>
+        <v>428</v>
       </c>
       <c r="E167" s="31" t="s">
-        <v>464</v>
+        <v>429</v>
       </c>
       <c r="F167" s="40"/>
       <c r="G167" s="40"/>
@@ -11154,10 +10861,10 @@
         <v>69</v>
       </c>
       <c r="D168" s="30" t="s">
-        <v>465</v>
+        <v>430</v>
       </c>
       <c r="E168" s="31" t="s">
-        <v>466</v>
+        <v>431</v>
       </c>
       <c r="F168" s="40"/>
       <c r="G168" s="40"/>
@@ -11180,7 +10887,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="30" t="n">
         <v>448</v>
       </c>
@@ -11188,25 +10895,25 @@
         <v>47</v>
       </c>
       <c r="C169" s="37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D169" s="30" t="s">
-        <v>467</v>
+        <v>432</v>
       </c>
       <c r="E169" s="31" t="s">
-        <v>468</v>
+        <v>433</v>
       </c>
       <c r="F169" s="40" t="s">
-        <v>469</v>
+        <v>434</v>
       </c>
       <c r="G169" s="40" t="s">
-        <v>470</v>
+        <v>435</v>
       </c>
       <c r="H169" s="40" t="s">
-        <v>471</v>
+        <v>436</v>
       </c>
       <c r="I169" s="41" t="s">
-        <v>472</v>
+        <v>437</v>
       </c>
       <c r="J169" s="34" t="s">
         <v>55</v>
@@ -11229,7 +10936,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="35.65" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="35.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="30" t="n">
         <v>449</v>
       </c>
@@ -11237,25 +10944,25 @@
         <v>47</v>
       </c>
       <c r="C170" s="37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D170" s="30" t="s">
-        <v>473</v>
+        <v>438</v>
       </c>
       <c r="E170" s="31" t="s">
-        <v>474</v>
+        <v>439</v>
       </c>
       <c r="F170" s="40" t="s">
         <v>51</v>
       </c>
       <c r="G170" s="40" t="s">
-        <v>475</v>
+        <v>440</v>
       </c>
       <c r="H170" s="40" t="s">
-        <v>476</v>
+        <v>441</v>
       </c>
       <c r="I170" s="41" t="s">
-        <v>477</v>
+        <v>442</v>
       </c>
       <c r="J170" s="34" t="s">
         <v>55</v>
@@ -11289,10 +10996,10 @@
         <v>67</v>
       </c>
       <c r="D171" s="30" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="E171" s="31" t="s">
-        <v>479</v>
+        <v>444</v>
       </c>
       <c r="F171" s="40"/>
       <c r="G171" s="40"/>
@@ -11326,10 +11033,10 @@
         <v>67</v>
       </c>
       <c r="D172" s="30" t="s">
-        <v>480</v>
+        <v>445</v>
       </c>
       <c r="E172" s="31" t="s">
-        <v>481</v>
+        <v>446</v>
       </c>
       <c r="F172" s="40"/>
       <c r="G172" s="40"/>
@@ -11363,22 +11070,22 @@
         <v>48</v>
       </c>
       <c r="D173" s="30" t="s">
-        <v>482</v>
+        <v>447</v>
       </c>
       <c r="E173" s="31" t="s">
-        <v>483</v>
+        <v>448</v>
       </c>
       <c r="F173" s="32" t="s">
-        <v>469</v>
+        <v>434</v>
       </c>
       <c r="G173" s="40" t="s">
-        <v>484</v>
+        <v>449</v>
       </c>
       <c r="H173" s="40" t="s">
-        <v>485</v>
+        <v>450</v>
       </c>
       <c r="I173" s="41" t="s">
-        <v>486</v>
+        <v>451</v>
       </c>
       <c r="J173" s="34" t="s">
         <v>55</v>
@@ -11409,13 +11116,13 @@
         <v>47</v>
       </c>
       <c r="C174" s="37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D174" s="30" t="s">
-        <v>487</v>
+        <v>452</v>
       </c>
       <c r="E174" s="31" t="s">
-        <v>488</v>
+        <v>453</v>
       </c>
       <c r="F174" s="40"/>
       <c r="G174" s="40"/>
@@ -11446,13 +11153,13 @@
         <v>47</v>
       </c>
       <c r="C175" s="37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D175" s="30" t="s">
-        <v>489</v>
+        <v>454</v>
       </c>
       <c r="E175" s="31" t="s">
-        <v>490</v>
+        <v>455</v>
       </c>
       <c r="F175" s="40"/>
       <c r="G175" s="40"/>
@@ -11483,13 +11190,13 @@
         <v>47</v>
       </c>
       <c r="C176" s="37" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D176" s="30" t="s">
-        <v>491</v>
+        <v>456</v>
       </c>
       <c r="E176" s="31" t="s">
-        <v>492</v>
+        <v>457</v>
       </c>
       <c r="F176" s="40"/>
       <c r="G176" s="40"/>
@@ -11520,13 +11227,13 @@
         <v>47</v>
       </c>
       <c r="C177" s="37" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D177" s="30" t="s">
-        <v>493</v>
+        <v>458</v>
       </c>
       <c r="E177" s="31" t="s">
-        <v>494</v>
+        <v>459</v>
       </c>
       <c r="F177" s="40"/>
       <c r="G177" s="40"/>
@@ -11557,13 +11264,13 @@
         <v>47</v>
       </c>
       <c r="C178" s="43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D178" s="42" t="s">
-        <v>495</v>
+        <v>460</v>
       </c>
       <c r="E178" s="52" t="s">
-        <v>496</v>
+        <v>461</v>
       </c>
       <c r="F178" s="45"/>
       <c r="G178" s="45"/>
@@ -11594,13 +11301,13 @@
         <v>47</v>
       </c>
       <c r="C179" s="43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D179" s="42" t="s">
-        <v>497</v>
+        <v>462</v>
       </c>
       <c r="E179" s="52" t="s">
-        <v>498</v>
+        <v>463</v>
       </c>
       <c r="F179" s="45"/>
       <c r="G179" s="45"/>
@@ -11631,13 +11338,13 @@
         <v>47</v>
       </c>
       <c r="C180" s="37" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="D180" s="30" t="s">
-        <v>499</v>
+        <v>464</v>
       </c>
       <c r="E180" s="31" t="s">
-        <v>500</v>
+        <v>465</v>
       </c>
       <c r="F180" s="40"/>
       <c r="G180" s="40"/>
@@ -11660,7 +11367,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="37.3" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="30" t="n">
         <v>461</v>
       </c>
@@ -11668,25 +11375,25 @@
         <v>47</v>
       </c>
       <c r="C181" s="37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D181" s="30" t="s">
-        <v>501</v>
+        <v>466</v>
       </c>
       <c r="E181" s="31" t="s">
-        <v>502</v>
+        <v>467</v>
       </c>
       <c r="F181" s="40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G181" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
       <c r="H181" s="30" t="s">
-        <v>504</v>
+        <v>469</v>
       </c>
       <c r="I181" s="30" t="s">
-        <v>505</v>
+        <v>470</v>
       </c>
       <c r="J181" s="34" t="s">
         <v>55</v>
@@ -11712,7 +11419,7 @@
         <v>55</v>
       </c>
       <c r="S181" s="34" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="T181" s="34"/>
       <c r="U181" s="30"/>
@@ -11721,7 +11428,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="30" t="n">
         <v>462</v>
       </c>
@@ -11732,21 +11439,17 @@
         <v>71</v>
       </c>
       <c r="D182" s="30" t="s">
-        <v>506</v>
+        <v>471</v>
       </c>
       <c r="E182" s="31" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
       <c r="F182" s="30"/>
       <c r="G182" s="30"/>
       <c r="H182" s="30"/>
       <c r="I182" s="30"/>
-      <c r="J182" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="K182" s="34" t="s">
-        <v>118</v>
-      </c>
+      <c r="J182" s="34"/>
+      <c r="K182" s="34"/>
       <c r="L182" s="30"/>
       <c r="M182" s="34"/>
       <c r="N182" s="34"/>
@@ -11770,13 +11473,13 @@
         <v>47</v>
       </c>
       <c r="C183" s="37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D183" s="30" t="s">
-        <v>508</v>
+        <v>473</v>
       </c>
       <c r="E183" s="31" t="s">
-        <v>509</v>
+        <v>474</v>
       </c>
       <c r="F183" s="30"/>
       <c r="G183" s="30"/>
@@ -11807,13 +11510,13 @@
         <v>47</v>
       </c>
       <c r="C184" s="43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D184" s="42" t="s">
-        <v>510</v>
+        <v>475</v>
       </c>
       <c r="E184" s="52" t="s">
-        <v>511</v>
+        <v>476</v>
       </c>
       <c r="F184" s="42"/>
       <c r="G184" s="42"/>
@@ -11844,13 +11547,13 @@
         <v>47</v>
       </c>
       <c r="C185" s="37" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D185" s="30" t="s">
-        <v>512</v>
+        <v>477</v>
       </c>
       <c r="E185" s="31" t="s">
-        <v>513</v>
+        <v>478</v>
       </c>
       <c r="F185" s="30"/>
       <c r="G185" s="30"/>
@@ -11873,7 +11576,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="40.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="40.6" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="30" t="n">
         <v>466</v>
       </c>
@@ -11884,22 +11587,22 @@
         <v>48</v>
       </c>
       <c r="D186" s="30" t="s">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E186" s="31" t="s">
-        <v>515</v>
+        <v>480</v>
       </c>
       <c r="F186" s="32" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G186" s="30" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
       <c r="H186" s="30" t="s">
-        <v>517</v>
+        <v>482</v>
       </c>
       <c r="I186" s="30" t="s">
-        <v>518</v>
+        <v>483</v>
       </c>
       <c r="J186" s="34" t="s">
         <v>55</v>
@@ -11925,7 +11628,7 @@
         <v>55</v>
       </c>
       <c r="S186" s="34" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="T186" s="34"/>
       <c r="U186" s="30"/>
@@ -11945,10 +11648,10 @@
         <v>67</v>
       </c>
       <c r="D187" s="30" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
       <c r="E187" s="31" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
       <c r="F187" s="30"/>
       <c r="G187" s="30"/>
@@ -11971,7 +11674,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="25.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="25.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="30" t="n">
         <v>468</v>
       </c>
@@ -11979,25 +11682,25 @@
         <v>47</v>
       </c>
       <c r="C188" s="37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D188" s="30" t="s">
-        <v>521</v>
+        <v>486</v>
       </c>
       <c r="E188" s="31" t="s">
-        <v>522</v>
+        <v>487</v>
       </c>
       <c r="F188" s="40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G188" s="30" t="s">
-        <v>523</v>
+        <v>488</v>
       </c>
       <c r="H188" s="30" t="s">
-        <v>524</v>
+        <v>489</v>
       </c>
       <c r="I188" s="30" t="s">
-        <v>525</v>
+        <v>490</v>
       </c>
       <c r="J188" s="34" t="s">
         <v>55</v>
@@ -12023,7 +11726,7 @@
         <v>55</v>
       </c>
       <c r="S188" s="34" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="T188" s="34"/>
       <c r="U188" s="30"/>
@@ -12043,10 +11746,10 @@
         <v>69</v>
       </c>
       <c r="D189" s="30" t="s">
-        <v>526</v>
+        <v>491</v>
       </c>
       <c r="E189" s="31" t="s">
-        <v>527</v>
+        <v>492</v>
       </c>
       <c r="F189" s="30"/>
       <c r="G189" s="30"/>
@@ -12077,13 +11780,13 @@
         <v>47</v>
       </c>
       <c r="C190" s="37" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="D190" s="30" t="s">
-        <v>528</v>
+        <v>493</v>
       </c>
       <c r="E190" s="31" t="s">
-        <v>529</v>
+        <v>494</v>
       </c>
       <c r="F190" s="30"/>
       <c r="G190" s="30"/>
@@ -12117,23 +11820,15 @@
         <v>71</v>
       </c>
       <c r="D191" s="30" t="s">
-        <v>530</v>
+        <v>495</v>
       </c>
       <c r="E191" s="31" t="s">
-        <v>531</v>
-      </c>
-      <c r="F191" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="G191" s="40" t="s">
-        <v>532</v>
-      </c>
-      <c r="H191" s="40" t="s">
-        <v>533</v>
-      </c>
-      <c r="I191" s="41" t="s">
-        <v>534</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="F191" s="40"/>
+      <c r="G191" s="40"/>
+      <c r="H191" s="40"/>
+      <c r="I191" s="41"/>
       <c r="J191" s="34"/>
       <c r="K191" s="34"/>
       <c r="L191" s="34"/>
@@ -12144,16 +11839,14 @@
       <c r="Q191" s="34"/>
       <c r="R191" s="34"/>
       <c r="S191" s="34"/>
-      <c r="T191" s="34" t="s">
-        <v>56</v>
-      </c>
+      <c r="T191" s="34"/>
       <c r="U191" s="35"/>
       <c r="V191" s="36"/>
       <c r="W191" s="34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="111.9" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="43.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="30" t="n">
         <v>472</v>
       </c>
@@ -12164,23 +11857,15 @@
         <v>71</v>
       </c>
       <c r="D192" s="30" t="s">
-        <v>535</v>
+        <v>497</v>
       </c>
       <c r="E192" s="31" t="s">
-        <v>536</v>
-      </c>
-      <c r="F192" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="G192" s="40" t="s">
-        <v>537</v>
-      </c>
-      <c r="H192" s="40" t="s">
-        <v>538</v>
-      </c>
-      <c r="I192" s="41" t="s">
-        <v>539</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="F192" s="40"/>
+      <c r="G192" s="40"/>
+      <c r="H192" s="40"/>
+      <c r="I192" s="41"/>
       <c r="J192" s="34"/>
       <c r="K192" s="34"/>
       <c r="L192" s="34"/>
@@ -12191,9 +11876,7 @@
       <c r="Q192" s="34"/>
       <c r="R192" s="34"/>
       <c r="S192" s="34"/>
-      <c r="T192" s="34" t="s">
-        <v>56</v>
-      </c>
+      <c r="T192" s="34"/>
       <c r="U192" s="35"/>
       <c r="V192" s="36"/>
       <c r="W192" s="34" t="s">
@@ -16310,13 +15993,11 @@
   <autoFilter ref="A9:W192">
     <filterColumn colId="22">
       <filters>
-        <filter val="KO"/>
+        <filter val="OK"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="LAB"/>
-        <filter val="RAD"/>
         <filter val="RSA"/>
       </filters>
     </filterColumn>
@@ -16331,7 +16012,7 @@
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10 M10:N192 P10:R192 J12:J13 J15:J18 J20:J21 J23:J35 J37:J192" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10 M10:N192 P10:R192 J12:J18 J20:J35 J37:J192" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -16343,7 +16024,7 @@
       <formula1>'LISTA VALORI'!$A$2:$A$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J11 J14 J19 J22 J36" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J11 J19 J36" type="list">
       <formula1>Summary!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -16375,42 +16056,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>540</v>
+        <v>499</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>541</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>542</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>543</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>544</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>545</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>546</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -16450,22 +16131,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="59" t="s">
-        <v>547</v>
+        <v>506</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>548</v>
+        <v>507</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>549</v>
+        <v>508</v>
       </c>
       <c r="F1" s="60" t="s">
-        <v>550</v>
+        <v>509</v>
       </c>
       <c r="G1" s="61" t="s">
-        <v>551</v>
+        <v>510</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16473,13 +16154,13 @@
         <v>48</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>552</v>
+        <v>511</v>
       </c>
       <c r="C2" s="63" t="s">
-        <v>553</v>
+        <v>512</v>
       </c>
       <c r="D2" s="64" t="s">
-        <v>554</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16487,13 +16168,13 @@
         <v>67</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>552</v>
+        <v>511</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>555</v>
+        <v>514</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>556</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16501,69 +16182,69 @@
         <v>71</v>
       </c>
       <c r="B4" s="62" t="s">
-        <v>552</v>
+        <v>511</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>557</v>
+        <v>516</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>558</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="62" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>552</v>
+        <v>511</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>559</v>
+        <v>518</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>560</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="62" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B6" s="62" t="s">
-        <v>552</v>
+        <v>511</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>561</v>
+        <v>520</v>
       </c>
       <c r="D6" s="65" t="s">
-        <v>562</v>
+        <v>521</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="62" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>552</v>
+        <v>511</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>563</v>
+        <v>522</v>
       </c>
       <c r="D7" s="65" t="s">
-        <v>564</v>
+        <v>523</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="62" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>552</v>
+        <v>511</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>565</v>
+        <v>524</v>
       </c>
       <c r="D8" s="65" t="s">
-        <v>566</v>
+        <v>525</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16571,41 +16252,41 @@
         <v>69</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>552</v>
+        <v>511</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>567</v>
+        <v>526</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>568</v>
+        <v>527</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="62" t="s">
-        <v>569</v>
+        <v>528</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>552</v>
+        <v>511</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>570</v>
+        <v>529</v>
       </c>
       <c r="D10" s="64" t="s">
-        <v>571</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="62" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>552</v>
+        <v>511</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>572</v>
+        <v>531</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>573</v>
+        <v>532</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17610,7 +17291,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="68" t="s">
-        <v>574</v>
+        <v>533</v>
       </c>
       <c r="B3" s="68" t="s">
         <v>63</v>

--- a/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
@@ -31,7 +31,7 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>Unknown Author</author>
+    <author>Autore sconosciuto</author>
   </authors>
   <commentList>
     <comment ref="E9" authorId="0">
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="575">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -360,6 +360,15 @@
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_RAD_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29-09-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-29T21:27:36.121+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8cd00f1d39552a4f3264642f5a2a18ec</t>
   </si>
   <si>
     <t xml:space="preserve">RSA</t>
@@ -473,6 +482,12 @@
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_RAD_KO</t>
   </si>
   <si>
+    <t xml:space="preserve">2025-09-29T21:18:49.323+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">af9b48517843529de30025889ba2f687</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
   </si>
   <si>
@@ -779,6 +794,18 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">12-07-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-12T15:04:21.357+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31dc50e525227b2251b61fb6cc681021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.af1779c13b0111f295f0e564b152837375b4dd8cf5584df252a505b6563333d1.4cdf0b00d4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT12_KO</t>
   </si>
   <si>
@@ -786,6 +813,15 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2025-09-29T22:08:59.033+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">412797e18694664aaf2411671b3944dd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.1fdc76143ba1420c660eac64a9212b4d55587a2bde9ef562142f4b8b5f318e07.3c7550f2be^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT13_KO</t>
   </si>
   <si>
@@ -814,6 +850,15 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2025-07-12T15:04:22.165+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d0877d6d2f7d7a7d433be76f57d229ef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.af1779c13b0111f295f0e564b152837375b4dd8cf5584df252a505b6563333d1.b34297146b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT17_KO</t>
   </si>
   <si>
@@ -821,6 +866,15 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2025-07-12T15:04:23.175+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4f9b1f85ab7c01fc7b3848beddf91cdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.af1779c13b0111f295f0e564b152837375b4dd8cf5584df252a505b6563333d1.6b8eb93a71^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT18_KO</t>
   </si>
   <si>
@@ -828,6 +882,15 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2025-07-12T15:04:23.850+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d8b12d3cc5f3132cd803fcfea8cbdf6f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.af1779c13b0111f295f0e564b152837375b4dd8cf5584df252a505b6563333d1.897b9cf648^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT19_KO</t>
   </si>
   <si>
@@ -835,6 +898,15 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2025-07-12T15:04:24.470+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c9c720e7f5b6f69ff03c36cbbbef225b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.af1779c13b0111f295f0e564b152837375b4dd8cf5584df252a505b6563333d1.01cb1c92b3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT20_KO</t>
   </si>
   <si>
@@ -842,6 +914,15 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2025-07-12T15:04:25.131+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91290ac0cd156ae3af891ffce7a5db01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.af1779c13b0111f295f0e564b152837375b4dd8cf5584df252a505b6563333d1.a6729db3b5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT21_KO</t>
   </si>
   <si>
@@ -849,6 +930,15 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2025-07-12T15:04:25.813+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7012f4634f96fb041f25b6cc19446775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.af1779c13b0111f295f0e564b152837375b4dd8cf5584df252a505b6563333d1.d11d876fed^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT22_KO</t>
   </si>
   <si>
@@ -856,11 +946,26 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2025-07-12T15:04:26.494+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ff83dad4ad8cdccedd74377239d6e107</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT23_KO</t>
   </si>
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-12T15:04:27.140+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbbfbc7d0500d75ebaa500f7b452098f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.af1779c13b0111f295f0e564b152837375b4dd8cf5584df252a505b6563333d1.b5d175e543^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_CERT_VAC_CT6_KO</t>
@@ -1895,11 +2000,29 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2025-07-12T15:04:19.676+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9834aa02cb03a2ca5999d66622ced84a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.1fdc76143ba1420c660eac64a9212b4d55587a2bde9ef562142f4b8b5f318e07.b028a15813^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT26</t>
   </si>
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 26" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-12T15:04:20.687+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">186db661dc3d42f06a7afca148df8f6c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.af1779c13b0111f295f0e564b152837375b4dd8cf5584df252a505b6563333d1.634a9a021d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Razionale di Applicabilità</t>
@@ -4134,11 +4257,11 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E191" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I169" activeCellId="0" sqref="I169"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A191" activeCellId="0" sqref="A191"/>
+      <selection pane="bottomRight" activeCell="J192" activeCellId="0" sqref="J192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4147,11 +4270,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="85.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="61.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="33.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="47.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="88.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="215.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="39.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="103.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="27.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="11" style="1" width="36.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="45.29"/>
@@ -4428,7 +4551,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="58" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="58" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="28" t="n">
         <v>4</v>
       </c>
@@ -4628,20 +4751,44 @@
       <c r="E14" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="34"/>
+      <c r="F14" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>55</v>
+      </c>
       <c r="K14" s="34"/>
       <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
+      <c r="M14" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N14" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q14" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R14" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S14" s="34" t="s">
+        <v>65</v>
+      </c>
       <c r="T14" s="34"/>
       <c r="U14" s="35"/>
       <c r="V14" s="36"/>
@@ -4657,22 +4804,22 @@
         <v>47</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E15" s="31" t="s">
         <v>59</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G15" s="40" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I15" s="41" t="s">
         <v>62</v>
@@ -4701,7 +4848,7 @@
         <v>55</v>
       </c>
       <c r="S15" s="34" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="T15" s="34"/>
       <c r="U15" s="35"/>
@@ -4718,13 +4865,13 @@
         <v>47</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F16" s="45"/>
       <c r="G16" s="45"/>
@@ -4755,10 +4902,10 @@
         <v>47</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E17" s="31" t="s">
         <v>59</v>
@@ -4792,10 +4939,10 @@
         <v>47</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E18" s="31" t="s">
         <v>59</v>
@@ -4832,19 +4979,19 @@
         <v>48</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F19" s="32" t="n">
         <v>45817</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I19" s="33" t="s">
         <v>62</v>
@@ -4873,7 +5020,7 @@
         <v>55</v>
       </c>
       <c r="S19" s="34" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="T19" s="34"/>
       <c r="U19" s="35"/>
@@ -4893,10 +5040,10 @@
         <v>67</v>
       </c>
       <c r="D20" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="31" t="s">
         <v>90</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>87</v>
       </c>
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
@@ -4930,10 +5077,10 @@
         <v>69</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
@@ -4967,25 +5114,49 @@
         <v>71</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="34"/>
+        <v>90</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="39" t="s">
+        <v>55</v>
+      </c>
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
+      <c r="M22" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N22" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="O22" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="P22" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q22" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R22" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S22" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="T22" s="34"/>
       <c r="U22" s="35"/>
       <c r="V22" s="36"/>
@@ -5001,22 +5172,22 @@
         <v>47</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F23" s="40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G23" s="40" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H23" s="40" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I23" s="41" t="s">
         <v>62</v>
@@ -5045,7 +5216,7 @@
         <v>55</v>
       </c>
       <c r="S23" s="34" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="T23" s="34"/>
       <c r="U23" s="35"/>
@@ -5062,13 +5233,13 @@
         <v>47</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E24" s="44" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F24" s="45"/>
       <c r="G24" s="45"/>
@@ -5099,13 +5270,13 @@
         <v>47</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
@@ -5136,13 +5307,13 @@
         <v>47</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
@@ -5176,10 +5347,10 @@
         <v>48</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
@@ -5197,7 +5368,7 @@
         <v>55</v>
       </c>
       <c r="O27" s="34" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="P27" s="34" t="s">
         <v>55</v>
@@ -5209,7 +5380,7 @@
         <v>55</v>
       </c>
       <c r="S27" s="34" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="T27" s="34"/>
       <c r="U27" s="35"/>
@@ -5229,10 +5400,10 @@
         <v>67</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
@@ -5268,10 +5439,10 @@
         <v>69</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
@@ -5307,29 +5478,43 @@
         <v>71</v>
       </c>
       <c r="D30" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="31" t="s">
         <v>106</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>101</v>
       </c>
       <c r="F30" s="40"/>
       <c r="G30" s="40"/>
       <c r="H30" s="40"/>
       <c r="I30" s="41"/>
-      <c r="J30" s="34"/>
+      <c r="J30" s="34" t="s">
+        <v>55</v>
+      </c>
       <c r="K30" s="34"/>
       <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="34"/>
-      <c r="S30" s="34"/>
+      <c r="M30" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N30" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="O30" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="P30" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q30" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R30" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S30" s="34" t="s">
+        <v>108</v>
+      </c>
       <c r="T30" s="34"/>
-      <c r="U30" s="35" t="s">
-        <v>55</v>
-      </c>
+      <c r="U30" s="35"/>
       <c r="V30" s="36"/>
       <c r="W30" s="34" t="s">
         <v>66</v>
@@ -5343,13 +5528,13 @@
         <v>47</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F31" s="40"/>
       <c r="G31" s="40"/>
@@ -5367,7 +5552,7 @@
         <v>55</v>
       </c>
       <c r="O31" s="34" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="P31" s="34" t="s">
         <v>55</v>
@@ -5379,7 +5564,7 @@
         <v>55</v>
       </c>
       <c r="S31" s="34" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="T31" s="34"/>
       <c r="U31" s="35"/>
@@ -5396,13 +5581,13 @@
         <v>47</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F32" s="40"/>
       <c r="G32" s="40"/>
@@ -5435,13 +5620,13 @@
         <v>47</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
@@ -5474,13 +5659,13 @@
         <v>47</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
@@ -5516,10 +5701,10 @@
         <v>48</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
@@ -5529,7 +5714,7 @@
         <v>63</v>
       </c>
       <c r="K35" s="34" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L35" s="39"/>
       <c r="M35" s="34"/>
@@ -5557,10 +5742,10 @@
         <v>48</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F36" s="32"/>
       <c r="G36" s="51"/>
@@ -5570,7 +5755,7 @@
         <v>63</v>
       </c>
       <c r="K36" s="34" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L36" s="34"/>
       <c r="M36" s="34"/>
@@ -5598,10 +5783,10 @@
         <v>48</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F37" s="40"/>
       <c r="G37" s="40"/>
@@ -5611,7 +5796,7 @@
         <v>63</v>
       </c>
       <c r="K37" s="34" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L37" s="34"/>
       <c r="M37" s="34"/>
@@ -5639,10 +5824,10 @@
         <v>48</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F38" s="40"/>
       <c r="G38" s="40"/>
@@ -5652,7 +5837,7 @@
         <v>63</v>
       </c>
       <c r="K38" s="34" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L38" s="39"/>
       <c r="M38" s="34"/>
@@ -5680,10 +5865,10 @@
         <v>48</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F39" s="40"/>
       <c r="G39" s="40"/>
@@ -5693,7 +5878,7 @@
         <v>63</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L39" s="39"/>
       <c r="M39" s="34"/>
@@ -5721,10 +5906,10 @@
         <v>48</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F40" s="40"/>
       <c r="G40" s="40"/>
@@ -5734,7 +5919,7 @@
         <v>63</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L40" s="39"/>
       <c r="M40" s="34"/>
@@ -5762,22 +5947,22 @@
         <v>48</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F41" s="32" t="n">
         <v>45362</v>
       </c>
       <c r="G41" s="51" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H41" s="33" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="I41" s="33" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="J41" s="34" t="s">
         <v>55</v>
@@ -5803,7 +5988,7 @@
         <v>55</v>
       </c>
       <c r="S41" s="34" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T41" s="34"/>
       <c r="U41" s="35"/>
@@ -5823,22 +6008,22 @@
         <v>48</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G42" s="40" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H42" s="40" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I42" s="41" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="J42" s="34" t="s">
         <v>55</v>
@@ -5864,7 +6049,7 @@
         <v>55</v>
       </c>
       <c r="S42" s="34" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T42" s="34"/>
       <c r="U42" s="35"/>
@@ -5884,22 +6069,22 @@
         <v>48</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E43" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="F43" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="F43" s="32" t="s">
-        <v>132</v>
-      </c>
       <c r="G43" s="51" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H43" s="33" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="I43" s="33" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="J43" s="34" t="s">
         <v>55</v>
@@ -5925,7 +6110,7 @@
         <v>55</v>
       </c>
       <c r="S43" s="34" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T43" s="34"/>
       <c r="U43" s="35"/>
@@ -5945,10 +6130,10 @@
         <v>67</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F44" s="40"/>
       <c r="G44" s="40"/>
@@ -5982,10 +6167,10 @@
         <v>67</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F45" s="40"/>
       <c r="G45" s="40"/>
@@ -6019,10 +6204,10 @@
         <v>67</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F46" s="40"/>
       <c r="G46" s="40"/>
@@ -6056,10 +6241,10 @@
         <v>67</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F47" s="40"/>
       <c r="G47" s="40"/>
@@ -6093,10 +6278,10 @@
         <v>67</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F48" s="40"/>
       <c r="G48" s="40"/>
@@ -6130,10 +6315,10 @@
         <v>67</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F49" s="40"/>
       <c r="G49" s="40"/>
@@ -6167,10 +6352,10 @@
         <v>67</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F50" s="40"/>
       <c r="G50" s="40"/>
@@ -6204,10 +6389,10 @@
         <v>67</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F51" s="40"/>
       <c r="G51" s="40"/>
@@ -6241,10 +6426,10 @@
         <v>67</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F52" s="40"/>
       <c r="G52" s="40"/>
@@ -6278,10 +6463,10 @@
         <v>67</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F53" s="40"/>
       <c r="G53" s="40"/>
@@ -6315,17 +6500,21 @@
         <v>71</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F54" s="40"/>
       <c r="G54" s="40"/>
       <c r="H54" s="40"/>
       <c r="I54" s="41"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
+      <c r="J54" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="K54" s="34" t="s">
+        <v>118</v>
+      </c>
       <c r="L54" s="34"/>
       <c r="M54" s="34"/>
       <c r="N54" s="34"/>
@@ -6352,17 +6541,21 @@
         <v>71</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F55" s="40"/>
       <c r="G55" s="40"/>
       <c r="H55" s="40"/>
       <c r="I55" s="41"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="34"/>
+      <c r="J55" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="K55" s="34" t="s">
+        <v>118</v>
+      </c>
       <c r="L55" s="34"/>
       <c r="M55" s="34"/>
       <c r="N55" s="34"/>
@@ -6389,17 +6582,21 @@
         <v>71</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F56" s="40"/>
       <c r="G56" s="40"/>
       <c r="H56" s="40"/>
       <c r="I56" s="41"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="34"/>
+      <c r="J56" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="K56" s="34" t="s">
+        <v>118</v>
+      </c>
       <c r="L56" s="34"/>
       <c r="M56" s="34"/>
       <c r="N56" s="34"/>
@@ -6426,17 +6623,21 @@
         <v>71</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F57" s="40"/>
       <c r="G57" s="40"/>
       <c r="H57" s="40"/>
       <c r="I57" s="41"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="34"/>
+      <c r="J57" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="K57" s="34" t="s">
+        <v>118</v>
+      </c>
       <c r="L57" s="34"/>
       <c r="M57" s="34"/>
       <c r="N57" s="34"/>
@@ -6463,15 +6664,23 @@
         <v>71</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40"/>
-      <c r="I58" s="41"/>
+        <v>175</v>
+      </c>
+      <c r="F58" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="G58" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="H58" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="I58" s="41" t="s">
+        <v>179</v>
+      </c>
       <c r="J58" s="34"/>
       <c r="K58" s="34"/>
       <c r="L58" s="34"/>
@@ -6500,15 +6709,23 @@
         <v>71</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="41"/>
+        <v>181</v>
+      </c>
+      <c r="F59" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G59" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="H59" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="I59" s="41" t="s">
+        <v>184</v>
+      </c>
       <c r="J59" s="34"/>
       <c r="K59" s="34"/>
       <c r="L59" s="34"/>
@@ -6537,17 +6754,21 @@
         <v>71</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="F60" s="40"/>
       <c r="G60" s="40"/>
       <c r="H60" s="40"/>
       <c r="I60" s="41"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="34"/>
+      <c r="J60" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="K60" s="34" t="s">
+        <v>118</v>
+      </c>
       <c r="L60" s="34"/>
       <c r="M60" s="34"/>
       <c r="N60" s="34"/>
@@ -6574,17 +6795,21 @@
         <v>71</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="F61" s="40"/>
       <c r="G61" s="40"/>
       <c r="H61" s="40"/>
       <c r="I61" s="41"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="34"/>
+      <c r="J61" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="K61" s="34" t="s">
+        <v>118</v>
+      </c>
       <c r="L61" s="34"/>
       <c r="M61" s="34"/>
       <c r="N61" s="34"/>
@@ -6611,17 +6836,21 @@
         <v>71</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="F62" s="40"/>
       <c r="G62" s="40"/>
       <c r="H62" s="40"/>
       <c r="I62" s="41"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="34"/>
+      <c r="J62" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="K62" s="34" t="s">
+        <v>118</v>
+      </c>
       <c r="L62" s="34"/>
       <c r="M62" s="34"/>
       <c r="N62" s="34"/>
@@ -6648,15 +6877,23 @@
         <v>71</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="F63" s="40"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="40"/>
-      <c r="I63" s="41"/>
+        <v>192</v>
+      </c>
+      <c r="F63" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="G63" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="H63" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="I63" s="41" t="s">
+        <v>195</v>
+      </c>
       <c r="J63" s="34"/>
       <c r="K63" s="34"/>
       <c r="L63" s="34"/>
@@ -6685,15 +6922,23 @@
         <v>71</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="F64" s="40"/>
-      <c r="G64" s="40"/>
-      <c r="H64" s="40"/>
-      <c r="I64" s="41"/>
+        <v>197</v>
+      </c>
+      <c r="F64" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="G64" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="H64" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="I64" s="41" t="s">
+        <v>200</v>
+      </c>
       <c r="J64" s="34"/>
       <c r="K64" s="34"/>
       <c r="L64" s="34"/>
@@ -6722,15 +6967,23 @@
         <v>71</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="F65" s="40"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="40"/>
-      <c r="I65" s="41"/>
+        <v>202</v>
+      </c>
+      <c r="F65" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="G65" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="H65" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="I65" s="41" t="s">
+        <v>205</v>
+      </c>
       <c r="J65" s="34"/>
       <c r="K65" s="34"/>
       <c r="L65" s="34"/>
@@ -6759,15 +7012,23 @@
         <v>71</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="F66" s="40"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="40"/>
-      <c r="I66" s="41"/>
+        <v>207</v>
+      </c>
+      <c r="F66" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="G66" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="H66" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="I66" s="41" t="s">
+        <v>210</v>
+      </c>
       <c r="J66" s="34"/>
       <c r="K66" s="34"/>
       <c r="L66" s="34"/>
@@ -6796,15 +7057,23 @@
         <v>71</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="F67" s="40"/>
-      <c r="G67" s="40"/>
-      <c r="H67" s="40"/>
-      <c r="I67" s="41"/>
+        <v>212</v>
+      </c>
+      <c r="F67" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="G67" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="H67" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="I67" s="41" t="s">
+        <v>215</v>
+      </c>
       <c r="J67" s="34"/>
       <c r="K67" s="34"/>
       <c r="L67" s="34"/>
@@ -6833,15 +7102,23 @@
         <v>71</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="41"/>
+        <v>217</v>
+      </c>
+      <c r="F68" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="G68" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="H68" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="I68" s="41" t="s">
+        <v>220</v>
+      </c>
       <c r="J68" s="34"/>
       <c r="K68" s="34"/>
       <c r="L68" s="34"/>
@@ -6870,15 +7147,23 @@
         <v>71</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="F69" s="40"/>
-      <c r="G69" s="40"/>
-      <c r="H69" s="40"/>
-      <c r="I69" s="41"/>
+        <v>222</v>
+      </c>
+      <c r="F69" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="G69" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="H69" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="I69" s="41" t="s">
+        <v>220</v>
+      </c>
       <c r="J69" s="34"/>
       <c r="K69" s="34"/>
       <c r="L69" s="34"/>
@@ -6907,15 +7192,23 @@
         <v>71</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="F70" s="40"/>
-      <c r="G70" s="40"/>
-      <c r="H70" s="40"/>
-      <c r="I70" s="41"/>
+        <v>226</v>
+      </c>
+      <c r="F70" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="G70" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="H70" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="I70" s="41" t="s">
+        <v>229</v>
+      </c>
       <c r="J70" s="34"/>
       <c r="K70" s="34"/>
       <c r="L70" s="34"/>
@@ -6941,13 +7234,13 @@
         <v>47</v>
       </c>
       <c r="C71" s="43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D71" s="42" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="E71" s="52" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="F71" s="45"/>
       <c r="G71" s="45"/>
@@ -6978,13 +7271,13 @@
         <v>47</v>
       </c>
       <c r="C72" s="43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D72" s="42" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="E72" s="52" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="F72" s="45"/>
       <c r="G72" s="45"/>
@@ -7015,13 +7308,13 @@
         <v>47</v>
       </c>
       <c r="C73" s="43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D73" s="42" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="E73" s="52" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="F73" s="45"/>
       <c r="G73" s="45"/>
@@ -7052,13 +7345,13 @@
         <v>47</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D74" s="42" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="E74" s="52" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="F74" s="45"/>
       <c r="G74" s="45"/>
@@ -7089,13 +7382,13 @@
         <v>47</v>
       </c>
       <c r="C75" s="43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D75" s="42" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="E75" s="52" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="F75" s="45"/>
       <c r="G75" s="45"/>
@@ -7126,13 +7419,13 @@
         <v>47</v>
       </c>
       <c r="C76" s="43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D76" s="42" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="E76" s="52" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="F76" s="45"/>
       <c r="G76" s="45"/>
@@ -7163,13 +7456,13 @@
         <v>47</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D77" s="42" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="E77" s="52" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="F77" s="45"/>
       <c r="G77" s="45"/>
@@ -7200,13 +7493,13 @@
         <v>47</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D78" s="42" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="E78" s="52" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="F78" s="45"/>
       <c r="G78" s="45"/>
@@ -7237,13 +7530,13 @@
         <v>47</v>
       </c>
       <c r="C79" s="43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D79" s="42" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="E79" s="52" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="F79" s="45"/>
       <c r="G79" s="45"/>
@@ -7274,13 +7567,13 @@
         <v>47</v>
       </c>
       <c r="C80" s="43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D80" s="42" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="E80" s="52" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="F80" s="45"/>
       <c r="G80" s="45"/>
@@ -7311,13 +7604,13 @@
         <v>47</v>
       </c>
       <c r="C81" s="43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D81" s="42" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="E81" s="52" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="F81" s="45"/>
       <c r="G81" s="45"/>
@@ -7348,13 +7641,13 @@
         <v>47</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="F82" s="40"/>
       <c r="G82" s="40"/>
@@ -7385,13 +7678,13 @@
         <v>47</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="F83" s="40"/>
       <c r="G83" s="40"/>
@@ -7422,13 +7715,13 @@
         <v>47</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="F84" s="40"/>
       <c r="G84" s="40"/>
@@ -7459,13 +7752,13 @@
         <v>47</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="F85" s="40"/>
       <c r="G85" s="40"/>
@@ -7496,13 +7789,13 @@
         <v>47</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="E86" s="31" t="s">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="F86" s="40"/>
       <c r="G86" s="40"/>
@@ -7533,13 +7826,13 @@
         <v>47</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="F87" s="40"/>
       <c r="G87" s="40"/>
@@ -7570,13 +7863,13 @@
         <v>47</v>
       </c>
       <c r="C88" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D88" s="30" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="F88" s="40"/>
       <c r="G88" s="40"/>
@@ -7607,13 +7900,13 @@
         <v>47</v>
       </c>
       <c r="C89" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D89" s="30" t="s">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="F89" s="40"/>
       <c r="G89" s="40"/>
@@ -7644,13 +7937,13 @@
         <v>47</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D90" s="30" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="F90" s="40"/>
       <c r="G90" s="40"/>
@@ -7681,13 +7974,13 @@
         <v>47</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="F91" s="40"/>
       <c r="G91" s="40"/>
@@ -7718,13 +8011,13 @@
         <v>47</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D92" s="30" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="E92" s="31" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="F92" s="40"/>
       <c r="G92" s="40"/>
@@ -7755,13 +8048,13 @@
         <v>47</v>
       </c>
       <c r="C93" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D93" s="30" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="E93" s="31" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="F93" s="40"/>
       <c r="G93" s="40"/>
@@ -7792,13 +8085,13 @@
         <v>47</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="F94" s="40"/>
       <c r="G94" s="40"/>
@@ -7829,13 +8122,13 @@
         <v>47</v>
       </c>
       <c r="C95" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D95" s="30" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="E95" s="31" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="F95" s="40"/>
       <c r="G95" s="40"/>
@@ -7866,13 +8159,13 @@
         <v>47</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D96" s="30" t="s">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="E96" s="31" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="F96" s="40"/>
       <c r="G96" s="40"/>
@@ -7903,13 +8196,13 @@
         <v>47</v>
       </c>
       <c r="C97" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D97" s="30" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="F97" s="40"/>
       <c r="G97" s="40"/>
@@ -7940,13 +8233,13 @@
         <v>47</v>
       </c>
       <c r="C98" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="E98" s="31" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="F98" s="40"/>
       <c r="G98" s="40"/>
@@ -7977,13 +8270,13 @@
         <v>47</v>
       </c>
       <c r="C99" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="E99" s="31" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="F99" s="40"/>
       <c r="G99" s="40"/>
@@ -8014,13 +8307,13 @@
         <v>47</v>
       </c>
       <c r="C100" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="E100" s="31" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="F100" s="40"/>
       <c r="G100" s="40"/>
@@ -8051,13 +8344,13 @@
         <v>47</v>
       </c>
       <c r="C101" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="E101" s="31" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="F101" s="40"/>
       <c r="G101" s="40"/>
@@ -8088,13 +8381,13 @@
         <v>47</v>
       </c>
       <c r="C102" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="E102" s="31" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="F102" s="40"/>
       <c r="G102" s="40"/>
@@ -8125,13 +8418,13 @@
         <v>47</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="E103" s="31" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="F103" s="40"/>
       <c r="G103" s="40"/>
@@ -8162,13 +8455,13 @@
         <v>47</v>
       </c>
       <c r="C104" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="E104" s="31" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="F104" s="40"/>
       <c r="G104" s="40"/>
@@ -8199,13 +8492,13 @@
         <v>47</v>
       </c>
       <c r="C105" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D105" s="30" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="E105" s="31" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="F105" s="40"/>
       <c r="G105" s="40"/>
@@ -8236,13 +8529,13 @@
         <v>47</v>
       </c>
       <c r="C106" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D106" s="30" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="E106" s="31" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="F106" s="40"/>
       <c r="G106" s="40"/>
@@ -8273,13 +8566,13 @@
         <v>47</v>
       </c>
       <c r="C107" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D107" s="30" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="F107" s="40"/>
       <c r="G107" s="40"/>
@@ -8310,13 +8603,13 @@
         <v>47</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D108" s="30" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="F108" s="40"/>
       <c r="G108" s="40"/>
@@ -8347,13 +8640,13 @@
         <v>47</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D109" s="30" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="E109" s="31" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="F109" s="40"/>
       <c r="G109" s="40"/>
@@ -8384,13 +8677,13 @@
         <v>47</v>
       </c>
       <c r="C110" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D110" s="30" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="E110" s="31" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="F110" s="40"/>
       <c r="G110" s="40"/>
@@ -8421,13 +8714,13 @@
         <v>47</v>
       </c>
       <c r="C111" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D111" s="30" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="E111" s="31" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="F111" s="40"/>
       <c r="G111" s="40"/>
@@ -8458,13 +8751,13 @@
         <v>47</v>
       </c>
       <c r="C112" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D112" s="30" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="E112" s="31" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="F112" s="40"/>
       <c r="G112" s="40"/>
@@ -8495,13 +8788,13 @@
         <v>47</v>
       </c>
       <c r="C113" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D113" s="30" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="E113" s="31" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="F113" s="40"/>
       <c r="G113" s="40"/>
@@ -8532,13 +8825,13 @@
         <v>47</v>
       </c>
       <c r="C114" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D114" s="30" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="E114" s="31" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="F114" s="40"/>
       <c r="G114" s="40"/>
@@ -8569,13 +8862,13 @@
         <v>47</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D115" s="30" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="E115" s="31" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="F115" s="40"/>
       <c r="G115" s="40"/>
@@ -8606,13 +8899,13 @@
         <v>47</v>
       </c>
       <c r="C116" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D116" s="30" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="E116" s="31" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="F116" s="40"/>
       <c r="G116" s="40"/>
@@ -8643,13 +8936,13 @@
         <v>47</v>
       </c>
       <c r="C117" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D117" s="30" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="E117" s="31" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="F117" s="40"/>
       <c r="G117" s="40"/>
@@ -8680,13 +8973,13 @@
         <v>47</v>
       </c>
       <c r="C118" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D118" s="30" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="E118" s="31" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="F118" s="40"/>
       <c r="G118" s="40"/>
@@ -8696,7 +8989,7 @@
         <v>63</v>
       </c>
       <c r="K118" s="34" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L118" s="34"/>
       <c r="M118" s="34"/>
@@ -8721,13 +9014,13 @@
         <v>47</v>
       </c>
       <c r="C119" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D119" s="30" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="E119" s="31" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="F119" s="40"/>
       <c r="G119" s="40"/>
@@ -8737,7 +9030,7 @@
         <v>63</v>
       </c>
       <c r="K119" s="34" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L119" s="34"/>
       <c r="M119" s="34"/>
@@ -8762,13 +9055,13 @@
         <v>47</v>
       </c>
       <c r="C120" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D120" s="30" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="E120" s="31" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="F120" s="40"/>
       <c r="G120" s="40"/>
@@ -8778,7 +9071,7 @@
         <v>63</v>
       </c>
       <c r="K120" s="34" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L120" s="34"/>
       <c r="M120" s="34"/>
@@ -8803,13 +9096,13 @@
         <v>47</v>
       </c>
       <c r="C121" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D121" s="30" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="E121" s="31" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="F121" s="40"/>
       <c r="G121" s="40"/>
@@ -8819,7 +9112,7 @@
         <v>63</v>
       </c>
       <c r="K121" s="34" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L121" s="34"/>
       <c r="M121" s="34"/>
@@ -8844,25 +9137,25 @@
         <v>47</v>
       </c>
       <c r="C122" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D122" s="30" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="E122" s="31" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="F122" s="40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G122" s="40" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="H122" s="40" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="I122" s="41" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="J122" s="34" t="s">
         <v>55</v>
@@ -8888,7 +9181,7 @@
         <v>55</v>
       </c>
       <c r="S122" s="34" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T122" s="34"/>
       <c r="U122" s="35"/>
@@ -8905,25 +9198,25 @@
         <v>47</v>
       </c>
       <c r="C123" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D123" s="30" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="E123" s="31" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="F123" s="40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G123" s="40" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="H123" s="40" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="I123" s="41" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="J123" s="34" t="s">
         <v>55</v>
@@ -8949,7 +9242,7 @@
         <v>55</v>
       </c>
       <c r="S123" s="34" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T123" s="34"/>
       <c r="U123" s="35"/>
@@ -8966,25 +9259,25 @@
         <v>47</v>
       </c>
       <c r="C124" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D124" s="30" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="E124" s="31" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="F124" s="40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G124" s="40" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="H124" s="40" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="I124" s="41" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="J124" s="34" t="s">
         <v>55</v>
@@ -9010,7 +9303,7 @@
         <v>55</v>
       </c>
       <c r="S124" s="34" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T124" s="34"/>
       <c r="U124" s="35"/>
@@ -9027,25 +9320,25 @@
         <v>47</v>
       </c>
       <c r="C125" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D125" s="30" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="E125" s="31" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="F125" s="40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G125" s="40" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="H125" s="40" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="I125" s="41" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="J125" s="34" t="s">
         <v>55</v>
@@ -9071,7 +9364,7 @@
         <v>55</v>
       </c>
       <c r="S125" s="34" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T125" s="34"/>
       <c r="U125" s="35"/>
@@ -9088,25 +9381,25 @@
         <v>47</v>
       </c>
       <c r="C126" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D126" s="30" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="E126" s="31" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="F126" s="40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G126" s="40" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="H126" s="40" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="I126" s="41" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="J126" s="34" t="s">
         <v>55</v>
@@ -9132,7 +9425,7 @@
         <v>55</v>
       </c>
       <c r="S126" s="34" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T126" s="34"/>
       <c r="U126" s="35"/>
@@ -9149,25 +9442,25 @@
         <v>47</v>
       </c>
       <c r="C127" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D127" s="30" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="E127" s="31" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="F127" s="40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G127" s="40" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="H127" s="40" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="I127" s="41" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="J127" s="34" t="s">
         <v>55</v>
@@ -9193,7 +9486,7 @@
         <v>55</v>
       </c>
       <c r="S127" s="34" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T127" s="34"/>
       <c r="U127" s="35"/>
@@ -9210,25 +9503,25 @@
         <v>47</v>
       </c>
       <c r="C128" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D128" s="30" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="E128" s="31" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="F128" s="40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G128" s="40" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="H128" s="40" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="I128" s="41" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="J128" s="34" t="s">
         <v>55</v>
@@ -9254,7 +9547,7 @@
         <v>55</v>
       </c>
       <c r="S128" s="34" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T128" s="34"/>
       <c r="U128" s="35"/>
@@ -9271,25 +9564,25 @@
         <v>47</v>
       </c>
       <c r="C129" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D129" s="30" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="E129" s="31" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="F129" s="40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G129" s="40" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="H129" s="40" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="I129" s="41" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="J129" s="34" t="s">
         <v>55</v>
@@ -9315,7 +9608,7 @@
         <v>55</v>
       </c>
       <c r="S129" s="34" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T129" s="34"/>
       <c r="U129" s="35"/>
@@ -9332,25 +9625,25 @@
         <v>47</v>
       </c>
       <c r="C130" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D130" s="30" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="E130" s="31" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="F130" s="40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G130" s="40" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="H130" s="40" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="I130" s="41" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="J130" s="34" t="s">
         <v>55</v>
@@ -9376,7 +9669,7 @@
         <v>55</v>
       </c>
       <c r="S130" s="34" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T130" s="34"/>
       <c r="U130" s="35"/>
@@ -9393,25 +9686,25 @@
         <v>47</v>
       </c>
       <c r="C131" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D131" s="30" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="E131" s="31" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="F131" s="40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G131" s="40" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="H131" s="40" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="I131" s="41" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="J131" s="34" t="s">
         <v>55</v>
@@ -9437,7 +9730,7 @@
         <v>55</v>
       </c>
       <c r="S131" s="34" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T131" s="34"/>
       <c r="U131" s="35"/>
@@ -9454,25 +9747,25 @@
         <v>47</v>
       </c>
       <c r="C132" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D132" s="30" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="E132" s="31" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="F132" s="40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G132" s="40" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="H132" s="40" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="I132" s="41" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="J132" s="34" t="s">
         <v>55</v>
@@ -9498,7 +9791,7 @@
         <v>55</v>
       </c>
       <c r="S132" s="34" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T132" s="34"/>
       <c r="U132" s="35"/>
@@ -9515,25 +9808,25 @@
         <v>47</v>
       </c>
       <c r="C133" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D133" s="30" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="E133" s="31" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="F133" s="40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G133" s="40" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="H133" s="40" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="I133" s="41" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="J133" s="34" t="s">
         <v>55</v>
@@ -9559,7 +9852,7 @@
         <v>55</v>
       </c>
       <c r="S133" s="34" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T133" s="34"/>
       <c r="U133" s="35"/>
@@ -9579,10 +9872,10 @@
         <v>69</v>
       </c>
       <c r="D134" s="30" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="E134" s="31" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="F134" s="40"/>
       <c r="G134" s="40"/>
@@ -9616,10 +9909,10 @@
         <v>69</v>
       </c>
       <c r="D135" s="30" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="E135" s="31" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="F135" s="40"/>
       <c r="G135" s="40"/>
@@ -9653,10 +9946,10 @@
         <v>69</v>
       </c>
       <c r="D136" s="30" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="E136" s="31" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="F136" s="40"/>
       <c r="G136" s="40"/>
@@ -9690,10 +9983,10 @@
         <v>69</v>
       </c>
       <c r="D137" s="30" t="s">
-        <v>363</v>
+        <v>398</v>
       </c>
       <c r="E137" s="31" t="s">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="F137" s="40"/>
       <c r="G137" s="40"/>
@@ -9727,10 +10020,10 @@
         <v>69</v>
       </c>
       <c r="D138" s="30" t="s">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="E138" s="31" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="F138" s="40"/>
       <c r="G138" s="40"/>
@@ -9764,10 +10057,10 @@
         <v>69</v>
       </c>
       <c r="D139" s="30" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="E139" s="31" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="F139" s="40"/>
       <c r="G139" s="40"/>
@@ -9801,10 +10094,10 @@
         <v>69</v>
       </c>
       <c r="D140" s="30" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="E140" s="31" t="s">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="F140" s="40"/>
       <c r="G140" s="40"/>
@@ -9838,10 +10131,10 @@
         <v>69</v>
       </c>
       <c r="D141" s="30" t="s">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="E141" s="31" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="F141" s="40"/>
       <c r="G141" s="40"/>
@@ -9875,10 +10168,10 @@
         <v>69</v>
       </c>
       <c r="D142" s="30" t="s">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="E142" s="31" t="s">
-        <v>374</v>
+        <v>409</v>
       </c>
       <c r="F142" s="40"/>
       <c r="G142" s="40"/>
@@ -9912,10 +10205,10 @@
         <v>69</v>
       </c>
       <c r="D143" s="30" t="s">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="E143" s="31" t="s">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="F143" s="40"/>
       <c r="G143" s="40"/>
@@ -9949,10 +10242,10 @@
         <v>69</v>
       </c>
       <c r="D144" s="30" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="E144" s="31" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="F144" s="40"/>
       <c r="G144" s="40"/>
@@ -9986,10 +10279,10 @@
         <v>69</v>
       </c>
       <c r="D145" s="30" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="E145" s="31" t="s">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="F145" s="40"/>
       <c r="G145" s="40"/>
@@ -10023,10 +10316,10 @@
         <v>69</v>
       </c>
       <c r="D146" s="30" t="s">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="E146" s="31" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="F146" s="40"/>
       <c r="G146" s="40"/>
@@ -10060,10 +10353,10 @@
         <v>69</v>
       </c>
       <c r="D147" s="30" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="E147" s="31" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="F147" s="40"/>
       <c r="G147" s="40"/>
@@ -10097,10 +10390,10 @@
         <v>69</v>
       </c>
       <c r="D148" s="30" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="E148" s="31" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="F148" s="40"/>
       <c r="G148" s="40"/>
@@ -10123,7 +10416,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="30" t="n">
         <v>191</v>
       </c>
@@ -10134,22 +10427,22 @@
         <v>48</v>
       </c>
       <c r="D149" s="30" t="s">
-        <v>387</v>
+        <v>422</v>
       </c>
       <c r="E149" s="31" t="s">
-        <v>388</v>
+        <v>423</v>
       </c>
       <c r="F149" s="32" t="s">
         <v>51</v>
       </c>
       <c r="G149" s="53" t="s">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="H149" s="53" t="s">
-        <v>390</v>
+        <v>425</v>
       </c>
       <c r="I149" s="53" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="J149" s="34" t="s">
         <v>55</v>
@@ -10172,7 +10465,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="30" t="n">
         <v>376</v>
       </c>
@@ -10183,22 +10476,22 @@
         <v>48</v>
       </c>
       <c r="D150" s="30" t="s">
-        <v>392</v>
+        <v>427</v>
       </c>
       <c r="E150" s="31" t="s">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="F150" s="32" t="s">
         <v>51</v>
       </c>
       <c r="G150" s="53" t="s">
-        <v>394</v>
+        <v>429</v>
       </c>
       <c r="H150" s="53" t="s">
-        <v>395</v>
+        <v>430</v>
       </c>
       <c r="I150" s="53" t="s">
-        <v>396</v>
+        <v>431</v>
       </c>
       <c r="J150" s="34" t="s">
         <v>55</v>
@@ -10229,13 +10522,13 @@
         <v>47</v>
       </c>
       <c r="C151" s="37" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D151" s="30" t="s">
-        <v>398</v>
+        <v>433</v>
       </c>
       <c r="E151" s="31" t="s">
-        <v>399</v>
+        <v>434</v>
       </c>
       <c r="F151" s="40"/>
       <c r="G151" s="40"/>
@@ -10266,13 +10559,13 @@
         <v>47</v>
       </c>
       <c r="C152" s="37" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D152" s="30" t="s">
-        <v>400</v>
+        <v>435</v>
       </c>
       <c r="E152" s="31" t="s">
-        <v>401</v>
+        <v>436</v>
       </c>
       <c r="F152" s="40"/>
       <c r="G152" s="40"/>
@@ -10303,13 +10596,13 @@
         <v>47</v>
       </c>
       <c r="C153" s="37" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D153" s="30" t="s">
-        <v>402</v>
+        <v>437</v>
       </c>
       <c r="E153" s="31" t="s">
-        <v>403</v>
+        <v>438</v>
       </c>
       <c r="F153" s="40"/>
       <c r="G153" s="40"/>
@@ -10340,10 +10633,10 @@
         <v>47</v>
       </c>
       <c r="C154" s="37" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D154" s="30" t="s">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="E154" s="31" t="s">
         <v>59</v>
@@ -10377,13 +10670,13 @@
         <v>47</v>
       </c>
       <c r="C155" s="37" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D155" s="30" t="s">
-        <v>405</v>
+        <v>440</v>
       </c>
       <c r="E155" s="31" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F155" s="40"/>
       <c r="G155" s="40"/>
@@ -10414,13 +10707,13 @@
         <v>47</v>
       </c>
       <c r="C156" s="37" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D156" s="30" t="s">
-        <v>406</v>
+        <v>441</v>
       </c>
       <c r="E156" s="31" t="s">
-        <v>407</v>
+        <v>442</v>
       </c>
       <c r="F156" s="40"/>
       <c r="G156" s="40"/>
@@ -10451,13 +10744,13 @@
         <v>47</v>
       </c>
       <c r="C157" s="37" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D157" s="30" t="s">
-        <v>408</v>
+        <v>443</v>
       </c>
       <c r="E157" s="31" t="s">
-        <v>409</v>
+        <v>444</v>
       </c>
       <c r="F157" s="40"/>
       <c r="G157" s="40"/>
@@ -10488,13 +10781,13 @@
         <v>47</v>
       </c>
       <c r="C158" s="37" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D158" s="30" t="s">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="E158" s="31" t="s">
-        <v>411</v>
+        <v>446</v>
       </c>
       <c r="F158" s="40"/>
       <c r="G158" s="40"/>
@@ -10525,13 +10818,13 @@
         <v>47</v>
       </c>
       <c r="C159" s="37" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D159" s="30" t="s">
-        <v>412</v>
+        <v>447</v>
       </c>
       <c r="E159" s="31" t="s">
-        <v>413</v>
+        <v>448</v>
       </c>
       <c r="F159" s="40"/>
       <c r="G159" s="40"/>
@@ -10562,13 +10855,13 @@
         <v>47</v>
       </c>
       <c r="C160" s="37" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D160" s="30" t="s">
-        <v>414</v>
+        <v>449</v>
       </c>
       <c r="E160" s="31" t="s">
-        <v>415</v>
+        <v>450</v>
       </c>
       <c r="F160" s="40"/>
       <c r="G160" s="40"/>
@@ -10599,13 +10892,13 @@
         <v>47</v>
       </c>
       <c r="C161" s="37" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D161" s="30" t="s">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="E161" s="31" t="s">
-        <v>417</v>
+        <v>452</v>
       </c>
       <c r="F161" s="40"/>
       <c r="G161" s="40"/>
@@ -10636,13 +10929,13 @@
         <v>47</v>
       </c>
       <c r="C162" s="37" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D162" s="30" t="s">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="E162" s="31" t="s">
-        <v>419</v>
+        <v>454</v>
       </c>
       <c r="F162" s="40"/>
       <c r="G162" s="40"/>
@@ -10673,13 +10966,13 @@
         <v>47</v>
       </c>
       <c r="C163" s="37" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D163" s="30" t="s">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="E163" s="31" t="s">
-        <v>421</v>
+        <v>456</v>
       </c>
       <c r="F163" s="40"/>
       <c r="G163" s="40"/>
@@ -10710,13 +11003,13 @@
         <v>47</v>
       </c>
       <c r="C164" s="37" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D164" s="30" t="s">
-        <v>422</v>
+        <v>457</v>
       </c>
       <c r="E164" s="31" t="s">
-        <v>423</v>
+        <v>458</v>
       </c>
       <c r="F164" s="40"/>
       <c r="G164" s="40"/>
@@ -10747,13 +11040,13 @@
         <v>47</v>
       </c>
       <c r="C165" s="37" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D165" s="30" t="s">
-        <v>424</v>
+        <v>459</v>
       </c>
       <c r="E165" s="31" t="s">
-        <v>425</v>
+        <v>460</v>
       </c>
       <c r="F165" s="40"/>
       <c r="G165" s="40"/>
@@ -10784,13 +11077,13 @@
         <v>47</v>
       </c>
       <c r="C166" s="37" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D166" s="30" t="s">
-        <v>426</v>
+        <v>461</v>
       </c>
       <c r="E166" s="31" t="s">
-        <v>427</v>
+        <v>462</v>
       </c>
       <c r="F166" s="40"/>
       <c r="G166" s="40"/>
@@ -10824,10 +11117,10 @@
         <v>69</v>
       </c>
       <c r="D167" s="30" t="s">
-        <v>428</v>
+        <v>463</v>
       </c>
       <c r="E167" s="31" t="s">
-        <v>429</v>
+        <v>464</v>
       </c>
       <c r="F167" s="40"/>
       <c r="G167" s="40"/>
@@ -10861,10 +11154,10 @@
         <v>69</v>
       </c>
       <c r="D168" s="30" t="s">
-        <v>430</v>
+        <v>465</v>
       </c>
       <c r="E168" s="31" t="s">
-        <v>431</v>
+        <v>466</v>
       </c>
       <c r="F168" s="40"/>
       <c r="G168" s="40"/>
@@ -10895,25 +11188,25 @@
         <v>47</v>
       </c>
       <c r="C169" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D169" s="30" t="s">
-        <v>432</v>
+        <v>467</v>
       </c>
       <c r="E169" s="31" t="s">
-        <v>433</v>
+        <v>468</v>
       </c>
       <c r="F169" s="40" t="s">
-        <v>434</v>
+        <v>469</v>
       </c>
       <c r="G169" s="40" t="s">
-        <v>435</v>
+        <v>470</v>
       </c>
       <c r="H169" s="40" t="s">
-        <v>436</v>
+        <v>471</v>
       </c>
       <c r="I169" s="41" t="s">
-        <v>437</v>
+        <v>472</v>
       </c>
       <c r="J169" s="34" t="s">
         <v>55</v>
@@ -10944,25 +11237,25 @@
         <v>47</v>
       </c>
       <c r="C170" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D170" s="30" t="s">
-        <v>438</v>
+        <v>473</v>
       </c>
       <c r="E170" s="31" t="s">
-        <v>439</v>
+        <v>474</v>
       </c>
       <c r="F170" s="40" t="s">
         <v>51</v>
       </c>
       <c r="G170" s="40" t="s">
-        <v>440</v>
+        <v>475</v>
       </c>
       <c r="H170" s="40" t="s">
-        <v>441</v>
+        <v>476</v>
       </c>
       <c r="I170" s="41" t="s">
-        <v>442</v>
+        <v>477</v>
       </c>
       <c r="J170" s="34" t="s">
         <v>55</v>
@@ -10996,10 +11289,10 @@
         <v>67</v>
       </c>
       <c r="D171" s="30" t="s">
-        <v>443</v>
+        <v>478</v>
       </c>
       <c r="E171" s="31" t="s">
-        <v>444</v>
+        <v>479</v>
       </c>
       <c r="F171" s="40"/>
       <c r="G171" s="40"/>
@@ -11033,10 +11326,10 @@
         <v>67</v>
       </c>
       <c r="D172" s="30" t="s">
-        <v>445</v>
+        <v>480</v>
       </c>
       <c r="E172" s="31" t="s">
-        <v>446</v>
+        <v>481</v>
       </c>
       <c r="F172" s="40"/>
       <c r="G172" s="40"/>
@@ -11059,7 +11352,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="46.4" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="46.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="30" t="n">
         <v>452</v>
       </c>
@@ -11070,22 +11363,22 @@
         <v>48</v>
       </c>
       <c r="D173" s="30" t="s">
-        <v>447</v>
+        <v>482</v>
       </c>
       <c r="E173" s="31" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
       <c r="F173" s="32" t="s">
-        <v>434</v>
+        <v>469</v>
       </c>
       <c r="G173" s="40" t="s">
-        <v>449</v>
+        <v>484</v>
       </c>
       <c r="H173" s="40" t="s">
-        <v>450</v>
+        <v>485</v>
       </c>
       <c r="I173" s="41" t="s">
-        <v>451</v>
+        <v>486</v>
       </c>
       <c r="J173" s="34" t="s">
         <v>55</v>
@@ -11116,13 +11409,13 @@
         <v>47</v>
       </c>
       <c r="C174" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D174" s="30" t="s">
-        <v>452</v>
+        <v>487</v>
       </c>
       <c r="E174" s="31" t="s">
-        <v>453</v>
+        <v>488</v>
       </c>
       <c r="F174" s="40"/>
       <c r="G174" s="40"/>
@@ -11153,13 +11446,13 @@
         <v>47</v>
       </c>
       <c r="C175" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D175" s="30" t="s">
-        <v>454</v>
+        <v>489</v>
       </c>
       <c r="E175" s="31" t="s">
-        <v>455</v>
+        <v>490</v>
       </c>
       <c r="F175" s="40"/>
       <c r="G175" s="40"/>
@@ -11190,13 +11483,13 @@
         <v>47</v>
       </c>
       <c r="C176" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D176" s="30" t="s">
-        <v>456</v>
+        <v>491</v>
       </c>
       <c r="E176" s="31" t="s">
-        <v>457</v>
+        <v>492</v>
       </c>
       <c r="F176" s="40"/>
       <c r="G176" s="40"/>
@@ -11227,13 +11520,13 @@
         <v>47</v>
       </c>
       <c r="C177" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D177" s="30" t="s">
-        <v>458</v>
+        <v>493</v>
       </c>
       <c r="E177" s="31" t="s">
-        <v>459</v>
+        <v>494</v>
       </c>
       <c r="F177" s="40"/>
       <c r="G177" s="40"/>
@@ -11264,13 +11557,13 @@
         <v>47</v>
       </c>
       <c r="C178" s="43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D178" s="42" t="s">
-        <v>460</v>
+        <v>495</v>
       </c>
       <c r="E178" s="52" t="s">
-        <v>461</v>
+        <v>496</v>
       </c>
       <c r="F178" s="45"/>
       <c r="G178" s="45"/>
@@ -11301,13 +11594,13 @@
         <v>47</v>
       </c>
       <c r="C179" s="43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D179" s="42" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="E179" s="52" t="s">
-        <v>463</v>
+        <v>498</v>
       </c>
       <c r="F179" s="45"/>
       <c r="G179" s="45"/>
@@ -11338,13 +11631,13 @@
         <v>47</v>
       </c>
       <c r="C180" s="37" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D180" s="30" t="s">
-        <v>464</v>
+        <v>499</v>
       </c>
       <c r="E180" s="31" t="s">
-        <v>465</v>
+        <v>500</v>
       </c>
       <c r="F180" s="40"/>
       <c r="G180" s="40"/>
@@ -11375,25 +11668,25 @@
         <v>47</v>
       </c>
       <c r="C181" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D181" s="30" t="s">
-        <v>466</v>
+        <v>501</v>
       </c>
       <c r="E181" s="31" t="s">
-        <v>467</v>
+        <v>502</v>
       </c>
       <c r="F181" s="40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G181" s="30" t="s">
-        <v>468</v>
+        <v>503</v>
       </c>
       <c r="H181" s="30" t="s">
-        <v>469</v>
+        <v>504</v>
       </c>
       <c r="I181" s="30" t="s">
-        <v>470</v>
+        <v>505</v>
       </c>
       <c r="J181" s="34" t="s">
         <v>55</v>
@@ -11419,7 +11712,7 @@
         <v>55</v>
       </c>
       <c r="S181" s="34" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T181" s="34"/>
       <c r="U181" s="30"/>
@@ -11439,17 +11732,21 @@
         <v>71</v>
       </c>
       <c r="D182" s="30" t="s">
-        <v>471</v>
+        <v>506</v>
       </c>
       <c r="E182" s="31" t="s">
-        <v>472</v>
+        <v>507</v>
       </c>
       <c r="F182" s="30"/>
       <c r="G182" s="30"/>
       <c r="H182" s="30"/>
       <c r="I182" s="30"/>
-      <c r="J182" s="34"/>
-      <c r="K182" s="34"/>
+      <c r="J182" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="K182" s="34" t="s">
+        <v>118</v>
+      </c>
       <c r="L182" s="30"/>
       <c r="M182" s="34"/>
       <c r="N182" s="34"/>
@@ -11473,13 +11770,13 @@
         <v>47</v>
       </c>
       <c r="C183" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D183" s="30" t="s">
-        <v>473</v>
+        <v>508</v>
       </c>
       <c r="E183" s="31" t="s">
-        <v>474</v>
+        <v>509</v>
       </c>
       <c r="F183" s="30"/>
       <c r="G183" s="30"/>
@@ -11510,13 +11807,13 @@
         <v>47</v>
       </c>
       <c r="C184" s="43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D184" s="42" t="s">
-        <v>475</v>
+        <v>510</v>
       </c>
       <c r="E184" s="52" t="s">
-        <v>476</v>
+        <v>511</v>
       </c>
       <c r="F184" s="42"/>
       <c r="G184" s="42"/>
@@ -11547,13 +11844,13 @@
         <v>47</v>
       </c>
       <c r="C185" s="37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D185" s="30" t="s">
-        <v>477</v>
+        <v>512</v>
       </c>
       <c r="E185" s="31" t="s">
-        <v>478</v>
+        <v>513</v>
       </c>
       <c r="F185" s="30"/>
       <c r="G185" s="30"/>
@@ -11587,22 +11884,22 @@
         <v>48</v>
       </c>
       <c r="D186" s="30" t="s">
-        <v>479</v>
+        <v>514</v>
       </c>
       <c r="E186" s="31" t="s">
-        <v>480</v>
+        <v>515</v>
       </c>
       <c r="F186" s="32" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G186" s="30" t="s">
-        <v>481</v>
+        <v>516</v>
       </c>
       <c r="H186" s="30" t="s">
-        <v>482</v>
+        <v>517</v>
       </c>
       <c r="I186" s="30" t="s">
-        <v>483</v>
+        <v>518</v>
       </c>
       <c r="J186" s="34" t="s">
         <v>55</v>
@@ -11628,7 +11925,7 @@
         <v>55</v>
       </c>
       <c r="S186" s="34" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T186" s="34"/>
       <c r="U186" s="30"/>
@@ -11648,10 +11945,10 @@
         <v>67</v>
       </c>
       <c r="D187" s="30" t="s">
-        <v>484</v>
+        <v>519</v>
       </c>
       <c r="E187" s="31" t="s">
-        <v>485</v>
+        <v>520</v>
       </c>
       <c r="F187" s="30"/>
       <c r="G187" s="30"/>
@@ -11682,25 +11979,25 @@
         <v>47</v>
       </c>
       <c r="C188" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D188" s="30" t="s">
-        <v>486</v>
+        <v>521</v>
       </c>
       <c r="E188" s="31" t="s">
-        <v>487</v>
+        <v>522</v>
       </c>
       <c r="F188" s="40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G188" s="30" t="s">
-        <v>488</v>
+        <v>523</v>
       </c>
       <c r="H188" s="30" t="s">
-        <v>489</v>
+        <v>524</v>
       </c>
       <c r="I188" s="30" t="s">
-        <v>490</v>
+        <v>525</v>
       </c>
       <c r="J188" s="34" t="s">
         <v>55</v>
@@ -11726,7 +12023,7 @@
         <v>55</v>
       </c>
       <c r="S188" s="34" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T188" s="34"/>
       <c r="U188" s="30"/>
@@ -11746,10 +12043,10 @@
         <v>69</v>
       </c>
       <c r="D189" s="30" t="s">
-        <v>491</v>
+        <v>526</v>
       </c>
       <c r="E189" s="31" t="s">
-        <v>492</v>
+        <v>527</v>
       </c>
       <c r="F189" s="30"/>
       <c r="G189" s="30"/>
@@ -11780,13 +12077,13 @@
         <v>47</v>
       </c>
       <c r="C190" s="37" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D190" s="30" t="s">
-        <v>493</v>
+        <v>528</v>
       </c>
       <c r="E190" s="31" t="s">
-        <v>494</v>
+        <v>529</v>
       </c>
       <c r="F190" s="30"/>
       <c r="G190" s="30"/>
@@ -11809,7 +12106,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="140.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="140.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="30" t="n">
         <v>471</v>
       </c>
@@ -11820,16 +12117,26 @@
         <v>71</v>
       </c>
       <c r="D191" s="30" t="s">
-        <v>495</v>
+        <v>530</v>
       </c>
       <c r="E191" s="31" t="s">
-        <v>496</v>
-      </c>
-      <c r="F191" s="40"/>
-      <c r="G191" s="40"/>
-      <c r="H191" s="40"/>
-      <c r="I191" s="41"/>
-      <c r="J191" s="34"/>
+        <v>531</v>
+      </c>
+      <c r="F191" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="G191" s="40" t="s">
+        <v>532</v>
+      </c>
+      <c r="H191" s="40" t="s">
+        <v>533</v>
+      </c>
+      <c r="I191" s="41" t="s">
+        <v>534</v>
+      </c>
+      <c r="J191" s="34" t="s">
+        <v>55</v>
+      </c>
       <c r="K191" s="34"/>
       <c r="L191" s="34"/>
       <c r="M191" s="34"/>
@@ -11839,14 +12146,16 @@
       <c r="Q191" s="34"/>
       <c r="R191" s="34"/>
       <c r="S191" s="34"/>
-      <c r="T191" s="34"/>
+      <c r="T191" s="34" t="s">
+        <v>56</v>
+      </c>
       <c r="U191" s="35"/>
       <c r="V191" s="36"/>
       <c r="W191" s="34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="43.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="111.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="30" t="n">
         <v>472</v>
       </c>
@@ -11857,16 +12166,26 @@
         <v>71</v>
       </c>
       <c r="D192" s="30" t="s">
-        <v>497</v>
+        <v>535</v>
       </c>
       <c r="E192" s="31" t="s">
-        <v>498</v>
-      </c>
-      <c r="F192" s="40"/>
-      <c r="G192" s="40"/>
-      <c r="H192" s="40"/>
-      <c r="I192" s="41"/>
-      <c r="J192" s="34"/>
+        <v>536</v>
+      </c>
+      <c r="F192" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="G192" s="40" t="s">
+        <v>537</v>
+      </c>
+      <c r="H192" s="40" t="s">
+        <v>538</v>
+      </c>
+      <c r="I192" s="41" t="s">
+        <v>539</v>
+      </c>
+      <c r="J192" s="34" t="s">
+        <v>55</v>
+      </c>
       <c r="K192" s="34"/>
       <c r="L192" s="34"/>
       <c r="M192" s="34"/>
@@ -11876,7 +12195,9 @@
       <c r="Q192" s="34"/>
       <c r="R192" s="34"/>
       <c r="S192" s="34"/>
-      <c r="T192" s="34"/>
+      <c r="T192" s="34" t="s">
+        <v>56</v>
+      </c>
       <c r="U192" s="35"/>
       <c r="V192" s="36"/>
       <c r="W192" s="34" t="s">
@@ -15991,14 +16312,16 @@
     <row r="755" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A9:W192">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="LAB"/>
+        <filter val="RAD"/>
+        <filter val="RSA"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="22">
       <filters>
         <filter val="OK"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="RSA"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -16012,7 +16335,7 @@
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10 M10:N192 P10:R192 J12:J18 J20:J35 J37:J192" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10 M10:N192 P10:R192 J12:J13 J15:J18 J20:J21 J23:J35 J37:J192" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -16024,7 +16347,7 @@
       <formula1>'LISTA VALORI'!$A$2:$A$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J11 J19 J36" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J11 J14 J19 J22 J36" type="list">
       <formula1>Summary!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -16056,42 +16379,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>499</v>
+        <v>540</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>500</v>
+        <v>541</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>501</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>502</v>
+        <v>543</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>503</v>
+        <v>544</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>504</v>
+        <v>545</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>505</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -16131,22 +16454,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="59" t="s">
-        <v>506</v>
+        <v>547</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>507</v>
+        <v>548</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>508</v>
+        <v>549</v>
       </c>
       <c r="F1" s="60" t="s">
-        <v>509</v>
+        <v>550</v>
       </c>
       <c r="G1" s="61" t="s">
-        <v>510</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16154,13 +16477,13 @@
         <v>48</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>511</v>
+        <v>552</v>
       </c>
       <c r="C2" s="63" t="s">
-        <v>512</v>
+        <v>553</v>
       </c>
       <c r="D2" s="64" t="s">
-        <v>513</v>
+        <v>554</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16168,13 +16491,13 @@
         <v>67</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>511</v>
+        <v>552</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>514</v>
+        <v>555</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>515</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16182,69 +16505,69 @@
         <v>71</v>
       </c>
       <c r="B4" s="62" t="s">
-        <v>511</v>
+        <v>552</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>516</v>
+        <v>557</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>517</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="62" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>511</v>
+        <v>552</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>518</v>
+        <v>559</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>519</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="62" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B6" s="62" t="s">
-        <v>511</v>
+        <v>552</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>520</v>
+        <v>561</v>
       </c>
       <c r="D6" s="65" t="s">
-        <v>521</v>
+        <v>562</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="62" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>511</v>
+        <v>552</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>522</v>
+        <v>563</v>
       </c>
       <c r="D7" s="65" t="s">
-        <v>523</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="62" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>511</v>
+        <v>552</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>524</v>
+        <v>565</v>
       </c>
       <c r="D8" s="65" t="s">
-        <v>525</v>
+        <v>566</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16252,41 +16575,41 @@
         <v>69</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>511</v>
+        <v>552</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>526</v>
+        <v>567</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>527</v>
+        <v>568</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="62" t="s">
-        <v>528</v>
+        <v>569</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>511</v>
+        <v>552</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>529</v>
+        <v>570</v>
       </c>
       <c r="D10" s="64" t="s">
-        <v>530</v>
+        <v>571</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="62" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>511</v>
+        <v>552</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>531</v>
+        <v>572</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>532</v>
+        <v>573</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17291,7 +17614,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="68" t="s">
-        <v>533</v>
+        <v>574</v>
       </c>
       <c r="B3" s="68" t="s">
         <v>63</v>

--- a/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
@@ -4257,10 +4257,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E191" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B186" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A191" activeCellId="0" sqref="A191"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A186" activeCellId="0" sqref="A186"/>
       <selection pane="bottomRight" activeCell="J192" activeCellId="0" sqref="J192"/>
     </sheetView>
   </sheetViews>
@@ -4600,7 +4600,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="43.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="43.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="30" t="n">
         <v>28</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="140.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="140.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="30" t="n">
         <v>31</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="30" t="n">
         <v>32</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="30" t="n">
         <v>36</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="30" t="n">
         <v>39</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="30" t="n">
         <v>40</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="263.65" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="263.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="30" t="n">
         <v>44</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="30" t="n">
         <v>47</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="30" t="n">
         <v>48</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="30" t="n">
         <v>53</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="30" t="n">
         <v>55</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="30" t="n">
         <v>56</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="30" t="n">
         <v>57</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="30" t="n">
         <v>58</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="30" t="n">
         <v>59</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="30" t="n">
         <v>60</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="30" t="n">
         <v>61</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="30" t="n">
         <v>62</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="30" t="n">
         <v>76</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="30" t="n">
         <v>78</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="30" t="n">
         <v>79</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="30" t="n">
         <v>80</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="30" t="n">
         <v>81</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="30" t="n">
         <v>82</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="30" t="n">
         <v>83</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="30" t="n">
         <v>84</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="30" t="n">
         <v>85</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="30" t="n">
         <v>86</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="30" t="n">
         <v>87</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="30" t="n">
         <v>88</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="30" t="n">
         <v>89</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="30" t="n">
         <v>90</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="30" t="n">
         <v>91</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="30" t="n">
         <v>92</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="30" t="n">
         <v>93</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="30" t="n">
         <v>152</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="30" t="n">
         <v>154</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="30" t="n">
         <v>155</v>
       </c>
@@ -9088,7 +9088,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="30" t="n">
         <v>156</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="125.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="125.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="30" t="n">
         <v>158</v>
       </c>
@@ -9190,7 +9190,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="30" t="n">
         <v>159</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="30" t="n">
         <v>160</v>
       </c>
@@ -9312,7 +9312,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="30" t="n">
         <v>161</v>
       </c>
@@ -9373,7 +9373,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="30" t="n">
         <v>162</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="30" t="n">
         <v>163</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="30" t="n">
         <v>164</v>
       </c>
@@ -9556,7 +9556,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="30" t="n">
         <v>165</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="30" t="n">
         <v>166</v>
       </c>
@@ -9678,7 +9678,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="30" t="n">
         <v>167</v>
       </c>
@@ -9739,7 +9739,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="30" t="n">
         <v>168</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="30" t="n">
         <v>169</v>
       </c>
@@ -11660,7 +11660,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="37.3" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="30" t="n">
         <v>461</v>
       </c>
@@ -11721,7 +11721,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="30" t="n">
         <v>462</v>
       </c>
@@ -11873,7 +11873,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="40.6" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="40.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="30" t="n">
         <v>466</v>
       </c>
@@ -11971,7 +11971,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="25.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="25.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="30" t="n">
         <v>468</v>
       </c>
@@ -16317,11 +16317,6 @@
         <filter val="LAB"/>
         <filter val="RAD"/>
         <filter val="RSA"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="22">
-      <filters>
-        <filter val="OK"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="575">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -2140,7 +2140,7 @@
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="167" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2275,6 +2275,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2506,7 +2512,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2715,6 +2721,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2747,7 +2757,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4257,11 +4267,11 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B186" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A186" activeCellId="0" sqref="A186"/>
-      <selection pane="bottomRight" activeCell="J192" activeCellId="0" sqref="J192"/>
+      <selection pane="bottomLeft" activeCell="A57" activeCellId="0" sqref="A57"/>
+      <selection pane="bottomRight" activeCell="S70" activeCellId="0" sqref="S70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4274,7 +4284,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="39.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="103.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="35.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="27.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="11" style="1" width="36.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="45.29"/>
@@ -4551,7 +4561,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="58" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="29.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="28" t="n">
         <v>4</v>
       </c>
@@ -4600,7 +4610,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="43.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="30.65" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="30" t="n">
         <v>28</v>
       </c>
@@ -4735,7 +4745,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="140.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="30" t="n">
         <v>31</v>
       </c>
@@ -4796,7 +4806,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="35.65" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="30" t="n">
         <v>32</v>
       </c>
@@ -4968,7 +4978,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="38.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="30" t="n">
         <v>36</v>
       </c>
@@ -5103,7 +5113,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="32.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="30" t="n">
         <v>39</v>
       </c>
@@ -5164,7 +5174,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="33.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="30" t="n">
         <v>40</v>
       </c>
@@ -5336,7 +5346,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="263.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="34.8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="30" t="n">
         <v>44</v>
       </c>
@@ -5467,7 +5477,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="30" t="n">
         <v>47</v>
       </c>
@@ -5520,7 +5530,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="28.15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="30" t="n">
         <v>48</v>
       </c>
@@ -5690,7 +5700,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="37.3" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="30" t="n">
         <v>53</v>
       </c>
@@ -5731,7 +5741,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="33.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="30" t="n">
         <v>55</v>
       </c>
@@ -5772,7 +5782,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="43.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="30" t="n">
         <v>56</v>
       </c>
@@ -5813,7 +5823,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="30.65" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="30" t="n">
         <v>57</v>
       </c>
@@ -5854,7 +5864,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="34.8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="30" t="n">
         <v>58</v>
       </c>
@@ -5895,7 +5905,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="29.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="30" t="n">
         <v>59</v>
       </c>
@@ -5936,7 +5946,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="41.45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="30" t="n">
         <v>60</v>
       </c>
@@ -5997,7 +6007,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="39.8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="30" t="n">
         <v>61</v>
       </c>
@@ -6058,7 +6068,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="40.6" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="30" t="n">
         <v>62</v>
       </c>
@@ -6489,7 +6499,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="39.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="30" t="n">
         <v>76</v>
       </c>
@@ -6530,7 +6540,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="34.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="30" t="n">
         <v>78</v>
       </c>
@@ -6571,7 +6581,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="30" t="n">
         <v>79</v>
       </c>
@@ -6612,7 +6622,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="40.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="30" t="n">
         <v>80</v>
       </c>
@@ -6653,7 +6663,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="38.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="30" t="n">
         <v>81</v>
       </c>
@@ -6681,16 +6691,32 @@
       <c r="I58" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="J58" s="34"/>
+      <c r="J58" s="34" t="s">
+        <v>55</v>
+      </c>
       <c r="K58" s="34"/>
       <c r="L58" s="34"/>
-      <c r="M58" s="34"/>
-      <c r="N58" s="34"/>
-      <c r="O58" s="34"/>
-      <c r="P58" s="34"/>
-      <c r="Q58" s="34"/>
-      <c r="R58" s="34"/>
-      <c r="S58" s="34"/>
+      <c r="M58" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N58" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="O58" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="P58" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q58" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R58" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S58" s="52" t="s">
+        <v>108</v>
+      </c>
       <c r="T58" s="34"/>
       <c r="U58" s="35"/>
       <c r="V58" s="36"/>
@@ -6698,7 +6724,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="25.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="30" t="n">
         <v>82</v>
       </c>
@@ -6726,16 +6752,32 @@
       <c r="I59" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="J59" s="34"/>
+      <c r="J59" s="34" t="s">
+        <v>55</v>
+      </c>
       <c r="K59" s="34"/>
       <c r="L59" s="34"/>
-      <c r="M59" s="34"/>
-      <c r="N59" s="34"/>
-      <c r="O59" s="34"/>
-      <c r="P59" s="34"/>
-      <c r="Q59" s="34"/>
-      <c r="R59" s="34"/>
-      <c r="S59" s="34"/>
+      <c r="M59" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N59" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="O59" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="P59" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q59" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R59" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S59" s="52" t="s">
+        <v>108</v>
+      </c>
       <c r="T59" s="34"/>
       <c r="U59" s="35"/>
       <c r="V59" s="36"/>
@@ -6743,7 +6785,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="30" t="n">
         <v>83</v>
       </c>
@@ -6784,7 +6826,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="45.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="30" t="n">
         <v>84</v>
       </c>
@@ -6825,7 +6867,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="38.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="30" t="n">
         <v>85</v>
       </c>
@@ -6866,7 +6908,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="39.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="30" t="n">
         <v>86</v>
       </c>
@@ -6894,16 +6936,32 @@
       <c r="I63" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="J63" s="34"/>
+      <c r="J63" s="34" t="s">
+        <v>55</v>
+      </c>
       <c r="K63" s="34"/>
       <c r="L63" s="34"/>
-      <c r="M63" s="34"/>
-      <c r="N63" s="34"/>
-      <c r="O63" s="34"/>
-      <c r="P63" s="34"/>
-      <c r="Q63" s="34"/>
-      <c r="R63" s="34"/>
-      <c r="S63" s="34"/>
+      <c r="M63" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N63" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="O63" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="P63" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q63" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R63" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S63" s="52" t="s">
+        <v>108</v>
+      </c>
       <c r="T63" s="34"/>
       <c r="U63" s="35"/>
       <c r="V63" s="36"/>
@@ -6911,7 +6969,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="36.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="30" t="n">
         <v>87</v>
       </c>
@@ -6939,16 +6997,32 @@
       <c r="I64" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="J64" s="34"/>
+      <c r="J64" s="34" t="s">
+        <v>55</v>
+      </c>
       <c r="K64" s="34"/>
       <c r="L64" s="34"/>
-      <c r="M64" s="34"/>
-      <c r="N64" s="34"/>
-      <c r="O64" s="34"/>
-      <c r="P64" s="34"/>
-      <c r="Q64" s="34"/>
-      <c r="R64" s="34"/>
-      <c r="S64" s="34"/>
+      <c r="M64" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N64" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="O64" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="P64" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q64" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R64" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S64" s="52" t="s">
+        <v>108</v>
+      </c>
       <c r="T64" s="34"/>
       <c r="U64" s="35"/>
       <c r="V64" s="36"/>
@@ -6956,7 +7030,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="39.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="30" t="n">
         <v>88</v>
       </c>
@@ -6984,16 +7058,32 @@
       <c r="I65" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="J65" s="34"/>
+      <c r="J65" s="34" t="s">
+        <v>55</v>
+      </c>
       <c r="K65" s="34"/>
       <c r="L65" s="34"/>
-      <c r="M65" s="34"/>
-      <c r="N65" s="34"/>
-      <c r="O65" s="34"/>
-      <c r="P65" s="34"/>
-      <c r="Q65" s="34"/>
-      <c r="R65" s="34"/>
-      <c r="S65" s="34"/>
+      <c r="M65" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N65" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="O65" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="P65" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q65" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R65" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S65" s="52" t="s">
+        <v>108</v>
+      </c>
       <c r="T65" s="34"/>
       <c r="U65" s="35"/>
       <c r="V65" s="36"/>
@@ -7001,7 +7091,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="36.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="30" t="n">
         <v>89</v>
       </c>
@@ -7029,16 +7119,32 @@
       <c r="I66" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="J66" s="34"/>
+      <c r="J66" s="34" t="s">
+        <v>55</v>
+      </c>
       <c r="K66" s="34"/>
       <c r="L66" s="34"/>
-      <c r="M66" s="34"/>
-      <c r="N66" s="34"/>
-      <c r="O66" s="34"/>
-      <c r="P66" s="34"/>
-      <c r="Q66" s="34"/>
-      <c r="R66" s="34"/>
-      <c r="S66" s="34"/>
+      <c r="M66" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N66" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="O66" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="P66" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q66" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R66" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S66" s="52" t="s">
+        <v>108</v>
+      </c>
       <c r="T66" s="34"/>
       <c r="U66" s="35"/>
       <c r="V66" s="36"/>
@@ -7046,7 +7152,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="36.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="30" t="n">
         <v>90</v>
       </c>
@@ -7074,16 +7180,32 @@
       <c r="I67" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="J67" s="34"/>
+      <c r="J67" s="34" t="s">
+        <v>55</v>
+      </c>
       <c r="K67" s="34"/>
       <c r="L67" s="34"/>
-      <c r="M67" s="34"/>
-      <c r="N67" s="34"/>
-      <c r="O67" s="34"/>
-      <c r="P67" s="34"/>
-      <c r="Q67" s="34"/>
-      <c r="R67" s="34"/>
-      <c r="S67" s="34"/>
+      <c r="M67" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N67" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="O67" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="P67" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q67" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R67" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S67" s="52" t="s">
+        <v>108</v>
+      </c>
       <c r="T67" s="34"/>
       <c r="U67" s="35"/>
       <c r="V67" s="36"/>
@@ -7091,7 +7213,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="39.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="30" t="n">
         <v>91</v>
       </c>
@@ -7119,16 +7241,32 @@
       <c r="I68" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="J68" s="34"/>
+      <c r="J68" s="34" t="s">
+        <v>55</v>
+      </c>
       <c r="K68" s="34"/>
       <c r="L68" s="34"/>
-      <c r="M68" s="34"/>
-      <c r="N68" s="34"/>
-      <c r="O68" s="34"/>
-      <c r="P68" s="34"/>
-      <c r="Q68" s="34"/>
-      <c r="R68" s="34"/>
-      <c r="S68" s="34"/>
+      <c r="M68" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N68" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="O68" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="P68" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q68" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R68" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S68" s="52" t="s">
+        <v>108</v>
+      </c>
       <c r="T68" s="34"/>
       <c r="U68" s="35"/>
       <c r="V68" s="36"/>
@@ -7136,7 +7274,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="36.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="30" t="n">
         <v>92</v>
       </c>
@@ -7164,16 +7302,32 @@
       <c r="I69" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="J69" s="34"/>
+      <c r="J69" s="34" t="s">
+        <v>55</v>
+      </c>
       <c r="K69" s="34"/>
       <c r="L69" s="34"/>
-      <c r="M69" s="34"/>
-      <c r="N69" s="34"/>
-      <c r="O69" s="34"/>
-      <c r="P69" s="34"/>
-      <c r="Q69" s="34"/>
-      <c r="R69" s="34"/>
-      <c r="S69" s="34"/>
+      <c r="M69" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N69" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="O69" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="P69" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q69" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R69" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S69" s="52" t="s">
+        <v>108</v>
+      </c>
       <c r="T69" s="34"/>
       <c r="U69" s="35"/>
       <c r="V69" s="36"/>
@@ -7181,7 +7335,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="30" t="n">
         <v>93</v>
       </c>
@@ -7209,16 +7363,32 @@
       <c r="I70" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="J70" s="34"/>
+      <c r="J70" s="34" t="s">
+        <v>55</v>
+      </c>
       <c r="K70" s="34"/>
       <c r="L70" s="34"/>
-      <c r="M70" s="34"/>
-      <c r="N70" s="34"/>
-      <c r="O70" s="34"/>
-      <c r="P70" s="34"/>
-      <c r="Q70" s="34"/>
-      <c r="R70" s="34"/>
-      <c r="S70" s="34"/>
+      <c r="M70" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N70" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="O70" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="P70" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q70" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R70" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S70" s="52" t="s">
+        <v>108</v>
+      </c>
       <c r="T70" s="34"/>
       <c r="U70" s="35"/>
       <c r="V70" s="36"/>
@@ -7239,7 +7409,7 @@
       <c r="D71" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="E71" s="52" t="s">
+      <c r="E71" s="53" t="s">
         <v>231</v>
       </c>
       <c r="F71" s="45"/>
@@ -7276,7 +7446,7 @@
       <c r="D72" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E72" s="52" t="s">
+      <c r="E72" s="53" t="s">
         <v>233</v>
       </c>
       <c r="F72" s="45"/>
@@ -7313,7 +7483,7 @@
       <c r="D73" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="E73" s="52" t="s">
+      <c r="E73" s="53" t="s">
         <v>235</v>
       </c>
       <c r="F73" s="45"/>
@@ -7350,7 +7520,7 @@
       <c r="D74" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="E74" s="52" t="s">
+      <c r="E74" s="53" t="s">
         <v>237</v>
       </c>
       <c r="F74" s="45"/>
@@ -7387,7 +7557,7 @@
       <c r="D75" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="E75" s="52" t="s">
+      <c r="E75" s="53" t="s">
         <v>239</v>
       </c>
       <c r="F75" s="45"/>
@@ -7424,7 +7594,7 @@
       <c r="D76" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="E76" s="52" t="s">
+      <c r="E76" s="53" t="s">
         <v>241</v>
       </c>
       <c r="F76" s="45"/>
@@ -7461,7 +7631,7 @@
       <c r="D77" s="42" t="s">
         <v>242</v>
       </c>
-      <c r="E77" s="52" t="s">
+      <c r="E77" s="53" t="s">
         <v>243</v>
       </c>
       <c r="F77" s="45"/>
@@ -7498,7 +7668,7 @@
       <c r="D78" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="E78" s="52" t="s">
+      <c r="E78" s="53" t="s">
         <v>245</v>
       </c>
       <c r="F78" s="45"/>
@@ -7535,7 +7705,7 @@
       <c r="D79" s="42" t="s">
         <v>246</v>
       </c>
-      <c r="E79" s="52" t="s">
+      <c r="E79" s="53" t="s">
         <v>247</v>
       </c>
       <c r="F79" s="45"/>
@@ -7572,7 +7742,7 @@
       <c r="D80" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="E80" s="52" t="s">
+      <c r="E80" s="53" t="s">
         <v>249</v>
       </c>
       <c r="F80" s="45"/>
@@ -7609,7 +7779,7 @@
       <c r="D81" s="42" t="s">
         <v>250</v>
       </c>
-      <c r="E81" s="52" t="s">
+      <c r="E81" s="53" t="s">
         <v>251</v>
       </c>
       <c r="F81" s="45"/>
@@ -8965,7 +9135,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="40.6" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="30" t="n">
         <v>152</v>
       </c>
@@ -9006,7 +9176,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="42.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="30" t="n">
         <v>154</v>
       </c>
@@ -9047,7 +9217,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="43.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="30" t="n">
         <v>155</v>
       </c>
@@ -9088,7 +9258,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="37.3" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="30" t="n">
         <v>156</v>
       </c>
@@ -9129,7 +9299,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="125.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="41.45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="30" t="n">
         <v>158</v>
       </c>
@@ -9190,7 +9360,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="37.3" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="30" t="n">
         <v>159</v>
       </c>
@@ -9251,7 +9421,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="29.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="30" t="n">
         <v>160</v>
       </c>
@@ -9312,7 +9482,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="32.3" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="30" t="n">
         <v>161</v>
       </c>
@@ -9373,7 +9543,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="33.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="30" t="n">
         <v>162</v>
       </c>
@@ -9434,7 +9604,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="29" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="30" t="n">
         <v>163</v>
       </c>
@@ -9495,7 +9665,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="26.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="30" t="n">
         <v>164</v>
       </c>
@@ -9556,7 +9726,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="37.3" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="30" t="n">
         <v>165</v>
       </c>
@@ -9617,7 +9787,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="34.8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="30" t="n">
         <v>166</v>
       </c>
@@ -9678,7 +9848,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="29" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="30" t="n">
         <v>167</v>
       </c>
@@ -9739,7 +9909,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="43.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="30" t="n">
         <v>168</v>
       </c>
@@ -9800,7 +9970,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="38.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="30" t="n">
         <v>169</v>
       </c>
@@ -10416,7 +10586,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="42.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="30" t="n">
         <v>191</v>
       </c>
@@ -10435,13 +10605,13 @@
       <c r="F149" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="G149" s="53" t="s">
+      <c r="G149" s="54" t="s">
         <v>424</v>
       </c>
-      <c r="H149" s="53" t="s">
+      <c r="H149" s="54" t="s">
         <v>425</v>
       </c>
-      <c r="I149" s="53" t="s">
+      <c r="I149" s="54" t="s">
         <v>426</v>
       </c>
       <c r="J149" s="34" t="s">
@@ -10465,7 +10635,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="38.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="30" t="n">
         <v>376</v>
       </c>
@@ -10484,13 +10654,13 @@
       <c r="F150" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="G150" s="53" t="s">
+      <c r="G150" s="54" t="s">
         <v>429</v>
       </c>
-      <c r="H150" s="53" t="s">
+      <c r="H150" s="54" t="s">
         <v>430</v>
       </c>
-      <c r="I150" s="53" t="s">
+      <c r="I150" s="54" t="s">
         <v>431</v>
       </c>
       <c r="J150" s="34" t="s">
@@ -11180,7 +11350,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="36.45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="30" t="n">
         <v>448</v>
       </c>
@@ -11229,7 +11399,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="35.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="35.65" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="30" t="n">
         <v>449</v>
       </c>
@@ -11352,7 +11522,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="46.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="46.4" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="30" t="n">
         <v>452</v>
       </c>
@@ -11562,7 +11732,7 @@
       <c r="D178" s="42" t="s">
         <v>495</v>
       </c>
-      <c r="E178" s="52" t="s">
+      <c r="E178" s="53" t="s">
         <v>496</v>
       </c>
       <c r="F178" s="45"/>
@@ -11599,7 +11769,7 @@
       <c r="D179" s="42" t="s">
         <v>497</v>
       </c>
-      <c r="E179" s="52" t="s">
+      <c r="E179" s="53" t="s">
         <v>498</v>
       </c>
       <c r="F179" s="45"/>
@@ -11660,7 +11830,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="37.3" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="30" t="n">
         <v>461</v>
       </c>
@@ -11721,7 +11891,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="86.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="33.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="30" t="n">
         <v>462</v>
       </c>
@@ -11812,7 +11982,7 @@
       <c r="D184" s="42" t="s">
         <v>510</v>
       </c>
-      <c r="E184" s="52" t="s">
+      <c r="E184" s="53" t="s">
         <v>511</v>
       </c>
       <c r="F184" s="42"/>
@@ -11873,7 +12043,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="40.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="40.6" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="30" t="n">
         <v>466</v>
       </c>
@@ -11971,7 +12141,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="25.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="25.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="30" t="n">
         <v>468</v>
       </c>
@@ -12106,7 +12276,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="140.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="33.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="30" t="n">
         <v>471</v>
       </c>
@@ -12155,7 +12325,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="111.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="35.65" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="30" t="n">
         <v>472</v>
       </c>
@@ -12211,23 +12381,23 @@
       <c r="D193" s="50"/>
       <c r="E193" s="50"/>
       <c r="F193" s="40"/>
-      <c r="G193" s="54"/>
-      <c r="H193" s="54"/>
-      <c r="I193" s="54"/>
-      <c r="J193" s="55"/>
-      <c r="K193" s="55"/>
-      <c r="L193" s="55"/>
-      <c r="M193" s="55"/>
-      <c r="N193" s="55"/>
-      <c r="O193" s="55"/>
-      <c r="P193" s="55"/>
-      <c r="Q193" s="55"/>
-      <c r="R193" s="55"/>
-      <c r="S193" s="55"/>
-      <c r="T193" s="55"/>
-      <c r="U193" s="56"/>
-      <c r="V193" s="57"/>
-      <c r="W193" s="58"/>
+      <c r="G193" s="55"/>
+      <c r="H193" s="55"/>
+      <c r="I193" s="55"/>
+      <c r="J193" s="56"/>
+      <c r="K193" s="56"/>
+      <c r="L193" s="56"/>
+      <c r="M193" s="56"/>
+      <c r="N193" s="56"/>
+      <c r="O193" s="56"/>
+      <c r="P193" s="56"/>
+      <c r="Q193" s="56"/>
+      <c r="R193" s="56"/>
+      <c r="S193" s="56"/>
+      <c r="T193" s="56"/>
+      <c r="U193" s="57"/>
+      <c r="V193" s="58"/>
+      <c r="W193" s="59"/>
     </row>
     <row r="194" customFormat="false" ht="140.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="50"/>
@@ -12235,24 +12405,24 @@
       <c r="C194" s="50"/>
       <c r="D194" s="50"/>
       <c r="E194" s="50"/>
-      <c r="F194" s="54"/>
-      <c r="G194" s="54"/>
-      <c r="H194" s="54"/>
-      <c r="I194" s="54"/>
-      <c r="J194" s="55"/>
-      <c r="K194" s="55"/>
-      <c r="L194" s="55"/>
-      <c r="M194" s="55"/>
-      <c r="N194" s="55"/>
-      <c r="O194" s="55"/>
-      <c r="P194" s="55"/>
-      <c r="Q194" s="55"/>
-      <c r="R194" s="55"/>
-      <c r="S194" s="55"/>
-      <c r="T194" s="55"/>
-      <c r="U194" s="56"/>
-      <c r="V194" s="57"/>
-      <c r="W194" s="58"/>
+      <c r="F194" s="55"/>
+      <c r="G194" s="55"/>
+      <c r="H194" s="55"/>
+      <c r="I194" s="55"/>
+      <c r="J194" s="56"/>
+      <c r="K194" s="56"/>
+      <c r="L194" s="56"/>
+      <c r="M194" s="56"/>
+      <c r="N194" s="56"/>
+      <c r="O194" s="56"/>
+      <c r="P194" s="56"/>
+      <c r="Q194" s="56"/>
+      <c r="R194" s="56"/>
+      <c r="S194" s="56"/>
+      <c r="T194" s="56"/>
+      <c r="U194" s="57"/>
+      <c r="V194" s="58"/>
+      <c r="W194" s="59"/>
     </row>
     <row r="195" customFormat="false" ht="140.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="50"/>
@@ -12260,24 +12430,24 @@
       <c r="C195" s="50"/>
       <c r="D195" s="50"/>
       <c r="E195" s="50"/>
-      <c r="F195" s="54"/>
-      <c r="G195" s="54"/>
-      <c r="H195" s="54"/>
-      <c r="I195" s="54"/>
-      <c r="J195" s="55"/>
-      <c r="K195" s="55"/>
-      <c r="L195" s="55"/>
-      <c r="M195" s="55"/>
-      <c r="N195" s="55"/>
-      <c r="O195" s="55"/>
-      <c r="P195" s="55"/>
-      <c r="Q195" s="55"/>
-      <c r="R195" s="55"/>
-      <c r="S195" s="55"/>
-      <c r="T195" s="55"/>
-      <c r="U195" s="56"/>
-      <c r="V195" s="57"/>
-      <c r="W195" s="58"/>
+      <c r="F195" s="55"/>
+      <c r="G195" s="55"/>
+      <c r="H195" s="55"/>
+      <c r="I195" s="55"/>
+      <c r="J195" s="56"/>
+      <c r="K195" s="56"/>
+      <c r="L195" s="56"/>
+      <c r="M195" s="56"/>
+      <c r="N195" s="56"/>
+      <c r="O195" s="56"/>
+      <c r="P195" s="56"/>
+      <c r="Q195" s="56"/>
+      <c r="R195" s="56"/>
+      <c r="S195" s="56"/>
+      <c r="T195" s="56"/>
+      <c r="U195" s="57"/>
+      <c r="V195" s="58"/>
+      <c r="W195" s="59"/>
     </row>
     <row r="196" customFormat="false" ht="140.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="50"/>
@@ -12285,24 +12455,24 @@
       <c r="C196" s="50"/>
       <c r="D196" s="50"/>
       <c r="E196" s="50"/>
-      <c r="F196" s="54"/>
-      <c r="G196" s="54"/>
-      <c r="H196" s="54"/>
-      <c r="I196" s="54"/>
-      <c r="J196" s="55"/>
-      <c r="K196" s="55"/>
-      <c r="L196" s="55"/>
-      <c r="M196" s="55"/>
-      <c r="N196" s="55"/>
-      <c r="O196" s="55"/>
-      <c r="P196" s="55"/>
-      <c r="Q196" s="55"/>
-      <c r="R196" s="55"/>
-      <c r="S196" s="55"/>
-      <c r="T196" s="55"/>
-      <c r="U196" s="56"/>
-      <c r="V196" s="57"/>
-      <c r="W196" s="58"/>
+      <c r="F196" s="55"/>
+      <c r="G196" s="55"/>
+      <c r="H196" s="55"/>
+      <c r="I196" s="55"/>
+      <c r="J196" s="56"/>
+      <c r="K196" s="56"/>
+      <c r="L196" s="56"/>
+      <c r="M196" s="56"/>
+      <c r="N196" s="56"/>
+      <c r="O196" s="56"/>
+      <c r="P196" s="56"/>
+      <c r="Q196" s="56"/>
+      <c r="R196" s="56"/>
+      <c r="S196" s="56"/>
+      <c r="T196" s="56"/>
+      <c r="U196" s="57"/>
+      <c r="V196" s="58"/>
+      <c r="W196" s="59"/>
     </row>
     <row r="197" customFormat="false" ht="140.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="50"/>
@@ -12310,24 +12480,24 @@
       <c r="C197" s="50"/>
       <c r="D197" s="50"/>
       <c r="E197" s="50"/>
-      <c r="F197" s="54"/>
-      <c r="G197" s="54"/>
-      <c r="H197" s="54"/>
-      <c r="I197" s="54"/>
-      <c r="J197" s="55"/>
-      <c r="K197" s="55"/>
-      <c r="L197" s="55"/>
-      <c r="M197" s="55"/>
-      <c r="N197" s="55"/>
-      <c r="O197" s="55"/>
-      <c r="P197" s="55"/>
-      <c r="Q197" s="55"/>
-      <c r="R197" s="55"/>
-      <c r="S197" s="55"/>
-      <c r="T197" s="55"/>
-      <c r="U197" s="56"/>
-      <c r="V197" s="57"/>
-      <c r="W197" s="58"/>
+      <c r="F197" s="55"/>
+      <c r="G197" s="55"/>
+      <c r="H197" s="55"/>
+      <c r="I197" s="55"/>
+      <c r="J197" s="56"/>
+      <c r="K197" s="56"/>
+      <c r="L197" s="56"/>
+      <c r="M197" s="56"/>
+      <c r="N197" s="56"/>
+      <c r="O197" s="56"/>
+      <c r="P197" s="56"/>
+      <c r="Q197" s="56"/>
+      <c r="R197" s="56"/>
+      <c r="S197" s="56"/>
+      <c r="T197" s="56"/>
+      <c r="U197" s="57"/>
+      <c r="V197" s="58"/>
+      <c r="W197" s="59"/>
     </row>
     <row r="198" customFormat="false" ht="140.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="50"/>
@@ -12335,24 +12505,24 @@
       <c r="C198" s="50"/>
       <c r="D198" s="50"/>
       <c r="E198" s="50"/>
-      <c r="F198" s="54"/>
-      <c r="G198" s="54"/>
-      <c r="H198" s="54"/>
-      <c r="I198" s="54"/>
-      <c r="J198" s="55"/>
-      <c r="K198" s="55"/>
-      <c r="L198" s="55"/>
-      <c r="M198" s="55"/>
-      <c r="N198" s="55"/>
-      <c r="O198" s="55"/>
-      <c r="P198" s="55"/>
-      <c r="Q198" s="55"/>
-      <c r="R198" s="55"/>
-      <c r="S198" s="55"/>
-      <c r="T198" s="55"/>
-      <c r="U198" s="56"/>
-      <c r="V198" s="57"/>
-      <c r="W198" s="58"/>
+      <c r="F198" s="55"/>
+      <c r="G198" s="55"/>
+      <c r="H198" s="55"/>
+      <c r="I198" s="55"/>
+      <c r="J198" s="56"/>
+      <c r="K198" s="56"/>
+      <c r="L198" s="56"/>
+      <c r="M198" s="56"/>
+      <c r="N198" s="56"/>
+      <c r="O198" s="56"/>
+      <c r="P198" s="56"/>
+      <c r="Q198" s="56"/>
+      <c r="R198" s="56"/>
+      <c r="S198" s="56"/>
+      <c r="T198" s="56"/>
+      <c r="U198" s="57"/>
+      <c r="V198" s="58"/>
+      <c r="W198" s="59"/>
     </row>
     <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F199" s="13"/>
@@ -16312,11 +16482,14 @@
     <row r="755" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A9:W192">
+    <filterColumn colId="22">
+      <filters>
+        <filter val="KO"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="LAB"/>
         <filter val="RAD"/>
-        <filter val="RSA"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -16448,7 +16621,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>547</v>
       </c>
       <c r="B1" s="19" t="s">
@@ -16460,158 +16633,158 @@
       <c r="D1" s="19" t="s">
         <v>549</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="61" t="s">
         <v>550</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="62" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="63" t="s">
         <v>552</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="64" t="s">
         <v>553</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="65" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="63" t="s">
         <v>552</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="64" t="s">
         <v>555</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="65" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="63" t="s">
         <v>552</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="64" t="s">
         <v>557</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="66" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="63" t="s">
         <v>552</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="64" t="s">
         <v>559</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="65" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="63" t="s">
         <v>552</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="64" t="s">
         <v>561</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="66" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="63" t="s">
         <v>552</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="64" t="s">
         <v>563</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="66" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="63" t="s">
         <v>552</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="64" t="s">
         <v>565</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="66" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="63" t="s">
         <v>552</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="64" t="s">
         <v>567</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="66" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="63" t="s">
         <v>569</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="63" t="s">
         <v>552</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="67" t="s">
         <v>570</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="65" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="63" t="s">
         <v>432</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="63" t="s">
         <v>552</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="64" t="s">
         <v>572</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="66" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D12" s="67"/>
+      <c r="D12" s="68"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D13" s="67"/>
+      <c r="D13" s="68"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -17592,32 +17765,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="69" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="69" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="69" t="s">
         <v>574</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="69" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="572">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -291,16 +291,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">12-06-2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-06-12T20:16:38.477+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9f64966d7bb71950842217e96596a9cc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34fa.bcd2809429^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-10-06T20:31:03.635+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9239c974964ce6c6520ce0620d9d118b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216840111388329215044687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34fa4f86dc3582^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">SI</t>
@@ -322,11 +319,10 @@
 Al fine di rendere non valido il token è necessario non valorizzare nel JWT il campo "purpose_of_use".</t>
   </si>
   <si>
-    <t xml:space="preserve">
-2025-06-09T13:24:40.117+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9e0186a94df04a730cfe3e6866af44f3</t>
+    <t xml:space="preserve">2025-10-06T20:39:08.674+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ab21d52f00364f350a09432f0cc8897a</t>
   </si>
   <si>
     <t xml:space="preserve">UNKNOWN_WORKFLOW_ID</t>
@@ -377,13 +373,13 @@
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_RSA_KO</t>
   </si>
   <si>
-    <t xml:space="preserve">02-06-2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-06-02T08:12:48.776+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76df6019b88776f8f55f3857af77dc7c</t>
+    <t xml:space="preserve">06-10-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-06T21:00:52.178+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ae4f9b6b7d261b4dd67088490df98c0c</t>
   </si>
   <si>
     <t xml:space="preserve">L’operatore apre un  ticket verso il fornitore perche’ il dato errato non e’ sotto il suo controllo</t>
@@ -467,10 +463,10 @@
 Al fine di rendere non valido il token è necessario valorizzare il campo "action_id" con la stringa "TEST" (valore non ammesso).</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-06-09T13:25:43.007+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fd9c1d7db9763664b89414fd2808c778</t>
+    <t xml:space="preserve">2025-10-06T20:40:29.836+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">db4c32f989e25ac912556bddbafe21b3</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_LDO_KO</t>
@@ -491,10 +487,10 @@
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-06-02T08:14:21.418+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0c6e0ac32e5d08aa0a861d0257796ab7</t>
+    <t xml:space="preserve">2025-10-06T21:00:03.615+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e1278c0eecbfe5095a1d8aa1c418c64f</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_CERT_VAC_KO</t>
@@ -642,13 +638,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-30T22:57:14.866+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1e981dfdeb211b18f7caff564e660f58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.569369a4be5cef75f5ec38405b6b396793743e826d7b6c3922c90fb4f915d638.d362a9a7a5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-10-06T20:31:04.920+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e33fbdabd2bab01b199d83dde832245a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216840111388329215044569369a4be5cef75f5ec38405b6b396793743e826d7b6c3922c90fb4f915d638afbdce4bbb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">L’operatore di back office corregge I dati errati o mancanti ed il referto viene rimesso in coda per una trasmissione.  Se non e’ un grado di fare fronte apre un ticket verso il fornitore.</t>
@@ -661,16 +657,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">30-05-2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-05-30T22:57:16.614+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eb4391e1d5d142a2c8613cea22e4d05e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34fa.14f8b58d44^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-10-06T20:31:06.469+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6b2f45f433a3b821e494ec84e5dfcce6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216840111388329215044687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34faf13d4192d0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT16_KO</t>
@@ -680,13 +673,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-30T22:57:18.368+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b783ce240a786f9ff29c996dfe159272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34fa.784d9db48b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-10-06T20:31:07.573+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53759bf2ba836d060087963c94ee1b79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216840111388329215044687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34faeac69a955f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT6_KO</t>
@@ -1332,13 +1325,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-06-02T07:56:29.656+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83fa184547f0da80cdae52be53352807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.9b4301b11c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-10-06T20:53:24.516+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c9d32c315644d0a9b0ac3a49303e3f9a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e775711ac7b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT13_KO</t>
@@ -1348,13 +1341,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-06-02T07:56:30.645+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1cbffa4332be3e0da7095e3bbec98a3c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.5d1be4e5af^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-10-06T20:53:25.432+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c7248ef57dbbc17bdf1b07f24a41fd9b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36ed3ae18cbbc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT14_KO</t>
@@ -1364,13 +1357,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-06-02T07:56:31.654+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c9958dfebd86dff3dc771ef026d11592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.28ddde02da^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-10-06T20:53:26.192+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cfffa3bac1ef9b593f1637c0f6b9873f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36ec79d0ddd3f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT15_KO</t>
@@ -1380,13 +1373,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-06-02T07:56:32.549+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ad1bde26fc620bbbea2dad23f2cdb056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.05eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cb.293a56fa16^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-10-06T20:53:27.157+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7f26c6d39b536afe36a029ab3eece7cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21684011138832921504405eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cb27d8858585^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT16_KO</t>
@@ -1396,13 +1389,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-06-02T07:56:33.301+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70468db2371ef2e553b7bc99e66e5d89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.05eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cb.d3dc25f614^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-10-06T20:53:27.970+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2e5e95b14f556d95f1b42fb9e3b2d21b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21684011138832921504405eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cb6ca83dd11b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT17_KO</t>
@@ -1412,13 +1405,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-06-02T07:56:34.311+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c0300a1a9d2589a7ee92ad493e90e03e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.dbb3182c42^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-10-06T20:53:28.753+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ea7983b86a804f15402263d1afa844a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36ea7c6842ae9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT18_KO</t>
@@ -1428,13 +1421,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-06-02T07:56:35.350+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70098091c16203560dfcc4704e354986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.ea8d380bbc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-10-06T20:53:29.625+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e33d6c219adbe5e81bc3e1651e32466e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e71dfaa98aa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT19_KO</t>
@@ -1444,13 +1437,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-06-02T07:56:36.366+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b071fd4cadb661a18f9901c5f1086a57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.c3cc545fba^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-10-06T20:53:30.431+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89b4a5ca867ec1d1d00f941d7631067d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36eba6d6b139c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT20_KO</t>
@@ -1460,13 +1453,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-06-02T07:56:37.369+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">304dbf4e623e3802f881fa8539a2b832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.092a19338f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-10-06T20:53:31.252+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18f9bb1b406c359600e235228df7ad3d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e2831c5b501^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT21_KO</t>
@@ -1476,13 +1469,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-06-02T07:56:38.202+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117c3e19beb5f04e697b5c2ea0ce7dfe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.404f410ee6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-10-06T20:53:32.062+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ee66e724d7bcd898c7354a19342001c7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e5faf5cce5e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT22_KO</t>
@@ -1492,13 +1485,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-06-02T07:56:39.259+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f95daba30756297ef5e85670f6b02256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.05eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cb.e17720e89d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-10-06T20:53:32.877+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3570c36810d394993c9f46ca1d1cf4c0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21684011138832921504405eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cbf4cb617038^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT23_KO</t>
@@ -1508,13 +1501,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-06-02T07:56:40.229+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115cbd9e58bd83d2b6f3a14a78c5c4ea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.05eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cb.7e51867ebb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-10-06T20:53:33.802+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cfcc5beb84d08187361c2fb8c3a093b2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21684011138832921504405eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cb1fc40dbe87^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_PSS_CT6_KO</t>
@@ -1630,13 +1623,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2025-06-12T20:16:40.082+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64c55452a49a38843c9239ce5221e4ac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.603fe7510a741e2a7f48d448e064e7a00b61ce4fd1737cec7b51e28f46c932c5.f958f7ad15^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-10-06T20:31:08.616+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">614cfa0db8700941d3780441d04ef44d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216840111388329215044603fe7510a741e2a7f48d448e064e7a00b61ce4fd1737cec7b51e28f46c932c5cc3ae9656a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_TRASF_CT2</t>
@@ -1647,13 +1640,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2025-06-12T20:16:41.688+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26f2e6adbdba66eabe59e49e0b607f90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.eb7a519691317da16d4c42161f82ef7bb02f924e49c69dbfa7603f1b0bb992e5.2e5e9a9a59^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-10-06T20:31:09.617+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f423194dd0d46b79be66c5c2cdc2a49c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216840111388329215044eb7a519691317da16d4c42161f82ef7bb02f924e49c69dbfa7603f1b0bb992e5475dd61eac^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">RAP</t>
@@ -1788,16 +1781,13 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">19-06-2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-06-30T01:52:45.506+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b24ec5286aec7985314e62a6716d6149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.224062c279^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-10-06T20:53:34.651+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fadc6fa603d34715a45732bcf5809f35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e223df3be18^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT25</t>
@@ -1807,13 +1797,13 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-06-24T16:01:01.723+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f44061837617ef70f0813561cec33377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.527c4955fe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-10-06T20:53:35.512+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3cb83533bdf7b69cacb8a1b19ecb66f5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36ed767106c2d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT17</t>
@@ -1838,13 +1828,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2025-06-19T18:27:35.883+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9a634cd42d92003cf4708fd463201a12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34fa.3cc1131d94^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-10-06T20:31:10.580+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48e382610188f19a3f812245633c2842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216840111388329215044687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34fa120b47b856^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT30</t>
@@ -1903,13 +1893,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 26" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-06-02T07:56:43.360+02:00</t>
+    <t xml:space="preserve">2025-10-06T20:53:36.378+02:00</t>
   </si>
   <si>
     <t xml:space="preserve">0e1110078534768c5fb1e3320444cd9f</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.8e2d2ad23e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36eda515480d2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT24_KO</t>
@@ -1947,13 +1937,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO.xlsx" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-30T22:57:26.469+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abdbaf202d64acc6ce6749b8e63b8223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34fa.fb3346d4e0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-10-06T20:31:11.820+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7a5b0d7bec0150211197a6ad4caa6135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216840111388329215044687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34fa3dee7cb7c4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT19_KO</t>
@@ -1970,13 +1960,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 27" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-06-02T07:56:44.310+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c6a540019332bdbbafcadd80e5e91f80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.687ea71060^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-10-06T20:53:37.125+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f1351749405c10276c83be8a7729dcc8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36ed3b39b2b5b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_PSS_CT22_KO</t>
@@ -2000,13 +1990,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-07-12T15:04:19.676+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9834aa02cb03a2ca5999d66622ced84a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.1fdc76143ba1420c660eac64a9212b4d55587a2bde9ef562142f4b8b5f318e07.b028a15813^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-10-06T21:50:19.908+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">052eaba7c8f830b55f1af7f0c8fb0a93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.1fdc76143ba1420c660eac64a9212b4d55587a2bde9ef562142f4b8b5f318e07.af77ee9b1f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT26</t>
@@ -2016,13 +2006,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 26" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-07-12T15:04:20.687+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">186db661dc3d42f06a7afca148df8f6c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.af1779c13b0111f295f0e564b152837375b4dd8cf5584df252a505b6563333d1.634a9a021d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-10-06T21:50:20.603+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82397963d06023a7affb42d0e56906b5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.af1779c13b0111f295f0e564b152837375b4dd8cf5584df252a505b6563333d1.b7594e2594^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Razionale di Applicabilità</t>
@@ -2140,7 +2130,7 @@
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="167" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2275,6 +2265,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -2512,7 +2508,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2713,16 +2709,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2757,7 +2757,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4267,11 +4267,11 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A57" activeCellId="0" sqref="A57"/>
-      <selection pane="bottomRight" activeCell="S70" activeCellId="0" sqref="S70"/>
+      <selection pane="bottomLeft" activeCell="A63" activeCellId="0" sqref="A63"/>
+      <selection pane="bottomRight" activeCell="I192" activeCellId="0" sqref="I192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4279,8 +4279,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="85.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="33.69"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="1" width="22.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="39.88"/>
@@ -4577,20 +4577,20 @@
       <c r="E10" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="32" t="n">
+        <v>45936</v>
+      </c>
+      <c r="G10" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="H10" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="I10" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="33" t="s">
-        <v>54</v>
-      </c>
       <c r="J10" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
@@ -4602,12 +4602,12 @@
       <c r="R10" s="34"/>
       <c r="S10" s="34"/>
       <c r="T10" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U10" s="35"/>
       <c r="V10" s="36"/>
       <c r="W10" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="30.65" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4621,54 +4621,54 @@
         <v>48</v>
       </c>
       <c r="D11" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="F11" s="32" t="n">
+        <v>45936</v>
+      </c>
+      <c r="G11" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="32" t="n">
-        <v>45906</v>
-      </c>
-      <c r="G11" s="33" t="s">
+      <c r="H11" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="I11" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="33" t="s">
-        <v>62</v>
-      </c>
       <c r="J11" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
       <c r="M11" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O11" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="N11" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O11" s="34" t="s">
+      <c r="P11" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q11" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="R11" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="S11" s="34" t="s">
         <v>64</v>
-      </c>
-      <c r="P11" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q11" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="R11" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="S11" s="34" t="s">
-        <v>65</v>
       </c>
       <c r="T11" s="34"/>
       <c r="U11" s="35"/>
       <c r="V11" s="36"/>
       <c r="W11" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="140.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4679,13 +4679,13 @@
         <v>47</v>
       </c>
       <c r="C12" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="30" t="s">
-        <v>68</v>
-      </c>
       <c r="E12" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
@@ -4705,7 +4705,7 @@
       <c r="U12" s="35"/>
       <c r="V12" s="36"/>
       <c r="W12" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="140.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4716,13 +4716,13 @@
         <v>47</v>
       </c>
       <c r="C13" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="30" t="s">
-        <v>70</v>
-      </c>
       <c r="E13" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
@@ -4742,7 +4742,7 @@
       <c r="U13" s="35"/>
       <c r="V13" s="36"/>
       <c r="W13" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4753,57 +4753,57 @@
         <v>47</v>
       </c>
       <c r="C14" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="E14" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="40" t="s">
+      <c r="G14" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="40" t="s">
+      <c r="H14" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="H14" s="40" t="s">
-        <v>75</v>
-      </c>
       <c r="I14" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J14" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K14" s="34"/>
       <c r="L14" s="34"/>
       <c r="M14" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N14" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O14" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="N14" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O14" s="34" t="s">
+      <c r="P14" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q14" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="R14" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="S14" s="34" t="s">
         <v>64</v>
-      </c>
-      <c r="P14" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q14" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="R14" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="S14" s="34" t="s">
-        <v>65</v>
       </c>
       <c r="T14" s="34"/>
       <c r="U14" s="35"/>
       <c r="V14" s="36"/>
       <c r="W14" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35.65" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4814,57 +4814,57 @@
         <v>47</v>
       </c>
       <c r="C15" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="E15" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="40" t="s">
+      <c r="G15" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="H15" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="H15" s="40" t="s">
-        <v>80</v>
-      </c>
       <c r="I15" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J15" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
       <c r="M15" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O15" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="N15" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O15" s="34" t="s">
-        <v>64</v>
-      </c>
       <c r="P15" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R15" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S15" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T15" s="34"/>
       <c r="U15" s="35"/>
       <c r="V15" s="36"/>
       <c r="W15" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4875,13 +4875,13 @@
         <v>47</v>
       </c>
       <c r="C16" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="E16" s="44" t="s">
         <v>83</v>
-      </c>
-      <c r="E16" s="44" t="s">
-        <v>84</v>
       </c>
       <c r="F16" s="45"/>
       <c r="G16" s="45"/>
@@ -4901,7 +4901,7 @@
       <c r="U16" s="48"/>
       <c r="V16" s="49"/>
       <c r="W16" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4912,13 +4912,13 @@
         <v>47</v>
       </c>
       <c r="C17" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="30" t="s">
-        <v>86</v>
-      </c>
       <c r="E17" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
@@ -4938,7 +4938,7 @@
       <c r="U17" s="35"/>
       <c r="V17" s="36"/>
       <c r="W17" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4949,13 +4949,13 @@
         <v>47</v>
       </c>
       <c r="C18" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="30" t="s">
-        <v>88</v>
-      </c>
       <c r="E18" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
@@ -4975,7 +4975,7 @@
       <c r="U18" s="35"/>
       <c r="V18" s="36"/>
       <c r="W18" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="38.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4989,54 +4989,54 @@
         <v>48</v>
       </c>
       <c r="D19" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="F19" s="50" t="n">
+        <v>45936</v>
+      </c>
+      <c r="G19" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="32" t="n">
-        <v>45817</v>
-      </c>
-      <c r="G19" s="33" t="s">
+      <c r="H19" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="H19" s="33" t="s">
-        <v>92</v>
-      </c>
       <c r="I19" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J19" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
       <c r="M19" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N19" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O19" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="N19" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O19" s="34" t="s">
-        <v>64</v>
-      </c>
       <c r="P19" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q19" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R19" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S19" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T19" s="34"/>
       <c r="U19" s="35"/>
       <c r="V19" s="36"/>
       <c r="W19" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5047,13 +5047,13 @@
         <v>47</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
@@ -5073,7 +5073,7 @@
       <c r="U20" s="35"/>
       <c r="V20" s="36"/>
       <c r="W20" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5084,13 +5084,13 @@
         <v>47</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
@@ -5110,7 +5110,7 @@
       <c r="U21" s="35"/>
       <c r="V21" s="36"/>
       <c r="W21" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="32.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5121,57 +5121,57 @@
         <v>47</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" s="40" t="s">
+      <c r="H22" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="H22" s="40" t="s">
-        <v>97</v>
-      </c>
       <c r="I22" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J22" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
       <c r="M22" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N22" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O22" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="N22" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O22" s="34" t="s">
-        <v>64</v>
-      </c>
       <c r="P22" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q22" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R22" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S22" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T22" s="34"/>
       <c r="U22" s="35"/>
       <c r="V22" s="36"/>
       <c r="W22" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="33.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5182,57 +5182,57 @@
         <v>47</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="E23" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="G23" s="40" t="s">
+      <c r="H23" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="H23" s="40" t="s">
-        <v>100</v>
-      </c>
       <c r="I23" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J23" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
       <c r="M23" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N23" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O23" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="N23" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O23" s="34" t="s">
-        <v>64</v>
-      </c>
       <c r="P23" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q23" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R23" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S23" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T23" s="34"/>
       <c r="U23" s="35"/>
       <c r="V23" s="36"/>
       <c r="W23" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5243,13 +5243,13 @@
         <v>47</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D24" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="44" t="s">
         <v>101</v>
-      </c>
-      <c r="E24" s="44" t="s">
-        <v>102</v>
       </c>
       <c r="F24" s="45"/>
       <c r="G24" s="45"/>
@@ -5269,7 +5269,7 @@
       <c r="U24" s="48"/>
       <c r="V24" s="49"/>
       <c r="W24" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5280,13 +5280,13 @@
         <v>47</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
@@ -5306,7 +5306,7 @@
       <c r="U25" s="35"/>
       <c r="V25" s="36"/>
       <c r="W25" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5317,13 +5317,13 @@
         <v>47</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
@@ -5343,7 +5343,7 @@
       <c r="U26" s="35"/>
       <c r="V26" s="36"/>
       <c r="W26" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="34.8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5357,46 +5357,46 @@
         <v>48</v>
       </c>
       <c r="D27" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="31" t="s">
         <v>105</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>106</v>
       </c>
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
       <c r="H27" s="40"/>
       <c r="I27" s="41"/>
       <c r="J27" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K27" s="34"/>
       <c r="L27" s="34"/>
       <c r="M27" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N27" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O27" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="P27" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q27" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="R27" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="S27" s="34" t="s">
         <v>107</v>
-      </c>
-      <c r="P27" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q27" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="R27" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="S27" s="34" t="s">
-        <v>108</v>
       </c>
       <c r="T27" s="34"/>
       <c r="U27" s="35"/>
       <c r="V27" s="36"/>
       <c r="W27" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5407,13 +5407,13 @@
         <v>47</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
@@ -5431,11 +5431,11 @@
       <c r="S28" s="34"/>
       <c r="T28" s="34"/>
       <c r="U28" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V28" s="36"/>
       <c r="W28" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5446,13 +5446,13 @@
         <v>47</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
@@ -5470,11 +5470,11 @@
       <c r="S29" s="34"/>
       <c r="T29" s="34"/>
       <c r="U29" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V29" s="36"/>
       <c r="W29" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5485,49 +5485,49 @@
         <v>47</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F30" s="40"/>
       <c r="G30" s="40"/>
       <c r="H30" s="40"/>
       <c r="I30" s="41"/>
       <c r="J30" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K30" s="34"/>
       <c r="L30" s="34"/>
       <c r="M30" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N30" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O30" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="P30" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q30" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="R30" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="S30" s="34" t="s">
         <v>107</v>
-      </c>
-      <c r="P30" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q30" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="R30" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="S30" s="34" t="s">
-        <v>108</v>
       </c>
       <c r="T30" s="34"/>
       <c r="U30" s="35"/>
       <c r="V30" s="36"/>
       <c r="W30" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="28.15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5538,52 +5538,52 @@
         <v>47</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F31" s="40"/>
       <c r="G31" s="40"/>
       <c r="H31" s="40"/>
       <c r="I31" s="41"/>
       <c r="J31" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K31" s="34"/>
       <c r="L31" s="34"/>
       <c r="M31" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N31" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O31" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="P31" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q31" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="R31" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="S31" s="34" t="s">
         <v>107</v>
-      </c>
-      <c r="P31" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q31" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="R31" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="S31" s="34" t="s">
-        <v>108</v>
       </c>
       <c r="T31" s="34"/>
       <c r="U31" s="35"/>
       <c r="V31" s="36"/>
       <c r="W31" s="34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" s="50" customFormat="true" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" s="52" customFormat="true" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="30" t="n">
         <v>49</v>
       </c>
@@ -5591,13 +5591,13 @@
         <v>47</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F32" s="40"/>
       <c r="G32" s="40"/>
@@ -5615,11 +5615,11 @@
       <c r="S32" s="34"/>
       <c r="T32" s="34"/>
       <c r="U32" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V32" s="36"/>
       <c r="W32" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5630,13 +5630,13 @@
         <v>47</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
@@ -5654,11 +5654,11 @@
       <c r="S33" s="34"/>
       <c r="T33" s="34"/>
       <c r="U33" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V33" s="36"/>
       <c r="W33" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="87.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5669,13 +5669,13 @@
         <v>47</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
@@ -5693,11 +5693,11 @@
       <c r="S34" s="34"/>
       <c r="T34" s="34"/>
       <c r="U34" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V34" s="36"/>
       <c r="W34" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="37.3" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5711,20 +5711,20 @@
         <v>48</v>
       </c>
       <c r="D35" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" s="31" t="s">
         <v>116</v>
-      </c>
-      <c r="E35" s="31" t="s">
-        <v>117</v>
       </c>
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
       <c r="H35" s="40"/>
       <c r="I35" s="41"/>
       <c r="J35" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K35" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L35" s="39"/>
       <c r="M35" s="34"/>
@@ -5738,7 +5738,7 @@
       <c r="U35" s="35"/>
       <c r="V35" s="36"/>
       <c r="W35" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="33.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5752,20 +5752,20 @@
         <v>48</v>
       </c>
       <c r="D36" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="E36" s="31" t="s">
-        <v>120</v>
-      </c>
       <c r="F36" s="32"/>
-      <c r="G36" s="51"/>
+      <c r="G36" s="53"/>
       <c r="H36" s="33"/>
       <c r="I36" s="33"/>
       <c r="J36" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K36" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L36" s="34"/>
       <c r="M36" s="34"/>
@@ -5779,7 +5779,7 @@
       <c r="U36" s="35"/>
       <c r="V36" s="36"/>
       <c r="W36" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="43.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5793,20 +5793,20 @@
         <v>48</v>
       </c>
       <c r="D37" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="31" t="s">
         <v>121</v>
-      </c>
-      <c r="E37" s="31" t="s">
-        <v>122</v>
       </c>
       <c r="F37" s="40"/>
       <c r="G37" s="40"/>
       <c r="H37" s="40"/>
       <c r="I37" s="41"/>
       <c r="J37" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K37" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L37" s="34"/>
       <c r="M37" s="34"/>
@@ -5820,7 +5820,7 @@
       <c r="U37" s="35"/>
       <c r="V37" s="36"/>
       <c r="W37" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="30.65" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5834,20 +5834,20 @@
         <v>48</v>
       </c>
       <c r="D38" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="31" t="s">
         <v>123</v>
-      </c>
-      <c r="E38" s="31" t="s">
-        <v>124</v>
       </c>
       <c r="F38" s="40"/>
       <c r="G38" s="40"/>
       <c r="H38" s="40"/>
       <c r="I38" s="41"/>
       <c r="J38" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K38" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L38" s="39"/>
       <c r="M38" s="34"/>
@@ -5861,7 +5861,7 @@
       <c r="U38" s="35"/>
       <c r="V38" s="36"/>
       <c r="W38" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="34.8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5875,20 +5875,20 @@
         <v>48</v>
       </c>
       <c r="D39" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="31" t="s">
         <v>125</v>
-      </c>
-      <c r="E39" s="31" t="s">
-        <v>126</v>
       </c>
       <c r="F39" s="40"/>
       <c r="G39" s="40"/>
       <c r="H39" s="40"/>
       <c r="I39" s="41"/>
       <c r="J39" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L39" s="39"/>
       <c r="M39" s="34"/>
@@ -5902,7 +5902,7 @@
       <c r="U39" s="35"/>
       <c r="V39" s="36"/>
       <c r="W39" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="29.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5916,20 +5916,20 @@
         <v>48</v>
       </c>
       <c r="D40" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" s="31" t="s">
         <v>127</v>
-      </c>
-      <c r="E40" s="31" t="s">
-        <v>128</v>
       </c>
       <c r="F40" s="40"/>
       <c r="G40" s="40"/>
       <c r="H40" s="40"/>
       <c r="I40" s="41"/>
       <c r="J40" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L40" s="39"/>
       <c r="M40" s="34"/>
@@ -5943,7 +5943,7 @@
       <c r="U40" s="35"/>
       <c r="V40" s="36"/>
       <c r="W40" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="41.45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5957,54 +5957,54 @@
         <v>48</v>
       </c>
       <c r="D41" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="E41" s="31" t="s">
+      <c r="F41" s="50" t="n">
+        <v>45936</v>
+      </c>
+      <c r="G41" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="F41" s="32" t="n">
-        <v>45362</v>
-      </c>
-      <c r="G41" s="51" t="s">
+      <c r="H41" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="H41" s="33" t="s">
+      <c r="I41" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="I41" s="33" t="s">
-        <v>133</v>
-      </c>
       <c r="J41" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K41" s="34"/>
       <c r="L41" s="34"/>
       <c r="M41" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N41" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O41" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="N41" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O41" s="34" t="s">
-        <v>64</v>
-      </c>
       <c r="P41" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q41" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R41" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S41" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T41" s="34"/>
       <c r="U41" s="35"/>
       <c r="V41" s="36"/>
       <c r="W41" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="39.8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6018,54 +6018,54 @@
         <v>48</v>
       </c>
       <c r="D42" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E42" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="E42" s="31" t="s">
+      <c r="F42" s="50" t="n">
+        <v>45936</v>
+      </c>
+      <c r="G42" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="F42" s="32" t="s">
+      <c r="H42" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="G42" s="40" t="s">
+      <c r="I42" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H42" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="I42" s="41" t="s">
-        <v>140</v>
-      </c>
       <c r="J42" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K42" s="34"/>
       <c r="L42" s="39"/>
       <c r="M42" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N42" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O42" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="N42" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O42" s="34" t="s">
-        <v>64</v>
-      </c>
       <c r="P42" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q42" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R42" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S42" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T42" s="34"/>
       <c r="U42" s="35"/>
       <c r="V42" s="36"/>
       <c r="W42" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="40.6" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6079,54 +6079,54 @@
         <v>48</v>
       </c>
       <c r="D43" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="F43" s="50" t="n">
+        <v>45936</v>
+      </c>
+      <c r="G43" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="E43" s="31" t="s">
+      <c r="H43" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="F43" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="G43" s="51" t="s">
+      <c r="I43" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="H43" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="I43" s="33" t="s">
-        <v>145</v>
-      </c>
       <c r="J43" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K43" s="34"/>
       <c r="L43" s="34"/>
       <c r="M43" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N43" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O43" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="N43" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O43" s="34" t="s">
-        <v>64</v>
-      </c>
       <c r="P43" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q43" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R43" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S43" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T43" s="34"/>
       <c r="U43" s="35"/>
       <c r="V43" s="36"/>
       <c r="W43" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6137,13 +6137,13 @@
         <v>47</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F44" s="40"/>
       <c r="G44" s="40"/>
@@ -6163,7 +6163,7 @@
       <c r="U44" s="35"/>
       <c r="V44" s="36"/>
       <c r="W44" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6174,13 +6174,13 @@
         <v>47</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F45" s="40"/>
       <c r="G45" s="40"/>
@@ -6200,7 +6200,7 @@
       <c r="U45" s="35"/>
       <c r="V45" s="36"/>
       <c r="W45" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6211,13 +6211,13 @@
         <v>47</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F46" s="40"/>
       <c r="G46" s="40"/>
@@ -6237,7 +6237,7 @@
       <c r="U46" s="35"/>
       <c r="V46" s="36"/>
       <c r="W46" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6248,13 +6248,13 @@
         <v>47</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F47" s="40"/>
       <c r="G47" s="40"/>
@@ -6274,7 +6274,7 @@
       <c r="U47" s="35"/>
       <c r="V47" s="36"/>
       <c r="W47" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6285,13 +6285,13 @@
         <v>47</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F48" s="40"/>
       <c r="G48" s="40"/>
@@ -6311,7 +6311,7 @@
       <c r="U48" s="35"/>
       <c r="V48" s="36"/>
       <c r="W48" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6322,13 +6322,13 @@
         <v>47</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F49" s="40"/>
       <c r="G49" s="40"/>
@@ -6348,7 +6348,7 @@
       <c r="U49" s="35"/>
       <c r="V49" s="36"/>
       <c r="W49" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6359,13 +6359,13 @@
         <v>47</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F50" s="40"/>
       <c r="G50" s="40"/>
@@ -6385,7 +6385,7 @@
       <c r="U50" s="35"/>
       <c r="V50" s="36"/>
       <c r="W50" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6396,13 +6396,13 @@
         <v>47</v>
       </c>
       <c r="C51" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F51" s="40"/>
       <c r="G51" s="40"/>
@@ -6422,7 +6422,7 @@
       <c r="U51" s="35"/>
       <c r="V51" s="36"/>
       <c r="W51" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6433,13 +6433,13 @@
         <v>47</v>
       </c>
       <c r="C52" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F52" s="40"/>
       <c r="G52" s="40"/>
@@ -6459,7 +6459,7 @@
       <c r="U52" s="35"/>
       <c r="V52" s="36"/>
       <c r="W52" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6470,13 +6470,13 @@
         <v>47</v>
       </c>
       <c r="C53" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F53" s="40"/>
       <c r="G53" s="40"/>
@@ -6496,7 +6496,7 @@
       <c r="U53" s="35"/>
       <c r="V53" s="36"/>
       <c r="W53" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="39.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6507,23 +6507,23 @@
         <v>47</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F54" s="40"/>
       <c r="G54" s="40"/>
       <c r="H54" s="40"/>
       <c r="I54" s="41"/>
       <c r="J54" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K54" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L54" s="34"/>
       <c r="M54" s="34"/>
@@ -6537,7 +6537,7 @@
       <c r="U54" s="35"/>
       <c r="V54" s="36"/>
       <c r="W54" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="34.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6548,23 +6548,23 @@
         <v>47</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F55" s="40"/>
       <c r="G55" s="40"/>
       <c r="H55" s="40"/>
       <c r="I55" s="41"/>
       <c r="J55" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K55" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L55" s="34"/>
       <c r="M55" s="34"/>
@@ -6578,7 +6578,7 @@
       <c r="U55" s="35"/>
       <c r="V55" s="36"/>
       <c r="W55" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6589,23 +6589,23 @@
         <v>47</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F56" s="40"/>
       <c r="G56" s="40"/>
       <c r="H56" s="40"/>
       <c r="I56" s="41"/>
       <c r="J56" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K56" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L56" s="34"/>
       <c r="M56" s="34"/>
@@ -6619,7 +6619,7 @@
       <c r="U56" s="35"/>
       <c r="V56" s="36"/>
       <c r="W56" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="40.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6630,23 +6630,23 @@
         <v>47</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F57" s="40"/>
       <c r="G57" s="40"/>
       <c r="H57" s="40"/>
       <c r="I57" s="41"/>
       <c r="J57" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K57" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L57" s="34"/>
       <c r="M57" s="34"/>
@@ -6660,7 +6660,7 @@
       <c r="U57" s="35"/>
       <c r="V57" s="36"/>
       <c r="W57" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="38.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6671,57 +6671,57 @@
         <v>47</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D58" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="F58" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="E58" s="31" t="s">
+      <c r="G58" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="F58" s="40" t="s">
+      <c r="H58" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="G58" s="40" t="s">
+      <c r="I58" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="H58" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="I58" s="41" t="s">
-        <v>179</v>
-      </c>
       <c r="J58" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K58" s="34"/>
       <c r="L58" s="34"/>
       <c r="M58" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N58" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O58" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="N58" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O58" s="34" t="s">
-        <v>64</v>
-      </c>
       <c r="P58" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q58" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R58" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="S58" s="52" t="s">
-        <v>108</v>
+        <v>54</v>
+      </c>
+      <c r="S58" s="34" t="s">
+        <v>107</v>
       </c>
       <c r="T58" s="34"/>
       <c r="U58" s="35"/>
       <c r="V58" s="36"/>
       <c r="W58" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="25.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6732,57 +6732,57 @@
         <v>47</v>
       </c>
       <c r="C59" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D59" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="E59" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="F59" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="G59" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="E59" s="31" t="s">
+      <c r="H59" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="F59" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="G59" s="40" t="s">
+      <c r="I59" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="H59" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="I59" s="41" t="s">
-        <v>184</v>
-      </c>
       <c r="J59" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K59" s="34"/>
       <c r="L59" s="34"/>
       <c r="M59" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N59" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O59" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="N59" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O59" s="52" t="s">
-        <v>64</v>
-      </c>
       <c r="P59" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q59" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R59" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="S59" s="52" t="s">
-        <v>108</v>
+        <v>54</v>
+      </c>
+      <c r="S59" s="34" t="s">
+        <v>107</v>
       </c>
       <c r="T59" s="34"/>
       <c r="U59" s="35"/>
       <c r="V59" s="36"/>
       <c r="W59" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6793,23 +6793,23 @@
         <v>47</v>
       </c>
       <c r="C60" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F60" s="40"/>
       <c r="G60" s="40"/>
       <c r="H60" s="40"/>
       <c r="I60" s="41"/>
       <c r="J60" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K60" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L60" s="34"/>
       <c r="M60" s="34"/>
@@ -6823,7 +6823,7 @@
       <c r="U60" s="35"/>
       <c r="V60" s="36"/>
       <c r="W60" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="45.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6834,23 +6834,23 @@
         <v>47</v>
       </c>
       <c r="C61" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F61" s="40"/>
       <c r="G61" s="40"/>
       <c r="H61" s="40"/>
       <c r="I61" s="41"/>
       <c r="J61" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K61" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L61" s="34"/>
       <c r="M61" s="34"/>
@@ -6864,7 +6864,7 @@
       <c r="U61" s="35"/>
       <c r="V61" s="36"/>
       <c r="W61" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="38.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6875,23 +6875,23 @@
         <v>47</v>
       </c>
       <c r="C62" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F62" s="40"/>
       <c r="G62" s="40"/>
       <c r="H62" s="40"/>
       <c r="I62" s="41"/>
       <c r="J62" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K62" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L62" s="34"/>
       <c r="M62" s="34"/>
@@ -6905,7 +6905,7 @@
       <c r="U62" s="35"/>
       <c r="V62" s="36"/>
       <c r="W62" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="39.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6916,57 +6916,57 @@
         <v>47</v>
       </c>
       <c r="C63" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D63" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E63" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="F63" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="G63" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="E63" s="31" t="s">
+      <c r="H63" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="F63" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="G63" s="40" t="s">
+      <c r="I63" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="H63" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="I63" s="41" t="s">
-        <v>195</v>
-      </c>
       <c r="J63" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K63" s="34"/>
       <c r="L63" s="34"/>
       <c r="M63" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N63" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O63" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="N63" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O63" s="52" t="s">
-        <v>64</v>
-      </c>
       <c r="P63" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q63" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R63" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="S63" s="52" t="s">
-        <v>108</v>
+        <v>54</v>
+      </c>
+      <c r="S63" s="34" t="s">
+        <v>107</v>
       </c>
       <c r="T63" s="34"/>
       <c r="U63" s="35"/>
       <c r="V63" s="36"/>
       <c r="W63" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="36.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6977,57 +6977,57 @@
         <v>47</v>
       </c>
       <c r="C64" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D64" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="E64" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="F64" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="G64" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="E64" s="31" t="s">
+      <c r="H64" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="F64" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="G64" s="40" t="s">
+      <c r="I64" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="H64" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="I64" s="41" t="s">
-        <v>200</v>
-      </c>
       <c r="J64" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K64" s="34"/>
       <c r="L64" s="34"/>
       <c r="M64" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N64" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O64" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="N64" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O64" s="34" t="s">
-        <v>64</v>
-      </c>
       <c r="P64" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q64" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R64" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="S64" s="52" t="s">
-        <v>108</v>
+        <v>54</v>
+      </c>
+      <c r="S64" s="34" t="s">
+        <v>107</v>
       </c>
       <c r="T64" s="34"/>
       <c r="U64" s="35"/>
       <c r="V64" s="36"/>
       <c r="W64" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="39.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7038,57 +7038,57 @@
         <v>47</v>
       </c>
       <c r="C65" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D65" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="E65" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="F65" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="G65" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="E65" s="31" t="s">
+      <c r="H65" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="F65" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="G65" s="40" t="s">
+      <c r="I65" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="H65" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="I65" s="41" t="s">
-        <v>205</v>
-      </c>
       <c r="J65" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K65" s="34"/>
       <c r="L65" s="34"/>
       <c r="M65" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N65" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O65" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="N65" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O65" s="34" t="s">
-        <v>64</v>
-      </c>
       <c r="P65" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q65" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R65" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="S65" s="52" t="s">
-        <v>108</v>
+        <v>54</v>
+      </c>
+      <c r="S65" s="34" t="s">
+        <v>107</v>
       </c>
       <c r="T65" s="34"/>
       <c r="U65" s="35"/>
       <c r="V65" s="36"/>
       <c r="W65" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="36.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7099,57 +7099,57 @@
         <v>47</v>
       </c>
       <c r="C66" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D66" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="E66" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="F66" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="G66" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="E66" s="31" t="s">
+      <c r="H66" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="F66" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="G66" s="40" t="s">
+      <c r="I66" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="H66" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="I66" s="41" t="s">
-        <v>210</v>
-      </c>
       <c r="J66" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K66" s="34"/>
       <c r="L66" s="34"/>
       <c r="M66" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N66" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O66" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="N66" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O66" s="34" t="s">
-        <v>64</v>
-      </c>
       <c r="P66" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q66" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R66" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="S66" s="52" t="s">
-        <v>108</v>
+        <v>54</v>
+      </c>
+      <c r="S66" s="34" t="s">
+        <v>107</v>
       </c>
       <c r="T66" s="34"/>
       <c r="U66" s="35"/>
       <c r="V66" s="36"/>
       <c r="W66" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="36.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7160,57 +7160,57 @@
         <v>47</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D67" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="E67" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="F67" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="G67" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="E67" s="31" t="s">
+      <c r="H67" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="F67" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="G67" s="40" t="s">
+      <c r="I67" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="H67" s="40" t="s">
-        <v>214</v>
-      </c>
-      <c r="I67" s="41" t="s">
-        <v>215</v>
-      </c>
       <c r="J67" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K67" s="34"/>
       <c r="L67" s="34"/>
       <c r="M67" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N67" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O67" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="N67" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O67" s="34" t="s">
-        <v>64</v>
-      </c>
       <c r="P67" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q67" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R67" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="S67" s="52" t="s">
-        <v>108</v>
+        <v>54</v>
+      </c>
+      <c r="S67" s="34" t="s">
+        <v>107</v>
       </c>
       <c r="T67" s="34"/>
       <c r="U67" s="35"/>
       <c r="V67" s="36"/>
       <c r="W67" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="39.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7221,57 +7221,57 @@
         <v>47</v>
       </c>
       <c r="C68" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D68" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="E68" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="F68" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="G68" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="E68" s="31" t="s">
+      <c r="H68" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="F68" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="G68" s="40" t="s">
+      <c r="I68" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="H68" s="40" t="s">
-        <v>219</v>
-      </c>
-      <c r="I68" s="41" t="s">
-        <v>220</v>
-      </c>
       <c r="J68" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K68" s="34"/>
       <c r="L68" s="34"/>
       <c r="M68" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N68" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O68" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="N68" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O68" s="34" t="s">
-        <v>64</v>
-      </c>
       <c r="P68" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q68" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R68" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="S68" s="52" t="s">
-        <v>108</v>
+        <v>54</v>
+      </c>
+      <c r="S68" s="34" t="s">
+        <v>107</v>
       </c>
       <c r="T68" s="34"/>
       <c r="U68" s="35"/>
       <c r="V68" s="36"/>
       <c r="W68" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="36.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7282,57 +7282,57 @@
         <v>47</v>
       </c>
       <c r="C69" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D69" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="E69" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="F69" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="G69" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="E69" s="31" t="s">
+      <c r="H69" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="F69" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="G69" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="H69" s="40" t="s">
-        <v>224</v>
-      </c>
       <c r="I69" s="41" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J69" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K69" s="34"/>
       <c r="L69" s="34"/>
       <c r="M69" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N69" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O69" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="N69" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O69" s="34" t="s">
-        <v>64</v>
-      </c>
       <c r="P69" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q69" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R69" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="S69" s="52" t="s">
-        <v>108</v>
+        <v>54</v>
+      </c>
+      <c r="S69" s="34" t="s">
+        <v>107</v>
       </c>
       <c r="T69" s="34"/>
       <c r="U69" s="35"/>
       <c r="V69" s="36"/>
       <c r="W69" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7343,57 +7343,57 @@
         <v>47</v>
       </c>
       <c r="C70" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D70" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="E70" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="F70" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="G70" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="E70" s="31" t="s">
+      <c r="H70" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="F70" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="G70" s="40" t="s">
+      <c r="I70" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="H70" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="I70" s="41" t="s">
-        <v>229</v>
-      </c>
       <c r="J70" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K70" s="34"/>
       <c r="L70" s="34"/>
       <c r="M70" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N70" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O70" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="N70" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O70" s="34" t="s">
-        <v>64</v>
-      </c>
       <c r="P70" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q70" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R70" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="S70" s="52" t="s">
-        <v>108</v>
+        <v>54</v>
+      </c>
+      <c r="S70" s="34" t="s">
+        <v>107</v>
       </c>
       <c r="T70" s="34"/>
       <c r="U70" s="35"/>
       <c r="V70" s="36"/>
       <c r="W70" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7404,13 +7404,13 @@
         <v>47</v>
       </c>
       <c r="C71" s="43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D71" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="E71" s="53" t="s">
-        <v>231</v>
+        <v>228</v>
+      </c>
+      <c r="E71" s="54" t="s">
+        <v>229</v>
       </c>
       <c r="F71" s="45"/>
       <c r="G71" s="45"/>
@@ -7430,7 +7430,7 @@
       <c r="U71" s="48"/>
       <c r="V71" s="49"/>
       <c r="W71" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7441,13 +7441,13 @@
         <v>47</v>
       </c>
       <c r="C72" s="43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D72" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="E72" s="53" t="s">
-        <v>233</v>
+        <v>230</v>
+      </c>
+      <c r="E72" s="54" t="s">
+        <v>231</v>
       </c>
       <c r="F72" s="45"/>
       <c r="G72" s="45"/>
@@ -7467,7 +7467,7 @@
       <c r="U72" s="48"/>
       <c r="V72" s="49"/>
       <c r="W72" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7478,13 +7478,13 @@
         <v>47</v>
       </c>
       <c r="C73" s="43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D73" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="E73" s="53" t="s">
-        <v>235</v>
+        <v>232</v>
+      </c>
+      <c r="E73" s="54" t="s">
+        <v>233</v>
       </c>
       <c r="F73" s="45"/>
       <c r="G73" s="45"/>
@@ -7504,7 +7504,7 @@
       <c r="U73" s="48"/>
       <c r="V73" s="49"/>
       <c r="W73" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7515,13 +7515,13 @@
         <v>47</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D74" s="42" t="s">
-        <v>236</v>
-      </c>
-      <c r="E74" s="53" t="s">
-        <v>237</v>
+        <v>234</v>
+      </c>
+      <c r="E74" s="54" t="s">
+        <v>235</v>
       </c>
       <c r="F74" s="45"/>
       <c r="G74" s="45"/>
@@ -7541,7 +7541,7 @@
       <c r="U74" s="48"/>
       <c r="V74" s="49"/>
       <c r="W74" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7552,13 +7552,13 @@
         <v>47</v>
       </c>
       <c r="C75" s="43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D75" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="E75" s="53" t="s">
-        <v>239</v>
+        <v>236</v>
+      </c>
+      <c r="E75" s="54" t="s">
+        <v>237</v>
       </c>
       <c r="F75" s="45"/>
       <c r="G75" s="45"/>
@@ -7578,7 +7578,7 @@
       <c r="U75" s="48"/>
       <c r="V75" s="49"/>
       <c r="W75" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7589,13 +7589,13 @@
         <v>47</v>
       </c>
       <c r="C76" s="43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D76" s="42" t="s">
-        <v>240</v>
-      </c>
-      <c r="E76" s="53" t="s">
-        <v>241</v>
+        <v>238</v>
+      </c>
+      <c r="E76" s="54" t="s">
+        <v>239</v>
       </c>
       <c r="F76" s="45"/>
       <c r="G76" s="45"/>
@@ -7615,7 +7615,7 @@
       <c r="U76" s="48"/>
       <c r="V76" s="49"/>
       <c r="W76" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7626,13 +7626,13 @@
         <v>47</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D77" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="E77" s="53" t="s">
-        <v>243</v>
+        <v>240</v>
+      </c>
+      <c r="E77" s="54" t="s">
+        <v>241</v>
       </c>
       <c r="F77" s="45"/>
       <c r="G77" s="45"/>
@@ -7652,7 +7652,7 @@
       <c r="U77" s="48"/>
       <c r="V77" s="49"/>
       <c r="W77" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7663,13 +7663,13 @@
         <v>47</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D78" s="42" t="s">
-        <v>244</v>
-      </c>
-      <c r="E78" s="53" t="s">
-        <v>245</v>
+        <v>242</v>
+      </c>
+      <c r="E78" s="54" t="s">
+        <v>243</v>
       </c>
       <c r="F78" s="45"/>
       <c r="G78" s="45"/>
@@ -7689,7 +7689,7 @@
       <c r="U78" s="48"/>
       <c r="V78" s="49"/>
       <c r="W78" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7700,13 +7700,13 @@
         <v>47</v>
       </c>
       <c r="C79" s="43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D79" s="42" t="s">
-        <v>246</v>
-      </c>
-      <c r="E79" s="53" t="s">
-        <v>247</v>
+        <v>244</v>
+      </c>
+      <c r="E79" s="54" t="s">
+        <v>245</v>
       </c>
       <c r="F79" s="45"/>
       <c r="G79" s="45"/>
@@ -7726,7 +7726,7 @@
       <c r="U79" s="48"/>
       <c r="V79" s="49"/>
       <c r="W79" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7737,13 +7737,13 @@
         <v>47</v>
       </c>
       <c r="C80" s="43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D80" s="42" t="s">
-        <v>248</v>
-      </c>
-      <c r="E80" s="53" t="s">
-        <v>249</v>
+        <v>246</v>
+      </c>
+      <c r="E80" s="54" t="s">
+        <v>247</v>
       </c>
       <c r="F80" s="45"/>
       <c r="G80" s="45"/>
@@ -7763,7 +7763,7 @@
       <c r="U80" s="48"/>
       <c r="V80" s="49"/>
       <c r="W80" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7774,13 +7774,13 @@
         <v>47</v>
       </c>
       <c r="C81" s="43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D81" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="E81" s="53" t="s">
-        <v>251</v>
+        <v>248</v>
+      </c>
+      <c r="E81" s="54" t="s">
+        <v>249</v>
       </c>
       <c r="F81" s="45"/>
       <c r="G81" s="45"/>
@@ -7800,7 +7800,7 @@
       <c r="U81" s="48"/>
       <c r="V81" s="49"/>
       <c r="W81" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7811,13 +7811,13 @@
         <v>47</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F82" s="40"/>
       <c r="G82" s="40"/>
@@ -7837,7 +7837,7 @@
       <c r="U82" s="35"/>
       <c r="V82" s="36"/>
       <c r="W82" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7848,13 +7848,13 @@
         <v>47</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F83" s="40"/>
       <c r="G83" s="40"/>
@@ -7874,7 +7874,7 @@
       <c r="U83" s="35"/>
       <c r="V83" s="36"/>
       <c r="W83" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7885,13 +7885,13 @@
         <v>47</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F84" s="40"/>
       <c r="G84" s="40"/>
@@ -7911,7 +7911,7 @@
       <c r="U84" s="35"/>
       <c r="V84" s="36"/>
       <c r="W84" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7922,13 +7922,13 @@
         <v>47</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F85" s="40"/>
       <c r="G85" s="40"/>
@@ -7948,7 +7948,7 @@
       <c r="U85" s="35"/>
       <c r="V85" s="36"/>
       <c r="W85" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7959,13 +7959,13 @@
         <v>47</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E86" s="31" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F86" s="40"/>
       <c r="G86" s="40"/>
@@ -7985,7 +7985,7 @@
       <c r="U86" s="35"/>
       <c r="V86" s="36"/>
       <c r="W86" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7996,13 +7996,13 @@
         <v>47</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F87" s="40"/>
       <c r="G87" s="40"/>
@@ -8022,7 +8022,7 @@
       <c r="U87" s="35"/>
       <c r="V87" s="36"/>
       <c r="W87" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8033,13 +8033,13 @@
         <v>47</v>
       </c>
       <c r="C88" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D88" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F88" s="40"/>
       <c r="G88" s="40"/>
@@ -8059,7 +8059,7 @@
       <c r="U88" s="35"/>
       <c r="V88" s="36"/>
       <c r="W88" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8070,13 +8070,13 @@
         <v>47</v>
       </c>
       <c r="C89" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D89" s="30" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F89" s="40"/>
       <c r="G89" s="40"/>
@@ -8096,7 +8096,7 @@
       <c r="U89" s="35"/>
       <c r="V89" s="36"/>
       <c r="W89" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8107,13 +8107,13 @@
         <v>47</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D90" s="30" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F90" s="40"/>
       <c r="G90" s="40"/>
@@ -8133,7 +8133,7 @@
       <c r="U90" s="35"/>
       <c r="V90" s="36"/>
       <c r="W90" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8144,13 +8144,13 @@
         <v>47</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F91" s="40"/>
       <c r="G91" s="40"/>
@@ -8170,7 +8170,7 @@
       <c r="U91" s="35"/>
       <c r="V91" s="36"/>
       <c r="W91" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8181,13 +8181,13 @@
         <v>47</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D92" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E92" s="31" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F92" s="40"/>
       <c r="G92" s="40"/>
@@ -8207,7 +8207,7 @@
       <c r="U92" s="35"/>
       <c r="V92" s="36"/>
       <c r="W92" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8218,13 +8218,13 @@
         <v>47</v>
       </c>
       <c r="C93" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D93" s="30" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E93" s="31" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F93" s="40"/>
       <c r="G93" s="40"/>
@@ -8244,7 +8244,7 @@
       <c r="U93" s="35"/>
       <c r="V93" s="36"/>
       <c r="W93" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8255,13 +8255,13 @@
         <v>47</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F94" s="40"/>
       <c r="G94" s="40"/>
@@ -8281,7 +8281,7 @@
       <c r="U94" s="35"/>
       <c r="V94" s="36"/>
       <c r="W94" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8292,13 +8292,13 @@
         <v>47</v>
       </c>
       <c r="C95" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D95" s="30" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E95" s="31" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F95" s="40"/>
       <c r="G95" s="40"/>
@@ -8318,7 +8318,7 @@
       <c r="U95" s="35"/>
       <c r="V95" s="36"/>
       <c r="W95" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8329,13 +8329,13 @@
         <v>47</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D96" s="30" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E96" s="31" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F96" s="40"/>
       <c r="G96" s="40"/>
@@ -8355,7 +8355,7 @@
       <c r="U96" s="35"/>
       <c r="V96" s="36"/>
       <c r="W96" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8366,13 +8366,13 @@
         <v>47</v>
       </c>
       <c r="C97" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D97" s="30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F97" s="40"/>
       <c r="G97" s="40"/>
@@ -8392,7 +8392,7 @@
       <c r="U97" s="35"/>
       <c r="V97" s="36"/>
       <c r="W97" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8403,13 +8403,13 @@
         <v>47</v>
       </c>
       <c r="C98" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E98" s="31" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F98" s="40"/>
       <c r="G98" s="40"/>
@@ -8429,7 +8429,7 @@
       <c r="U98" s="35"/>
       <c r="V98" s="36"/>
       <c r="W98" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8440,13 +8440,13 @@
         <v>47</v>
       </c>
       <c r="C99" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E99" s="31" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F99" s="40"/>
       <c r="G99" s="40"/>
@@ -8466,7 +8466,7 @@
       <c r="U99" s="35"/>
       <c r="V99" s="36"/>
       <c r="W99" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8477,13 +8477,13 @@
         <v>47</v>
       </c>
       <c r="C100" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E100" s="31" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F100" s="40"/>
       <c r="G100" s="40"/>
@@ -8503,7 +8503,7 @@
       <c r="U100" s="35"/>
       <c r="V100" s="36"/>
       <c r="W100" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8514,13 +8514,13 @@
         <v>47</v>
       </c>
       <c r="C101" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E101" s="31" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F101" s="40"/>
       <c r="G101" s="40"/>
@@ -8540,7 +8540,7 @@
       <c r="U101" s="35"/>
       <c r="V101" s="36"/>
       <c r="W101" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8551,13 +8551,13 @@
         <v>47</v>
       </c>
       <c r="C102" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E102" s="31" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F102" s="40"/>
       <c r="G102" s="40"/>
@@ -8577,7 +8577,7 @@
       <c r="U102" s="35"/>
       <c r="V102" s="36"/>
       <c r="W102" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8588,13 +8588,13 @@
         <v>47</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E103" s="31" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F103" s="40"/>
       <c r="G103" s="40"/>
@@ -8614,7 +8614,7 @@
       <c r="U103" s="35"/>
       <c r="V103" s="36"/>
       <c r="W103" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8625,13 +8625,13 @@
         <v>47</v>
       </c>
       <c r="C104" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E104" s="31" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F104" s="40"/>
       <c r="G104" s="40"/>
@@ -8651,7 +8651,7 @@
       <c r="U104" s="35"/>
       <c r="V104" s="36"/>
       <c r="W104" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8662,13 +8662,13 @@
         <v>47</v>
       </c>
       <c r="C105" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D105" s="30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E105" s="31" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F105" s="40"/>
       <c r="G105" s="40"/>
@@ -8688,7 +8688,7 @@
       <c r="U105" s="35"/>
       <c r="V105" s="36"/>
       <c r="W105" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8699,13 +8699,13 @@
         <v>47</v>
       </c>
       <c r="C106" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D106" s="30" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E106" s="31" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F106" s="40"/>
       <c r="G106" s="40"/>
@@ -8725,7 +8725,7 @@
       <c r="U106" s="35"/>
       <c r="V106" s="36"/>
       <c r="W106" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8736,13 +8736,13 @@
         <v>47</v>
       </c>
       <c r="C107" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D107" s="30" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F107" s="40"/>
       <c r="G107" s="40"/>
@@ -8762,7 +8762,7 @@
       <c r="U107" s="35"/>
       <c r="V107" s="36"/>
       <c r="W107" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8773,13 +8773,13 @@
         <v>47</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D108" s="30" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F108" s="40"/>
       <c r="G108" s="40"/>
@@ -8799,7 +8799,7 @@
       <c r="U108" s="35"/>
       <c r="V108" s="36"/>
       <c r="W108" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8810,13 +8810,13 @@
         <v>47</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D109" s="30" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E109" s="31" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F109" s="40"/>
       <c r="G109" s="40"/>
@@ -8836,7 +8836,7 @@
       <c r="U109" s="35"/>
       <c r="V109" s="36"/>
       <c r="W109" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8847,13 +8847,13 @@
         <v>47</v>
       </c>
       <c r="C110" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D110" s="30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E110" s="31" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F110" s="40"/>
       <c r="G110" s="40"/>
@@ -8873,7 +8873,7 @@
       <c r="U110" s="35"/>
       <c r="V110" s="36"/>
       <c r="W110" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8884,13 +8884,13 @@
         <v>47</v>
       </c>
       <c r="C111" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D111" s="30" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E111" s="31" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F111" s="40"/>
       <c r="G111" s="40"/>
@@ -8910,7 +8910,7 @@
       <c r="U111" s="35"/>
       <c r="V111" s="36"/>
       <c r="W111" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8921,13 +8921,13 @@
         <v>47</v>
       </c>
       <c r="C112" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D112" s="30" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E112" s="31" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F112" s="40"/>
       <c r="G112" s="40"/>
@@ -8947,7 +8947,7 @@
       <c r="U112" s="35"/>
       <c r="V112" s="36"/>
       <c r="W112" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8958,13 +8958,13 @@
         <v>47</v>
       </c>
       <c r="C113" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D113" s="30" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E113" s="31" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F113" s="40"/>
       <c r="G113" s="40"/>
@@ -8984,7 +8984,7 @@
       <c r="U113" s="35"/>
       <c r="V113" s="36"/>
       <c r="W113" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8995,13 +8995,13 @@
         <v>47</v>
       </c>
       <c r="C114" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D114" s="30" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E114" s="31" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F114" s="40"/>
       <c r="G114" s="40"/>
@@ -9021,7 +9021,7 @@
       <c r="U114" s="35"/>
       <c r="V114" s="36"/>
       <c r="W114" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9032,13 +9032,13 @@
         <v>47</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D115" s="30" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E115" s="31" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F115" s="40"/>
       <c r="G115" s="40"/>
@@ -9058,7 +9058,7 @@
       <c r="U115" s="35"/>
       <c r="V115" s="36"/>
       <c r="W115" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9069,13 +9069,13 @@
         <v>47</v>
       </c>
       <c r="C116" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D116" s="30" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E116" s="31" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F116" s="40"/>
       <c r="G116" s="40"/>
@@ -9095,7 +9095,7 @@
       <c r="U116" s="35"/>
       <c r="V116" s="36"/>
       <c r="W116" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9106,13 +9106,13 @@
         <v>47</v>
       </c>
       <c r="C117" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D117" s="30" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E117" s="31" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F117" s="40"/>
       <c r="G117" s="40"/>
@@ -9132,7 +9132,7 @@
       <c r="U117" s="35"/>
       <c r="V117" s="36"/>
       <c r="W117" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="40.6" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9143,23 +9143,23 @@
         <v>47</v>
       </c>
       <c r="C118" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D118" s="30" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E118" s="31" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F118" s="40"/>
       <c r="G118" s="40"/>
       <c r="H118" s="40"/>
       <c r="I118" s="41"/>
       <c r="J118" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K118" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L118" s="34"/>
       <c r="M118" s="34"/>
@@ -9173,7 +9173,7 @@
       <c r="U118" s="35"/>
       <c r="V118" s="36"/>
       <c r="W118" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="42.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9184,23 +9184,23 @@
         <v>47</v>
       </c>
       <c r="C119" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D119" s="30" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E119" s="31" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F119" s="40"/>
       <c r="G119" s="40"/>
       <c r="H119" s="40"/>
       <c r="I119" s="41"/>
       <c r="J119" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K119" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L119" s="34"/>
       <c r="M119" s="34"/>
@@ -9214,7 +9214,7 @@
       <c r="U119" s="35"/>
       <c r="V119" s="36"/>
       <c r="W119" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="43.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9225,23 +9225,23 @@
         <v>47</v>
       </c>
       <c r="C120" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D120" s="30" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E120" s="31" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F120" s="40"/>
       <c r="G120" s="40"/>
       <c r="H120" s="40"/>
       <c r="I120" s="41"/>
       <c r="J120" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K120" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L120" s="34"/>
       <c r="M120" s="34"/>
@@ -9255,7 +9255,7 @@
       <c r="U120" s="35"/>
       <c r="V120" s="36"/>
       <c r="W120" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="37.3" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9266,23 +9266,23 @@
         <v>47</v>
       </c>
       <c r="C121" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D121" s="30" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E121" s="31" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F121" s="40"/>
       <c r="G121" s="40"/>
       <c r="H121" s="40"/>
       <c r="I121" s="41"/>
       <c r="J121" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K121" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L121" s="34"/>
       <c r="M121" s="34"/>
@@ -9296,7 +9296,7 @@
       <c r="U121" s="35"/>
       <c r="V121" s="36"/>
       <c r="W121" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="41.45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9307,57 +9307,57 @@
         <v>47</v>
       </c>
       <c r="C122" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D122" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="E122" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="F122" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="G122" s="40" t="s">
         <v>332</v>
       </c>
-      <c r="E122" s="31" t="s">
+      <c r="H122" s="40" t="s">
         <v>333</v>
       </c>
-      <c r="F122" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="G122" s="40" t="s">
+      <c r="I122" s="41" t="s">
         <v>334</v>
       </c>
-      <c r="H122" s="40" t="s">
-        <v>335</v>
-      </c>
-      <c r="I122" s="41" t="s">
-        <v>336</v>
-      </c>
       <c r="J122" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K122" s="34"/>
       <c r="L122" s="34"/>
       <c r="M122" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N122" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O122" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="N122" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O122" s="34" t="s">
-        <v>64</v>
-      </c>
       <c r="P122" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q122" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R122" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S122" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T122" s="34"/>
       <c r="U122" s="35"/>
       <c r="V122" s="36"/>
       <c r="W122" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="37.3" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9368,57 +9368,57 @@
         <v>47</v>
       </c>
       <c r="C123" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D123" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="E123" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="F123" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="G123" s="40" t="s">
         <v>337</v>
       </c>
-      <c r="E123" s="31" t="s">
+      <c r="H123" s="40" t="s">
         <v>338</v>
       </c>
-      <c r="F123" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="G123" s="40" t="s">
+      <c r="I123" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="H123" s="40" t="s">
-        <v>340</v>
-      </c>
-      <c r="I123" s="41" t="s">
-        <v>341</v>
-      </c>
       <c r="J123" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K123" s="34"/>
       <c r="L123" s="34"/>
       <c r="M123" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N123" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O123" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="N123" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O123" s="34" t="s">
-        <v>64</v>
-      </c>
       <c r="P123" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q123" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R123" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S123" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T123" s="34"/>
       <c r="U123" s="35"/>
       <c r="V123" s="36"/>
       <c r="W123" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="29.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9429,57 +9429,57 @@
         <v>47</v>
       </c>
       <c r="C124" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D124" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="E124" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="F124" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="G124" s="40" t="s">
         <v>342</v>
       </c>
-      <c r="E124" s="31" t="s">
+      <c r="H124" s="40" t="s">
         <v>343</v>
       </c>
-      <c r="F124" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="G124" s="40" t="s">
+      <c r="I124" s="41" t="s">
         <v>344</v>
       </c>
-      <c r="H124" s="40" t="s">
-        <v>345</v>
-      </c>
-      <c r="I124" s="41" t="s">
-        <v>346</v>
-      </c>
       <c r="J124" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K124" s="34"/>
       <c r="L124" s="34"/>
       <c r="M124" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N124" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O124" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="N124" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O124" s="34" t="s">
-        <v>64</v>
-      </c>
       <c r="P124" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q124" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R124" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S124" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T124" s="34"/>
       <c r="U124" s="35"/>
       <c r="V124" s="36"/>
       <c r="W124" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="32.3" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9490,57 +9490,57 @@
         <v>47</v>
       </c>
       <c r="C125" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D125" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="E125" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="F125" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="G125" s="40" t="s">
         <v>347</v>
       </c>
-      <c r="E125" s="31" t="s">
+      <c r="H125" s="40" t="s">
         <v>348</v>
       </c>
-      <c r="F125" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="G125" s="40" t="s">
+      <c r="I125" s="41" t="s">
         <v>349</v>
       </c>
-      <c r="H125" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="I125" s="41" t="s">
-        <v>351</v>
-      </c>
       <c r="J125" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K125" s="34"/>
       <c r="L125" s="34"/>
       <c r="M125" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N125" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O125" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="N125" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O125" s="34" t="s">
-        <v>64</v>
-      </c>
       <c r="P125" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q125" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R125" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S125" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T125" s="34"/>
       <c r="U125" s="35"/>
       <c r="V125" s="36"/>
       <c r="W125" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="33.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9551,57 +9551,57 @@
         <v>47</v>
       </c>
       <c r="C126" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D126" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="E126" s="31" t="s">
+        <v>351</v>
+      </c>
+      <c r="F126" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="G126" s="40" t="s">
         <v>352</v>
       </c>
-      <c r="E126" s="31" t="s">
+      <c r="H126" s="40" t="s">
         <v>353</v>
       </c>
-      <c r="F126" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="G126" s="40" t="s">
+      <c r="I126" s="41" t="s">
         <v>354</v>
       </c>
-      <c r="H126" s="40" t="s">
-        <v>355</v>
-      </c>
-      <c r="I126" s="41" t="s">
-        <v>356</v>
-      </c>
       <c r="J126" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K126" s="34"/>
       <c r="L126" s="34"/>
       <c r="M126" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N126" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O126" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="N126" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O126" s="34" t="s">
-        <v>64</v>
-      </c>
       <c r="P126" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q126" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R126" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S126" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T126" s="34"/>
       <c r="U126" s="35"/>
       <c r="V126" s="36"/>
       <c r="W126" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="29" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9612,57 +9612,57 @@
         <v>47</v>
       </c>
       <c r="C127" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D127" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="E127" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="F127" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="G127" s="40" t="s">
         <v>357</v>
       </c>
-      <c r="E127" s="31" t="s">
+      <c r="H127" s="40" t="s">
         <v>358</v>
       </c>
-      <c r="F127" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="G127" s="40" t="s">
+      <c r="I127" s="41" t="s">
         <v>359</v>
       </c>
-      <c r="H127" s="40" t="s">
-        <v>360</v>
-      </c>
-      <c r="I127" s="41" t="s">
-        <v>361</v>
-      </c>
       <c r="J127" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K127" s="34"/>
       <c r="L127" s="34"/>
       <c r="M127" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N127" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O127" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="N127" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O127" s="34" t="s">
-        <v>64</v>
-      </c>
       <c r="P127" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q127" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R127" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S127" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T127" s="34"/>
       <c r="U127" s="35"/>
       <c r="V127" s="36"/>
       <c r="W127" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="26.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9673,57 +9673,57 @@
         <v>47</v>
       </c>
       <c r="C128" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D128" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="E128" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="F128" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="G128" s="40" t="s">
         <v>362</v>
       </c>
-      <c r="E128" s="31" t="s">
+      <c r="H128" s="40" t="s">
         <v>363</v>
       </c>
-      <c r="F128" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="G128" s="40" t="s">
+      <c r="I128" s="41" t="s">
         <v>364</v>
       </c>
-      <c r="H128" s="40" t="s">
-        <v>365</v>
-      </c>
-      <c r="I128" s="41" t="s">
-        <v>366</v>
-      </c>
       <c r="J128" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K128" s="34"/>
       <c r="L128" s="34"/>
       <c r="M128" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N128" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O128" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="N128" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O128" s="34" t="s">
-        <v>64</v>
-      </c>
       <c r="P128" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q128" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R128" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S128" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T128" s="34"/>
       <c r="U128" s="35"/>
       <c r="V128" s="36"/>
       <c r="W128" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="37.3" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9734,57 +9734,57 @@
         <v>47</v>
       </c>
       <c r="C129" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D129" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="E129" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="F129" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="G129" s="40" t="s">
         <v>367</v>
       </c>
-      <c r="E129" s="31" t="s">
+      <c r="H129" s="40" t="s">
         <v>368</v>
       </c>
-      <c r="F129" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="G129" s="40" t="s">
+      <c r="I129" s="41" t="s">
         <v>369</v>
       </c>
-      <c r="H129" s="40" t="s">
-        <v>370</v>
-      </c>
-      <c r="I129" s="41" t="s">
-        <v>371</v>
-      </c>
       <c r="J129" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K129" s="34"/>
       <c r="L129" s="34"/>
       <c r="M129" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N129" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O129" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="N129" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O129" s="34" t="s">
-        <v>64</v>
-      </c>
       <c r="P129" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q129" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R129" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S129" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T129" s="34"/>
       <c r="U129" s="35"/>
       <c r="V129" s="36"/>
       <c r="W129" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="34.8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9795,57 +9795,57 @@
         <v>47</v>
       </c>
       <c r="C130" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D130" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="E130" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="F130" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="G130" s="40" t="s">
         <v>372</v>
       </c>
-      <c r="E130" s="31" t="s">
+      <c r="H130" s="40" t="s">
         <v>373</v>
       </c>
-      <c r="F130" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="G130" s="40" t="s">
+      <c r="I130" s="41" t="s">
         <v>374</v>
       </c>
-      <c r="H130" s="40" t="s">
-        <v>375</v>
-      </c>
-      <c r="I130" s="41" t="s">
-        <v>376</v>
-      </c>
       <c r="J130" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K130" s="34"/>
       <c r="L130" s="34"/>
       <c r="M130" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N130" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O130" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="N130" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O130" s="34" t="s">
-        <v>64</v>
-      </c>
       <c r="P130" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q130" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R130" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S130" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T130" s="34"/>
       <c r="U130" s="35"/>
       <c r="V130" s="36"/>
       <c r="W130" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="29" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9856,57 +9856,57 @@
         <v>47</v>
       </c>
       <c r="C131" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D131" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E131" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="F131" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="G131" s="40" t="s">
         <v>377</v>
       </c>
-      <c r="E131" s="31" t="s">
+      <c r="H131" s="40" t="s">
         <v>378</v>
       </c>
-      <c r="F131" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="G131" s="40" t="s">
+      <c r="I131" s="41" t="s">
         <v>379</v>
       </c>
-      <c r="H131" s="40" t="s">
-        <v>380</v>
-      </c>
-      <c r="I131" s="41" t="s">
-        <v>381</v>
-      </c>
       <c r="J131" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K131" s="34"/>
       <c r="L131" s="34"/>
       <c r="M131" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N131" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O131" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="N131" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O131" s="34" t="s">
-        <v>64</v>
-      </c>
       <c r="P131" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q131" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R131" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S131" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T131" s="34"/>
       <c r="U131" s="35"/>
       <c r="V131" s="36"/>
       <c r="W131" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="43.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9917,57 +9917,57 @@
         <v>47</v>
       </c>
       <c r="C132" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D132" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="E132" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="F132" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="G132" s="40" t="s">
         <v>382</v>
       </c>
-      <c r="E132" s="31" t="s">
+      <c r="H132" s="40" t="s">
         <v>383</v>
       </c>
-      <c r="F132" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="G132" s="40" t="s">
+      <c r="I132" s="41" t="s">
         <v>384</v>
       </c>
-      <c r="H132" s="40" t="s">
-        <v>385</v>
-      </c>
-      <c r="I132" s="41" t="s">
-        <v>386</v>
-      </c>
       <c r="J132" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K132" s="34"/>
       <c r="L132" s="34"/>
       <c r="M132" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N132" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O132" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="N132" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O132" s="34" t="s">
-        <v>64</v>
-      </c>
       <c r="P132" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q132" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R132" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S132" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T132" s="34"/>
       <c r="U132" s="35"/>
       <c r="V132" s="36"/>
       <c r="W132" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="38.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9978,57 +9978,57 @@
         <v>47</v>
       </c>
       <c r="C133" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D133" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="E133" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="F133" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="G133" s="40" t="s">
         <v>387</v>
       </c>
-      <c r="E133" s="31" t="s">
+      <c r="H133" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="F133" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="G133" s="40" t="s">
+      <c r="I133" s="41" t="s">
         <v>389</v>
       </c>
-      <c r="H133" s="40" t="s">
-        <v>390</v>
-      </c>
-      <c r="I133" s="41" t="s">
-        <v>391</v>
-      </c>
       <c r="J133" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K133" s="34"/>
       <c r="L133" s="34"/>
       <c r="M133" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N133" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O133" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="N133" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O133" s="34" t="s">
-        <v>64</v>
-      </c>
       <c r="P133" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q133" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R133" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S133" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T133" s="34"/>
       <c r="U133" s="35"/>
       <c r="V133" s="36"/>
       <c r="W133" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10039,13 +10039,13 @@
         <v>47</v>
       </c>
       <c r="C134" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D134" s="30" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E134" s="31" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F134" s="40"/>
       <c r="G134" s="40"/>
@@ -10065,7 +10065,7 @@
       <c r="U134" s="35"/>
       <c r="V134" s="36"/>
       <c r="W134" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10076,13 +10076,13 @@
         <v>47</v>
       </c>
       <c r="C135" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D135" s="30" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E135" s="31" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F135" s="40"/>
       <c r="G135" s="40"/>
@@ -10102,7 +10102,7 @@
       <c r="U135" s="35"/>
       <c r="V135" s="36"/>
       <c r="W135" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10113,13 +10113,13 @@
         <v>47</v>
       </c>
       <c r="C136" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D136" s="30" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E136" s="31" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F136" s="40"/>
       <c r="G136" s="40"/>
@@ -10139,7 +10139,7 @@
       <c r="U136" s="35"/>
       <c r="V136" s="36"/>
       <c r="W136" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10150,13 +10150,13 @@
         <v>47</v>
       </c>
       <c r="C137" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D137" s="30" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E137" s="31" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F137" s="40"/>
       <c r="G137" s="40"/>
@@ -10176,7 +10176,7 @@
       <c r="U137" s="35"/>
       <c r="V137" s="36"/>
       <c r="W137" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10187,13 +10187,13 @@
         <v>47</v>
       </c>
       <c r="C138" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D138" s="30" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E138" s="31" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F138" s="40"/>
       <c r="G138" s="40"/>
@@ -10213,7 +10213,7 @@
       <c r="U138" s="35"/>
       <c r="V138" s="36"/>
       <c r="W138" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10224,13 +10224,13 @@
         <v>47</v>
       </c>
       <c r="C139" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D139" s="30" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E139" s="31" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F139" s="40"/>
       <c r="G139" s="40"/>
@@ -10250,7 +10250,7 @@
       <c r="U139" s="35"/>
       <c r="V139" s="36"/>
       <c r="W139" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10261,13 +10261,13 @@
         <v>47</v>
       </c>
       <c r="C140" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D140" s="30" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E140" s="31" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F140" s="40"/>
       <c r="G140" s="40"/>
@@ -10287,7 +10287,7 @@
       <c r="U140" s="35"/>
       <c r="V140" s="36"/>
       <c r="W140" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10298,13 +10298,13 @@
         <v>47</v>
       </c>
       <c r="C141" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D141" s="30" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E141" s="31" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F141" s="40"/>
       <c r="G141" s="40"/>
@@ -10324,7 +10324,7 @@
       <c r="U141" s="35"/>
       <c r="V141" s="36"/>
       <c r="W141" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10335,13 +10335,13 @@
         <v>47</v>
       </c>
       <c r="C142" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D142" s="30" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E142" s="31" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F142" s="40"/>
       <c r="G142" s="40"/>
@@ -10361,7 +10361,7 @@
       <c r="U142" s="35"/>
       <c r="V142" s="36"/>
       <c r="W142" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10372,13 +10372,13 @@
         <v>47</v>
       </c>
       <c r="C143" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D143" s="30" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E143" s="31" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F143" s="40"/>
       <c r="G143" s="40"/>
@@ -10398,7 +10398,7 @@
       <c r="U143" s="35"/>
       <c r="V143" s="36"/>
       <c r="W143" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10409,13 +10409,13 @@
         <v>47</v>
       </c>
       <c r="C144" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D144" s="30" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E144" s="31" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F144" s="40"/>
       <c r="G144" s="40"/>
@@ -10435,7 +10435,7 @@
       <c r="U144" s="35"/>
       <c r="V144" s="36"/>
       <c r="W144" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10446,13 +10446,13 @@
         <v>47</v>
       </c>
       <c r="C145" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D145" s="30" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E145" s="31" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F145" s="40"/>
       <c r="G145" s="40"/>
@@ -10472,7 +10472,7 @@
       <c r="U145" s="35"/>
       <c r="V145" s="36"/>
       <c r="W145" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10483,13 +10483,13 @@
         <v>47</v>
       </c>
       <c r="C146" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D146" s="30" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E146" s="31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F146" s="40"/>
       <c r="G146" s="40"/>
@@ -10509,7 +10509,7 @@
       <c r="U146" s="35"/>
       <c r="V146" s="36"/>
       <c r="W146" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10520,13 +10520,13 @@
         <v>47</v>
       </c>
       <c r="C147" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D147" s="30" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E147" s="31" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F147" s="40"/>
       <c r="G147" s="40"/>
@@ -10546,7 +10546,7 @@
       <c r="U147" s="35"/>
       <c r="V147" s="36"/>
       <c r="W147" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10557,13 +10557,13 @@
         <v>47</v>
       </c>
       <c r="C148" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D148" s="30" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E148" s="31" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F148" s="40"/>
       <c r="G148" s="40"/>
@@ -10583,7 +10583,7 @@
       <c r="U148" s="35"/>
       <c r="V148" s="36"/>
       <c r="W148" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="42.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10597,25 +10597,25 @@
         <v>48</v>
       </c>
       <c r="D149" s="30" t="s">
+        <v>420</v>
+      </c>
+      <c r="E149" s="31" t="s">
+        <v>421</v>
+      </c>
+      <c r="F149" s="32" t="n">
+        <v>45936</v>
+      </c>
+      <c r="G149" s="55" t="s">
         <v>422</v>
       </c>
-      <c r="E149" s="31" t="s">
+      <c r="H149" s="55" t="s">
         <v>423</v>
       </c>
-      <c r="F149" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="G149" s="54" t="s">
+      <c r="I149" s="55" t="s">
         <v>424</v>
       </c>
-      <c r="H149" s="54" t="s">
-        <v>425</v>
-      </c>
-      <c r="I149" s="54" t="s">
-        <v>426</v>
-      </c>
       <c r="J149" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K149" s="34"/>
       <c r="L149" s="34"/>
@@ -10627,12 +10627,12 @@
       <c r="R149" s="34"/>
       <c r="S149" s="34"/>
       <c r="T149" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U149" s="35"/>
       <c r="V149" s="36"/>
       <c r="W149" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="38.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10646,25 +10646,25 @@
         <v>48</v>
       </c>
       <c r="D150" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="E150" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="F150" s="32" t="n">
+        <v>45936</v>
+      </c>
+      <c r="G150" s="55" t="s">
         <v>427</v>
       </c>
-      <c r="E150" s="31" t="s">
+      <c r="H150" s="55" t="s">
         <v>428</v>
       </c>
-      <c r="F150" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="G150" s="54" t="s">
+      <c r="I150" s="55" t="s">
         <v>429</v>
       </c>
-      <c r="H150" s="54" t="s">
-        <v>430</v>
-      </c>
-      <c r="I150" s="54" t="s">
-        <v>431</v>
-      </c>
       <c r="J150" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K150" s="34"/>
       <c r="L150" s="34"/>
@@ -10676,12 +10676,12 @@
       <c r="R150" s="34"/>
       <c r="S150" s="34"/>
       <c r="T150" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U150" s="35"/>
       <c r="V150" s="36"/>
       <c r="W150" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10692,13 +10692,13 @@
         <v>47</v>
       </c>
       <c r="C151" s="37" t="s">
+        <v>430</v>
+      </c>
+      <c r="D151" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="E151" s="31" t="s">
         <v>432</v>
-      </c>
-      <c r="D151" s="30" t="s">
-        <v>433</v>
-      </c>
-      <c r="E151" s="31" t="s">
-        <v>434</v>
       </c>
       <c r="F151" s="40"/>
       <c r="G151" s="40"/>
@@ -10718,7 +10718,7 @@
       <c r="U151" s="35"/>
       <c r="V151" s="36"/>
       <c r="W151" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10729,13 +10729,13 @@
         <v>47</v>
       </c>
       <c r="C152" s="37" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D152" s="30" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E152" s="31" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F152" s="40"/>
       <c r="G152" s="40"/>
@@ -10755,7 +10755,7 @@
       <c r="U152" s="35"/>
       <c r="V152" s="36"/>
       <c r="W152" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10766,13 +10766,13 @@
         <v>47</v>
       </c>
       <c r="C153" s="37" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D153" s="30" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E153" s="31" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F153" s="40"/>
       <c r="G153" s="40"/>
@@ -10792,7 +10792,7 @@
       <c r="U153" s="35"/>
       <c r="V153" s="36"/>
       <c r="W153" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10803,13 +10803,13 @@
         <v>47</v>
       </c>
       <c r="C154" s="37" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D154" s="30" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E154" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F154" s="40"/>
       <c r="G154" s="40"/>
@@ -10829,7 +10829,7 @@
       <c r="U154" s="35"/>
       <c r="V154" s="36"/>
       <c r="W154" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10840,13 +10840,13 @@
         <v>47</v>
       </c>
       <c r="C155" s="37" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D155" s="30" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E155" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F155" s="40"/>
       <c r="G155" s="40"/>
@@ -10866,7 +10866,7 @@
       <c r="U155" s="35"/>
       <c r="V155" s="36"/>
       <c r="W155" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10877,13 +10877,13 @@
         <v>47</v>
       </c>
       <c r="C156" s="37" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D156" s="30" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E156" s="31" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F156" s="40"/>
       <c r="G156" s="40"/>
@@ -10903,7 +10903,7 @@
       <c r="U156" s="35"/>
       <c r="V156" s="36"/>
       <c r="W156" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10914,13 +10914,13 @@
         <v>47</v>
       </c>
       <c r="C157" s="37" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D157" s="30" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E157" s="31" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F157" s="40"/>
       <c r="G157" s="40"/>
@@ -10940,7 +10940,7 @@
       <c r="U157" s="35"/>
       <c r="V157" s="36"/>
       <c r="W157" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10951,13 +10951,13 @@
         <v>47</v>
       </c>
       <c r="C158" s="37" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D158" s="30" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E158" s="31" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F158" s="40"/>
       <c r="G158" s="40"/>
@@ -10977,7 +10977,7 @@
       <c r="U158" s="35"/>
       <c r="V158" s="36"/>
       <c r="W158" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10988,13 +10988,13 @@
         <v>47</v>
       </c>
       <c r="C159" s="37" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D159" s="30" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E159" s="31" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F159" s="40"/>
       <c r="G159" s="40"/>
@@ -11014,7 +11014,7 @@
       <c r="U159" s="35"/>
       <c r="V159" s="36"/>
       <c r="W159" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11025,13 +11025,13 @@
         <v>47</v>
       </c>
       <c r="C160" s="37" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D160" s="30" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E160" s="31" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F160" s="40"/>
       <c r="G160" s="40"/>
@@ -11051,7 +11051,7 @@
       <c r="U160" s="35"/>
       <c r="V160" s="36"/>
       <c r="W160" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11062,13 +11062,13 @@
         <v>47</v>
       </c>
       <c r="C161" s="37" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D161" s="30" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E161" s="31" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F161" s="40"/>
       <c r="G161" s="40"/>
@@ -11088,7 +11088,7 @@
       <c r="U161" s="35"/>
       <c r="V161" s="36"/>
       <c r="W161" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11099,13 +11099,13 @@
         <v>47</v>
       </c>
       <c r="C162" s="37" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D162" s="30" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E162" s="31" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F162" s="40"/>
       <c r="G162" s="40"/>
@@ -11125,7 +11125,7 @@
       <c r="U162" s="35"/>
       <c r="V162" s="36"/>
       <c r="W162" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11136,13 +11136,13 @@
         <v>47</v>
       </c>
       <c r="C163" s="37" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D163" s="30" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E163" s="31" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F163" s="40"/>
       <c r="G163" s="40"/>
@@ -11162,7 +11162,7 @@
       <c r="U163" s="35"/>
       <c r="V163" s="36"/>
       <c r="W163" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11173,13 +11173,13 @@
         <v>47</v>
       </c>
       <c r="C164" s="37" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D164" s="30" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E164" s="31" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F164" s="40"/>
       <c r="G164" s="40"/>
@@ -11199,7 +11199,7 @@
       <c r="U164" s="35"/>
       <c r="V164" s="36"/>
       <c r="W164" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11210,13 +11210,13 @@
         <v>47</v>
       </c>
       <c r="C165" s="37" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D165" s="30" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E165" s="31" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F165" s="40"/>
       <c r="G165" s="40"/>
@@ -11236,7 +11236,7 @@
       <c r="U165" s="35"/>
       <c r="V165" s="36"/>
       <c r="W165" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11247,13 +11247,13 @@
         <v>47</v>
       </c>
       <c r="C166" s="37" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D166" s="30" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E166" s="31" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F166" s="40"/>
       <c r="G166" s="40"/>
@@ -11273,7 +11273,7 @@
       <c r="U166" s="35"/>
       <c r="V166" s="36"/>
       <c r="W166" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11284,13 +11284,13 @@
         <v>47</v>
       </c>
       <c r="C167" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D167" s="30" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E167" s="31" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F167" s="40"/>
       <c r="G167" s="40"/>
@@ -11310,7 +11310,7 @@
       <c r="U167" s="35"/>
       <c r="V167" s="36"/>
       <c r="W167" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11321,13 +11321,13 @@
         <v>47</v>
       </c>
       <c r="C168" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D168" s="30" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E168" s="31" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F168" s="40"/>
       <c r="G168" s="40"/>
@@ -11347,7 +11347,7 @@
       <c r="U168" s="35"/>
       <c r="V168" s="36"/>
       <c r="W168" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="36.45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11358,28 +11358,28 @@
         <v>47</v>
       </c>
       <c r="C169" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D169" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="E169" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="F169" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="G169" s="40" t="s">
         <v>467</v>
       </c>
-      <c r="E169" s="31" t="s">
+      <c r="H169" s="40" t="s">
         <v>468</v>
       </c>
-      <c r="F169" s="40" t="s">
+      <c r="I169" s="41" t="s">
         <v>469</v>
       </c>
-      <c r="G169" s="40" t="s">
-        <v>470</v>
-      </c>
-      <c r="H169" s="40" t="s">
-        <v>471</v>
-      </c>
-      <c r="I169" s="41" t="s">
-        <v>472</v>
-      </c>
       <c r="J169" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K169" s="34"/>
       <c r="L169" s="34"/>
@@ -11391,12 +11391,12 @@
       <c r="R169" s="34"/>
       <c r="S169" s="34"/>
       <c r="T169" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U169" s="35"/>
       <c r="V169" s="36"/>
       <c r="W169" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="35.65" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11407,28 +11407,28 @@
         <v>47</v>
       </c>
       <c r="C170" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D170" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="E170" s="31" t="s">
+        <v>471</v>
+      </c>
+      <c r="F170" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="G170" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="H170" s="40" t="s">
         <v>473</v>
       </c>
-      <c r="E170" s="31" t="s">
+      <c r="I170" s="41" t="s">
         <v>474</v>
       </c>
-      <c r="F170" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="G170" s="40" t="s">
-        <v>475</v>
-      </c>
-      <c r="H170" s="40" t="s">
-        <v>476</v>
-      </c>
-      <c r="I170" s="41" t="s">
-        <v>477</v>
-      </c>
       <c r="J170" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K170" s="34"/>
       <c r="L170" s="34"/>
@@ -11440,12 +11440,12 @@
       <c r="R170" s="34"/>
       <c r="S170" s="34"/>
       <c r="T170" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U170" s="35"/>
       <c r="V170" s="36"/>
       <c r="W170" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11456,13 +11456,13 @@
         <v>47</v>
       </c>
       <c r="C171" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D171" s="30" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E171" s="31" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F171" s="40"/>
       <c r="G171" s="40"/>
@@ -11482,7 +11482,7 @@
       <c r="U171" s="35"/>
       <c r="V171" s="36"/>
       <c r="W171" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11493,13 +11493,13 @@
         <v>47</v>
       </c>
       <c r="C172" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D172" s="30" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E172" s="31" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F172" s="40"/>
       <c r="G172" s="40"/>
@@ -11519,7 +11519,7 @@
       <c r="U172" s="35"/>
       <c r="V172" s="36"/>
       <c r="W172" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="46.4" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11533,25 +11533,25 @@
         <v>48</v>
       </c>
       <c r="D173" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="E173" s="31" t="s">
+        <v>480</v>
+      </c>
+      <c r="F173" s="32" t="n">
+        <v>45936</v>
+      </c>
+      <c r="G173" s="40" t="s">
+        <v>481</v>
+      </c>
+      <c r="H173" s="40" t="s">
         <v>482</v>
       </c>
-      <c r="E173" s="31" t="s">
+      <c r="I173" s="41" t="s">
         <v>483</v>
       </c>
-      <c r="F173" s="32" t="s">
-        <v>469</v>
-      </c>
-      <c r="G173" s="40" t="s">
-        <v>484</v>
-      </c>
-      <c r="H173" s="40" t="s">
-        <v>485</v>
-      </c>
-      <c r="I173" s="41" t="s">
-        <v>486</v>
-      </c>
       <c r="J173" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K173" s="34"/>
       <c r="L173" s="34"/>
@@ -11563,12 +11563,12 @@
       <c r="R173" s="34"/>
       <c r="S173" s="34"/>
       <c r="T173" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U173" s="35"/>
       <c r="V173" s="36"/>
       <c r="W173" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11579,13 +11579,13 @@
         <v>47</v>
       </c>
       <c r="C174" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D174" s="30" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E174" s="31" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F174" s="40"/>
       <c r="G174" s="40"/>
@@ -11605,7 +11605,7 @@
       <c r="U174" s="35"/>
       <c r="V174" s="36"/>
       <c r="W174" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11616,13 +11616,13 @@
         <v>47</v>
       </c>
       <c r="C175" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D175" s="30" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E175" s="31" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F175" s="40"/>
       <c r="G175" s="40"/>
@@ -11642,7 +11642,7 @@
       <c r="U175" s="35"/>
       <c r="V175" s="36"/>
       <c r="W175" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11653,13 +11653,13 @@
         <v>47</v>
       </c>
       <c r="C176" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D176" s="30" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E176" s="31" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F176" s="40"/>
       <c r="G176" s="40"/>
@@ -11679,7 +11679,7 @@
       <c r="U176" s="35"/>
       <c r="V176" s="36"/>
       <c r="W176" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11690,13 +11690,13 @@
         <v>47</v>
       </c>
       <c r="C177" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D177" s="30" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E177" s="31" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F177" s="40"/>
       <c r="G177" s="40"/>
@@ -11716,7 +11716,7 @@
       <c r="U177" s="35"/>
       <c r="V177" s="36"/>
       <c r="W177" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11727,13 +11727,13 @@
         <v>47</v>
       </c>
       <c r="C178" s="43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D178" s="42" t="s">
-        <v>495</v>
-      </c>
-      <c r="E178" s="53" t="s">
-        <v>496</v>
+        <v>492</v>
+      </c>
+      <c r="E178" s="54" t="s">
+        <v>493</v>
       </c>
       <c r="F178" s="45"/>
       <c r="G178" s="45"/>
@@ -11753,7 +11753,7 @@
       <c r="U178" s="48"/>
       <c r="V178" s="49"/>
       <c r="W178" s="47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11764,13 +11764,13 @@
         <v>47</v>
       </c>
       <c r="C179" s="43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D179" s="42" t="s">
-        <v>497</v>
-      </c>
-      <c r="E179" s="53" t="s">
-        <v>498</v>
+        <v>494</v>
+      </c>
+      <c r="E179" s="54" t="s">
+        <v>495</v>
       </c>
       <c r="F179" s="45"/>
       <c r="G179" s="45"/>
@@ -11790,7 +11790,7 @@
       <c r="U179" s="48"/>
       <c r="V179" s="49"/>
       <c r="W179" s="47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11801,13 +11801,13 @@
         <v>47</v>
       </c>
       <c r="C180" s="37" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D180" s="30" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E180" s="31" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F180" s="40"/>
       <c r="G180" s="40"/>
@@ -11827,7 +11827,7 @@
       <c r="U180" s="35"/>
       <c r="V180" s="36"/>
       <c r="W180" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="37.3" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11838,57 +11838,57 @@
         <v>47</v>
       </c>
       <c r="C181" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D181" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="E181" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="F181" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="G181" s="30" t="s">
+        <v>500</v>
+      </c>
+      <c r="H181" s="30" t="s">
         <v>501</v>
       </c>
-      <c r="E181" s="31" t="s">
+      <c r="I181" s="30" t="s">
         <v>502</v>
       </c>
-      <c r="F181" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="G181" s="30" t="s">
-        <v>503</v>
-      </c>
-      <c r="H181" s="30" t="s">
-        <v>504</v>
-      </c>
-      <c r="I181" s="30" t="s">
-        <v>505</v>
-      </c>
       <c r="J181" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K181" s="34"/>
       <c r="L181" s="30"/>
       <c r="M181" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N181" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O181" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="N181" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O181" s="34" t="s">
-        <v>64</v>
-      </c>
       <c r="P181" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q181" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R181" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S181" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T181" s="34"/>
       <c r="U181" s="30"/>
       <c r="V181" s="30"/>
       <c r="W181" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="33.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11899,23 +11899,23 @@
         <v>47</v>
       </c>
       <c r="C182" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D182" s="30" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E182" s="31" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F182" s="30"/>
       <c r="G182" s="30"/>
       <c r="H182" s="30"/>
       <c r="I182" s="30"/>
       <c r="J182" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K182" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L182" s="30"/>
       <c r="M182" s="34"/>
@@ -11929,7 +11929,7 @@
       <c r="U182" s="30"/>
       <c r="V182" s="30"/>
       <c r="W182" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11940,13 +11940,13 @@
         <v>47</v>
       </c>
       <c r="C183" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D183" s="30" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E183" s="31" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F183" s="30"/>
       <c r="G183" s="30"/>
@@ -11966,7 +11966,7 @@
       <c r="U183" s="30"/>
       <c r="V183" s="30"/>
       <c r="W183" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11977,13 +11977,13 @@
         <v>47</v>
       </c>
       <c r="C184" s="43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D184" s="42" t="s">
-        <v>510</v>
-      </c>
-      <c r="E184" s="53" t="s">
-        <v>511</v>
+        <v>507</v>
+      </c>
+      <c r="E184" s="54" t="s">
+        <v>508</v>
       </c>
       <c r="F184" s="42"/>
       <c r="G184" s="42"/>
@@ -12003,7 +12003,7 @@
       <c r="U184" s="42"/>
       <c r="V184" s="42"/>
       <c r="W184" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12014,13 +12014,13 @@
         <v>47</v>
       </c>
       <c r="C185" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D185" s="30" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E185" s="31" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F185" s="30"/>
       <c r="G185" s="30"/>
@@ -12040,7 +12040,7 @@
       <c r="U185" s="30"/>
       <c r="V185" s="30"/>
       <c r="W185" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="40.6" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12054,54 +12054,54 @@
         <v>48</v>
       </c>
       <c r="D186" s="30" t="s">
+        <v>511</v>
+      </c>
+      <c r="E186" s="31" t="s">
+        <v>512</v>
+      </c>
+      <c r="F186" s="50" t="n">
+        <v>45936</v>
+      </c>
+      <c r="G186" s="30" t="s">
+        <v>513</v>
+      </c>
+      <c r="H186" s="30" t="s">
         <v>514</v>
       </c>
-      <c r="E186" s="31" t="s">
+      <c r="I186" s="30" t="s">
         <v>515</v>
       </c>
-      <c r="F186" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="G186" s="30" t="s">
-        <v>516</v>
-      </c>
-      <c r="H186" s="30" t="s">
-        <v>517</v>
-      </c>
-      <c r="I186" s="30" t="s">
-        <v>518</v>
-      </c>
       <c r="J186" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K186" s="34"/>
       <c r="L186" s="30"/>
       <c r="M186" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N186" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O186" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="N186" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O186" s="34" t="s">
-        <v>64</v>
-      </c>
       <c r="P186" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q186" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R186" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S186" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T186" s="34"/>
       <c r="U186" s="30"/>
       <c r="V186" s="30"/>
       <c r="W186" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12112,13 +12112,13 @@
         <v>47</v>
       </c>
       <c r="C187" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D187" s="30" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E187" s="31" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F187" s="30"/>
       <c r="G187" s="30"/>
@@ -12138,7 +12138,7 @@
       <c r="U187" s="30"/>
       <c r="V187" s="30"/>
       <c r="W187" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="25.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12149,57 +12149,57 @@
         <v>47</v>
       </c>
       <c r="C188" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D188" s="30" t="s">
+        <v>518</v>
+      </c>
+      <c r="E188" s="31" t="s">
+        <v>519</v>
+      </c>
+      <c r="F188" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="G188" s="30" t="s">
+        <v>520</v>
+      </c>
+      <c r="H188" s="30" t="s">
         <v>521</v>
       </c>
-      <c r="E188" s="31" t="s">
+      <c r="I188" s="30" t="s">
         <v>522</v>
       </c>
-      <c r="F188" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="G188" s="30" t="s">
-        <v>523</v>
-      </c>
-      <c r="H188" s="30" t="s">
-        <v>524</v>
-      </c>
-      <c r="I188" s="30" t="s">
-        <v>525</v>
-      </c>
       <c r="J188" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K188" s="34"/>
       <c r="L188" s="30"/>
       <c r="M188" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="N188" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="O188" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="N188" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O188" s="34" t="s">
-        <v>64</v>
-      </c>
       <c r="P188" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q188" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R188" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S188" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T188" s="34"/>
       <c r="U188" s="30"/>
       <c r="V188" s="30"/>
       <c r="W188" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="140.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12210,13 +12210,13 @@
         <v>47</v>
       </c>
       <c r="C189" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D189" s="30" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E189" s="31" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F189" s="30"/>
       <c r="G189" s="30"/>
@@ -12236,7 +12236,7 @@
       <c r="U189" s="30"/>
       <c r="V189" s="30"/>
       <c r="W189" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="140.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12247,13 +12247,13 @@
         <v>47</v>
       </c>
       <c r="C190" s="37" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D190" s="30" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E190" s="31" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F190" s="30"/>
       <c r="G190" s="30"/>
@@ -12273,10 +12273,10 @@
       <c r="U190" s="30"/>
       <c r="V190" s="30"/>
       <c r="W190" s="30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="33.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="33.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="30" t="n">
         <v>471</v>
       </c>
@@ -12284,28 +12284,28 @@
         <v>47</v>
       </c>
       <c r="C191" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D191" s="30" t="s">
+        <v>527</v>
+      </c>
+      <c r="E191" s="31" t="s">
+        <v>528</v>
+      </c>
+      <c r="F191" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="G191" s="40" t="s">
+        <v>529</v>
+      </c>
+      <c r="H191" s="40" t="s">
         <v>530</v>
       </c>
-      <c r="E191" s="31" t="s">
+      <c r="I191" s="41" t="s">
         <v>531</v>
       </c>
-      <c r="F191" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="G191" s="40" t="s">
-        <v>532</v>
-      </c>
-      <c r="H191" s="40" t="s">
-        <v>533</v>
-      </c>
-      <c r="I191" s="41" t="s">
-        <v>534</v>
-      </c>
       <c r="J191" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K191" s="34"/>
       <c r="L191" s="34"/>
@@ -12317,15 +12317,15 @@
       <c r="R191" s="34"/>
       <c r="S191" s="34"/>
       <c r="T191" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U191" s="35"/>
       <c r="V191" s="36"/>
       <c r="W191" s="34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="35.65" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="35.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="30" t="n">
         <v>472</v>
       </c>
@@ -12333,28 +12333,28 @@
         <v>47</v>
       </c>
       <c r="C192" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D192" s="30" t="s">
+        <v>532</v>
+      </c>
+      <c r="E192" s="31" t="s">
+        <v>533</v>
+      </c>
+      <c r="F192" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="G192" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="H192" s="40" t="s">
         <v>535</v>
       </c>
-      <c r="E192" s="31" t="s">
+      <c r="I192" s="41" t="s">
         <v>536</v>
       </c>
-      <c r="F192" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="G192" s="40" t="s">
-        <v>537</v>
-      </c>
-      <c r="H192" s="40" t="s">
-        <v>538</v>
-      </c>
-      <c r="I192" s="41" t="s">
-        <v>539</v>
-      </c>
       <c r="J192" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K192" s="34"/>
       <c r="L192" s="34"/>
@@ -12366,163 +12366,163 @@
       <c r="R192" s="34"/>
       <c r="S192" s="34"/>
       <c r="T192" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U192" s="35"/>
       <c r="V192" s="36"/>
       <c r="W192" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="140.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="50"/>
-      <c r="B193" s="50"/>
-      <c r="C193" s="50"/>
-      <c r="D193" s="50"/>
-      <c r="E193" s="50"/>
+      <c r="A193" s="52"/>
+      <c r="B193" s="52"/>
+      <c r="C193" s="52"/>
+      <c r="D193" s="52"/>
+      <c r="E193" s="52"/>
       <c r="F193" s="40"/>
-      <c r="G193" s="55"/>
-      <c r="H193" s="55"/>
-      <c r="I193" s="55"/>
-      <c r="J193" s="56"/>
-      <c r="K193" s="56"/>
-      <c r="L193" s="56"/>
-      <c r="M193" s="56"/>
-      <c r="N193" s="56"/>
-      <c r="O193" s="56"/>
-      <c r="P193" s="56"/>
-      <c r="Q193" s="56"/>
-      <c r="R193" s="56"/>
-      <c r="S193" s="56"/>
-      <c r="T193" s="56"/>
-      <c r="U193" s="57"/>
-      <c r="V193" s="58"/>
-      <c r="W193" s="59"/>
+      <c r="G193" s="56"/>
+      <c r="H193" s="56"/>
+      <c r="I193" s="56"/>
+      <c r="J193" s="57"/>
+      <c r="K193" s="57"/>
+      <c r="L193" s="57"/>
+      <c r="M193" s="57"/>
+      <c r="N193" s="57"/>
+      <c r="O193" s="57"/>
+      <c r="P193" s="57"/>
+      <c r="Q193" s="57"/>
+      <c r="R193" s="57"/>
+      <c r="S193" s="57"/>
+      <c r="T193" s="57"/>
+      <c r="U193" s="58"/>
+      <c r="V193" s="59"/>
+      <c r="W193" s="60"/>
     </row>
     <row r="194" customFormat="false" ht="140.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="50"/>
-      <c r="B194" s="50"/>
-      <c r="C194" s="50"/>
-      <c r="D194" s="50"/>
-      <c r="E194" s="50"/>
-      <c r="F194" s="55"/>
-      <c r="G194" s="55"/>
-      <c r="H194" s="55"/>
-      <c r="I194" s="55"/>
-      <c r="J194" s="56"/>
-      <c r="K194" s="56"/>
-      <c r="L194" s="56"/>
-      <c r="M194" s="56"/>
-      <c r="N194" s="56"/>
-      <c r="O194" s="56"/>
-      <c r="P194" s="56"/>
-      <c r="Q194" s="56"/>
-      <c r="R194" s="56"/>
-      <c r="S194" s="56"/>
-      <c r="T194" s="56"/>
-      <c r="U194" s="57"/>
-      <c r="V194" s="58"/>
-      <c r="W194" s="59"/>
+      <c r="A194" s="52"/>
+      <c r="B194" s="52"/>
+      <c r="C194" s="52"/>
+      <c r="D194" s="52"/>
+      <c r="E194" s="52"/>
+      <c r="F194" s="56"/>
+      <c r="G194" s="56"/>
+      <c r="H194" s="56"/>
+      <c r="I194" s="56"/>
+      <c r="J194" s="57"/>
+      <c r="K194" s="57"/>
+      <c r="L194" s="57"/>
+      <c r="M194" s="57"/>
+      <c r="N194" s="57"/>
+      <c r="O194" s="57"/>
+      <c r="P194" s="57"/>
+      <c r="Q194" s="57"/>
+      <c r="R194" s="57"/>
+      <c r="S194" s="57"/>
+      <c r="T194" s="57"/>
+      <c r="U194" s="58"/>
+      <c r="V194" s="59"/>
+      <c r="W194" s="60"/>
     </row>
     <row r="195" customFormat="false" ht="140.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="50"/>
-      <c r="B195" s="50"/>
-      <c r="C195" s="50"/>
-      <c r="D195" s="50"/>
-      <c r="E195" s="50"/>
-      <c r="F195" s="55"/>
-      <c r="G195" s="55"/>
-      <c r="H195" s="55"/>
-      <c r="I195" s="55"/>
-      <c r="J195" s="56"/>
-      <c r="K195" s="56"/>
-      <c r="L195" s="56"/>
-      <c r="M195" s="56"/>
-      <c r="N195" s="56"/>
-      <c r="O195" s="56"/>
-      <c r="P195" s="56"/>
-      <c r="Q195" s="56"/>
-      <c r="R195" s="56"/>
-      <c r="S195" s="56"/>
-      <c r="T195" s="56"/>
-      <c r="U195" s="57"/>
-      <c r="V195" s="58"/>
-      <c r="W195" s="59"/>
+      <c r="A195" s="52"/>
+      <c r="B195" s="52"/>
+      <c r="C195" s="52"/>
+      <c r="D195" s="52"/>
+      <c r="E195" s="52"/>
+      <c r="F195" s="56"/>
+      <c r="G195" s="56"/>
+      <c r="H195" s="56"/>
+      <c r="I195" s="56"/>
+      <c r="J195" s="57"/>
+      <c r="K195" s="57"/>
+      <c r="L195" s="57"/>
+      <c r="M195" s="57"/>
+      <c r="N195" s="57"/>
+      <c r="O195" s="57"/>
+      <c r="P195" s="57"/>
+      <c r="Q195" s="57"/>
+      <c r="R195" s="57"/>
+      <c r="S195" s="57"/>
+      <c r="T195" s="57"/>
+      <c r="U195" s="58"/>
+      <c r="V195" s="59"/>
+      <c r="W195" s="60"/>
     </row>
     <row r="196" customFormat="false" ht="140.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="50"/>
-      <c r="B196" s="50"/>
-      <c r="C196" s="50"/>
-      <c r="D196" s="50"/>
-      <c r="E196" s="50"/>
-      <c r="F196" s="55"/>
-      <c r="G196" s="55"/>
-      <c r="H196" s="55"/>
-      <c r="I196" s="55"/>
-      <c r="J196" s="56"/>
-      <c r="K196" s="56"/>
-      <c r="L196" s="56"/>
-      <c r="M196" s="56"/>
-      <c r="N196" s="56"/>
-      <c r="O196" s="56"/>
-      <c r="P196" s="56"/>
-      <c r="Q196" s="56"/>
-      <c r="R196" s="56"/>
-      <c r="S196" s="56"/>
-      <c r="T196" s="56"/>
-      <c r="U196" s="57"/>
-      <c r="V196" s="58"/>
-      <c r="W196" s="59"/>
+      <c r="A196" s="52"/>
+      <c r="B196" s="52"/>
+      <c r="C196" s="52"/>
+      <c r="D196" s="52"/>
+      <c r="E196" s="52"/>
+      <c r="F196" s="56"/>
+      <c r="G196" s="56"/>
+      <c r="H196" s="56"/>
+      <c r="I196" s="56"/>
+      <c r="J196" s="57"/>
+      <c r="K196" s="57"/>
+      <c r="L196" s="57"/>
+      <c r="M196" s="57"/>
+      <c r="N196" s="57"/>
+      <c r="O196" s="57"/>
+      <c r="P196" s="57"/>
+      <c r="Q196" s="57"/>
+      <c r="R196" s="57"/>
+      <c r="S196" s="57"/>
+      <c r="T196" s="57"/>
+      <c r="U196" s="58"/>
+      <c r="V196" s="59"/>
+      <c r="W196" s="60"/>
     </row>
     <row r="197" customFormat="false" ht="140.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="50"/>
-      <c r="B197" s="50"/>
-      <c r="C197" s="50"/>
-      <c r="D197" s="50"/>
-      <c r="E197" s="50"/>
-      <c r="F197" s="55"/>
-      <c r="G197" s="55"/>
-      <c r="H197" s="55"/>
-      <c r="I197" s="55"/>
-      <c r="J197" s="56"/>
-      <c r="K197" s="56"/>
-      <c r="L197" s="56"/>
-      <c r="M197" s="56"/>
-      <c r="N197" s="56"/>
-      <c r="O197" s="56"/>
-      <c r="P197" s="56"/>
-      <c r="Q197" s="56"/>
-      <c r="R197" s="56"/>
-      <c r="S197" s="56"/>
-      <c r="T197" s="56"/>
-      <c r="U197" s="57"/>
-      <c r="V197" s="58"/>
-      <c r="W197" s="59"/>
+      <c r="A197" s="52"/>
+      <c r="B197" s="52"/>
+      <c r="C197" s="52"/>
+      <c r="D197" s="52"/>
+      <c r="E197" s="52"/>
+      <c r="F197" s="56"/>
+      <c r="G197" s="56"/>
+      <c r="H197" s="56"/>
+      <c r="I197" s="56"/>
+      <c r="J197" s="57"/>
+      <c r="K197" s="57"/>
+      <c r="L197" s="57"/>
+      <c r="M197" s="57"/>
+      <c r="N197" s="57"/>
+      <c r="O197" s="57"/>
+      <c r="P197" s="57"/>
+      <c r="Q197" s="57"/>
+      <c r="R197" s="57"/>
+      <c r="S197" s="57"/>
+      <c r="T197" s="57"/>
+      <c r="U197" s="58"/>
+      <c r="V197" s="59"/>
+      <c r="W197" s="60"/>
     </row>
     <row r="198" customFormat="false" ht="140.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="50"/>
-      <c r="B198" s="50"/>
-      <c r="C198" s="50"/>
-      <c r="D198" s="50"/>
-      <c r="E198" s="50"/>
-      <c r="F198" s="55"/>
-      <c r="G198" s="55"/>
-      <c r="H198" s="55"/>
-      <c r="I198" s="55"/>
-      <c r="J198" s="56"/>
-      <c r="K198" s="56"/>
-      <c r="L198" s="56"/>
-      <c r="M198" s="56"/>
-      <c r="N198" s="56"/>
-      <c r="O198" s="56"/>
-      <c r="P198" s="56"/>
-      <c r="Q198" s="56"/>
-      <c r="R198" s="56"/>
-      <c r="S198" s="56"/>
-      <c r="T198" s="56"/>
-      <c r="U198" s="57"/>
-      <c r="V198" s="58"/>
-      <c r="W198" s="59"/>
+      <c r="A198" s="52"/>
+      <c r="B198" s="52"/>
+      <c r="C198" s="52"/>
+      <c r="D198" s="52"/>
+      <c r="E198" s="52"/>
+      <c r="F198" s="56"/>
+      <c r="G198" s="56"/>
+      <c r="H198" s="56"/>
+      <c r="I198" s="56"/>
+      <c r="J198" s="57"/>
+      <c r="K198" s="57"/>
+      <c r="L198" s="57"/>
+      <c r="M198" s="57"/>
+      <c r="N198" s="57"/>
+      <c r="O198" s="57"/>
+      <c r="P198" s="57"/>
+      <c r="Q198" s="57"/>
+      <c r="R198" s="57"/>
+      <c r="S198" s="57"/>
+      <c r="T198" s="57"/>
+      <c r="U198" s="58"/>
+      <c r="V198" s="59"/>
+      <c r="W198" s="60"/>
     </row>
     <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F199" s="13"/>
@@ -16482,11 +16482,6 @@
     <row r="755" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A9:W192">
-    <filterColumn colId="22">
-      <filters>
-        <filter val="KO"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="RAD"/>
@@ -16547,42 +16542,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -16621,170 +16616,170 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="60" t="s">
-        <v>547</v>
+      <c r="A1" s="61" t="s">
+        <v>544</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>547</v>
+      </c>
+      <c r="G1" s="63" t="s">
         <v>548</v>
       </c>
-      <c r="D1" s="19" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="64" t="s">
         <v>549</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="C2" s="65" t="s">
         <v>550</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="D2" s="66" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="63" t="s">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>549</v>
+      </c>
+      <c r="C3" s="65" t="s">
         <v>552</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="D3" s="66" t="s">
         <v>553</v>
       </c>
-      <c r="D2" s="65" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>549</v>
+      </c>
+      <c r="C4" s="65" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="63" t="s">
-        <v>552</v>
-      </c>
-      <c r="C3" s="64" t="s">
+      <c r="D4" s="67" t="s">
         <v>555</v>
       </c>
-      <c r="D3" s="65" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>549</v>
+      </c>
+      <c r="C5" s="65" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="63" t="s">
-        <v>552</v>
-      </c>
-      <c r="C4" s="64" t="s">
+      <c r="D5" s="66" t="s">
         <v>557</v>
       </c>
-      <c r="D4" s="66" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>549</v>
+      </c>
+      <c r="C6" s="65" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>552</v>
-      </c>
-      <c r="C5" s="64" t="s">
+      <c r="D6" s="67" t="s">
         <v>559</v>
       </c>
-      <c r="D5" s="65" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>549</v>
+      </c>
+      <c r="C7" s="65" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="63" t="s">
-        <v>552</v>
-      </c>
-      <c r="C6" s="64" t="s">
+      <c r="D7" s="67" t="s">
         <v>561</v>
       </c>
-      <c r="D6" s="66" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>549</v>
+      </c>
+      <c r="C8" s="65" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="63" t="s">
-        <v>552</v>
-      </c>
-      <c r="C7" s="64" t="s">
+      <c r="D8" s="67" t="s">
         <v>563</v>
       </c>
-      <c r="D7" s="66" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>549</v>
+      </c>
+      <c r="C9" s="65" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="63" t="s">
-        <v>552</v>
-      </c>
-      <c r="C8" s="64" t="s">
+      <c r="D9" s="67" t="s">
         <v>565</v>
       </c>
-      <c r="D8" s="66" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="64" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="63" t="s">
-        <v>552</v>
-      </c>
-      <c r="C9" s="64" t="s">
+      <c r="B10" s="64" t="s">
+        <v>549</v>
+      </c>
+      <c r="C10" s="68" t="s">
         <v>567</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D10" s="66" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="63" t="s">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="64" t="s">
+        <v>430</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>549</v>
+      </c>
+      <c r="C11" s="65" t="s">
         <v>569</v>
       </c>
-      <c r="B10" s="63" t="s">
-        <v>552</v>
-      </c>
-      <c r="C10" s="67" t="s">
+      <c r="D11" s="67" t="s">
         <v>570</v>
       </c>
-      <c r="D10" s="65" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="63" t="s">
-        <v>432</v>
-      </c>
-      <c r="B11" s="63" t="s">
-        <v>552</v>
-      </c>
-      <c r="C11" s="64" t="s">
-        <v>572</v>
-      </c>
-      <c r="D11" s="66" t="s">
-        <v>573</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D12" s="68"/>
+      <c r="D12" s="69"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D13" s="68"/>
+      <c r="D13" s="69"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -17765,32 +17760,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="70" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>55</v>
       </c>
+      <c r="B2" s="70" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="69" t="s">
-        <v>574</v>
-      </c>
-      <c r="B3" s="69" t="s">
-        <v>63</v>
+      <c r="A3" s="70" t="s">
+        <v>571</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="573">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -297,7 +297,7 @@
     <t xml:space="preserve">9239c974964ce6c6520ce0620d9d118b</t>
   </si>
   <si>
-    <t xml:space="preserve">216840111388329215044687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34fa4f86dc3582^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34fa.4f86dc3582^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">SI</t>
@@ -644,7 +644,7 @@
     <t xml:space="preserve">e33fbdabd2bab01b199d83dde832245a</t>
   </si>
   <si>
-    <t xml:space="preserve">216840111388329215044569369a4be5cef75f5ec38405b6b396793743e826d7b6c3922c90fb4f915d638afbdce4bbb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.569369a4be5cef75f5ec38405b6b396793743e826d7b6c3922c90fb4f915d638.afbdce4bbb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">L’operatore di back office corregge I dati errati o mancanti ed il referto viene rimesso in coda per una trasmissione.  Se non e’ un grado di fare fronte apre un ticket verso il fornitore.</t>
@@ -663,7 +663,7 @@
     <t xml:space="preserve">6b2f45f433a3b821e494ec84e5dfcce6</t>
   </si>
   <si>
-    <t xml:space="preserve">216840111388329215044687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34faf13d4192d0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34fa.f13d4192d0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT16_KO</t>
@@ -679,7 +679,7 @@
     <t xml:space="preserve">53759bf2ba836d060087963c94ee1b79</t>
   </si>
   <si>
-    <t xml:space="preserve">216840111388329215044687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34faeac69a955f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34fa.eac69a955f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT6_KO</t>
@@ -1331,7 +1331,7 @@
     <t xml:space="preserve">c9d32c315644d0a9b0ac3a49303e3f9a</t>
   </si>
   <si>
-    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e775711ac7b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.775711ac7b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT13_KO</t>
@@ -1347,7 +1347,7 @@
     <t xml:space="preserve">c7248ef57dbbc17bdf1b07f24a41fd9b</t>
   </si>
   <si>
-    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36ed3ae18cbbc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.d3ae18cbbc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT14_KO</t>
@@ -1363,7 +1363,7 @@
     <t xml:space="preserve">cfffa3bac1ef9b593f1637c0f6b9873f</t>
   </si>
   <si>
-    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36ec79d0ddd3f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.c79d0ddd3f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT15_KO</t>
@@ -1379,7 +1379,7 @@
     <t xml:space="preserve">7f26c6d39b536afe36a029ab3eece7cd</t>
   </si>
   <si>
-    <t xml:space="preserve">21684011138832921504405eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cb27d8858585^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.05eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cb.27d8858585^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT16_KO</t>
@@ -1395,7 +1395,7 @@
     <t xml:space="preserve">2e5e95b14f556d95f1b42fb9e3b2d21b</t>
   </si>
   <si>
-    <t xml:space="preserve">21684011138832921504405eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cb6ca83dd11b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.05eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cb.6ca83dd11b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT17_KO</t>
@@ -1411,7 +1411,7 @@
     <t xml:space="preserve">2ea7983b86a804f15402263d1afa844a</t>
   </si>
   <si>
-    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36ea7c6842ae9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.a7c6842ae9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT18_KO</t>
@@ -1427,7 +1427,7 @@
     <t xml:space="preserve">e33d6c219adbe5e81bc3e1651e32466e</t>
   </si>
   <si>
-    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e71dfaa98aa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.71dfaa98aa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT19_KO</t>
@@ -1459,7 +1459,7 @@
     <t xml:space="preserve">18f9bb1b406c359600e235228df7ad3d</t>
   </si>
   <si>
-    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e2831c5b501^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.2831c5b501^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT21_KO</t>
@@ -1475,7 +1475,7 @@
     <t xml:space="preserve">ee66e724d7bcd898c7354a19342001c7</t>
   </si>
   <si>
-    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e5faf5cce5e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.5faf5cce5e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT22_KO</t>
@@ -1491,7 +1491,7 @@
     <t xml:space="preserve">3570c36810d394993c9f46ca1d1cf4c0</t>
   </si>
   <si>
-    <t xml:space="preserve">21684011138832921504405eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cbf4cb617038^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.05eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cb.f4cb617038^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT23_KO</t>
@@ -1507,7 +1507,7 @@
     <t xml:space="preserve">cfcc5beb84d08187361c2fb8c3a093b2</t>
   </si>
   <si>
-    <t xml:space="preserve">21684011138832921504405eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cb1fc40dbe87^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.05eec3b48b479ab2373b9c89326036d569cf54ac24f1c5c979a4f880038989cb.1fc40dbe87^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_PSS_CT6_KO</t>
@@ -1629,7 +1629,7 @@
     <t xml:space="preserve">614cfa0db8700941d3780441d04ef44d</t>
   </si>
   <si>
-    <t xml:space="preserve">216840111388329215044603fe7510a741e2a7f48d448e064e7a00b61ce4fd1737cec7b51e28f46c932c5cc3ae9656a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.603fe7510a741e2a7f48d448e064e7a00b61ce4fd1737cec7b51e28f46c932c5.cc3ae9656a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_TRASF_CT2</t>
@@ -1646,7 +1646,7 @@
     <t xml:space="preserve">f423194dd0d46b79be66c5c2cdc2a49c</t>
   </si>
   <si>
-    <t xml:space="preserve">216840111388329215044eb7a519691317da16d4c42161f82ef7bb02f924e49c69dbfa7603f1b0bb992e5475dd61eac^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.eb7a519691317da16d4c42161f82ef7bb02f924e49c69dbfa7603f1b0bb992e5.475dd61eac^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">RAP</t>
@@ -1787,7 +1787,7 @@
     <t xml:space="preserve">fadc6fa603d34715a45732bcf5809f35</t>
   </si>
   <si>
-    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e223df3be18^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.223df3be18^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT25</t>
@@ -1803,7 +1803,7 @@
     <t xml:space="preserve">3cb83533bdf7b69cacb8a1b19ecb66f5</t>
   </si>
   <si>
-    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36ed767106c2d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.d767106c2d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT17</t>
@@ -1834,7 +1834,7 @@
     <t xml:space="preserve">48e382610188f19a3f812245633c2842</t>
   </si>
   <si>
-    <t xml:space="preserve">216840111388329215044687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34fa120b47b856^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34fa.120b47b856^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_VPS_CT30</t>
@@ -1896,10 +1896,10 @@
     <t xml:space="preserve">2025-10-06T20:53:36.378+02:00</t>
   </si>
   <si>
-    <t xml:space="preserve">0e1110078534768c5fb1e3320444cd9f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36eda515480d2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">6184b8c4c0b25808daf1f71455761b1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.da515480d2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT24_KO</t>
@@ -1943,7 +1943,7 @@
     <t xml:space="preserve">7a5b0d7bec0150211197a6ad4caa6135</t>
   </si>
   <si>
-    <t xml:space="preserve">216840111388329215044687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34fa3dee7cb7c4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.687d9ade5891f6681a5a8231ce0d4ac16be6cb2e3ab9e2b490ad662dff2b34fa.3dee7cb7c4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT19_KO</t>
@@ -1966,7 +1966,7 @@
     <t xml:space="preserve">f1351749405c10276c83be8a7729dcc8</t>
   </si>
   <si>
-    <t xml:space="preserve">2168401113883292150449df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36ed3b39b2b5b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.9df052a6e5bdca967143370d354f0bd90ddce3d058e6f83e079f255454c5a36e.d3b39b2b5b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_PSS_CT22_KO</t>
@@ -1988,6 +1988,9 @@
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-10-2025</t>
   </si>
   <si>
     <t xml:space="preserve">2025-10-06T21:50:19.908+02:00</t>
@@ -2130,7 +2133,7 @@
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="167" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2265,18 +2268,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="DejaVu Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="DejaVu Sans"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2508,7 +2499,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="69">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2709,14 +2700,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2757,7 +2740,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4267,10 +4250,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G67" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A63" activeCellId="0" sqref="A63"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A67" activeCellId="0" sqref="A67"/>
       <selection pane="bottomRight" activeCell="I192" activeCellId="0" sqref="I192"/>
     </sheetView>
   </sheetViews>
@@ -4280,11 +4263,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.97"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="1" width="22.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="25.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="39.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="35.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="38.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="56.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="150.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="27.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="11" style="1" width="36.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="45.29"/>
@@ -4561,7 +4544,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="29.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="175.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="28" t="n">
         <v>4</v>
       </c>
@@ -4994,7 +4977,7 @@
       <c r="E19" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="50" t="n">
+      <c r="F19" s="32" t="n">
         <v>45936</v>
       </c>
       <c r="G19" s="33" t="s">
@@ -5190,7 +5173,7 @@
       <c r="E23" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="51" t="s">
+      <c r="F23" s="40" t="s">
         <v>77</v>
       </c>
       <c r="G23" s="40" t="s">
@@ -5583,7 +5566,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" s="52" customFormat="true" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" s="50" customFormat="true" ht="86.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="30" t="n">
         <v>49</v>
       </c>
@@ -5758,7 +5741,7 @@
         <v>119</v>
       </c>
       <c r="F36" s="32"/>
-      <c r="G36" s="53"/>
+      <c r="G36" s="51"/>
       <c r="H36" s="33"/>
       <c r="I36" s="33"/>
       <c r="J36" s="39" t="s">
@@ -5962,10 +5945,10 @@
       <c r="E41" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="F41" s="50" t="n">
+      <c r="F41" s="32" t="n">
         <v>45936</v>
       </c>
-      <c r="G41" s="53" t="s">
+      <c r="G41" s="51" t="s">
         <v>130</v>
       </c>
       <c r="H41" s="33" t="s">
@@ -6023,7 +6006,7 @@
       <c r="E42" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="F42" s="50" t="n">
+      <c r="F42" s="32" t="n">
         <v>45936</v>
       </c>
       <c r="G42" s="40" t="s">
@@ -6084,10 +6067,10 @@
       <c r="E43" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="F43" s="50" t="n">
+      <c r="F43" s="32" t="n">
         <v>45936</v>
       </c>
-      <c r="G43" s="53" t="s">
+      <c r="G43" s="51" t="s">
         <v>141</v>
       </c>
       <c r="H43" s="33" t="s">
@@ -7409,7 +7392,7 @@
       <c r="D71" s="42" t="s">
         <v>228</v>
       </c>
-      <c r="E71" s="54" t="s">
+      <c r="E71" s="52" t="s">
         <v>229</v>
       </c>
       <c r="F71" s="45"/>
@@ -7446,7 +7429,7 @@
       <c r="D72" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="E72" s="54" t="s">
+      <c r="E72" s="52" t="s">
         <v>231</v>
       </c>
       <c r="F72" s="45"/>
@@ -7483,7 +7466,7 @@
       <c r="D73" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E73" s="54" t="s">
+      <c r="E73" s="52" t="s">
         <v>233</v>
       </c>
       <c r="F73" s="45"/>
@@ -7520,7 +7503,7 @@
       <c r="D74" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="E74" s="54" t="s">
+      <c r="E74" s="52" t="s">
         <v>235</v>
       </c>
       <c r="F74" s="45"/>
@@ -7557,7 +7540,7 @@
       <c r="D75" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="E75" s="54" t="s">
+      <c r="E75" s="52" t="s">
         <v>237</v>
       </c>
       <c r="F75" s="45"/>
@@ -7594,7 +7577,7 @@
       <c r="D76" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="E76" s="54" t="s">
+      <c r="E76" s="52" t="s">
         <v>239</v>
       </c>
       <c r="F76" s="45"/>
@@ -7631,7 +7614,7 @@
       <c r="D77" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="E77" s="54" t="s">
+      <c r="E77" s="52" t="s">
         <v>241</v>
       </c>
       <c r="F77" s="45"/>
@@ -7668,7 +7651,7 @@
       <c r="D78" s="42" t="s">
         <v>242</v>
       </c>
-      <c r="E78" s="54" t="s">
+      <c r="E78" s="52" t="s">
         <v>243</v>
       </c>
       <c r="F78" s="45"/>
@@ -7705,7 +7688,7 @@
       <c r="D79" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="E79" s="54" t="s">
+      <c r="E79" s="52" t="s">
         <v>245</v>
       </c>
       <c r="F79" s="45"/>
@@ -7742,7 +7725,7 @@
       <c r="D80" s="42" t="s">
         <v>246</v>
       </c>
-      <c r="E80" s="54" t="s">
+      <c r="E80" s="52" t="s">
         <v>247</v>
       </c>
       <c r="F80" s="45"/>
@@ -7779,7 +7762,7 @@
       <c r="D81" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="E81" s="54" t="s">
+      <c r="E81" s="52" t="s">
         <v>249</v>
       </c>
       <c r="F81" s="45"/>
@@ -9315,7 +9298,7 @@
       <c r="E122" s="31" t="s">
         <v>331</v>
       </c>
-      <c r="F122" s="51" t="s">
+      <c r="F122" s="40" t="s">
         <v>77</v>
       </c>
       <c r="G122" s="40" t="s">
@@ -9376,7 +9359,7 @@
       <c r="E123" s="31" t="s">
         <v>336</v>
       </c>
-      <c r="F123" s="51" t="s">
+      <c r="F123" s="40" t="s">
         <v>77</v>
       </c>
       <c r="G123" s="40" t="s">
@@ -9437,7 +9420,7 @@
       <c r="E124" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="F124" s="51" t="s">
+      <c r="F124" s="40" t="s">
         <v>77</v>
       </c>
       <c r="G124" s="40" t="s">
@@ -9498,7 +9481,7 @@
       <c r="E125" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="F125" s="51" t="s">
+      <c r="F125" s="40" t="s">
         <v>77</v>
       </c>
       <c r="G125" s="40" t="s">
@@ -9559,7 +9542,7 @@
       <c r="E126" s="31" t="s">
         <v>351</v>
       </c>
-      <c r="F126" s="51" t="s">
+      <c r="F126" s="40" t="s">
         <v>77</v>
       </c>
       <c r="G126" s="40" t="s">
@@ -9620,7 +9603,7 @@
       <c r="E127" s="31" t="s">
         <v>356</v>
       </c>
-      <c r="F127" s="51" t="s">
+      <c r="F127" s="40" t="s">
         <v>77</v>
       </c>
       <c r="G127" s="40" t="s">
@@ -9681,7 +9664,7 @@
       <c r="E128" s="31" t="s">
         <v>361</v>
       </c>
-      <c r="F128" s="51" t="s">
+      <c r="F128" s="40" t="s">
         <v>77</v>
       </c>
       <c r="G128" s="40" t="s">
@@ -9742,7 +9725,7 @@
       <c r="E129" s="31" t="s">
         <v>366</v>
       </c>
-      <c r="F129" s="51" t="s">
+      <c r="F129" s="40" t="s">
         <v>77</v>
       </c>
       <c r="G129" s="40" t="s">
@@ -9803,7 +9786,7 @@
       <c r="E130" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="F130" s="51" t="s">
+      <c r="F130" s="40" t="s">
         <v>77</v>
       </c>
       <c r="G130" s="40" t="s">
@@ -9864,7 +9847,7 @@
       <c r="E131" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="F131" s="51" t="s">
+      <c r="F131" s="40" t="s">
         <v>77</v>
       </c>
       <c r="G131" s="40" t="s">
@@ -9925,7 +9908,7 @@
       <c r="E132" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="F132" s="51" t="s">
+      <c r="F132" s="40" t="s">
         <v>77</v>
       </c>
       <c r="G132" s="40" t="s">
@@ -9986,7 +9969,7 @@
       <c r="E133" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="F133" s="51" t="s">
+      <c r="F133" s="40" t="s">
         <v>77</v>
       </c>
       <c r="G133" s="40" t="s">
@@ -10605,13 +10588,13 @@
       <c r="F149" s="32" t="n">
         <v>45936</v>
       </c>
-      <c r="G149" s="55" t="s">
+      <c r="G149" s="53" t="s">
         <v>422</v>
       </c>
-      <c r="H149" s="55" t="s">
+      <c r="H149" s="53" t="s">
         <v>423</v>
       </c>
-      <c r="I149" s="55" t="s">
+      <c r="I149" s="53" t="s">
         <v>424</v>
       </c>
       <c r="J149" s="34" t="s">
@@ -10654,13 +10637,13 @@
       <c r="F150" s="32" t="n">
         <v>45936</v>
       </c>
-      <c r="G150" s="55" t="s">
+      <c r="G150" s="53" t="s">
         <v>427</v>
       </c>
-      <c r="H150" s="55" t="s">
+      <c r="H150" s="53" t="s">
         <v>428</v>
       </c>
-      <c r="I150" s="55" t="s">
+      <c r="I150" s="53" t="s">
         <v>429</v>
       </c>
       <c r="J150" s="34" t="s">
@@ -11366,7 +11349,7 @@
       <c r="E169" s="31" t="s">
         <v>466</v>
       </c>
-      <c r="F169" s="51" t="s">
+      <c r="F169" s="40" t="s">
         <v>77</v>
       </c>
       <c r="G169" s="40" t="s">
@@ -11415,7 +11398,7 @@
       <c r="E170" s="31" t="s">
         <v>471</v>
       </c>
-      <c r="F170" s="51" t="s">
+      <c r="F170" s="40" t="s">
         <v>77</v>
       </c>
       <c r="G170" s="40" t="s">
@@ -11732,7 +11715,7 @@
       <c r="D178" s="42" t="s">
         <v>492</v>
       </c>
-      <c r="E178" s="54" t="s">
+      <c r="E178" s="52" t="s">
         <v>493</v>
       </c>
       <c r="F178" s="45"/>
@@ -11769,7 +11752,7 @@
       <c r="D179" s="42" t="s">
         <v>494</v>
       </c>
-      <c r="E179" s="54" t="s">
+      <c r="E179" s="52" t="s">
         <v>495</v>
       </c>
       <c r="F179" s="45"/>
@@ -11846,7 +11829,7 @@
       <c r="E181" s="31" t="s">
         <v>499</v>
       </c>
-      <c r="F181" s="51" t="s">
+      <c r="F181" s="40" t="s">
         <v>77</v>
       </c>
       <c r="G181" s="30" t="s">
@@ -11982,7 +11965,7 @@
       <c r="D184" s="42" t="s">
         <v>507</v>
       </c>
-      <c r="E184" s="54" t="s">
+      <c r="E184" s="52" t="s">
         <v>508</v>
       </c>
       <c r="F184" s="42"/>
@@ -12059,7 +12042,7 @@
       <c r="E186" s="31" t="s">
         <v>512</v>
       </c>
-      <c r="F186" s="50" t="n">
+      <c r="F186" s="32" t="n">
         <v>45936</v>
       </c>
       <c r="G186" s="30" t="s">
@@ -12157,7 +12140,7 @@
       <c r="E188" s="31" t="s">
         <v>519</v>
       </c>
-      <c r="F188" s="51" t="s">
+      <c r="F188" s="40" t="s">
         <v>77</v>
       </c>
       <c r="G188" s="30" t="s">
@@ -12293,16 +12276,16 @@
         <v>528</v>
       </c>
       <c r="F191" s="40" t="s">
-        <v>77</v>
+        <v>529</v>
       </c>
       <c r="G191" s="40" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H191" s="40" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="I191" s="41" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="J191" s="34" t="s">
         <v>54</v>
@@ -12336,22 +12319,22 @@
         <v>70</v>
       </c>
       <c r="D192" s="30" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E192" s="31" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F192" s="40" t="s">
-        <v>77</v>
+        <v>529</v>
       </c>
       <c r="G192" s="40" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H192" s="40" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="I192" s="41" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="J192" s="34" t="s">
         <v>54</v>
@@ -12375,154 +12358,154 @@
       </c>
     </row>
     <row r="193" customFormat="false" ht="140.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="52"/>
-      <c r="B193" s="52"/>
-      <c r="C193" s="52"/>
-      <c r="D193" s="52"/>
-      <c r="E193" s="52"/>
+      <c r="A193" s="50"/>
+      <c r="B193" s="50"/>
+      <c r="C193" s="50"/>
+      <c r="D193" s="50"/>
+      <c r="E193" s="50"/>
       <c r="F193" s="40"/>
-      <c r="G193" s="56"/>
-      <c r="H193" s="56"/>
-      <c r="I193" s="56"/>
-      <c r="J193" s="57"/>
-      <c r="K193" s="57"/>
-      <c r="L193" s="57"/>
-      <c r="M193" s="57"/>
-      <c r="N193" s="57"/>
-      <c r="O193" s="57"/>
-      <c r="P193" s="57"/>
-      <c r="Q193" s="57"/>
-      <c r="R193" s="57"/>
-      <c r="S193" s="57"/>
-      <c r="T193" s="57"/>
-      <c r="U193" s="58"/>
-      <c r="V193" s="59"/>
-      <c r="W193" s="60"/>
+      <c r="G193" s="54"/>
+      <c r="H193" s="54"/>
+      <c r="I193" s="54"/>
+      <c r="J193" s="55"/>
+      <c r="K193" s="55"/>
+      <c r="L193" s="55"/>
+      <c r="M193" s="55"/>
+      <c r="N193" s="55"/>
+      <c r="O193" s="55"/>
+      <c r="P193" s="55"/>
+      <c r="Q193" s="55"/>
+      <c r="R193" s="55"/>
+      <c r="S193" s="55"/>
+      <c r="T193" s="55"/>
+      <c r="U193" s="56"/>
+      <c r="V193" s="57"/>
+      <c r="W193" s="58"/>
     </row>
     <row r="194" customFormat="false" ht="140.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="52"/>
-      <c r="B194" s="52"/>
-      <c r="C194" s="52"/>
-      <c r="D194" s="52"/>
-      <c r="E194" s="52"/>
-      <c r="F194" s="56"/>
-      <c r="G194" s="56"/>
-      <c r="H194" s="56"/>
-      <c r="I194" s="56"/>
-      <c r="J194" s="57"/>
-      <c r="K194" s="57"/>
-      <c r="L194" s="57"/>
-      <c r="M194" s="57"/>
-      <c r="N194" s="57"/>
-      <c r="O194" s="57"/>
-      <c r="P194" s="57"/>
-      <c r="Q194" s="57"/>
-      <c r="R194" s="57"/>
-      <c r="S194" s="57"/>
-      <c r="T194" s="57"/>
-      <c r="U194" s="58"/>
-      <c r="V194" s="59"/>
-      <c r="W194" s="60"/>
+      <c r="A194" s="50"/>
+      <c r="B194" s="50"/>
+      <c r="C194" s="50"/>
+      <c r="D194" s="50"/>
+      <c r="E194" s="50"/>
+      <c r="F194" s="54"/>
+      <c r="G194" s="54"/>
+      <c r="H194" s="54"/>
+      <c r="I194" s="54"/>
+      <c r="J194" s="55"/>
+      <c r="K194" s="55"/>
+      <c r="L194" s="55"/>
+      <c r="M194" s="55"/>
+      <c r="N194" s="55"/>
+      <c r="O194" s="55"/>
+      <c r="P194" s="55"/>
+      <c r="Q194" s="55"/>
+      <c r="R194" s="55"/>
+      <c r="S194" s="55"/>
+      <c r="T194" s="55"/>
+      <c r="U194" s="56"/>
+      <c r="V194" s="57"/>
+      <c r="W194" s="58"/>
     </row>
     <row r="195" customFormat="false" ht="140.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="52"/>
-      <c r="B195" s="52"/>
-      <c r="C195" s="52"/>
-      <c r="D195" s="52"/>
-      <c r="E195" s="52"/>
-      <c r="F195" s="56"/>
-      <c r="G195" s="56"/>
-      <c r="H195" s="56"/>
-      <c r="I195" s="56"/>
-      <c r="J195" s="57"/>
-      <c r="K195" s="57"/>
-      <c r="L195" s="57"/>
-      <c r="M195" s="57"/>
-      <c r="N195" s="57"/>
-      <c r="O195" s="57"/>
-      <c r="P195" s="57"/>
-      <c r="Q195" s="57"/>
-      <c r="R195" s="57"/>
-      <c r="S195" s="57"/>
-      <c r="T195" s="57"/>
-      <c r="U195" s="58"/>
-      <c r="V195" s="59"/>
-      <c r="W195" s="60"/>
+      <c r="A195" s="50"/>
+      <c r="B195" s="50"/>
+      <c r="C195" s="50"/>
+      <c r="D195" s="50"/>
+      <c r="E195" s="50"/>
+      <c r="F195" s="54"/>
+      <c r="G195" s="54"/>
+      <c r="H195" s="54"/>
+      <c r="I195" s="54"/>
+      <c r="J195" s="55"/>
+      <c r="K195" s="55"/>
+      <c r="L195" s="55"/>
+      <c r="M195" s="55"/>
+      <c r="N195" s="55"/>
+      <c r="O195" s="55"/>
+      <c r="P195" s="55"/>
+      <c r="Q195" s="55"/>
+      <c r="R195" s="55"/>
+      <c r="S195" s="55"/>
+      <c r="T195" s="55"/>
+      <c r="U195" s="56"/>
+      <c r="V195" s="57"/>
+      <c r="W195" s="58"/>
     </row>
     <row r="196" customFormat="false" ht="140.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="52"/>
-      <c r="B196" s="52"/>
-      <c r="C196" s="52"/>
-      <c r="D196" s="52"/>
-      <c r="E196" s="52"/>
-      <c r="F196" s="56"/>
-      <c r="G196" s="56"/>
-      <c r="H196" s="56"/>
-      <c r="I196" s="56"/>
-      <c r="J196" s="57"/>
-      <c r="K196" s="57"/>
-      <c r="L196" s="57"/>
-      <c r="M196" s="57"/>
-      <c r="N196" s="57"/>
-      <c r="O196" s="57"/>
-      <c r="P196" s="57"/>
-      <c r="Q196" s="57"/>
-      <c r="R196" s="57"/>
-      <c r="S196" s="57"/>
-      <c r="T196" s="57"/>
-      <c r="U196" s="58"/>
-      <c r="V196" s="59"/>
-      <c r="W196" s="60"/>
+      <c r="A196" s="50"/>
+      <c r="B196" s="50"/>
+      <c r="C196" s="50"/>
+      <c r="D196" s="50"/>
+      <c r="E196" s="50"/>
+      <c r="F196" s="54"/>
+      <c r="G196" s="54"/>
+      <c r="H196" s="54"/>
+      <c r="I196" s="54"/>
+      <c r="J196" s="55"/>
+      <c r="K196" s="55"/>
+      <c r="L196" s="55"/>
+      <c r="M196" s="55"/>
+      <c r="N196" s="55"/>
+      <c r="O196" s="55"/>
+      <c r="P196" s="55"/>
+      <c r="Q196" s="55"/>
+      <c r="R196" s="55"/>
+      <c r="S196" s="55"/>
+      <c r="T196" s="55"/>
+      <c r="U196" s="56"/>
+      <c r="V196" s="57"/>
+      <c r="W196" s="58"/>
     </row>
     <row r="197" customFormat="false" ht="140.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="52"/>
-      <c r="B197" s="52"/>
-      <c r="C197" s="52"/>
-      <c r="D197" s="52"/>
-      <c r="E197" s="52"/>
-      <c r="F197" s="56"/>
-      <c r="G197" s="56"/>
-      <c r="H197" s="56"/>
-      <c r="I197" s="56"/>
-      <c r="J197" s="57"/>
-      <c r="K197" s="57"/>
-      <c r="L197" s="57"/>
-      <c r="M197" s="57"/>
-      <c r="N197" s="57"/>
-      <c r="O197" s="57"/>
-      <c r="P197" s="57"/>
-      <c r="Q197" s="57"/>
-      <c r="R197" s="57"/>
-      <c r="S197" s="57"/>
-      <c r="T197" s="57"/>
-      <c r="U197" s="58"/>
-      <c r="V197" s="59"/>
-      <c r="W197" s="60"/>
+      <c r="A197" s="50"/>
+      <c r="B197" s="50"/>
+      <c r="C197" s="50"/>
+      <c r="D197" s="50"/>
+      <c r="E197" s="50"/>
+      <c r="F197" s="54"/>
+      <c r="G197" s="54"/>
+      <c r="H197" s="54"/>
+      <c r="I197" s="54"/>
+      <c r="J197" s="55"/>
+      <c r="K197" s="55"/>
+      <c r="L197" s="55"/>
+      <c r="M197" s="55"/>
+      <c r="N197" s="55"/>
+      <c r="O197" s="55"/>
+      <c r="P197" s="55"/>
+      <c r="Q197" s="55"/>
+      <c r="R197" s="55"/>
+      <c r="S197" s="55"/>
+      <c r="T197" s="55"/>
+      <c r="U197" s="56"/>
+      <c r="V197" s="57"/>
+      <c r="W197" s="58"/>
     </row>
     <row r="198" customFormat="false" ht="140.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="52"/>
-      <c r="B198" s="52"/>
-      <c r="C198" s="52"/>
-      <c r="D198" s="52"/>
-      <c r="E198" s="52"/>
-      <c r="F198" s="56"/>
-      <c r="G198" s="56"/>
-      <c r="H198" s="56"/>
-      <c r="I198" s="56"/>
-      <c r="J198" s="57"/>
-      <c r="K198" s="57"/>
-      <c r="L198" s="57"/>
-      <c r="M198" s="57"/>
-      <c r="N198" s="57"/>
-      <c r="O198" s="57"/>
-      <c r="P198" s="57"/>
-      <c r="Q198" s="57"/>
-      <c r="R198" s="57"/>
-      <c r="S198" s="57"/>
-      <c r="T198" s="57"/>
-      <c r="U198" s="58"/>
-      <c r="V198" s="59"/>
-      <c r="W198" s="60"/>
+      <c r="A198" s="50"/>
+      <c r="B198" s="50"/>
+      <c r="C198" s="50"/>
+      <c r="D198" s="50"/>
+      <c r="E198" s="50"/>
+      <c r="F198" s="54"/>
+      <c r="G198" s="54"/>
+      <c r="H198" s="54"/>
+      <c r="I198" s="54"/>
+      <c r="J198" s="55"/>
+      <c r="K198" s="55"/>
+      <c r="L198" s="55"/>
+      <c r="M198" s="55"/>
+      <c r="N198" s="55"/>
+      <c r="O198" s="55"/>
+      <c r="P198" s="55"/>
+      <c r="Q198" s="55"/>
+      <c r="R198" s="55"/>
+      <c r="S198" s="55"/>
+      <c r="T198" s="55"/>
+      <c r="U198" s="56"/>
+      <c r="V198" s="57"/>
+      <c r="W198" s="58"/>
     </row>
     <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F199" s="13"/>
@@ -16542,32 +16525,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16577,7 +16560,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -16616,170 +16599,170 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="61" t="s">
-        <v>544</v>
+      <c r="A1" s="59" t="s">
+        <v>545</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>546</v>
-      </c>
-      <c r="F1" s="62" t="s">
         <v>547</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="F1" s="60" t="s">
         <v>548</v>
       </c>
+      <c r="G1" s="61" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="64" t="s">
-        <v>549</v>
-      </c>
-      <c r="C2" s="65" t="s">
+      <c r="B2" s="62" t="s">
         <v>550</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="C2" s="63" t="s">
         <v>551</v>
       </c>
+      <c r="D2" s="64" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="64" t="s">
-        <v>549</v>
-      </c>
-      <c r="C3" s="65" t="s">
-        <v>552</v>
-      </c>
-      <c r="D3" s="66" t="s">
+      <c r="B3" s="62" t="s">
+        <v>550</v>
+      </c>
+      <c r="C3" s="63" t="s">
         <v>553</v>
       </c>
+      <c r="D3" s="64" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="64" t="s">
-        <v>549</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>554</v>
-      </c>
-      <c r="D4" s="67" t="s">
+      <c r="B4" s="62" t="s">
+        <v>550</v>
+      </c>
+      <c r="C4" s="63" t="s">
         <v>555</v>
       </c>
+      <c r="D4" s="65" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="64" t="s">
-        <v>549</v>
-      </c>
-      <c r="C5" s="65" t="s">
-        <v>556</v>
-      </c>
-      <c r="D5" s="66" t="s">
+      <c r="B5" s="62" t="s">
+        <v>550</v>
+      </c>
+      <c r="C5" s="63" t="s">
         <v>557</v>
       </c>
+      <c r="D5" s="64" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="64" t="s">
-        <v>549</v>
-      </c>
-      <c r="C6" s="65" t="s">
-        <v>558</v>
-      </c>
-      <c r="D6" s="67" t="s">
+      <c r="B6" s="62" t="s">
+        <v>550</v>
+      </c>
+      <c r="C6" s="63" t="s">
         <v>559</v>
       </c>
+      <c r="D6" s="65" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="64" t="s">
-        <v>549</v>
-      </c>
-      <c r="C7" s="65" t="s">
-        <v>560</v>
-      </c>
-      <c r="D7" s="67" t="s">
+      <c r="B7" s="62" t="s">
+        <v>550</v>
+      </c>
+      <c r="C7" s="63" t="s">
         <v>561</v>
       </c>
+      <c r="D7" s="65" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="64" t="s">
-        <v>549</v>
-      </c>
-      <c r="C8" s="65" t="s">
-        <v>562</v>
-      </c>
-      <c r="D8" s="67" t="s">
+      <c r="B8" s="62" t="s">
+        <v>550</v>
+      </c>
+      <c r="C8" s="63" t="s">
         <v>563</v>
       </c>
+      <c r="D8" s="65" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="64" t="s">
-        <v>549</v>
-      </c>
-      <c r="C9" s="65" t="s">
-        <v>564</v>
-      </c>
-      <c r="D9" s="67" t="s">
+      <c r="B9" s="62" t="s">
+        <v>550</v>
+      </c>
+      <c r="C9" s="63" t="s">
         <v>565</v>
       </c>
+      <c r="D9" s="65" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="64" t="s">
-        <v>566</v>
-      </c>
-      <c r="B10" s="64" t="s">
-        <v>549</v>
-      </c>
-      <c r="C10" s="68" t="s">
+      <c r="A10" s="62" t="s">
         <v>567</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="B10" s="62" t="s">
+        <v>550</v>
+      </c>
+      <c r="C10" s="66" t="s">
         <v>568</v>
       </c>
+      <c r="D10" s="64" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="62" t="s">
         <v>430</v>
       </c>
-      <c r="B11" s="64" t="s">
-        <v>549</v>
-      </c>
-      <c r="C11" s="65" t="s">
-        <v>569</v>
-      </c>
-      <c r="D11" s="67" t="s">
+      <c r="B11" s="62" t="s">
+        <v>550</v>
+      </c>
+      <c r="C11" s="63" t="s">
         <v>570</v>
       </c>
+      <c r="D11" s="65" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D12" s="69"/>
+      <c r="D12" s="67"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D13" s="69"/>
+      <c r="D13" s="67"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -17760,32 +17743,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="68" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="68" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="70" t="s">
-        <v>571</v>
-      </c>
-      <c r="B3" s="70" t="s">
+      <c r="A3" s="68" t="s">
+        <v>572</v>
+      </c>
+      <c r="B3" s="68" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
@@ -1993,13 +1993,13 @@
     <t xml:space="preserve">10-10-2025</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-10-06T21:50:19.908+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">052eaba7c8f830b55f1af7f0c8fb0a93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.1fdc76143ba1420c660eac64a9212b4d55587a2bde9ef562142f4b8b5f318e07.af77ee9b1f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-10-10T22:06:55.259+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02fc4164a196575b907214d0f449ba19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.1fdc76143ba1420c660eac64a9212b4d55587a2bde9ef562142f4b8b5f318e07.dbba61fd25^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT26</t>
@@ -2009,13 +2009,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 26" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-10-06T21:50:20.603+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82397963d06023a7affb42d0e56906b5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.af1779c13b0111f295f0e564b152837375b4dd8cf5584df252a505b6563333d1.b7594e2594^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-10-10T22:06:57.337+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">db7a958b690d6ca5e50874609e4a8aaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.af1779c13b0111f295f0e564b152837375b4dd8cf5584df252a505b6563333d1.caeb5f86b2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Razionale di Applicabilità</t>
@@ -4250,10 +4250,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="G67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G54" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A67" activeCellId="0" sqref="A67"/>
+      <selection pane="bottomLeft" activeCell="A54" activeCellId="0" sqref="A54"/>
       <selection pane="bottomRight" activeCell="I192" activeCellId="0" sqref="I192"/>
     </sheetView>
   </sheetViews>

--- a/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
@@ -1990,16 +1990,16 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">10-10-2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-10-10T22:06:55.259+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02fc4164a196575b907214d0f449ba19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.1fdc76143ba1420c660eac64a9212b4d55587a2bde9ef562142f4b8b5f318e07.dbba61fd25^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">18-10-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-18T14:08:25.456+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3238c1202cf57c3f03145a3e21710a25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.1fdc76143ba1420c660eac64a9212b4d55587a2bde9ef562142f4b8b5f318e07.a3fa0ed009^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT26</t>
@@ -2009,13 +2009,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 26" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-10-10T22:06:57.337+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">db7a958b690d6ca5e50874609e4a8aaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.af1779c13b0111f295f0e564b152837375b4dd8cf5584df252a505b6563333d1.caeb5f86b2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-10-18T14:08:26.121+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d61dbde8dc2798f20f1c744e31f1b082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.af1779c13b0111f295f0e564b152837375b4dd8cf5584df252a505b6563333d1.0bdeb26ebb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Razionale di Applicabilità</t>
@@ -4250,10 +4250,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="G54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B70" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A54" activeCellId="0" sqref="A54"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A70" activeCellId="0" sqref="A70"/>
       <selection pane="bottomRight" activeCell="I192" activeCellId="0" sqref="I192"/>
     </sheetView>
   </sheetViews>

--- a/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
@@ -1990,16 +1990,16 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">18-10-2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-10-18T14:08:25.456+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3238c1202cf57c3f03145a3e21710a25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.1fdc76143ba1420c660eac64a9212b4d55587a2bde9ef562142f4b8b5f318e07.a3fa0ed009^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">24-10-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-24T11:43:45.567+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79ab3dc03c05b7daca2d169289abbefe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.1fdc76143ba1420c660eac64a9212b4d55587a2bde9ef562142f4b8b5f318e07.f31a18c800^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT26</t>
@@ -2009,13 +2009,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 26" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-10-18T14:08:26.121+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d61dbde8dc2798f20f1c744e31f1b082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.af1779c13b0111f295f0e564b152837375b4dd8cf5584df252a505b6563333d1.0bdeb26ebb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-10-24T11:43:46.320+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4269aa533fe5da9c70a498110916d9cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.af1779c13b0111f295f0e564b152837375b4dd8cf5584df252a505b6563333d1.8df63e53b4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Razionale di Applicabilità</t>
@@ -4250,9 +4250,9 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G70" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A70" activeCellId="0" sqref="A70"/>
       <selection pane="bottomRight" activeCell="I192" activeCellId="0" sqref="I192"/>
     </sheetView>

--- a/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#S2INFORMATICASRLXX/S2INFORMATICA/LABGUI/3.0/report-checklist.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="574">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1990,16 +1990,16 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">24-10-2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-10-24T11:43:45.567+02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79ab3dc03c05b7daca2d169289abbefe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.1fdc76143ba1420c660eac64a9212b4d55587a2bde9ef562142f4b8b5f318e07.f31a18c800^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">25-10-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-25T18:42:57.545+02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3a262a1bb955eea040814d5f03e4b1a3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.150.4.4.1fdc76143ba1420c660eac64a9212b4d55587a2bde9ef562142f4b8b5f318e07.27c172a432^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT26</t>
@@ -2007,6 +2007,9 @@
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 26" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-10-2025</t>
   </si>
   <si>
     <t xml:space="preserve">2025-10-24T11:43:46.320+02:00</t>
@@ -4254,7 +4257,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A70" activeCellId="0" sqref="A70"/>
-      <selection pane="bottomRight" activeCell="I192" activeCellId="0" sqref="I192"/>
+      <selection pane="bottomRight" activeCell="I191" activeCellId="0" sqref="I191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12325,16 +12328,16 @@
         <v>534</v>
       </c>
       <c r="F192" s="40" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="G192" s="40" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H192" s="40" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="I192" s="41" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="J192" s="34" t="s">
         <v>54</v>
@@ -16525,32 +16528,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16560,7 +16563,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -16600,22 +16603,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="59" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F1" s="60" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G1" s="61" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16623,13 +16626,13 @@
         <v>48</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C2" s="63" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D2" s="64" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16637,13 +16640,13 @@
         <v>66</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16651,13 +16654,13 @@
         <v>70</v>
       </c>
       <c r="B4" s="62" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16665,13 +16668,13 @@
         <v>81</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16679,13 +16682,13 @@
         <v>84</v>
       </c>
       <c r="B6" s="62" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D6" s="65" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16693,13 +16696,13 @@
         <v>86</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D7" s="65" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16707,13 +16710,13 @@
         <v>75</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D8" s="65" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16721,27 +16724,27 @@
         <v>68</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="62" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D10" s="64" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16749,13 +16752,13 @@
         <v>430</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17760,7 +17763,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="68" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B3" s="68" t="s">
         <v>62</v>
